--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE997D37-C670-422C-AD66-B8B9B2C77988}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD0460-CAE2-46B1-B02C-ACDC8CCBE025}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8252292-F22C-44D7-8192-0F84B00EF6F9}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="R65" sqref="R65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="K53" sqref="K53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3585,6 +3585,9 @@
       <c r="E43" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F43">
+        <v>5.649</v>
+      </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3601,6 +3604,9 @@
       </c>
       <c r="E44" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="F44">
+        <v>5.1689999999999996</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -3619,6 +3625,9 @@
       <c r="E45" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F45">
+        <v>4.2389999999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -3636,6 +3645,9 @@
       <c r="E46" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F46">
+        <v>7.37</v>
+      </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
@@ -3653,6 +3665,9 @@
       <c r="E47" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="F47">
+        <v>6.1909999999999998</v>
+      </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3670,8 +3685,11 @@
       <c r="E48" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>4.3849999999999998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>23</v>
       </c>
@@ -3687,8 +3705,11 @@
       <c r="E49" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>6.1040000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>24</v>
       </c>
@@ -3704,8 +3725,11 @@
       <c r="E50" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>6.81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>25</v>
       </c>
@@ -3721,14 +3745,17 @@
       <c r="E51" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>8.3930000000000007</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DD0460-CAE2-46B1-B02C-ACDC8CCBE025}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26ED45-36B2-4876-9932-1DD4F9BE4F1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="13">
   <si>
     <t>N</t>
   </si>
@@ -419,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8252292-F22C-44D7-8192-0F84B00EF6F9}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="R65" sqref="R65"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73:E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2714,8 +2714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="K53" sqref="K53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,10 +2763,10 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2">
-        <v>10.826000000000001</v>
+        <v>5.8049999999999997</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2783,10 +2783,10 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3">
-        <v>3.9079999999999999</v>
+        <v>6.0449999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2803,10 +2803,10 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4">
-        <v>4.673</v>
+        <v>6.4809999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2823,10 +2823,10 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5">
-        <v>7.15</v>
+        <v>10.068</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2843,10 +2843,10 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6">
-        <v>7.3330000000000002</v>
+        <v>6.8090000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2863,10 +2863,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7">
-        <v>6.3719999999999999</v>
+        <v>8.4420000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2883,10 +2883,10 @@
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8">
-        <v>4.8959999999999999</v>
+        <v>9.8719999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2903,10 +2903,10 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9">
-        <v>8.2319999999999993</v>
+        <v>9.548</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2923,10 +2923,10 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10">
-        <v>7.1070000000000002</v>
+        <v>8.84</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2943,10 +2943,10 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F11">
-        <v>9.6329999999999991</v>
+        <v>7.5190000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2963,10 +2963,10 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F12">
-        <v>4.9000000000000004</v>
+        <v>8.5570000000000004</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2983,10 +2983,10 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F13">
-        <v>4.6769999999999996</v>
+        <v>10.109</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3003,10 +3003,10 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F14">
-        <v>9.0969999999999995</v>
+        <v>8.4589999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3023,10 +3023,10 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F15">
-        <v>6.351</v>
+        <v>5.7779999999999996</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3043,10 +3043,10 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F16">
-        <v>8.3490000000000002</v>
+        <v>9.0109999999999992</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3063,195 +3063,195 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F17">
-        <v>7.2249999999999996</v>
+        <v>6.5629999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D18">
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18">
-        <v>6.016</v>
+        <v>8.5289999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D19">
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F19">
-        <v>6.5510000000000002</v>
+        <v>5.9640000000000004</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D20">
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F20">
-        <v>6.6680000000000001</v>
+        <v>6.4889999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D21">
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F21">
-        <v>9.6509999999999998</v>
+        <v>7.5439999999999996</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D22">
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F22">
-        <v>9.3230000000000004</v>
+        <v>9.8759999999999994</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D23">
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F23">
-        <v>6.2350000000000003</v>
+        <v>6.7530000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D24">
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F24">
-        <v>6.6829999999999998</v>
+        <v>9.7769999999999992</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D25">
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F25">
-        <v>7.1840000000000002</v>
+        <v>6.149</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D26">
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F26">
-        <v>6.75</v>
+        <v>7.5389999999999997</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -3263,15 +3263,15 @@
         <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F27">
-        <v>6.8639999999999999</v>
+        <v>9.2989999999999995</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -3283,15 +3283,15 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F28">
-        <v>4.6840000000000002</v>
+        <v>7.1619999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -3303,15 +3303,15 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F29">
-        <v>8.5839999999999996</v>
+        <v>6.8710000000000004</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -3323,15 +3323,15 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F30">
-        <v>6.6660000000000004</v>
+        <v>6.633</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -3343,15 +3343,15 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F31">
-        <v>5.415</v>
+        <v>7.9829999999999997</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -3363,15 +3363,15 @@
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F32">
-        <v>6.1420000000000003</v>
+        <v>4.5990000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -3383,379 +3383,22 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F33">
-        <v>9.5679999999999996</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>8</v>
-      </c>
-      <c r="B34" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34">
-        <v>6262</v>
-      </c>
-      <c r="D34">
-        <v>18</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F34">
-        <v>2.9079999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>9</v>
-      </c>
-      <c r="B35" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35">
-        <v>6262</v>
-      </c>
-      <c r="D35">
-        <v>18</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F35">
-        <v>7.8090000000000002</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>10</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>6262</v>
-      </c>
-      <c r="D36">
-        <v>18</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F36">
-        <v>9.73</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37">
-        <v>6262</v>
-      </c>
-      <c r="D37">
-        <v>18</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F37">
-        <v>5.57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>12</v>
-      </c>
-      <c r="B38" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38">
-        <v>6262</v>
-      </c>
-      <c r="D38">
-        <v>18</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F38">
-        <v>5.9710000000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39">
-        <v>6262</v>
-      </c>
-      <c r="D39">
-        <v>18</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F39">
-        <v>8.6180000000000003</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>14</v>
-      </c>
-      <c r="B40" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40">
-        <v>6262</v>
-      </c>
-      <c r="D40">
-        <v>18</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F40">
-        <v>7.3319999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>15</v>
-      </c>
-      <c r="B41" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41">
-        <v>6262</v>
-      </c>
-      <c r="D41">
-        <v>18</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F41">
-        <v>9.0220000000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42">
-        <v>6262</v>
-      </c>
-      <c r="D42">
-        <v>18</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F42">
-        <v>3.9079999999999999</v>
+        <v>6.9020000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>17</v>
-      </c>
-      <c r="B43" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43">
-        <v>6262</v>
-      </c>
-      <c r="D43">
-        <v>18</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F43">
-        <v>5.649</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>18</v>
-      </c>
-      <c r="B44" t="s">
-        <v>8</v>
-      </c>
-      <c r="C44">
-        <v>6262</v>
-      </c>
-      <c r="D44">
-        <v>18</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F44">
-        <v>5.1689999999999996</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>19</v>
-      </c>
-      <c r="B45" t="s">
-        <v>8</v>
-      </c>
-      <c r="C45">
-        <v>6262</v>
-      </c>
-      <c r="D45">
-        <v>18</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F45">
-        <v>4.2389999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>20</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>6262</v>
-      </c>
-      <c r="D46">
-        <v>18</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F46">
-        <v>7.37</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>21</v>
-      </c>
-      <c r="B47" t="s">
-        <v>8</v>
-      </c>
-      <c r="C47">
-        <v>6262</v>
-      </c>
-      <c r="D47">
-        <v>18</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47">
-        <v>6.1909999999999998</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>22</v>
-      </c>
-      <c r="B48" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48">
-        <v>6262</v>
-      </c>
-      <c r="D48">
-        <v>18</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48">
-        <v>4.3849999999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>23</v>
-      </c>
-      <c r="B49" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49">
-        <v>6262</v>
-      </c>
-      <c r="D49">
-        <v>18</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F49">
-        <v>6.1040000000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>24</v>
-      </c>
-      <c r="B50" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50">
-        <v>6262</v>
-      </c>
-      <c r="D50">
-        <v>18</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F50">
-        <v>6.81</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>25</v>
-      </c>
-      <c r="B51" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51">
-        <v>6262</v>
-      </c>
-      <c r="D51">
-        <v>18</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F51">
-        <v>8.3930000000000007</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="1"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E26ED45-36B2-4876-9932-1DD4F9BE4F1E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463452C0-EFED-409C-9D71-6664EDA3C0B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -100,9 +100,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2712,10 +2713,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:H122"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2768,6 +2769,9 @@
       <c r="F2">
         <v>5.8049999999999997</v>
       </c>
+      <c r="G2">
+        <v>0.14716499999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -2788,6 +2792,9 @@
       <c r="F3">
         <v>6.0449999999999999</v>
       </c>
+      <c r="G3">
+        <v>0.17190449999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -2808,6 +2815,9 @@
       <c r="F4">
         <v>6.4809999999999999</v>
       </c>
+      <c r="G4">
+        <v>0.101144</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -2828,6 +2838,9 @@
       <c r="F5">
         <v>10.068</v>
       </c>
+      <c r="G5">
+        <v>0.2134008</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -2847,6 +2860,9 @@
       </c>
       <c r="F6">
         <v>6.8090000000000002</v>
+      </c>
+      <c r="G6">
+        <v>0.1134154</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2868,6 +2884,9 @@
       <c r="F7">
         <v>8.4420000000000002</v>
       </c>
+      <c r="G7">
+        <v>0.63720359999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -2888,6 +2907,9 @@
       <c r="F8">
         <v>9.8719999999999999</v>
       </c>
+      <c r="G8">
+        <v>0.22218089999999999</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -2908,6 +2930,9 @@
       <c r="F9">
         <v>9.548</v>
       </c>
+      <c r="G9">
+        <v>0.19872329999999999</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -2928,6 +2953,9 @@
       <c r="F10">
         <v>8.84</v>
       </c>
+      <c r="G10">
+        <v>0.1790503</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -2947,6 +2975,9 @@
       </c>
       <c r="F11">
         <v>7.5190000000000001</v>
+      </c>
+      <c r="G11">
+        <v>1.356455</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2968,6 +2999,9 @@
       <c r="F12">
         <v>8.5570000000000004</v>
       </c>
+      <c r="G12">
+        <v>0.19398000000000001</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2988,6 +3022,9 @@
       <c r="F13">
         <v>10.109</v>
       </c>
+      <c r="G13">
+        <v>0.24277280000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -3008,6 +3045,9 @@
       <c r="F14">
         <v>8.4589999999999996</v>
       </c>
+      <c r="G14">
+        <v>0.1465205</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -3028,6 +3068,9 @@
       <c r="F15">
         <v>5.7779999999999996</v>
       </c>
+      <c r="G15">
+        <v>0.11774859999999999</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -3048,8 +3091,11 @@
       <c r="F16">
         <v>9.0109999999999992</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0.17758389999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3068,8 +3114,11 @@
       <c r="F17">
         <v>6.5629999999999997</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.15753249999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1</v>
       </c>
@@ -3088,8 +3137,12 @@
       <c r="F18">
         <v>8.5289999999999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>1.249565</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2</v>
       </c>
@@ -3108,8 +3161,11 @@
       <c r="F19">
         <v>5.9640000000000004</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.2120648</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>3</v>
       </c>
@@ -3128,8 +3184,11 @@
       <c r="F20">
         <v>6.4889999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.21396109999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>4</v>
       </c>
@@ -3148,8 +3207,11 @@
       <c r="F21">
         <v>7.5439999999999996</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.2271753</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -3168,8 +3230,11 @@
       <c r="F22">
         <v>9.8759999999999994</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>0.33984829999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>6</v>
       </c>
@@ -3188,8 +3253,11 @@
       <c r="F23">
         <v>6.7530000000000001</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1.833941</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>7</v>
       </c>
@@ -3208,8 +3276,11 @@
       <c r="F24">
         <v>9.7769999999999992</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>0.31931110000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>8</v>
       </c>
@@ -3228,8 +3299,11 @@
       <c r="F25">
         <v>6.149</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.2024435</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -3248,8 +3322,11 @@
       <c r="F26">
         <v>7.5389999999999997</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>0.26741490000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>10</v>
       </c>
@@ -3268,8 +3345,11 @@
       <c r="F27">
         <v>9.2989999999999995</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>0.60844489999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -3288,8 +3368,11 @@
       <c r="F28">
         <v>7.1619999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>0.16965959999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -3308,8 +3391,11 @@
       <c r="F29">
         <v>6.8710000000000004</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.18707389999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>13</v>
       </c>
@@ -3328,8 +3414,11 @@
       <c r="F30">
         <v>6.633</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>0.1464126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>14</v>
       </c>
@@ -3348,8 +3437,11 @@
       <c r="F31">
         <v>7.9829999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.1994126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>15</v>
       </c>
@@ -3368,8 +3460,11 @@
       <c r="F32">
         <v>4.5990000000000002</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1.4135500000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>16</v>
       </c>
@@ -3388,8 +3483,14 @@
       <c r="F33">
         <v>6.9020000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>2.1209579999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H35" s="2"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E43" s="1"/>
     </row>
     <row r="62" spans="5:5" x14ac:dyDescent="0.25">

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{463452C0-EFED-409C-9D71-6664EDA3C0B7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB169C9A-8164-4A5D-8244-0241079E3117}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="14">
   <si>
     <t>N</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>day8_resp</t>
+  </si>
+  <si>
+    <t>2018-09-03</t>
   </si>
 </sst>
 </file>
@@ -420,7 +423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8252292-F22C-44D7-8192-0F84B00EF6F9}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A115" workbookViewId="0">
       <selection activeCell="E73" sqref="E73:E103"/>
     </sheetView>
   </sheetViews>
@@ -2715,8 +2718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:H122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2764,7 +2767,7 @@
         <v>18</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2">
         <v>5.8049999999999997</v>
@@ -2787,7 +2790,7 @@
         <v>18</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3">
         <v>6.0449999999999999</v>
@@ -2810,7 +2813,7 @@
         <v>18</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4">
         <v>6.4809999999999999</v>
@@ -2833,7 +2836,7 @@
         <v>18</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5">
         <v>10.068</v>
@@ -2856,7 +2859,7 @@
         <v>18</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6">
         <v>6.8090000000000002</v>
@@ -2879,7 +2882,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>8.4420000000000002</v>
@@ -2902,7 +2905,7 @@
         <v>18</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8">
         <v>9.8719999999999999</v>
@@ -2925,7 +2928,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F9">
         <v>9.548</v>
@@ -2948,7 +2951,7 @@
         <v>18</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>8.84</v>
@@ -2971,7 +2974,7 @@
         <v>18</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F11">
         <v>7.5190000000000001</v>
@@ -2994,7 +2997,7 @@
         <v>18</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F12">
         <v>8.5570000000000004</v>
@@ -3017,7 +3020,7 @@
         <v>18</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F13">
         <v>10.109</v>
@@ -3040,7 +3043,7 @@
         <v>18</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>8.4589999999999996</v>
@@ -3063,7 +3066,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F15">
         <v>5.7779999999999996</v>
@@ -3086,7 +3089,7 @@
         <v>18</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F16">
         <v>9.0109999999999992</v>
@@ -3109,7 +3112,7 @@
         <v>18</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F17">
         <v>6.5629999999999997</v>
@@ -3132,7 +3135,7 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F18">
         <v>8.5289999999999999</v>
@@ -3156,7 +3159,7 @@
         <v>18</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>5.9640000000000004</v>
@@ -3179,7 +3182,7 @@
         <v>18</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F20">
         <v>6.4889999999999999</v>
@@ -3202,7 +3205,7 @@
         <v>18</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F21">
         <v>7.5439999999999996</v>
@@ -3225,7 +3228,7 @@
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F22">
         <v>9.8759999999999994</v>
@@ -3248,7 +3251,7 @@
         <v>18</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F23">
         <v>6.7530000000000001</v>
@@ -3271,7 +3274,7 @@
         <v>18</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F24">
         <v>9.7769999999999992</v>
@@ -3294,7 +3297,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F25">
         <v>6.149</v>
@@ -3317,7 +3320,7 @@
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F26">
         <v>7.5389999999999997</v>
@@ -3340,7 +3343,7 @@
         <v>18</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F27">
         <v>9.2989999999999995</v>
@@ -3363,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F28">
         <v>7.1619999999999999</v>
@@ -3386,7 +3389,7 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F29">
         <v>6.8710000000000004</v>
@@ -3409,7 +3412,7 @@
         <v>18</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F30">
         <v>6.633</v>
@@ -3432,7 +3435,7 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F31">
         <v>7.9829999999999997</v>
@@ -3455,7 +3458,7 @@
         <v>18</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F32">
         <v>4.5990000000000002</v>
@@ -3478,7 +3481,7 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F33">
         <v>6.9020000000000001</v>
@@ -3490,48 +3493,627 @@
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H35" s="2"/>
     </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>7000</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>7000</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>7000</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>7000</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>7000</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>7000</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E43" s="1"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E64" s="1"/>
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7000</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>7000</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7000</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>7000</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>7000</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>7000</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>7000</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>7000</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>7000</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7000</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>7000</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>7000</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7000</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7000</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7000</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>22</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>7000</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>6262</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>6262</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>6262</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>6262</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>6262</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>6262</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E65" s="1"/>
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>6262</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E66" s="1"/>
+      <c r="A66">
+        <v>8</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>6262</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E67" s="1"/>
+      <c r="A67">
+        <v>9</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>6262</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E68" s="1"/>
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>6262</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E69" s="1"/>
+      <c r="A69">
+        <v>11</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>6262</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E70" s="1"/>
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>6262</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E71" s="1"/>
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>6262</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>6262</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D73">
         <v>5</v>
@@ -3542,13 +4124,13 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D74">
         <v>5</v>
@@ -3559,13 +4141,13 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D75">
         <v>5</v>
@@ -3576,13 +4158,13 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D76">
         <v>5</v>
@@ -3593,13 +4175,13 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D77">
         <v>5</v>
@@ -3610,13 +4192,13 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D78">
         <v>5</v>
@@ -3627,13 +4209,13 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D79">
         <v>5</v>
@@ -3644,13 +4226,13 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D80">
         <v>5</v>
@@ -3659,719 +4241,131 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>9</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81">
-        <v>7000</v>
-      </c>
-      <c r="D81">
-        <v>5</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>10</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82">
-        <v>7000</v>
-      </c>
-      <c r="D82">
-        <v>5</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>11</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83">
-        <v>7000</v>
-      </c>
-      <c r="D83">
-        <v>5</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>12</v>
-      </c>
-      <c r="B84" t="s">
-        <v>7</v>
-      </c>
-      <c r="C84">
-        <v>7000</v>
-      </c>
-      <c r="D84">
-        <v>5</v>
-      </c>
-      <c r="E84" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>13</v>
-      </c>
-      <c r="B85" t="s">
-        <v>7</v>
-      </c>
-      <c r="C85">
-        <v>7000</v>
-      </c>
-      <c r="D85">
-        <v>5</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>14</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86">
-        <v>7000</v>
-      </c>
-      <c r="D86">
-        <v>5</v>
-      </c>
-      <c r="E86" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>15</v>
-      </c>
-      <c r="B87" t="s">
-        <v>7</v>
-      </c>
-      <c r="C87">
-        <v>7000</v>
-      </c>
-      <c r="D87">
-        <v>5</v>
-      </c>
-      <c r="E87" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>16</v>
-      </c>
-      <c r="B88" t="s">
-        <v>7</v>
-      </c>
-      <c r="C88">
-        <v>7000</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>17</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89">
-        <v>7000</v>
-      </c>
-      <c r="D89">
-        <v>5</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>18</v>
-      </c>
-      <c r="B90" t="s">
-        <v>7</v>
-      </c>
-      <c r="C90">
-        <v>7000</v>
-      </c>
-      <c r="D90">
-        <v>5</v>
-      </c>
-      <c r="E90" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>19</v>
-      </c>
-      <c r="B91" t="s">
-        <v>7</v>
-      </c>
-      <c r="C91">
-        <v>7000</v>
-      </c>
-      <c r="D91">
-        <v>5</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>20</v>
-      </c>
-      <c r="B92" t="s">
-        <v>7</v>
-      </c>
-      <c r="C92">
-        <v>7000</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93">
-        <v>21</v>
-      </c>
-      <c r="B93" t="s">
-        <v>7</v>
-      </c>
-      <c r="C93">
-        <v>7000</v>
-      </c>
-      <c r="D93">
-        <v>5</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94">
-        <v>22</v>
-      </c>
-      <c r="B94" t="s">
-        <v>7</v>
-      </c>
-      <c r="C94">
-        <v>7000</v>
-      </c>
-      <c r="D94">
-        <v>5</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95">
-        <v>23</v>
-      </c>
-      <c r="B95" t="s">
-        <v>7</v>
-      </c>
-      <c r="C95">
-        <v>7000</v>
-      </c>
-      <c r="D95">
-        <v>5</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96">
-        <v>24</v>
-      </c>
-      <c r="B96" t="s">
-        <v>7</v>
-      </c>
-      <c r="C96">
-        <v>7000</v>
-      </c>
-      <c r="D96">
-        <v>5</v>
-      </c>
-      <c r="E96" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97">
-        <v>25</v>
-      </c>
-      <c r="B97" t="s">
-        <v>7</v>
-      </c>
-      <c r="C97">
-        <v>7000</v>
-      </c>
-      <c r="D97">
-        <v>5</v>
-      </c>
-      <c r="E97" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98">
-        <v>1</v>
-      </c>
-      <c r="B98" t="s">
-        <v>8</v>
-      </c>
-      <c r="C98">
-        <v>6262</v>
-      </c>
-      <c r="D98">
-        <v>5</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99">
-        <v>2</v>
-      </c>
-      <c r="B99" t="s">
-        <v>8</v>
-      </c>
-      <c r="C99">
-        <v>6262</v>
-      </c>
-      <c r="D99">
-        <v>5</v>
-      </c>
-      <c r="E99" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100">
-        <v>3</v>
-      </c>
-      <c r="B100" t="s">
-        <v>8</v>
-      </c>
-      <c r="C100">
-        <v>6262</v>
-      </c>
-      <c r="D100">
-        <v>5</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101">
-        <v>4</v>
-      </c>
-      <c r="B101" t="s">
-        <v>8</v>
-      </c>
-      <c r="C101">
-        <v>6262</v>
-      </c>
-      <c r="D101">
-        <v>5</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102">
-        <v>6262</v>
-      </c>
-      <c r="D102">
-        <v>5</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103">
-        <v>6</v>
-      </c>
-      <c r="B103" t="s">
-        <v>8</v>
-      </c>
-      <c r="C103">
-        <v>6262</v>
-      </c>
-      <c r="D103">
-        <v>5</v>
-      </c>
-      <c r="E103" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104">
-        <v>7</v>
-      </c>
-      <c r="B104" t="s">
-        <v>8</v>
-      </c>
-      <c r="C104">
-        <v>6262</v>
-      </c>
-      <c r="D104">
-        <v>5</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105">
-        <v>8</v>
-      </c>
-      <c r="B105" t="s">
-        <v>8</v>
-      </c>
-      <c r="C105">
-        <v>6262</v>
-      </c>
-      <c r="D105">
-        <v>5</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106">
-        <v>9</v>
-      </c>
-      <c r="B106" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106">
-        <v>6262</v>
-      </c>
-      <c r="D106">
-        <v>5</v>
-      </c>
-      <c r="E106" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107">
-        <v>10</v>
-      </c>
-      <c r="B107" t="s">
-        <v>8</v>
-      </c>
-      <c r="C107">
-        <v>6262</v>
-      </c>
-      <c r="D107">
-        <v>5</v>
-      </c>
-      <c r="E107" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108">
-        <v>11</v>
-      </c>
-      <c r="B108" t="s">
-        <v>8</v>
-      </c>
-      <c r="C108">
-        <v>6262</v>
-      </c>
-      <c r="D108">
-        <v>5</v>
-      </c>
-      <c r="E108" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109">
-        <v>12</v>
-      </c>
-      <c r="B109" t="s">
-        <v>8</v>
-      </c>
-      <c r="C109">
-        <v>6262</v>
-      </c>
-      <c r="D109">
-        <v>5</v>
-      </c>
-      <c r="E109" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110">
-        <v>13</v>
-      </c>
-      <c r="B110" t="s">
-        <v>8</v>
-      </c>
-      <c r="C110">
-        <v>6262</v>
-      </c>
-      <c r="D110">
-        <v>5</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111">
-        <v>14</v>
-      </c>
-      <c r="B111" t="s">
-        <v>8</v>
-      </c>
-      <c r="C111">
-        <v>6262</v>
-      </c>
-      <c r="D111">
-        <v>5</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112">
-        <v>15</v>
-      </c>
-      <c r="B112" t="s">
-        <v>8</v>
-      </c>
-      <c r="C112">
-        <v>6262</v>
-      </c>
-      <c r="D112">
-        <v>5</v>
-      </c>
-      <c r="E112" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113">
-        <v>16</v>
-      </c>
-      <c r="B113" t="s">
-        <v>8</v>
-      </c>
-      <c r="C113">
-        <v>6262</v>
-      </c>
-      <c r="D113">
-        <v>5</v>
-      </c>
-      <c r="E113" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114">
-        <v>17</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114">
-        <v>6262</v>
-      </c>
-      <c r="D114">
-        <v>5</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115">
-        <v>18</v>
-      </c>
-      <c r="B115" t="s">
-        <v>8</v>
-      </c>
-      <c r="C115">
-        <v>6262</v>
-      </c>
-      <c r="D115">
-        <v>5</v>
-      </c>
-      <c r="E115" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116">
-        <v>19</v>
-      </c>
-      <c r="B116" t="s">
-        <v>8</v>
-      </c>
-      <c r="C116">
-        <v>6262</v>
-      </c>
-      <c r="D116">
-        <v>5</v>
-      </c>
-      <c r="E116" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117">
-        <v>20</v>
-      </c>
-      <c r="B117" t="s">
-        <v>8</v>
-      </c>
-      <c r="C117">
-        <v>6262</v>
-      </c>
-      <c r="D117">
-        <v>5</v>
-      </c>
-      <c r="E117" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A118">
-        <v>21</v>
-      </c>
-      <c r="B118" t="s">
-        <v>8</v>
-      </c>
-      <c r="C118">
-        <v>6262</v>
-      </c>
-      <c r="D118">
-        <v>5</v>
-      </c>
-      <c r="E118" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A119">
-        <v>22</v>
-      </c>
-      <c r="B119" t="s">
-        <v>8</v>
-      </c>
-      <c r="C119">
-        <v>6262</v>
-      </c>
-      <c r="D119">
-        <v>5</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>23</v>
-      </c>
-      <c r="B120" t="s">
-        <v>8</v>
-      </c>
-      <c r="C120">
-        <v>6262</v>
-      </c>
-      <c r="D120">
-        <v>5</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>24</v>
-      </c>
-      <c r="B121" t="s">
-        <v>8</v>
-      </c>
-      <c r="C121">
-        <v>6262</v>
-      </c>
-      <c r="D121">
-        <v>5</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A122">
-        <v>25</v>
-      </c>
-      <c r="B122" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122">
-        <v>6262</v>
-      </c>
-      <c r="D122">
-        <v>5</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>10</v>
-      </c>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E122" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB169C9A-8164-4A5D-8244-0241079E3117}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17B9F4-6D04-48B6-B0AD-CF7F6D3A51AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="16">
   <si>
     <t>N</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>2018-09-03</t>
+  </si>
+  <si>
+    <t>2018-09-05</t>
+  </si>
+  <si>
+    <t>2018-09-06</t>
   </si>
 </sst>
 </file>
@@ -2716,10 +2722,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
-  <dimension ref="A1:H122"/>
+  <dimension ref="A1:H167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P62" sqref="P62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3509,6 +3515,12 @@
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F37">
+        <v>5.0069999999999997</v>
+      </c>
+      <c r="G37">
+        <v>0.18906029999999999</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
@@ -3526,6 +3538,12 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F38">
+        <v>7.3209999999999997</v>
+      </c>
+      <c r="G38">
+        <v>0.15821160000000001</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -3543,6 +3561,12 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F39">
+        <v>7.4160000000000004</v>
+      </c>
+      <c r="G39">
+        <v>0.1536641</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -3560,6 +3584,12 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F40">
+        <v>8.3190000000000008</v>
+      </c>
+      <c r="G40">
+        <v>0.17679829999999999</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -3576,6 +3606,12 @@
       </c>
       <c r="E41" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F41">
+        <v>6.0019999999999998</v>
+      </c>
+      <c r="G41">
+        <v>0.2053673</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -3594,6 +3630,12 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F42">
+        <v>5.649</v>
+      </c>
+      <c r="G42">
+        <v>1.0174019999999999</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -3611,6 +3653,12 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F43">
+        <v>6.1379999999999999</v>
+      </c>
+      <c r="G43">
+        <v>0.1044467</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -3628,6 +3676,12 @@
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F44">
+        <v>8.7449999999999992</v>
+      </c>
+      <c r="G44">
+        <v>0.9198499</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -3645,6 +3699,12 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F45">
+        <v>5.3170000000000002</v>
+      </c>
+      <c r="G45">
+        <v>0.38161909999999999</v>
+      </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -3661,6 +3721,12 @@
       </c>
       <c r="E46" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="F46">
+        <v>4.6479999999999997</v>
+      </c>
+      <c r="G46">
+        <v>0.56212189999999995</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
@@ -3679,6 +3745,12 @@
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F47">
+        <v>5.7249999999999996</v>
+      </c>
+      <c r="G47">
+        <v>0.64083190000000001</v>
+      </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -3696,8 +3768,14 @@
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>4.7670000000000003</v>
+      </c>
+      <c r="G48">
+        <v>1.264148</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -3713,8 +3791,14 @@
       <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>4.9320000000000004</v>
+      </c>
+      <c r="G49">
+        <v>0.11530600000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -3730,8 +3814,14 @@
       <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>4.5549999999999997</v>
+      </c>
+      <c r="G50">
+        <v>0.13727739999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -3747,8 +3837,14 @@
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>7.2050000000000001</v>
+      </c>
+      <c r="G51">
+        <v>0.15357680000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -3764,8 +3860,14 @@
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="G52">
+        <v>0.17695540000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -3781,8 +3883,14 @@
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>7.976</v>
+      </c>
+      <c r="G53">
+        <v>0.21024010000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -3798,8 +3906,14 @@
       <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>6.5709999999999997</v>
+      </c>
+      <c r="G54">
+        <v>0.14555470000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -3815,8 +3929,14 @@
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>6.0380000000000003</v>
+      </c>
+      <c r="G55">
+        <v>1.5439890000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -3832,8 +3952,14 @@
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56">
+        <v>9.44</v>
+      </c>
+      <c r="G56">
+        <v>0.19205630000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -3849,8 +3975,11 @@
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G57" s="2">
+        <v>1.188377E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>22</v>
       </c>
@@ -3867,7 +3996,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1</v>
       </c>
@@ -3883,8 +4012,14 @@
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>5.5609999999999999</v>
+      </c>
+      <c r="G59">
+        <v>1.6958899999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2</v>
       </c>
@@ -3900,8 +4035,14 @@
       <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="G60">
+        <v>0.11819789999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>3</v>
       </c>
@@ -3917,8 +4058,14 @@
       <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>6.4669999999999996</v>
+      </c>
+      <c r="G61">
+        <v>0.21840129999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -3934,8 +4081,14 @@
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>7.5019999999999998</v>
+      </c>
+      <c r="G62">
+        <v>0.23425689999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>5</v>
       </c>
@@ -3951,8 +4104,14 @@
       <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="G63">
+        <v>0.7383672</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>6</v>
       </c>
@@ -3968,8 +4127,14 @@
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>5.8259999999999996</v>
+      </c>
+      <c r="G64">
+        <v>0.26830100000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>7</v>
       </c>
@@ -3985,8 +4150,14 @@
       <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>5.3689999999999998</v>
+      </c>
+      <c r="G65">
+        <v>0.1995035</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>8</v>
       </c>
@@ -4002,8 +4173,14 @@
       <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>6.6630000000000003</v>
+      </c>
+      <c r="G66">
+        <v>0.63095690000000004</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>9</v>
       </c>
@@ -4019,8 +4196,14 @@
       <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>2.6190000000000002</v>
+      </c>
+      <c r="G67">
+        <v>0.9564397</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>10</v>
       </c>
@@ -4036,8 +4219,14 @@
       <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>4.524</v>
+      </c>
+      <c r="G68">
+        <v>0.58071919999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>11</v>
       </c>
@@ -4053,8 +4242,14 @@
       <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>5.0869999999999997</v>
+      </c>
+      <c r="G69">
+        <v>0.25762570000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>12</v>
       </c>
@@ -4070,8 +4265,14 @@
       <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>5.44</v>
+      </c>
+      <c r="G70">
+        <v>0.90190090000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>13</v>
       </c>
@@ -4087,8 +4288,14 @@
       <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>7.1449999999999996</v>
+      </c>
+      <c r="G71">
+        <v>0.86759739999999996</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>14</v>
       </c>
@@ -4104,8 +4311,14 @@
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>3.8540000000000001</v>
+      </c>
+      <c r="G72">
+        <v>0.1320472</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>15</v>
       </c>
@@ -4121,8 +4334,14 @@
       <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>8.7159999999999993</v>
+      </c>
+      <c r="G73">
+        <v>1.1305559999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>16</v>
       </c>
@@ -4138,8 +4357,14 @@
       <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>7.16</v>
+      </c>
+      <c r="G74">
+        <v>0.20874290000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>17</v>
       </c>
@@ -4155,8 +4380,14 @@
       <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>6.1639999999999997</v>
+      </c>
+      <c r="G75">
+        <v>0.20217489999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>18</v>
       </c>
@@ -4172,8 +4403,14 @@
       <c r="E76" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>8.2590000000000003</v>
+      </c>
+      <c r="G76">
+        <v>0.89929000000000003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>19</v>
       </c>
@@ -4189,8 +4426,14 @@
       <c r="E77" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="G77">
+        <v>1.0932999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>20</v>
       </c>
@@ -4206,8 +4449,14 @@
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78">
+        <v>4.9619999999999997</v>
+      </c>
+      <c r="G78">
+        <v>0.13629550000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>21</v>
       </c>
@@ -4223,8 +4472,11 @@
       <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G79" s="2">
+        <v>3.3715780000000001E-3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>22</v>
       </c>
@@ -4241,131 +4493,1347 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E122" s="1"/>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>7000</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F82">
+        <v>7.7590000000000003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>2</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>7000</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F83">
+        <v>7.2460000000000004</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>3</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>7000</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F84">
+        <v>8.1509999999999998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>7000</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F85">
+        <v>4.8419999999999996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>7000</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F86">
+        <v>6.6520000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>6</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>7000</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <v>6.8259999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>7</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>7000</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F88">
+        <v>8.6470000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>7000</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F89">
+        <v>5.577</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>9</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>7000</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F90">
+        <v>7.27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>10</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>7000</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F91">
+        <v>9.8049999999999997</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>11</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>7000</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F92">
+        <v>5.1180000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>12</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>7000</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F93">
+        <v>10.250999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>7000</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F94">
+        <v>8.3729999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>14</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>7000</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F95">
+        <v>7.6829999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>15</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>7000</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F96">
+        <v>8.5640000000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>16</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>7000</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F97">
+        <v>9.1189999999999998</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>17</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>7000</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>18</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>7000</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>6262</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F100">
+        <v>4.7430000000000003</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2</v>
+      </c>
+      <c r="B101" t="s">
+        <v>8</v>
+      </c>
+      <c r="C101">
+        <v>6262</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F101">
+        <v>6.7009999999999996</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>3</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>6262</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F102">
+        <v>5.4969999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>4</v>
+      </c>
+      <c r="B103" t="s">
+        <v>8</v>
+      </c>
+      <c r="C103">
+        <v>6262</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F103">
+        <v>6.1740000000000004</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>8</v>
+      </c>
+      <c r="C104">
+        <v>6262</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F104">
+        <v>7.9329999999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>6</v>
+      </c>
+      <c r="B105" t="s">
+        <v>8</v>
+      </c>
+      <c r="C105">
+        <v>6262</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <v>5.7850000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>7</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>6262</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F106">
+        <v>6.7919999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>8</v>
+      </c>
+      <c r="B107" t="s">
+        <v>8</v>
+      </c>
+      <c r="C107">
+        <v>6262</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F107">
+        <v>5.5019999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>9</v>
+      </c>
+      <c r="B108" t="s">
+        <v>8</v>
+      </c>
+      <c r="C108">
+        <v>6262</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F108">
+        <v>7.38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>10</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109">
+        <v>6262</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F109">
+        <v>9.0559999999999992</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>11</v>
+      </c>
+      <c r="B110" t="s">
+        <v>8</v>
+      </c>
+      <c r="C110">
+        <v>6262</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>9.016</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>12</v>
+      </c>
+      <c r="B111" t="s">
+        <v>8</v>
+      </c>
+      <c r="C111">
+        <v>6262</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>3.8490000000000002</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>13</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>6262</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F112">
+        <v>5.9779999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>6262</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F113">
+        <v>6.6989999999999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>15</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>6262</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F114">
+        <v>6.4509999999999996</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>16</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>6262</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F115">
+        <v>6.6210000000000004</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>17</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>6262</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>18</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>6262</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>1</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>7000</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>7000</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>3</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>7000</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>4</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>7000</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>7000</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124" t="s">
+        <v>7</v>
+      </c>
+      <c r="C124">
+        <v>7000</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>7</v>
+      </c>
+      <c r="B125" t="s">
+        <v>7</v>
+      </c>
+      <c r="C125">
+        <v>7000</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>8</v>
+      </c>
+      <c r="B126" t="s">
+        <v>7</v>
+      </c>
+      <c r="C126">
+        <v>7000</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>9</v>
+      </c>
+      <c r="B127" t="s">
+        <v>7</v>
+      </c>
+      <c r="C127">
+        <v>7000</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>10</v>
+      </c>
+      <c r="B128" t="s">
+        <v>7</v>
+      </c>
+      <c r="C128">
+        <v>7000</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>11</v>
+      </c>
+      <c r="B129" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129">
+        <v>7000</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>12</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>7000</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>13</v>
+      </c>
+      <c r="B131" t="s">
+        <v>7</v>
+      </c>
+      <c r="C131">
+        <v>7000</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>7</v>
+      </c>
+      <c r="C132">
+        <v>7000</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>15</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>7000</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>16</v>
+      </c>
+      <c r="B134" t="s">
+        <v>7</v>
+      </c>
+      <c r="C134">
+        <v>7000</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>17</v>
+      </c>
+      <c r="B135" t="s">
+        <v>7</v>
+      </c>
+      <c r="C135">
+        <v>7000</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>18</v>
+      </c>
+      <c r="B136" t="s">
+        <v>7</v>
+      </c>
+      <c r="C136">
+        <v>7000</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>19</v>
+      </c>
+      <c r="B137" t="s">
+        <v>7</v>
+      </c>
+      <c r="C137">
+        <v>7000</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>20</v>
+      </c>
+      <c r="B138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138">
+        <v>7000</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>21</v>
+      </c>
+      <c r="B139" t="s">
+        <v>7</v>
+      </c>
+      <c r="C139">
+        <v>7000</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>22</v>
+      </c>
+      <c r="B140" t="s">
+        <v>7</v>
+      </c>
+      <c r="C140">
+        <v>7000</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>6262</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>6262</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>3</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>6262</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>4</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>6262</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>6262</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>6</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>6262</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>7</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>6262</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>6262</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>9</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>6262</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>10</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150">
+        <v>6262</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>11</v>
+      </c>
+      <c r="B151" t="s">
+        <v>8</v>
+      </c>
+      <c r="C151">
+        <v>6262</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>12</v>
+      </c>
+      <c r="B152" t="s">
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>6262</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>13</v>
+      </c>
+      <c r="B153" t="s">
+        <v>8</v>
+      </c>
+      <c r="C153">
+        <v>6262</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>14</v>
+      </c>
+      <c r="B154" t="s">
+        <v>8</v>
+      </c>
+      <c r="C154">
+        <v>6262</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>8</v>
+      </c>
+      <c r="C155">
+        <v>6262</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>16</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>6262</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>17</v>
+      </c>
+      <c r="B157" t="s">
+        <v>8</v>
+      </c>
+      <c r="C157">
+        <v>6262</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>18</v>
+      </c>
+      <c r="B158" t="s">
+        <v>8</v>
+      </c>
+      <c r="C158">
+        <v>6262</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>19</v>
+      </c>
+      <c r="B159" t="s">
+        <v>8</v>
+      </c>
+      <c r="C159">
+        <v>6262</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>20</v>
+      </c>
+      <c r="B160" t="s">
+        <v>8</v>
+      </c>
+      <c r="C160">
+        <v>6262</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>21</v>
+      </c>
+      <c r="B161" t="s">
+        <v>8</v>
+      </c>
+      <c r="C161">
+        <v>6262</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>22</v>
+      </c>
+      <c r="B162" t="s">
+        <v>8</v>
+      </c>
+      <c r="C162">
+        <v>6262</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E167" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E17B9F4-6D04-48B6-B0AD-CF7F6D3A51AE}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC9771-414A-42E1-8F29-3BC4B138A0EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="17">
   <si>
     <t>N</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>2018-09-06</t>
+  </si>
+  <si>
+    <t>2018-09-07</t>
   </si>
 </sst>
 </file>
@@ -2722,10 +2725,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
-  <dimension ref="A1:H167"/>
+  <dimension ref="A1:H208"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P62" sqref="P62"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="P177" sqref="P177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4493,10 +4496,10 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1</v>
       </c>
@@ -4515,8 +4518,11 @@
       <c r="F82">
         <v>7.7590000000000003</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G82">
+        <v>0.17485890000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2</v>
       </c>
@@ -4535,8 +4541,11 @@
       <c r="F83">
         <v>7.2460000000000004</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G83">
+        <v>0.20905670000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -4555,8 +4564,11 @@
       <c r="F84">
         <v>8.1509999999999998</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G84">
+        <v>0.2024793</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>4</v>
       </c>
@@ -4575,8 +4587,11 @@
       <c r="F85">
         <v>4.8419999999999996</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G85">
+        <v>0.1205624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>5</v>
       </c>
@@ -4595,8 +4610,11 @@
       <c r="F86">
         <v>6.6520000000000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G86">
+        <v>1.111605</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>6</v>
       </c>
@@ -4615,8 +4633,11 @@
       <c r="F87">
         <v>6.8259999999999996</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G87">
+        <v>0.2034647</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>7</v>
       </c>
@@ -4635,8 +4656,11 @@
       <c r="F88">
         <v>8.6470000000000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G88">
+        <v>0.20642460000000001</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>8</v>
       </c>
@@ -4655,8 +4679,14 @@
       <c r="F89">
         <v>5.577</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G89">
+        <v>0.1291235</v>
+      </c>
+      <c r="H89" s="2">
+        <v>9.5767140000000003E-4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>9</v>
       </c>
@@ -4675,8 +4705,11 @@
       <c r="F90">
         <v>7.27</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G90">
+        <v>0.16960610000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>10</v>
       </c>
@@ -4695,8 +4728,11 @@
       <c r="F91">
         <v>9.8049999999999997</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G91">
+        <v>0.21105109999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>11</v>
       </c>
@@ -4715,8 +4751,11 @@
       <c r="F92">
         <v>5.1180000000000003</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G92">
+        <v>1.058271</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>12</v>
       </c>
@@ -4735,8 +4774,11 @@
       <c r="F93">
         <v>10.250999999999999</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G93">
+        <v>0.19246640000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>13</v>
       </c>
@@ -4755,8 +4797,11 @@
       <c r="F94">
         <v>8.3729999999999993</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G94">
+        <v>0.22300320000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>14</v>
       </c>
@@ -4775,8 +4820,11 @@
       <c r="F95">
         <v>7.6829999999999998</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G95">
+        <v>0.79417789999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>15</v>
       </c>
@@ -4795,8 +4843,11 @@
       <c r="F96">
         <v>8.5640000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <v>0.2311898</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>16</v>
       </c>
@@ -4815,8 +4866,11 @@
       <c r="F97">
         <v>9.1189999999999998</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <v>0.18613950000000001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>17</v>
       </c>
@@ -4832,8 +4886,11 @@
       <c r="E98" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G98" s="2">
+        <v>2.2298930000000002E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>18</v>
       </c>
@@ -4850,7 +4907,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1</v>
       </c>
@@ -4869,8 +4926,11 @@
       <c r="F100">
         <v>4.7430000000000003</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <v>0.1455487</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2</v>
       </c>
@@ -4889,8 +4949,11 @@
       <c r="F101">
         <v>6.7009999999999996</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <v>0.22928129999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -4909,8 +4972,11 @@
       <c r="F102">
         <v>5.4969999999999999</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <v>0.96681899999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>4</v>
       </c>
@@ -4929,8 +4995,11 @@
       <c r="F103">
         <v>6.1740000000000004</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <v>1.1995400000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -4949,8 +5018,11 @@
       <c r="F104">
         <v>7.9329999999999998</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <v>0.38511960000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>6</v>
       </c>
@@ -4969,8 +5041,11 @@
       <c r="F105">
         <v>5.7850000000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <v>0.19059409999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>7</v>
       </c>
@@ -4989,8 +5064,14 @@
       <c r="F106">
         <v>6.7919999999999998</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <v>1.2454369999999999</v>
+      </c>
+      <c r="H106" s="2">
+        <v>-2.6287069999999999E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>8</v>
       </c>
@@ -5009,8 +5090,11 @@
       <c r="F107">
         <v>5.5019999999999998</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <v>0.21420939999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>9</v>
       </c>
@@ -5029,8 +5113,11 @@
       <c r="F108">
         <v>7.38</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <v>0.23242090000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>10</v>
       </c>
@@ -5049,8 +5136,11 @@
       <c r="F109">
         <v>9.0559999999999992</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <v>0.2921318</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>11</v>
       </c>
@@ -5069,8 +5159,11 @@
       <c r="F110">
         <v>9.016</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <v>0.29859560000000002</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>12</v>
       </c>
@@ -5089,8 +5182,11 @@
       <c r="F111">
         <v>3.8490000000000002</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <v>1.635443</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>13</v>
       </c>
@@ -5109,8 +5205,11 @@
       <c r="F112">
         <v>5.9779999999999998</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <v>1.161144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>14</v>
       </c>
@@ -5129,8 +5228,11 @@
       <c r="F113">
         <v>6.6989999999999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113">
+        <v>2.0432239999999999</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>15</v>
       </c>
@@ -5149,8 +5251,11 @@
       <c r="F114">
         <v>6.4509999999999996</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114">
+        <v>0.26693139999999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>16</v>
       </c>
@@ -5169,8 +5274,11 @@
       <c r="F115">
         <v>6.6210000000000004</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G115">
+        <v>0.27909010000000001</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>17</v>
       </c>
@@ -5186,8 +5294,11 @@
       <c r="E116" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="2">
+        <v>1.4219209999999999E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>18</v>
       </c>
@@ -5204,7 +5315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1</v>
       </c>
@@ -5217,8 +5328,11 @@
       <c r="E119" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>7.7320000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2</v>
       </c>
@@ -5231,8 +5345,11 @@
       <c r="E120" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>7.0119999999999996</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -5245,8 +5362,11 @@
       <c r="E121" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>5.6779999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>4</v>
       </c>
@@ -5259,8 +5379,11 @@
       <c r="E122" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>8.3190000000000008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>5</v>
       </c>
@@ -5273,8 +5396,11 @@
       <c r="E123" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>7.0039999999999996</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>6</v>
       </c>
@@ -5287,8 +5413,11 @@
       <c r="E124" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>5.718</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -5301,8 +5430,11 @@
       <c r="E125" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>6.7679999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>8</v>
       </c>
@@ -5315,8 +5447,11 @@
       <c r="E126" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>6.7519999999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>9</v>
       </c>
@@ -5329,8 +5464,11 @@
       <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>7.7160000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>10</v>
       </c>
@@ -5343,8 +5481,11 @@
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>6.7640000000000002</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11</v>
       </c>
@@ -5357,8 +5498,11 @@
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>5.6120000000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12</v>
       </c>
@@ -5371,8 +5515,11 @@
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>5.1059999999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>13</v>
       </c>
@@ -5385,8 +5532,11 @@
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>4.4950000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -5399,8 +5549,11 @@
       <c r="E132" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>8.0730000000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15</v>
       </c>
@@ -5413,8 +5566,11 @@
       <c r="E133" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>6.5289999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>16</v>
       </c>
@@ -5427,8 +5583,11 @@
       <c r="E134" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>5.3639999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>17</v>
       </c>
@@ -5441,8 +5600,11 @@
       <c r="E135" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>6.7370000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18</v>
       </c>
@@ -5455,8 +5617,11 @@
       <c r="E136" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>4.5449999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>19</v>
       </c>
@@ -5469,8 +5634,11 @@
       <c r="E137" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>7.4130000000000003</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20</v>
       </c>
@@ -5483,8 +5651,11 @@
       <c r="E138" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>6.7569999999999997</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>21</v>
       </c>
@@ -5498,7 +5669,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>22</v>
       </c>
@@ -5512,7 +5683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5525,8 +5696,11 @@
       <c r="E141" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>3.766</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5539,8 +5713,11 @@
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>8.7149999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -5553,8 +5730,11 @@
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>5.508</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -5567,8 +5747,11 @@
       <c r="E144" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144">
+        <v>6.2750000000000004</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -5581,8 +5764,11 @@
       <c r="E145" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>6.234</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -5595,8 +5781,11 @@
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>5.6260000000000003</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -5609,8 +5798,11 @@
       <c r="E147" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>6.0309999999999997</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
@@ -5623,8 +5815,11 @@
       <c r="E148" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>3.601</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9</v>
       </c>
@@ -5637,8 +5832,11 @@
       <c r="E149" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>5.726</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -5651,8 +5849,11 @@
       <c r="E150" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>4.7050000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>11</v>
       </c>
@@ -5665,8 +5866,11 @@
       <c r="E151" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>6.1280000000000001</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>12</v>
       </c>
@@ -5679,8 +5883,11 @@
       <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>4.79</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>13</v>
       </c>
@@ -5693,8 +5900,11 @@
       <c r="E153" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>10.789</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5707,8 +5917,11 @@
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>6.9569999999999999</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>15</v>
       </c>
@@ -5721,8 +5934,11 @@
       <c r="E155" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>10.737</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>16</v>
       </c>
@@ -5735,8 +5951,11 @@
       <c r="E156" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>6.907</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17</v>
       </c>
@@ -5749,8 +5968,11 @@
       <c r="E157" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>6.2869999999999999</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18</v>
       </c>
@@ -5763,8 +5985,11 @@
       <c r="E158" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>8.2249999999999996</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>19</v>
       </c>
@@ -5777,8 +6002,11 @@
       <c r="E159" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>8.1829999999999998</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20</v>
       </c>
@@ -5790,6 +6018,9 @@
       </c>
       <c r="E160" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="F160">
+        <v>8.6929999999999996</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -5824,16 +6055,623 @@
       <c r="E163" s="1"/>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E164" s="1"/>
+      <c r="A164">
+        <v>1</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>7000</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E165" s="1"/>
+      <c r="A165">
+        <v>2</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>7000</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E166" s="1"/>
+      <c r="A166">
+        <v>3</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>7000</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E167" s="1"/>
+      <c r="A167">
+        <v>4</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>7000</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>7000</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>6</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>7000</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>7000</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>8</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>7000</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>7000</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>10</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>7000</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>11</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>7000</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>12</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>7000</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>13</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>7000</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>14</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>7000</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>15</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>7000</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>16</v>
+      </c>
+      <c r="B179" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179">
+        <v>7000</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>7000</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>18</v>
+      </c>
+      <c r="B181" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181">
+        <v>7000</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>19</v>
+      </c>
+      <c r="B182" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182">
+        <v>7000</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>20</v>
+      </c>
+      <c r="B183" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183">
+        <v>7000</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>21</v>
+      </c>
+      <c r="B184" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184">
+        <v>7000</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>22</v>
+      </c>
+      <c r="B185" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185">
+        <v>7000</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>1</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>6262</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>2</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>6262</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>3</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>6262</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>4</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <v>6262</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>6262</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>6</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>6262</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>7</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>6262</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>8</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <v>6262</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>9</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194">
+        <v>6262</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195">
+        <v>6262</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>11</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <v>6262</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>12</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>6262</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>13</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198">
+        <v>6262</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>14</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>6262</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>15</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <v>6262</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>16</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>6262</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>17</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>6262</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>6262</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>19</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204">
+        <v>6262</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>20</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205">
+        <v>6262</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>21</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206">
+        <v>6262</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>22</v>
+      </c>
+      <c r="B207" t="s">
+        <v>8</v>
+      </c>
+      <c r="C207">
+        <v>6262</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E208" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CEC9771-414A-42E1-8F29-3BC4B138A0EF}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7297CE4A-18CD-4AE5-9533-462E76BE26C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="19">
   <si>
     <t>N</t>
   </si>
@@ -78,15 +78,28 @@
   <si>
     <t>2018-09-07</t>
   </si>
+  <si>
+    <t>2018-09-10</t>
+  </si>
+  <si>
+    <t>don’t count</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -112,10 +125,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2725,10 +2739,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
-  <dimension ref="A1:H208"/>
+  <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
-      <selection activeCell="P177" sqref="P177"/>
+    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="Q93" sqref="Q93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2737,6 +2751,7 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -4682,7 +4697,7 @@
       <c r="G89">
         <v>0.1291235</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="3">
         <v>9.5767140000000003E-4</v>
       </c>
     </row>
@@ -5067,7 +5082,7 @@
       <c r="G106">
         <v>1.2454369999999999</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="3">
         <v>-2.6287069999999999E-2</v>
       </c>
     </row>
@@ -5325,11 +5340,17 @@
       <c r="C119">
         <v>7000</v>
       </c>
+      <c r="D119">
+        <v>7</v>
+      </c>
       <c r="E119" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F119">
         <v>7.7320000000000002</v>
+      </c>
+      <c r="G119">
+        <v>1.388817</v>
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
@@ -5342,11 +5363,17 @@
       <c r="C120">
         <v>7000</v>
       </c>
+      <c r="D120">
+        <v>7</v>
+      </c>
       <c r="E120" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F120">
         <v>7.0119999999999996</v>
+      </c>
+      <c r="G120">
+        <v>0.667327</v>
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
@@ -5359,11 +5386,17 @@
       <c r="C121">
         <v>7000</v>
       </c>
+      <c r="D121">
+        <v>7</v>
+      </c>
       <c r="E121" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F121">
         <v>5.6779999999999999</v>
+      </c>
+      <c r="G121">
+        <v>0.15877769999999999</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -5376,12 +5409,18 @@
       <c r="C122">
         <v>7000</v>
       </c>
+      <c r="D122">
+        <v>7</v>
+      </c>
       <c r="E122" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F122">
         <v>8.3190000000000008</v>
       </c>
+      <c r="G122">
+        <v>0.17922289999999999</v>
+      </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123">
@@ -5393,11 +5432,17 @@
       <c r="C123">
         <v>7000</v>
       </c>
+      <c r="D123">
+        <v>7</v>
+      </c>
       <c r="E123" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F123">
         <v>7.0039999999999996</v>
+      </c>
+      <c r="G123">
+        <v>0.20274700000000001</v>
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
@@ -5410,12 +5455,18 @@
       <c r="C124">
         <v>7000</v>
       </c>
+      <c r="D124">
+        <v>7</v>
+      </c>
       <c r="E124" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F124">
         <v>5.718</v>
       </c>
+      <c r="G124">
+        <v>0.28520489999999998</v>
+      </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -5427,12 +5478,18 @@
       <c r="C125">
         <v>7000</v>
       </c>
+      <c r="D125">
+        <v>7</v>
+      </c>
       <c r="E125" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F125">
         <v>6.7679999999999998</v>
       </c>
+      <c r="G125">
+        <v>0.881135</v>
+      </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126">
@@ -5444,12 +5501,18 @@
       <c r="C126">
         <v>7000</v>
       </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
       <c r="E126" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F126">
         <v>6.7519999999999998</v>
       </c>
+      <c r="G126">
+        <v>0.183862</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -5461,12 +5524,18 @@
       <c r="C127">
         <v>7000</v>
       </c>
+      <c r="D127">
+        <v>7</v>
+      </c>
       <c r="E127" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F127">
         <v>7.7160000000000002</v>
       </c>
+      <c r="G127">
+        <v>0.22682640000000001</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128">
@@ -5478,14 +5547,20 @@
       <c r="C128">
         <v>7000</v>
       </c>
+      <c r="D128">
+        <v>7</v>
+      </c>
       <c r="E128" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F128">
         <v>6.7640000000000002</v>
       </c>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G128">
+        <v>0.14562</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>11</v>
       </c>
@@ -5495,14 +5570,23 @@
       <c r="C129">
         <v>7000</v>
       </c>
+      <c r="D129">
+        <v>7</v>
+      </c>
       <c r="E129" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F129">
         <v>5.6120000000000001</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G129" s="3">
+        <v>5.3474059999999999E-3</v>
+      </c>
+      <c r="H129" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>12</v>
       </c>
@@ -5512,14 +5596,20 @@
       <c r="C130">
         <v>7000</v>
       </c>
+      <c r="D130">
+        <v>7</v>
+      </c>
       <c r="E130" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F130">
         <v>5.1059999999999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G130">
+        <v>0.60048619999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>13</v>
       </c>
@@ -5529,14 +5619,20 @@
       <c r="C131">
         <v>7000</v>
       </c>
+      <c r="D131">
+        <v>7</v>
+      </c>
       <c r="E131" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F131">
         <v>4.4950000000000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G131">
+        <v>1.0629299999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>14</v>
       </c>
@@ -5546,14 +5642,20 @@
       <c r="C132">
         <v>7000</v>
       </c>
+      <c r="D132">
+        <v>7</v>
+      </c>
       <c r="E132" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F132">
         <v>8.0730000000000004</v>
       </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G132">
+        <v>0.21698500000000001</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>15</v>
       </c>
@@ -5563,14 +5665,20 @@
       <c r="C133">
         <v>7000</v>
       </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
       <c r="E133" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F133">
         <v>6.5289999999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G133">
+        <v>0.73353679999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>16</v>
       </c>
@@ -5580,14 +5688,20 @@
       <c r="C134">
         <v>7000</v>
       </c>
+      <c r="D134">
+        <v>7</v>
+      </c>
       <c r="E134" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F134">
         <v>5.3639999999999999</v>
       </c>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134">
+        <v>0.14943819999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>17</v>
       </c>
@@ -5597,14 +5711,20 @@
       <c r="C135">
         <v>7000</v>
       </c>
+      <c r="D135">
+        <v>7</v>
+      </c>
       <c r="E135" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F135">
         <v>6.7370000000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G135">
+        <v>0.242761</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>18</v>
       </c>
@@ -5613,6 +5733,9 @@
       </c>
       <c r="C136">
         <v>7000</v>
+      </c>
+      <c r="D136">
+        <v>7</v>
       </c>
       <c r="E136" s="1" t="s">
         <v>15</v>
@@ -5620,8 +5743,11 @@
       <c r="F136">
         <v>4.5449999999999999</v>
       </c>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G136">
+        <v>0.1421586</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>19</v>
       </c>
@@ -5631,14 +5757,20 @@
       <c r="C137">
         <v>7000</v>
       </c>
+      <c r="D137">
+        <v>7</v>
+      </c>
       <c r="E137" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F137">
         <v>7.4130000000000003</v>
       </c>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G137">
+        <v>0.16333629999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>20</v>
       </c>
@@ -5648,14 +5780,20 @@
       <c r="C138">
         <v>7000</v>
       </c>
+      <c r="D138">
+        <v>7</v>
+      </c>
       <c r="E138" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F138">
         <v>6.7569999999999997</v>
       </c>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G138">
+        <v>0.15993099999999999</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>21</v>
       </c>
@@ -5665,11 +5803,17 @@
       <c r="C139">
         <v>7000</v>
       </c>
+      <c r="D139">
+        <v>7</v>
+      </c>
       <c r="E139" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G139" s="2">
+        <v>9.0395089999999994E-3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>22</v>
       </c>
@@ -5679,11 +5823,14 @@
       <c r="C140">
         <v>7000</v>
       </c>
+      <c r="D140">
+        <v>7</v>
+      </c>
       <c r="E140" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>1</v>
       </c>
@@ -5693,14 +5840,20 @@
       <c r="C141">
         <v>6262</v>
       </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
       <c r="E141" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F141">
         <v>3.766</v>
       </c>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G141">
+        <v>1.7039960000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -5710,14 +5863,20 @@
       <c r="C142">
         <v>6262</v>
       </c>
+      <c r="D142">
+        <v>7</v>
+      </c>
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F142">
         <v>8.7149999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G142">
+        <v>0.34832839999999998</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>3</v>
       </c>
@@ -5727,14 +5886,20 @@
       <c r="C143">
         <v>6262</v>
       </c>
+      <c r="D143">
+        <v>7</v>
+      </c>
       <c r="E143" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F143">
         <v>5.508</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G143">
+        <v>0.34399220000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>4</v>
       </c>
@@ -5744,14 +5909,20 @@
       <c r="C144">
         <v>6262</v>
       </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
       <c r="E144" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F144">
         <v>6.2750000000000004</v>
       </c>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G144">
+        <v>1.1524479999999999</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>5</v>
       </c>
@@ -5760,6 +5931,9 @@
       </c>
       <c r="C145">
         <v>6262</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
       </c>
       <c r="E145" s="1" t="s">
         <v>15</v>
@@ -5767,8 +5941,11 @@
       <c r="F145">
         <v>6.234</v>
       </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G145">
+        <v>0.3211812</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>6</v>
       </c>
@@ -5778,14 +5955,20 @@
       <c r="C146">
         <v>6262</v>
       </c>
+      <c r="D146">
+        <v>7</v>
+      </c>
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F146">
         <v>5.6260000000000003</v>
       </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G146">
+        <v>0.2279011</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>7</v>
       </c>
@@ -5794,6 +5977,9 @@
       </c>
       <c r="C147">
         <v>6262</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
       </c>
       <c r="E147" s="1" t="s">
         <v>15</v>
@@ -5801,8 +5987,11 @@
       <c r="F147">
         <v>6.0309999999999997</v>
       </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G147">
+        <v>0.2073864</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>8</v>
       </c>
@@ -5811,6 +6000,9 @@
       </c>
       <c r="C148">
         <v>6262</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
       </c>
       <c r="E148" s="1" t="s">
         <v>15</v>
@@ -5818,8 +6010,11 @@
       <c r="F148">
         <v>3.601</v>
       </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G148">
+        <v>0.54043189999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>9</v>
       </c>
@@ -5828,6 +6023,9 @@
       </c>
       <c r="C149">
         <v>6262</v>
+      </c>
+      <c r="D149">
+        <v>7</v>
       </c>
       <c r="E149" s="1" t="s">
         <v>15</v>
@@ -5835,8 +6033,11 @@
       <c r="F149">
         <v>5.726</v>
       </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G149">
+        <v>0.21327950000000001</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>10</v>
       </c>
@@ -5845,6 +6046,9 @@
       </c>
       <c r="C150">
         <v>6262</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
       </c>
       <c r="E150" s="1" t="s">
         <v>15</v>
@@ -5852,8 +6056,11 @@
       <c r="F150">
         <v>4.7050000000000001</v>
       </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G150">
+        <v>0.2297526</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>11</v>
       </c>
@@ -5863,14 +6070,20 @@
       <c r="C151">
         <v>6262</v>
       </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
       <c r="E151" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F151">
         <v>6.1280000000000001</v>
       </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G151">
+        <v>0.28525640000000002</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>12</v>
       </c>
@@ -5880,14 +6093,20 @@
       <c r="C152">
         <v>6262</v>
       </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
       <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F152">
         <v>4.79</v>
       </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G152">
+        <v>0.1956107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>13</v>
       </c>
@@ -5897,14 +6116,20 @@
       <c r="C153">
         <v>6262</v>
       </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
       <c r="E153" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F153">
         <v>10.789</v>
       </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G153">
+        <v>1.2769140000000001</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>14</v>
       </c>
@@ -5914,14 +6139,20 @@
       <c r="C154">
         <v>6262</v>
       </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F154">
         <v>6.9569999999999999</v>
       </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G154">
+        <v>0.41075489999999998</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>15</v>
       </c>
@@ -5931,14 +6162,20 @@
       <c r="C155">
         <v>6262</v>
       </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
       <c r="E155" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F155">
         <v>10.737</v>
       </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G155">
+        <v>0.47033940000000002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>16</v>
       </c>
@@ -5948,14 +6185,20 @@
       <c r="C156">
         <v>6262</v>
       </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
       <c r="E156" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F156">
         <v>6.907</v>
       </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G156">
+        <v>0.30630819999999997</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>17</v>
       </c>
@@ -5965,14 +6208,20 @@
       <c r="C157">
         <v>6262</v>
       </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
       <c r="E157" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F157">
         <v>6.2869999999999999</v>
       </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G157">
+        <v>0.61462220000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>18</v>
       </c>
@@ -5981,6 +6230,9 @@
       </c>
       <c r="C158">
         <v>6262</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>15</v>
@@ -5988,8 +6240,11 @@
       <c r="F158">
         <v>8.2249999999999996</v>
       </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G158">
+        <v>0.26901229999999998</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>19</v>
       </c>
@@ -5999,14 +6254,20 @@
       <c r="C159">
         <v>6262</v>
       </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
       <c r="E159" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F159">
         <v>8.1829999999999998</v>
       </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G159">
+        <v>0.28358919999999999</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>20</v>
       </c>
@@ -6016,14 +6277,20 @@
       <c r="C160">
         <v>6262</v>
       </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
       <c r="E160" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F160">
         <v>8.6929999999999996</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G160">
+        <v>0.38269589999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>21</v>
       </c>
@@ -6033,11 +6300,17 @@
       <c r="C161">
         <v>6262</v>
       </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
       <c r="E161" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G161" s="2">
+        <v>1.146221E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>22</v>
       </c>
@@ -6047,14 +6320,17 @@
       <c r="C162">
         <v>6262</v>
       </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
       <c r="E162" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -6064,11 +6340,17 @@
       <c r="C164">
         <v>7000</v>
       </c>
+      <c r="D164">
+        <v>8</v>
+      </c>
       <c r="E164" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>3.274</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
@@ -6078,11 +6360,17 @@
       <c r="C165">
         <v>7000</v>
       </c>
+      <c r="D165">
+        <v>8</v>
+      </c>
       <c r="E165" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>4.6219999999999999</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -6092,11 +6380,17 @@
       <c r="C166">
         <v>7000</v>
       </c>
+      <c r="D166">
+        <v>8</v>
+      </c>
       <c r="E166" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>6.08</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -6106,11 +6400,17 @@
       <c r="C167">
         <v>7000</v>
       </c>
+      <c r="D167">
+        <v>8</v>
+      </c>
       <c r="E167" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>4.1669999999999998</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -6119,12 +6419,18 @@
       </c>
       <c r="C168">
         <v>7000</v>
+      </c>
+      <c r="D168">
+        <v>8</v>
       </c>
       <c r="E168" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>3.75</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -6134,11 +6440,17 @@
       <c r="C169">
         <v>7000</v>
       </c>
+      <c r="D169">
+        <v>8</v>
+      </c>
       <c r="E169" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>6.117</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -6147,12 +6459,18 @@
       </c>
       <c r="C170">
         <v>7000</v>
+      </c>
+      <c r="D170">
+        <v>8</v>
       </c>
       <c r="E170" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>4.37</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -6161,12 +6479,18 @@
       </c>
       <c r="C171">
         <v>7000</v>
+      </c>
+      <c r="D171">
+        <v>8</v>
       </c>
       <c r="E171" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>5.4930000000000003</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -6175,12 +6499,18 @@
       </c>
       <c r="C172">
         <v>7000</v>
+      </c>
+      <c r="D172">
+        <v>8</v>
       </c>
       <c r="E172" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>6.5529999999999999</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10</v>
       </c>
@@ -6189,12 +6519,18 @@
       </c>
       <c r="C173">
         <v>7000</v>
+      </c>
+      <c r="D173">
+        <v>8</v>
       </c>
       <c r="E173" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>6.7380000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11</v>
       </c>
@@ -6204,11 +6540,17 @@
       <c r="C174">
         <v>7000</v>
       </c>
+      <c r="D174">
+        <v>8</v>
+      </c>
       <c r="E174" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>8.5559999999999992</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12</v>
       </c>
@@ -6218,11 +6560,17 @@
       <c r="C175">
         <v>7000</v>
       </c>
+      <c r="D175">
+        <v>8</v>
+      </c>
       <c r="E175" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>8.9909999999999997</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>13</v>
       </c>
@@ -6232,11 +6580,17 @@
       <c r="C176">
         <v>7000</v>
       </c>
+      <c r="D176">
+        <v>8</v>
+      </c>
       <c r="E176" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>3.2410000000000001</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>14</v>
       </c>
@@ -6246,11 +6600,17 @@
       <c r="C177">
         <v>7000</v>
       </c>
+      <c r="D177">
+        <v>8</v>
+      </c>
       <c r="E177" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>15</v>
       </c>
@@ -6260,11 +6620,17 @@
       <c r="C178">
         <v>7000</v>
       </c>
+      <c r="D178">
+        <v>8</v>
+      </c>
       <c r="E178" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>4.6689999999999996</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>16</v>
       </c>
@@ -6274,11 +6640,17 @@
       <c r="C179">
         <v>7000</v>
       </c>
+      <c r="D179">
+        <v>8</v>
+      </c>
       <c r="E179" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>4.6680000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>17</v>
       </c>
@@ -6288,11 +6660,14 @@
       <c r="C180">
         <v>7000</v>
       </c>
+      <c r="D180">
+        <v>8</v>
+      </c>
       <c r="E180" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -6301,379 +6676,1016 @@
       </c>
       <c r="C181">
         <v>7000</v>
+      </c>
+      <c r="D181">
+        <v>8</v>
       </c>
       <c r="E181" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182">
-        <v>7000</v>
+        <v>6262</v>
+      </c>
+      <c r="D182">
+        <v>8</v>
       </c>
       <c r="E182" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>5.7610000000000001</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183">
-        <v>7000</v>
+        <v>6262</v>
+      </c>
+      <c r="D183">
+        <v>8</v>
       </c>
       <c r="E183" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>7.7670000000000003</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184">
-        <v>7000</v>
+        <v>6262</v>
+      </c>
+      <c r="D184">
+        <v>8</v>
       </c>
       <c r="E184" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>6.1159999999999997</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185">
-        <v>7000</v>
+        <v>6262</v>
+      </c>
+      <c r="D185">
+        <v>8</v>
       </c>
       <c r="E185" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>7.7670000000000003</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
       </c>
       <c r="C186">
         <v>6262</v>
+      </c>
+      <c r="D186">
+        <v>8</v>
       </c>
       <c r="E186" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>8.6280000000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
       </c>
       <c r="C187">
         <v>6262</v>
+      </c>
+      <c r="D187">
+        <v>8</v>
       </c>
       <c r="E187" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>4.7610000000000001</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
       </c>
       <c r="C188">
         <v>6262</v>
+      </c>
+      <c r="D188">
+        <v>8</v>
       </c>
       <c r="E188" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>7.0960000000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
       </c>
       <c r="C189">
         <v>6262</v>
+      </c>
+      <c r="D189">
+        <v>8</v>
       </c>
       <c r="E189" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189">
+        <v>6.4580000000000002</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
       </c>
       <c r="C190">
         <v>6262</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
       </c>
       <c r="E190" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>5.4619999999999997</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
       </c>
       <c r="C191">
         <v>6262</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
       </c>
       <c r="E191" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>6.867</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
       </c>
       <c r="C192">
         <v>6262</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
       </c>
       <c r="E192" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>7.3310000000000004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
       </c>
       <c r="C193">
         <v>6262</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
       </c>
       <c r="E193" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>4.9930000000000003</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
       </c>
       <c r="C194">
         <v>6262</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
       </c>
       <c r="E194" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>5.7560000000000002</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
       </c>
       <c r="C195">
         <v>6262</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
       </c>
       <c r="E195" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>6.3339999999999996</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
       </c>
       <c r="C196">
         <v>6262</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
       </c>
       <c r="E196" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>5.2670000000000003</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
       </c>
       <c r="C197">
         <v>6262</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
       </c>
       <c r="E197" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>6.7370000000000001</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
       </c>
       <c r="C198">
         <v>6262</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
       </c>
       <c r="E198" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
       </c>
       <c r="C199">
         <v>6262</v>
+      </c>
+      <c r="D199">
+        <v>8</v>
       </c>
       <c r="E199" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>1</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>7000</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>2</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>7000</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>3</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>7000</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>4</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>7000</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>7000</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>6</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>7000</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>7</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>7000</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>8</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>7000</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>9</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>7000</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>10</v>
+      </c>
+      <c r="B218" t="s">
+        <v>7</v>
+      </c>
+      <c r="C218">
+        <v>7000</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>11</v>
+      </c>
+      <c r="B219" t="s">
+        <v>7</v>
+      </c>
+      <c r="C219">
+        <v>7000</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>12</v>
+      </c>
+      <c r="B220" t="s">
+        <v>7</v>
+      </c>
+      <c r="C220">
+        <v>7000</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>13</v>
+      </c>
+      <c r="B221" t="s">
+        <v>7</v>
+      </c>
+      <c r="C221">
+        <v>7000</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>14</v>
+      </c>
+      <c r="B222" t="s">
+        <v>7</v>
+      </c>
+      <c r="C222">
+        <v>7000</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
         <v>15</v>
       </c>
-      <c r="B200" t="s">
-        <v>8</v>
-      </c>
-      <c r="C200">
-        <v>6262</v>
-      </c>
-      <c r="E200" s="1" t="s">
+      <c r="B223" t="s">
+        <v>7</v>
+      </c>
+      <c r="C223">
+        <v>7000</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A201">
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>7000</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>17</v>
+      </c>
+      <c r="B225" t="s">
+        <v>7</v>
+      </c>
+      <c r="C225">
+        <v>7000</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>18</v>
+      </c>
+      <c r="B226" t="s">
+        <v>7</v>
+      </c>
+      <c r="C226">
+        <v>7000</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>19</v>
+      </c>
+      <c r="B227" t="s">
+        <v>7</v>
+      </c>
+      <c r="C227">
+        <v>7000</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>20</v>
+      </c>
+      <c r="B228" t="s">
+        <v>7</v>
+      </c>
+      <c r="C228">
+        <v>7000</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>21</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229">
+        <v>7000</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>22</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230">
+        <v>7000</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>1</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231">
+        <v>6262</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>2</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>6262</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>3</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233">
+        <v>6262</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>4</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>6262</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>6262</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>8</v>
+      </c>
+      <c r="C236">
+        <v>6262</v>
+      </c>
+      <c r="E236" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>7</v>
+      </c>
+      <c r="B237" t="s">
+        <v>8</v>
+      </c>
+      <c r="C237">
+        <v>6262</v>
+      </c>
+      <c r="E237" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>8</v>
+      </c>
+      <c r="B238" t="s">
+        <v>8</v>
+      </c>
+      <c r="C238">
+        <v>6262</v>
+      </c>
+      <c r="E238" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>9</v>
+      </c>
+      <c r="B239" t="s">
+        <v>8</v>
+      </c>
+      <c r="C239">
+        <v>6262</v>
+      </c>
+      <c r="E239" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>10</v>
+      </c>
+      <c r="B240" t="s">
+        <v>8</v>
+      </c>
+      <c r="C240">
+        <v>6262</v>
+      </c>
+      <c r="E240" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>11</v>
+      </c>
+      <c r="B241" t="s">
+        <v>8</v>
+      </c>
+      <c r="C241">
+        <v>6262</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>12</v>
+      </c>
+      <c r="B242" t="s">
+        <v>8</v>
+      </c>
+      <c r="C242">
+        <v>6262</v>
+      </c>
+      <c r="E242" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>13</v>
+      </c>
+      <c r="B243" t="s">
+        <v>8</v>
+      </c>
+      <c r="C243">
+        <v>6262</v>
+      </c>
+      <c r="E243" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>14</v>
+      </c>
+      <c r="B244" t="s">
+        <v>8</v>
+      </c>
+      <c r="C244">
+        <v>6262</v>
+      </c>
+      <c r="E244" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>15</v>
+      </c>
+      <c r="B245" t="s">
+        <v>8</v>
+      </c>
+      <c r="C245">
+        <v>6262</v>
+      </c>
+      <c r="E245" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246">
         <v>16</v>
       </c>
-      <c r="B201" t="s">
-        <v>8</v>
-      </c>
-      <c r="C201">
-        <v>6262</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A202">
+      <c r="B246" t="s">
+        <v>8</v>
+      </c>
+      <c r="C246">
+        <v>6262</v>
+      </c>
+      <c r="E246" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B202" t="s">
-        <v>8</v>
-      </c>
-      <c r="C202">
-        <v>6262</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A203">
-        <v>18</v>
-      </c>
-      <c r="B203" t="s">
-        <v>8</v>
-      </c>
-      <c r="C203">
-        <v>6262</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A204">
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>17</v>
+      </c>
+      <c r="B247" t="s">
+        <v>8</v>
+      </c>
+      <c r="C247">
+        <v>6262</v>
+      </c>
+      <c r="E247" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>18</v>
+      </c>
+      <c r="B248" t="s">
+        <v>8</v>
+      </c>
+      <c r="C248">
+        <v>6262</v>
+      </c>
+      <c r="E248" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249">
         <v>19</v>
       </c>
-      <c r="B204" t="s">
-        <v>8</v>
-      </c>
-      <c r="C204">
-        <v>6262</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A205">
+      <c r="B249" t="s">
+        <v>8</v>
+      </c>
+      <c r="C249">
+        <v>6262</v>
+      </c>
+      <c r="E249" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250">
         <v>20</v>
       </c>
-      <c r="B205" t="s">
-        <v>8</v>
-      </c>
-      <c r="C205">
-        <v>6262</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A206">
+      <c r="B250" t="s">
+        <v>8</v>
+      </c>
+      <c r="C250">
+        <v>6262</v>
+      </c>
+      <c r="E250" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251">
         <v>21</v>
       </c>
-      <c r="B206" t="s">
-        <v>8</v>
-      </c>
-      <c r="C206">
-        <v>6262</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A207">
+      <c r="B251" t="s">
+        <v>8</v>
+      </c>
+      <c r="C251">
+        <v>6262</v>
+      </c>
+      <c r="E251" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252">
         <v>22</v>
       </c>
-      <c r="B207" t="s">
-        <v>8</v>
-      </c>
-      <c r="C207">
-        <v>6262</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E208" s="1"/>
+      <c r="B252" t="s">
+        <v>8</v>
+      </c>
+      <c r="C252">
+        <v>6262</v>
+      </c>
+      <c r="E252" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E257" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7297CE4A-18CD-4AE5-9533-462E76BE26C7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328003AA-BC50-43CB-8101-8277EA18968A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -2741,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:H257"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" workbookViewId="0">
-      <selection activeCell="Q93" sqref="Q93"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="J219" sqref="J219"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6290,7 +6290,7 @@
         <v>0.38269589999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>21</v>
       </c>
@@ -6310,7 +6310,7 @@
         <v>1.146221E-3</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>22</v>
       </c>
@@ -6327,10 +6327,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -6349,8 +6349,11 @@
       <c r="F164">
         <v>3.274</v>
       </c>
-    </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G164">
+        <v>0.82288329999999998</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2</v>
       </c>
@@ -6369,8 +6372,11 @@
       <c r="F165">
         <v>4.6219999999999999</v>
       </c>
-    </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G165">
+        <v>0.51720109999999997</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>3</v>
       </c>
@@ -6389,8 +6395,11 @@
       <c r="F166">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G166">
+        <v>0.6084716</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>4</v>
       </c>
@@ -6409,8 +6418,11 @@
       <c r="F167">
         <v>4.1669999999999998</v>
       </c>
-    </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G167">
+        <v>8.0785399999999993E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>5</v>
       </c>
@@ -6429,8 +6441,14 @@
       <c r="F168">
         <v>3.75</v>
       </c>
-    </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G168">
+        <v>0.75198960000000004</v>
+      </c>
+      <c r="H168" s="3">
+        <v>1.42E-3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>6</v>
       </c>
@@ -6449,8 +6467,11 @@
       <c r="F169">
         <v>6.117</v>
       </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G169">
+        <v>0.20011860000000001</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>7</v>
       </c>
@@ -6469,8 +6490,11 @@
       <c r="F170">
         <v>4.37</v>
       </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G170">
+        <v>0.1509016</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>8</v>
       </c>
@@ -6489,8 +6513,14 @@
       <c r="F171">
         <v>5.4930000000000003</v>
       </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G171">
+        <v>0.19139790000000001</v>
+      </c>
+      <c r="H171" s="3">
+        <v>4.9700000000000005E-4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>9</v>
       </c>
@@ -6509,8 +6539,11 @@
       <c r="F172">
         <v>6.5529999999999999</v>
       </c>
-    </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G172">
+        <v>0.2372909</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>10</v>
       </c>
@@ -6529,8 +6562,11 @@
       <c r="F173">
         <v>6.7380000000000004</v>
       </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G173">
+        <v>0.86936270000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>11</v>
       </c>
@@ -6549,8 +6585,11 @@
       <c r="F174">
         <v>8.5559999999999992</v>
       </c>
-    </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G174">
+        <v>0.25653969999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>12</v>
       </c>
@@ -6569,8 +6608,11 @@
       <c r="F175">
         <v>8.9909999999999997</v>
       </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G175">
+        <v>0.24831110000000001</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>13</v>
       </c>
@@ -6589,8 +6631,11 @@
       <c r="F176">
         <v>3.2410000000000001</v>
       </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G176">
+        <v>0.92852429999999997</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>14</v>
       </c>
@@ -6609,8 +6654,11 @@
       <c r="F177">
         <v>6.83</v>
       </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G177">
+        <v>0.185974</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>15</v>
       </c>
@@ -6629,8 +6677,11 @@
       <c r="F178">
         <v>4.6689999999999996</v>
       </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G178">
+        <v>0.14155490000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>16</v>
       </c>
@@ -6649,8 +6700,11 @@
       <c r="F179">
         <v>4.6680000000000001</v>
       </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G179" s="2">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>17</v>
       </c>
@@ -6666,8 +6720,11 @@
       <c r="E180" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G180" s="2">
+        <v>7.9100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>18</v>
       </c>
@@ -6684,7 +6741,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -6703,8 +6760,11 @@
       <c r="F182">
         <v>5.7610000000000001</v>
       </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G182">
+        <v>0.26785409999999998</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2</v>
       </c>
@@ -6723,8 +6783,11 @@
       <c r="F183">
         <v>7.7670000000000003</v>
       </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G183">
+        <v>0.32504749999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>3</v>
       </c>
@@ -6743,8 +6806,11 @@
       <c r="F184">
         <v>6.1159999999999997</v>
       </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G184">
+        <v>0.29072930000000002</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>4</v>
       </c>
@@ -6763,8 +6829,14 @@
       <c r="F185">
         <v>7.7670000000000003</v>
       </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G185">
+        <v>0.23869840000000001</v>
+      </c>
+      <c r="H185" s="3">
+        <v>2.33E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>5</v>
       </c>
@@ -6783,8 +6855,11 @@
       <c r="F186">
         <v>8.6280000000000001</v>
       </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G186">
+        <v>1.6884380000000001</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>6</v>
       </c>
@@ -6803,8 +6878,11 @@
       <c r="F187">
         <v>4.7610000000000001</v>
       </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G187">
+        <v>0.19245409999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>7</v>
       </c>
@@ -6823,8 +6901,11 @@
       <c r="F188">
         <v>7.0960000000000001</v>
       </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G188">
+        <v>0.26387480000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>8</v>
       </c>
@@ -6843,8 +6924,14 @@
       <c r="F189">
         <v>6.4580000000000002</v>
       </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G189">
+        <v>0.28541640000000001</v>
+      </c>
+      <c r="H189" s="3">
+        <v>-2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>9</v>
       </c>
@@ -6863,8 +6950,11 @@
       <c r="F190">
         <v>5.4619999999999997</v>
       </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G190">
+        <v>0.17862149999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>10</v>
       </c>
@@ -6883,8 +6973,11 @@
       <c r="F191">
         <v>6.867</v>
       </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G191">
+        <v>0.27038050000000002</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>11</v>
       </c>
@@ -6903,8 +6996,11 @@
       <c r="F192">
         <v>7.3310000000000004</v>
       </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G192">
+        <v>1.2676460000000001</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>12</v>
       </c>
@@ -6923,8 +7019,11 @@
       <c r="F193">
         <v>4.9930000000000003</v>
       </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G193">
+        <v>0.2200878</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>13</v>
       </c>
@@ -6943,8 +7042,11 @@
       <c r="F194">
         <v>5.7560000000000002</v>
       </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G194">
+        <v>0.28338449999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>14</v>
       </c>
@@ -6963,8 +7065,11 @@
       <c r="F195">
         <v>6.3339999999999996</v>
       </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G195">
+        <v>0.32565460000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>15</v>
       </c>
@@ -6983,8 +7088,11 @@
       <c r="F196">
         <v>5.2670000000000003</v>
       </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G196">
+        <v>1.919926</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>16</v>
       </c>
@@ -7003,8 +7111,11 @@
       <c r="F197">
         <v>6.7370000000000001</v>
       </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G197">
+        <v>0.34860059999999998</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>17</v>
       </c>
@@ -7020,8 +7131,11 @@
       <c r="E198" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G198">
+        <v>2.0878399999999998E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>18</v>
       </c>
@@ -7038,19 +7152,19 @@
         <v>16</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E204" s="1"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E205" s="1"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E206" s="1"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E207" s="1"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="E208" s="1"/>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{328003AA-BC50-43CB-8101-8277EA18968A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A1D16-E9A3-488F-8AB5-F234D557BFC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="21">
   <si>
     <t>N</t>
   </si>
@@ -84,6 +84,12 @@
   <si>
     <t>don’t count</t>
   </si>
+  <si>
+    <t>purge time</t>
+  </si>
+  <si>
+    <t>if error for respiration</t>
+  </si>
 </sst>
 </file>
 
@@ -125,11 +131,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8252292-F22C-44D7-8192-0F84B00EF6F9}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E73" sqref="E73:E103"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2739,10 +2747,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
-  <dimension ref="A1:H257"/>
+  <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="J219" sqref="J219"/>
+    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
+      <selection activeCell="P166" sqref="P166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2751,10 +2759,11 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2776,8 +2785,14 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2799,8 +2814,11 @@
       <c r="G2">
         <v>0.14716499999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2" s="5">
+        <v>0.67569444444444438</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2823,7 +2841,7 @@
         <v>0.17190449999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2846,7 +2864,7 @@
         <v>0.101144</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2869,7 +2887,7 @@
         <v>0.2134008</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>0.1134154</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>0.63720359999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>0.22218089999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>0.19872329999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2984,7 +3002,7 @@
         <v>0.1790503</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3007,7 +3025,7 @@
         <v>1.356455</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3030,7 +3048,7 @@
         <v>0.19398000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3053,7 +3071,7 @@
         <v>0.24277280000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3076,7 +3094,7 @@
         <v>0.1465205</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3099,7 +3117,7 @@
         <v>0.11774859999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3122,7 +3140,7 @@
         <v>0.17758389999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3145,15 +3163,12 @@
         <v>0.15753249999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C18">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D18">
         <v>18</v>
@@ -3161,23 +3176,14 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
-        <v>8.5289999999999999</v>
-      </c>
-      <c r="G18">
-        <v>1.249565</v>
-      </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>2</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D19">
         <v>18</v>
@@ -3185,16 +3191,13 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F19">
-        <v>5.9640000000000004</v>
-      </c>
-      <c r="G19">
-        <v>0.2120648</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="5">
+        <v>0.6791666666666667</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
         <v>8</v>
@@ -3209,15 +3212,18 @@
         <v>13</v>
       </c>
       <c r="F20">
-        <v>6.4889999999999999</v>
+        <v>8.5289999999999999</v>
       </c>
       <c r="G20">
-        <v>0.21396109999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.249565</v>
+      </c>
+      <c r="I20" s="5">
+        <v>0.67986111111111114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
@@ -3232,15 +3238,15 @@
         <v>13</v>
       </c>
       <c r="F21">
-        <v>7.5439999999999996</v>
+        <v>5.9640000000000004</v>
       </c>
       <c r="G21">
-        <v>0.2271753</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2120648</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B22" t="s">
         <v>8</v>
@@ -3255,15 +3261,15 @@
         <v>13</v>
       </c>
       <c r="F22">
-        <v>9.8759999999999994</v>
+        <v>6.4889999999999999</v>
       </c>
       <c r="G22">
-        <v>0.33984829999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.21396109999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B23" t="s">
         <v>8</v>
@@ -3278,15 +3284,15 @@
         <v>13</v>
       </c>
       <c r="F23">
-        <v>6.7530000000000001</v>
+        <v>7.5439999999999996</v>
       </c>
       <c r="G23">
-        <v>1.833941</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2271753</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
         <v>8</v>
@@ -3301,15 +3307,15 @@
         <v>13</v>
       </c>
       <c r="F24">
-        <v>9.7769999999999992</v>
+        <v>9.8759999999999994</v>
       </c>
       <c r="G24">
-        <v>0.31931110000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.33984829999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
         <v>8</v>
@@ -3324,15 +3330,15 @@
         <v>13</v>
       </c>
       <c r="F25">
-        <v>6.149</v>
+        <v>6.7530000000000001</v>
       </c>
       <c r="G25">
-        <v>0.2024435</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.833941</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B26" t="s">
         <v>8</v>
@@ -3347,15 +3353,15 @@
         <v>13</v>
       </c>
       <c r="F26">
-        <v>7.5389999999999997</v>
+        <v>9.7769999999999992</v>
       </c>
       <c r="G26">
-        <v>0.26741490000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.31931110000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B27" t="s">
         <v>8</v>
@@ -3370,15 +3376,15 @@
         <v>13</v>
       </c>
       <c r="F27">
-        <v>9.2989999999999995</v>
+        <v>6.149</v>
       </c>
       <c r="G27">
-        <v>0.60844489999999996</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2024435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
         <v>8</v>
@@ -3393,15 +3399,15 @@
         <v>13</v>
       </c>
       <c r="F28">
-        <v>7.1619999999999999</v>
+        <v>7.5389999999999997</v>
       </c>
       <c r="G28">
-        <v>0.16965959999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.26741490000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B29" t="s">
         <v>8</v>
@@ -3416,15 +3422,15 @@
         <v>13</v>
       </c>
       <c r="F29">
-        <v>6.8710000000000004</v>
+        <v>9.2989999999999995</v>
       </c>
       <c r="G29">
-        <v>0.18707389999999999</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.60844489999999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>8</v>
@@ -3439,15 +3445,15 @@
         <v>13</v>
       </c>
       <c r="F30">
-        <v>6.633</v>
+        <v>7.1619999999999999</v>
       </c>
       <c r="G30">
-        <v>0.1464126</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.16965959999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B31" t="s">
         <v>8</v>
@@ -3462,15 +3468,15 @@
         <v>13</v>
       </c>
       <c r="F31">
-        <v>7.9829999999999997</v>
+        <v>6.8710000000000004</v>
       </c>
       <c r="G31">
-        <v>0.1994126</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.18707389999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
@@ -3485,15 +3491,15 @@
         <v>13</v>
       </c>
       <c r="F32">
-        <v>4.5990000000000002</v>
+        <v>6.633</v>
       </c>
       <c r="G32">
-        <v>1.4135500000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1464126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
@@ -3508,653 +3514,697 @@
         <v>13</v>
       </c>
       <c r="F33">
+        <v>7.9829999999999997</v>
+      </c>
+      <c r="G33">
+        <v>0.1994126</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>15</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6262</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34">
+        <v>4.5990000000000002</v>
+      </c>
+      <c r="G34">
+        <v>1.4135500000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>16</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6262</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35">
         <v>6.9020000000000001</v>
       </c>
-      <c r="G33">
+      <c r="G35">
         <v>2.1209579999999999</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H35" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>6262</v>
+      </c>
+      <c r="D36">
+        <v>18</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
+        <v>18</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>6262</v>
+      </c>
+      <c r="D37">
+        <v>18</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.68333333333333324</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
         <v>1</v>
       </c>
-      <c r="B37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C37">
-        <v>7000</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F37">
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>7000</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39">
         <v>5.0069999999999997</v>
       </c>
-      <c r="G37">
+      <c r="G39">
         <v>0.18906029999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="I39" s="5">
+        <v>0.69236111111111109</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>2</v>
       </c>
-      <c r="B38" t="s">
-        <v>7</v>
-      </c>
-      <c r="C38">
-        <v>7000</v>
-      </c>
-      <c r="D38">
-        <v>5</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F38">
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>7000</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40">
         <v>7.3209999999999997</v>
       </c>
-      <c r="G38">
+      <c r="G40">
         <v>0.15821160000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
         <v>3</v>
       </c>
-      <c r="B39" t="s">
-        <v>7</v>
-      </c>
-      <c r="C39">
-        <v>7000</v>
-      </c>
-      <c r="D39">
-        <v>5</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F39">
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>7000</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41">
         <v>7.4160000000000004</v>
       </c>
-      <c r="G39">
+      <c r="G41">
         <v>0.1536641</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
         <v>4</v>
       </c>
-      <c r="B40" t="s">
-        <v>7</v>
-      </c>
-      <c r="C40">
-        <v>7000</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F40">
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>7000</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42">
         <v>8.3190000000000008</v>
       </c>
-      <c r="G40">
+      <c r="G42">
         <v>0.17679829999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>7</v>
-      </c>
-      <c r="C41">
-        <v>7000</v>
-      </c>
-      <c r="D41">
-        <v>5</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F41">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7000</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43">
         <v>6.0019999999999998</v>
       </c>
-      <c r="G41">
+      <c r="G43">
         <v>0.2053673</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
         <v>6</v>
       </c>
-      <c r="B42" t="s">
-        <v>7</v>
-      </c>
-      <c r="C42">
-        <v>7000</v>
-      </c>
-      <c r="D42">
-        <v>5</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F42">
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>7000</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44">
         <v>5.649</v>
       </c>
-      <c r="G42">
+      <c r="G44">
         <v>1.0174019999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>7</v>
-      </c>
-      <c r="B43" t="s">
-        <v>7</v>
-      </c>
-      <c r="C43">
-        <v>7000</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F43">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>7</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7000</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45">
         <v>6.1379999999999999</v>
       </c>
-      <c r="G43">
+      <c r="G45">
         <v>0.1044467</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>8</v>
-      </c>
-      <c r="B44" t="s">
-        <v>7</v>
-      </c>
-      <c r="C44">
-        <v>7000</v>
-      </c>
-      <c r="D44">
-        <v>5</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F44">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>7000</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46">
         <v>8.7449999999999992</v>
       </c>
-      <c r="G44">
+      <c r="G46">
         <v>0.9198499</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>9</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>7000</v>
-      </c>
-      <c r="D45">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F45">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>9</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>7000</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47">
         <v>5.3170000000000002</v>
       </c>
-      <c r="G45">
+      <c r="G47">
         <v>0.38161909999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>10</v>
-      </c>
-      <c r="B46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46">
-        <v>7000</v>
-      </c>
-      <c r="D46">
-        <v>5</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F46">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>10</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>7000</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48">
         <v>4.6479999999999997</v>
       </c>
-      <c r="G46">
+      <c r="G48">
         <v>0.56212189999999995</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
         <v>11</v>
       </c>
-      <c r="B47" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47">
-        <v>7000</v>
-      </c>
-      <c r="D47">
-        <v>5</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F47">
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>7000</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49">
         <v>5.7249999999999996</v>
       </c>
-      <c r="G47">
+      <c r="G49">
         <v>0.64083190000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
         <v>12</v>
       </c>
-      <c r="B48" t="s">
-        <v>7</v>
-      </c>
-      <c r="C48">
-        <v>7000</v>
-      </c>
-      <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F48">
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>7000</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50">
         <v>4.7670000000000003</v>
       </c>
-      <c r="G48">
+      <c r="G50">
         <v>1.264148</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>13</v>
       </c>
-      <c r="B49" t="s">
-        <v>7</v>
-      </c>
-      <c r="C49">
-        <v>7000</v>
-      </c>
-      <c r="D49">
-        <v>5</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F49">
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>7000</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51">
         <v>4.9320000000000004</v>
       </c>
-      <c r="G49">
+      <c r="G51">
         <v>0.11530600000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>14</v>
       </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>7000</v>
-      </c>
-      <c r="D50">
-        <v>5</v>
-      </c>
-      <c r="E50" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F50">
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7000</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52">
         <v>4.5549999999999997</v>
       </c>
-      <c r="G50">
+      <c r="G52">
         <v>0.13727739999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
         <v>15</v>
       </c>
-      <c r="B51" t="s">
-        <v>7</v>
-      </c>
-      <c r="C51">
-        <v>7000</v>
-      </c>
-      <c r="D51">
-        <v>5</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F51">
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>7000</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53">
         <v>7.2050000000000001</v>
       </c>
-      <c r="G51">
+      <c r="G53">
         <v>0.15357680000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
-        <v>7</v>
-      </c>
-      <c r="C52">
-        <v>7000</v>
-      </c>
-      <c r="D52">
-        <v>5</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F52">
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>7000</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54">
         <v>8.1199999999999992</v>
       </c>
-      <c r="G52">
+      <c r="G54">
         <v>0.17695540000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
         <v>17</v>
       </c>
-      <c r="B53" t="s">
-        <v>7</v>
-      </c>
-      <c r="C53">
-        <v>7000</v>
-      </c>
-      <c r="D53">
-        <v>5</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F53">
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7000</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55">
         <v>7.976</v>
       </c>
-      <c r="G53">
+      <c r="G55">
         <v>0.21024010000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>18</v>
-      </c>
-      <c r="B54" t="s">
-        <v>7</v>
-      </c>
-      <c r="C54">
-        <v>7000</v>
-      </c>
-      <c r="D54">
-        <v>5</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F54">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>18</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7000</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56">
         <v>6.5709999999999997</v>
       </c>
-      <c r="G54">
+      <c r="G56">
         <v>0.14555470000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
         <v>19</v>
       </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>7000</v>
-      </c>
-      <c r="D55">
-        <v>5</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F55">
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7000</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57">
         <v>6.0380000000000003</v>
       </c>
-      <c r="G55">
+      <c r="G57">
         <v>1.5439890000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>20</v>
       </c>
-      <c r="B56" t="s">
-        <v>7</v>
-      </c>
-      <c r="C56">
-        <v>7000</v>
-      </c>
-      <c r="D56">
-        <v>5</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F56">
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>7000</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58">
         <v>9.44</v>
       </c>
-      <c r="G56">
+      <c r="G58">
         <v>0.19205630000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
         <v>21</v>
       </c>
-      <c r="B57" t="s">
-        <v>7</v>
-      </c>
-      <c r="C57">
-        <v>7000</v>
-      </c>
-      <c r="D57">
-        <v>5</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>7000</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G59" s="2">
         <v>1.188377E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>22</v>
       </c>
-      <c r="B58" t="s">
-        <v>7</v>
-      </c>
-      <c r="C58">
-        <v>7000</v>
-      </c>
-      <c r="D58">
-        <v>5</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I60" s="5">
+        <v>0.69444444444444453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
         <v>1</v>
       </c>
-      <c r="B59" t="s">
-        <v>8</v>
-      </c>
-      <c r="C59">
-        <v>6262</v>
-      </c>
-      <c r="D59">
-        <v>5</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F59">
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>6262</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61">
         <v>5.5609999999999999</v>
       </c>
-      <c r="G59">
+      <c r="G61">
         <v>1.6958899999999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="I61" s="5">
+        <v>0.69513888888888886</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
         <v>2</v>
       </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>6262</v>
-      </c>
-      <c r="D60">
-        <v>5</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F60">
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>6262</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62">
         <v>8.2899999999999991</v>
       </c>
-      <c r="G60">
+      <c r="G62">
         <v>0.11819789999999999</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
         <v>3</v>
       </c>
-      <c r="B61" t="s">
-        <v>8</v>
-      </c>
-      <c r="C61">
-        <v>6262</v>
-      </c>
-      <c r="D61">
-        <v>5</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F61">
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>6262</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63">
         <v>6.4669999999999996</v>
       </c>
-      <c r="G61">
+      <c r="G63">
         <v>0.21840129999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
         <v>4</v>
       </c>
-      <c r="B62" t="s">
-        <v>8</v>
-      </c>
-      <c r="C62">
-        <v>6262</v>
-      </c>
-      <c r="D62">
-        <v>5</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62">
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>6262</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64">
         <v>7.5019999999999998</v>
       </c>
-      <c r="G62">
+      <c r="G64">
         <v>0.23425689999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>8</v>
-      </c>
-      <c r="C63">
-        <v>6262</v>
-      </c>
-      <c r="D63">
-        <v>5</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F63">
-        <v>4.9989999999999997</v>
-      </c>
-      <c r="G63">
-        <v>0.7383672</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>6</v>
-      </c>
-      <c r="B64" t="s">
-        <v>8</v>
-      </c>
-      <c r="C64">
-        <v>6262</v>
-      </c>
-      <c r="D64">
-        <v>5</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F64">
-        <v>5.8259999999999996</v>
-      </c>
-      <c r="G64">
-        <v>0.26830100000000001</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B65" t="s">
         <v>8</v>
@@ -4169,15 +4219,15 @@
         <v>10</v>
       </c>
       <c r="F65">
-        <v>5.3689999999999998</v>
+        <v>4.9989999999999997</v>
       </c>
       <c r="G65">
-        <v>0.1995035</v>
+        <v>0.7383672</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B66" t="s">
         <v>8</v>
@@ -4192,15 +4242,15 @@
         <v>10</v>
       </c>
       <c r="F66">
-        <v>6.6630000000000003</v>
+        <v>5.8259999999999996</v>
       </c>
       <c r="G66">
-        <v>0.63095690000000004</v>
+        <v>0.26830100000000001</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -4215,15 +4265,15 @@
         <v>10</v>
       </c>
       <c r="F67">
-        <v>2.6190000000000002</v>
+        <v>5.3689999999999998</v>
       </c>
       <c r="G67">
-        <v>0.9564397</v>
+        <v>0.1995035</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B68" t="s">
         <v>8</v>
@@ -4238,15 +4288,15 @@
         <v>10</v>
       </c>
       <c r="F68">
-        <v>4.524</v>
+        <v>6.6630000000000003</v>
       </c>
       <c r="G68">
-        <v>0.58071919999999999</v>
+        <v>0.63095690000000004</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B69" t="s">
         <v>8</v>
@@ -4261,15 +4311,15 @@
         <v>10</v>
       </c>
       <c r="F69">
-        <v>5.0869999999999997</v>
+        <v>2.6190000000000002</v>
       </c>
       <c r="G69">
-        <v>0.25762570000000001</v>
+        <v>0.9564397</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B70" t="s">
         <v>8</v>
@@ -4284,15 +4334,15 @@
         <v>10</v>
       </c>
       <c r="F70">
-        <v>5.44</v>
+        <v>4.524</v>
       </c>
       <c r="G70">
-        <v>0.90190090000000001</v>
+        <v>0.58071919999999999</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B71" t="s">
         <v>8</v>
@@ -4307,15 +4357,15 @@
         <v>10</v>
       </c>
       <c r="F71">
-        <v>7.1449999999999996</v>
+        <v>5.0869999999999997</v>
       </c>
       <c r="G71">
-        <v>0.86759739999999996</v>
+        <v>0.25762570000000001</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
@@ -4330,15 +4380,15 @@
         <v>10</v>
       </c>
       <c r="F72">
-        <v>3.8540000000000001</v>
+        <v>5.44</v>
       </c>
       <c r="G72">
-        <v>0.1320472</v>
+        <v>0.90190090000000001</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -4353,15 +4403,15 @@
         <v>10</v>
       </c>
       <c r="F73">
-        <v>8.7159999999999993</v>
+        <v>7.1449999999999996</v>
       </c>
       <c r="G73">
-        <v>1.1305559999999999</v>
+        <v>0.86759739999999996</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -4376,15 +4426,15 @@
         <v>10</v>
       </c>
       <c r="F74">
-        <v>7.16</v>
+        <v>3.8540000000000001</v>
       </c>
       <c r="G74">
-        <v>0.20874290000000001</v>
+        <v>0.1320472</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -4399,15 +4449,15 @@
         <v>10</v>
       </c>
       <c r="F75">
-        <v>6.1639999999999997</v>
+        <v>8.7159999999999993</v>
       </c>
       <c r="G75">
-        <v>0.20217489999999999</v>
+        <v>1.1305559999999999</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -4422,15 +4472,15 @@
         <v>10</v>
       </c>
       <c r="F76">
-        <v>8.2590000000000003</v>
+        <v>7.16</v>
       </c>
       <c r="G76">
-        <v>0.89929000000000003</v>
+        <v>0.20874290000000001</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -4445,15 +4495,15 @@
         <v>10</v>
       </c>
       <c r="F77">
-        <v>4.3929999999999998</v>
+        <v>6.1639999999999997</v>
       </c>
       <c r="G77">
-        <v>1.0932999999999999</v>
+        <v>0.20217489999999999</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -4468,15 +4518,15 @@
         <v>10</v>
       </c>
       <c r="F78">
-        <v>4.9619999999999997</v>
+        <v>8.2590000000000003</v>
       </c>
       <c r="G78">
-        <v>0.13629550000000001</v>
+        <v>0.89929000000000003</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -4490,79 +4540,82 @@
       <c r="E79" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G79" s="2">
-        <v>3.3715780000000001E-3</v>
+      <c r="F79">
+        <v>4.3929999999999998</v>
+      </c>
+      <c r="G79">
+        <v>1.0932999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
+        <v>20</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>6262</v>
+      </c>
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80">
+        <v>4.9619999999999997</v>
+      </c>
+      <c r="G80">
+        <v>0.13629550000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>21</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>6262</v>
+      </c>
+      <c r="D81">
+        <v>5</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G81" s="2">
+        <v>3.3715780000000001E-3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>22</v>
       </c>
-      <c r="B80" t="s">
-        <v>8</v>
-      </c>
-      <c r="C80">
-        <v>6262</v>
-      </c>
-      <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A82">
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>6262</v>
+      </c>
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I82" s="5">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
         <v>1</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82">
-        <v>7000</v>
-      </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82">
-        <v>7.7590000000000003</v>
-      </c>
-      <c r="G82">
-        <v>0.17485890000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>2</v>
-      </c>
-      <c r="B83" t="s">
-        <v>7</v>
-      </c>
-      <c r="C83">
-        <v>7000</v>
-      </c>
-      <c r="D83">
-        <v>6</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F83">
-        <v>7.2460000000000004</v>
-      </c>
-      <c r="G83">
-        <v>0.20905670000000001</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>3</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -4577,15 +4630,18 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>8.1509999999999998</v>
+        <v>7.7590000000000003</v>
       </c>
       <c r="G84">
-        <v>0.2024793</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.17485890000000001</v>
+      </c>
+      <c r="I84" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -4600,15 +4656,15 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>4.8419999999999996</v>
+        <v>7.2460000000000004</v>
       </c>
       <c r="G85">
-        <v>0.1205624</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20905670000000001</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -4623,15 +4679,15 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>6.6520000000000001</v>
+        <v>8.1509999999999998</v>
       </c>
       <c r="G86">
-        <v>1.111605</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2024793</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -4646,15 +4702,15 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>6.8259999999999996</v>
+        <v>4.8419999999999996</v>
       </c>
       <c r="G87">
-        <v>0.2034647</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1205624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -4669,15 +4725,15 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>8.6470000000000002</v>
+        <v>6.6520000000000001</v>
       </c>
       <c r="G88">
-        <v>0.20642460000000001</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.111605</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -4692,18 +4748,15 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>5.577</v>
+        <v>6.8259999999999996</v>
       </c>
       <c r="G89">
-        <v>0.1291235</v>
-      </c>
-      <c r="H89" s="3">
-        <v>9.5767140000000003E-4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2034647</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -4718,15 +4771,15 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>7.27</v>
+        <v>8.6470000000000002</v>
       </c>
       <c r="G90">
-        <v>0.16960610000000001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20642460000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -4741,15 +4794,18 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>9.8049999999999997</v>
+        <v>5.577</v>
       </c>
       <c r="G91">
-        <v>0.21105109999999999</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1291235</v>
+      </c>
+      <c r="H91" s="3">
+        <v>9.5767140000000003E-4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -4764,15 +4820,15 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>5.1180000000000003</v>
+        <v>7.27</v>
       </c>
       <c r="G92">
-        <v>1.058271</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.16960610000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -4787,15 +4843,15 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>10.250999999999999</v>
+        <v>9.8049999999999997</v>
       </c>
       <c r="G93">
-        <v>0.19246640000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.21105109999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -4810,15 +4866,15 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>8.3729999999999993</v>
+        <v>5.1180000000000003</v>
       </c>
       <c r="G94">
-        <v>0.22300320000000001</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.058271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -4833,15 +4889,15 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>7.6829999999999998</v>
+        <v>10.250999999999999</v>
       </c>
       <c r="G95">
-        <v>0.79417789999999999</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19246640000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -4856,15 +4912,15 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>8.5640000000000001</v>
+        <v>8.3729999999999993</v>
       </c>
       <c r="G96">
-        <v>0.2311898</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.22300320000000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -4879,15 +4935,15 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>9.1189999999999998</v>
+        <v>7.6829999999999998</v>
       </c>
       <c r="G97">
-        <v>0.18613950000000001</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.79417789999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -4901,13 +4957,16 @@
       <c r="E98" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G98" s="2">
-        <v>2.2298930000000002E-2</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>8.5640000000000001</v>
+      </c>
+      <c r="G98">
+        <v>0.2311898</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -4921,16 +4980,22 @@
       <c r="E99" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>9.1189999999999998</v>
+      </c>
+      <c r="G99">
+        <v>0.18613950000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C100">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D100">
         <v>6</v>
@@ -4938,22 +5003,19 @@
       <c r="E100" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F100">
-        <v>4.7430000000000003</v>
-      </c>
-      <c r="G100">
-        <v>0.1455487</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="2">
+        <v>2.2298930000000002E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D101">
         <v>6</v>
@@ -4961,16 +5023,13 @@
       <c r="E101" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F101">
-        <v>6.7009999999999996</v>
-      </c>
-      <c r="G101">
-        <v>0.22928129999999999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B102" t="s">
         <v>8</v>
@@ -4985,15 +5044,18 @@
         <v>14</v>
       </c>
       <c r="F102">
-        <v>5.4969999999999999</v>
+        <v>4.7430000000000003</v>
       </c>
       <c r="G102">
-        <v>0.96681899999999998</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1455487</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0.44444444444444442</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B103" t="s">
         <v>8</v>
@@ -5008,15 +5070,15 @@
         <v>14</v>
       </c>
       <c r="F103">
-        <v>6.1740000000000004</v>
+        <v>6.7009999999999996</v>
       </c>
       <c r="G103">
-        <v>1.1995400000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.22928129999999999</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B104" t="s">
         <v>8</v>
@@ -5031,15 +5093,15 @@
         <v>14</v>
       </c>
       <c r="F104">
-        <v>7.9329999999999998</v>
+        <v>5.4969999999999999</v>
       </c>
       <c r="G104">
-        <v>0.38511960000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.96681899999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B105" t="s">
         <v>8</v>
@@ -5054,15 +5116,15 @@
         <v>14</v>
       </c>
       <c r="F105">
-        <v>5.7850000000000001</v>
+        <v>6.1740000000000004</v>
       </c>
       <c r="G105">
-        <v>0.19059409999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.1995400000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B106" t="s">
         <v>8</v>
@@ -5077,18 +5139,15 @@
         <v>14</v>
       </c>
       <c r="F106">
-        <v>6.7919999999999998</v>
+        <v>7.9329999999999998</v>
       </c>
       <c r="G106">
-        <v>1.2454369999999999</v>
-      </c>
-      <c r="H106" s="3">
-        <v>-2.6287069999999999E-2</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.38511960000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
@@ -5103,15 +5162,15 @@
         <v>14</v>
       </c>
       <c r="F107">
-        <v>5.5019999999999998</v>
+        <v>5.7850000000000001</v>
       </c>
       <c r="G107">
-        <v>0.21420939999999999</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19059409999999999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -5126,15 +5185,18 @@
         <v>14</v>
       </c>
       <c r="F108">
-        <v>7.38</v>
+        <v>6.7919999999999998</v>
       </c>
       <c r="G108">
-        <v>0.23242090000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.2454369999999999</v>
+      </c>
+      <c r="H108" s="3">
+        <v>-2.6287069999999999E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B109" t="s">
         <v>8</v>
@@ -5149,15 +5211,15 @@
         <v>14</v>
       </c>
       <c r="F109">
-        <v>9.0559999999999992</v>
+        <v>5.5019999999999998</v>
       </c>
       <c r="G109">
-        <v>0.2921318</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.21420939999999999</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B110" t="s">
         <v>8</v>
@@ -5172,15 +5234,15 @@
         <v>14</v>
       </c>
       <c r="F110">
-        <v>9.016</v>
+        <v>7.38</v>
       </c>
       <c r="G110">
-        <v>0.29859560000000002</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.23242090000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B111" t="s">
         <v>8</v>
@@ -5195,15 +5257,15 @@
         <v>14</v>
       </c>
       <c r="F111">
-        <v>3.8490000000000002</v>
+        <v>9.0559999999999992</v>
       </c>
       <c r="G111">
-        <v>1.635443</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2921318</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B112" t="s">
         <v>8</v>
@@ -5218,15 +5280,15 @@
         <v>14</v>
       </c>
       <c r="F112">
-        <v>5.9779999999999998</v>
+        <v>9.016</v>
       </c>
       <c r="G112">
-        <v>1.161144</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.29859560000000002</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B113" t="s">
         <v>8</v>
@@ -5241,15 +5303,15 @@
         <v>14</v>
       </c>
       <c r="F113">
-        <v>6.6989999999999998</v>
+        <v>3.8490000000000002</v>
       </c>
       <c r="G113">
-        <v>2.0432239999999999</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.635443</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B114" t="s">
         <v>8</v>
@@ -5264,15 +5326,15 @@
         <v>14</v>
       </c>
       <c r="F114">
-        <v>6.4509999999999996</v>
+        <v>5.9779999999999998</v>
       </c>
       <c r="G114">
-        <v>0.26693139999999999</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.161144</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -5287,18 +5349,18 @@
         <v>14</v>
       </c>
       <c r="F115">
-        <v>6.6210000000000004</v>
+        <v>6.6989999999999998</v>
       </c>
       <c r="G115">
-        <v>0.27909010000000001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+        <v>2.0432239999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116">
         <v>6262</v>
@@ -5309,16 +5371,19 @@
       <c r="E116" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G116" s="2">
-        <v>1.4219209999999999E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>6.4509999999999996</v>
+      </c>
+      <c r="G116">
+        <v>0.26693139999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117">
         <v>6262</v>
@@ -5329,56 +5394,56 @@
       <c r="E117" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>6.6210000000000004</v>
+      </c>
+      <c r="G117">
+        <v>0.27909010000000001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>6262</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G118" s="2">
+        <v>1.4219209999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>6262</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I119" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
         <v>1</v>
-      </c>
-      <c r="B119" t="s">
-        <v>7</v>
-      </c>
-      <c r="C119">
-        <v>7000</v>
-      </c>
-      <c r="D119">
-        <v>7</v>
-      </c>
-      <c r="E119" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F119">
-        <v>7.7320000000000002</v>
-      </c>
-      <c r="G119">
-        <v>1.388817</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120">
-        <v>2</v>
-      </c>
-      <c r="B120" t="s">
-        <v>7</v>
-      </c>
-      <c r="C120">
-        <v>7000</v>
-      </c>
-      <c r="D120">
-        <v>7</v>
-      </c>
-      <c r="E120" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F120">
-        <v>7.0119999999999996</v>
-      </c>
-      <c r="G120">
-        <v>0.667327</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121">
-        <v>3</v>
       </c>
       <c r="B121" t="s">
         <v>7</v>
@@ -5393,15 +5458,18 @@
         <v>15</v>
       </c>
       <c r="F121">
-        <v>5.6779999999999999</v>
+        <v>7.7320000000000002</v>
       </c>
       <c r="G121">
-        <v>0.15877769999999999</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.388817</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B122" t="s">
         <v>7</v>
@@ -5416,15 +5484,15 @@
         <v>15</v>
       </c>
       <c r="F122">
-        <v>8.3190000000000008</v>
+        <v>7.0119999999999996</v>
       </c>
       <c r="G122">
-        <v>0.17922289999999999</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.667327</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B123" t="s">
         <v>7</v>
@@ -5439,15 +5507,15 @@
         <v>15</v>
       </c>
       <c r="F123">
-        <v>7.0039999999999996</v>
+        <v>5.6779999999999999</v>
       </c>
       <c r="G123">
-        <v>0.20274700000000001</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.15877769999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B124" t="s">
         <v>7</v>
@@ -5462,15 +5530,15 @@
         <v>15</v>
       </c>
       <c r="F124">
-        <v>5.718</v>
+        <v>8.3190000000000008</v>
       </c>
       <c r="G124">
-        <v>0.28520489999999998</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.17922289999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B125" t="s">
         <v>7</v>
@@ -5485,15 +5553,15 @@
         <v>15</v>
       </c>
       <c r="F125">
-        <v>6.7679999999999998</v>
+        <v>7.0039999999999996</v>
       </c>
       <c r="G125">
-        <v>0.881135</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.20274700000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B126" t="s">
         <v>7</v>
@@ -5508,15 +5576,15 @@
         <v>15</v>
       </c>
       <c r="F126">
-        <v>6.7519999999999998</v>
+        <v>5.718</v>
       </c>
       <c r="G126">
-        <v>0.183862</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.28520489999999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B127" t="s">
         <v>7</v>
@@ -5531,15 +5599,15 @@
         <v>15</v>
       </c>
       <c r="F127">
-        <v>7.7160000000000002</v>
+        <v>6.7679999999999998</v>
       </c>
       <c r="G127">
-        <v>0.22682640000000001</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.881135</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B128" t="s">
         <v>7</v>
@@ -5554,15 +5622,15 @@
         <v>15</v>
       </c>
       <c r="F128">
-        <v>6.7640000000000002</v>
+        <v>6.7519999999999998</v>
       </c>
       <c r="G128">
-        <v>0.14562</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.183862</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B129" t="s">
         <v>7</v>
@@ -5577,18 +5645,15 @@
         <v>15</v>
       </c>
       <c r="F129">
-        <v>5.6120000000000001</v>
-      </c>
-      <c r="G129" s="3">
-        <v>5.3474059999999999E-3</v>
-      </c>
-      <c r="H129" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+        <v>7.7160000000000002</v>
+      </c>
+      <c r="G129">
+        <v>0.22682640000000001</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B130" t="s">
         <v>7</v>
@@ -5603,15 +5668,15 @@
         <v>15</v>
       </c>
       <c r="F130">
-        <v>5.1059999999999999</v>
+        <v>6.7640000000000002</v>
       </c>
       <c r="G130">
-        <v>0.60048619999999997</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.14562</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B131" t="s">
         <v>7</v>
@@ -5626,15 +5691,18 @@
         <v>15</v>
       </c>
       <c r="F131">
-        <v>4.4950000000000001</v>
-      </c>
-      <c r="G131">
-        <v>1.0629299999999999</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5.6120000000000001</v>
+      </c>
+      <c r="G131" s="3">
+        <v>5.3474059999999999E-3</v>
+      </c>
+      <c r="H131" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B132" t="s">
         <v>7</v>
@@ -5649,15 +5717,15 @@
         <v>15</v>
       </c>
       <c r="F132">
-        <v>8.0730000000000004</v>
+        <v>5.1059999999999999</v>
       </c>
       <c r="G132">
-        <v>0.21698500000000001</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.60048619999999997</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
         <v>7</v>
@@ -5672,15 +5740,15 @@
         <v>15</v>
       </c>
       <c r="F133">
-        <v>6.5289999999999999</v>
+        <v>4.4950000000000001</v>
       </c>
       <c r="G133">
-        <v>0.73353679999999999</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.0629299999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B134" t="s">
         <v>7</v>
@@ -5695,15 +5763,15 @@
         <v>15</v>
       </c>
       <c r="F134">
-        <v>5.3639999999999999</v>
+        <v>8.0730000000000004</v>
       </c>
       <c r="G134">
-        <v>0.14943819999999999</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.21698500000000001</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B135" t="s">
         <v>7</v>
@@ -5718,15 +5786,15 @@
         <v>15</v>
       </c>
       <c r="F135">
-        <v>6.7370000000000001</v>
+        <v>6.5289999999999999</v>
       </c>
       <c r="G135">
-        <v>0.242761</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.73353679999999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B136" t="s">
         <v>7</v>
@@ -5741,15 +5809,15 @@
         <v>15</v>
       </c>
       <c r="F136">
-        <v>4.5449999999999999</v>
+        <v>5.3639999999999999</v>
       </c>
       <c r="G136">
-        <v>0.1421586</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.14943819999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B137" t="s">
         <v>7</v>
@@ -5764,15 +5832,15 @@
         <v>15</v>
       </c>
       <c r="F137">
-        <v>7.4130000000000003</v>
+        <v>6.7370000000000001</v>
       </c>
       <c r="G137">
-        <v>0.16333629999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.242761</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B138" t="s">
         <v>7</v>
@@ -5787,15 +5855,15 @@
         <v>15</v>
       </c>
       <c r="F138">
-        <v>6.7569999999999997</v>
+        <v>4.5449999999999999</v>
       </c>
       <c r="G138">
-        <v>0.15993099999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1421586</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B139" t="s">
         <v>7</v>
@@ -5809,13 +5877,16 @@
       <c r="E139" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G139" s="2">
-        <v>9.0395089999999994E-3</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>7.4130000000000003</v>
+      </c>
+      <c r="G139">
+        <v>0.16333629999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B140" t="s">
         <v>7</v>
@@ -5829,16 +5900,22 @@
       <c r="E140" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>6.7569999999999997</v>
+      </c>
+      <c r="G140">
+        <v>0.15993099999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C141">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D141">
         <v>7</v>
@@ -5846,22 +5923,19 @@
       <c r="E141" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F141">
-        <v>3.766</v>
-      </c>
-      <c r="G141">
-        <v>1.7039960000000001</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G141" s="2">
+        <v>9.0395089999999994E-3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C142">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D142">
         <v>7</v>
@@ -5869,16 +5943,13 @@
       <c r="E142" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F142">
-        <v>8.7149999999999999</v>
-      </c>
-      <c r="G142">
-        <v>0.34832839999999998</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="5">
+        <v>0.46736111111111112</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -5893,15 +5964,18 @@
         <v>15</v>
       </c>
       <c r="F143">
-        <v>5.508</v>
+        <v>3.766</v>
       </c>
       <c r="G143">
-        <v>0.34399220000000003</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.7039960000000001</v>
+      </c>
+      <c r="I143" s="5">
+        <v>0.46736111111111112</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B144" t="s">
         <v>8</v>
@@ -5916,15 +5990,15 @@
         <v>15</v>
       </c>
       <c r="F144">
-        <v>6.2750000000000004</v>
+        <v>8.7149999999999999</v>
       </c>
       <c r="G144">
-        <v>1.1524479999999999</v>
+        <v>0.34832839999999998</v>
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B145" t="s">
         <v>8</v>
@@ -5939,15 +6013,15 @@
         <v>15</v>
       </c>
       <c r="F145">
-        <v>6.234</v>
+        <v>5.508</v>
       </c>
       <c r="G145">
-        <v>0.3211812</v>
+        <v>0.34399220000000003</v>
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B146" t="s">
         <v>8</v>
@@ -5962,15 +6036,15 @@
         <v>15</v>
       </c>
       <c r="F146">
-        <v>5.6260000000000003</v>
+        <v>6.2750000000000004</v>
       </c>
       <c r="G146">
-        <v>0.2279011</v>
+        <v>1.1524479999999999</v>
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
         <v>8</v>
@@ -5985,15 +6059,15 @@
         <v>15</v>
       </c>
       <c r="F147">
-        <v>6.0309999999999997</v>
+        <v>6.234</v>
       </c>
       <c r="G147">
-        <v>0.2073864</v>
+        <v>0.3211812</v>
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B148" t="s">
         <v>8</v>
@@ -6008,15 +6082,15 @@
         <v>15</v>
       </c>
       <c r="F148">
-        <v>3.601</v>
+        <v>5.6260000000000003</v>
       </c>
       <c r="G148">
-        <v>0.54043189999999997</v>
+        <v>0.2279011</v>
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B149" t="s">
         <v>8</v>
@@ -6031,15 +6105,15 @@
         <v>15</v>
       </c>
       <c r="F149">
-        <v>5.726</v>
+        <v>6.0309999999999997</v>
       </c>
       <c r="G149">
-        <v>0.21327950000000001</v>
+        <v>0.2073864</v>
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B150" t="s">
         <v>8</v>
@@ -6054,15 +6128,15 @@
         <v>15</v>
       </c>
       <c r="F150">
-        <v>4.7050000000000001</v>
+        <v>3.601</v>
       </c>
       <c r="G150">
-        <v>0.2297526</v>
+        <v>0.54043189999999997</v>
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B151" t="s">
         <v>8</v>
@@ -6077,15 +6151,15 @@
         <v>15</v>
       </c>
       <c r="F151">
-        <v>6.1280000000000001</v>
+        <v>5.726</v>
       </c>
       <c r="G151">
-        <v>0.28525640000000002</v>
+        <v>0.21327950000000001</v>
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B152" t="s">
         <v>8</v>
@@ -6100,15 +6174,15 @@
         <v>15</v>
       </c>
       <c r="F152">
-        <v>4.79</v>
+        <v>4.7050000000000001</v>
       </c>
       <c r="G152">
-        <v>0.1956107</v>
+        <v>0.2297526</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B153" t="s">
         <v>8</v>
@@ -6123,15 +6197,15 @@
         <v>15</v>
       </c>
       <c r="F153">
-        <v>10.789</v>
+        <v>6.1280000000000001</v>
       </c>
       <c r="G153">
-        <v>1.2769140000000001</v>
+        <v>0.28525640000000002</v>
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B154" t="s">
         <v>8</v>
@@ -6146,15 +6220,15 @@
         <v>15</v>
       </c>
       <c r="F154">
-        <v>6.9569999999999999</v>
+        <v>4.79</v>
       </c>
       <c r="G154">
-        <v>0.41075489999999998</v>
+        <v>0.1956107</v>
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B155" t="s">
         <v>8</v>
@@ -6169,15 +6243,15 @@
         <v>15</v>
       </c>
       <c r="F155">
-        <v>10.737</v>
+        <v>10.789</v>
       </c>
       <c r="G155">
-        <v>0.47033940000000002</v>
+        <v>1.2769140000000001</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B156" t="s">
         <v>8</v>
@@ -6192,15 +6266,15 @@
         <v>15</v>
       </c>
       <c r="F156">
-        <v>6.907</v>
+        <v>6.9569999999999999</v>
       </c>
       <c r="G156">
-        <v>0.30630819999999997</v>
+        <v>0.41075489999999998</v>
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B157" t="s">
         <v>8</v>
@@ -6215,15 +6289,15 @@
         <v>15</v>
       </c>
       <c r="F157">
-        <v>6.2869999999999999</v>
+        <v>10.737</v>
       </c>
       <c r="G157">
-        <v>0.61462220000000001</v>
+        <v>0.47033940000000002</v>
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B158" t="s">
         <v>8</v>
@@ -6238,15 +6312,15 @@
         <v>15</v>
       </c>
       <c r="F158">
-        <v>8.2249999999999996</v>
+        <v>6.907</v>
       </c>
       <c r="G158">
-        <v>0.26901229999999998</v>
+        <v>0.30630819999999997</v>
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B159" t="s">
         <v>8</v>
@@ -6261,15 +6335,15 @@
         <v>15</v>
       </c>
       <c r="F159">
-        <v>8.1829999999999998</v>
+        <v>6.2869999999999999</v>
       </c>
       <c r="G159">
-        <v>0.28358919999999999</v>
+        <v>0.61462220000000001</v>
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B160" t="s">
         <v>8</v>
@@ -6284,15 +6358,15 @@
         <v>15</v>
       </c>
       <c r="F160">
-        <v>8.6929999999999996</v>
+        <v>8.2249999999999996</v>
       </c>
       <c r="G160">
-        <v>0.38269589999999998</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.26901229999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B161" t="s">
         <v>8</v>
@@ -6306,13 +6380,16 @@
       <c r="E161" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G161" s="2">
-        <v>1.146221E-3</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>8.1829999999999998</v>
+      </c>
+      <c r="G161">
+        <v>0.28358919999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B162" t="s">
         <v>8</v>
@@ -6326,59 +6403,56 @@
       <c r="E162" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>8.6929999999999996</v>
+      </c>
+      <c r="G162">
+        <v>0.38269589999999998</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>21</v>
+      </c>
+      <c r="B163" t="s">
+        <v>8</v>
+      </c>
+      <c r="C163">
+        <v>6262</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G163" s="2">
+        <v>1.146221E-3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
+        <v>22</v>
+      </c>
+      <c r="B164" t="s">
+        <v>8</v>
+      </c>
+      <c r="C164">
+        <v>6262</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I164" s="5">
+        <v>0.47222222222222227</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A166">
         <v>1</v>
-      </c>
-      <c r="B164" t="s">
-        <v>7</v>
-      </c>
-      <c r="C164">
-        <v>7000</v>
-      </c>
-      <c r="D164">
-        <v>8</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164">
-        <v>3.274</v>
-      </c>
-      <c r="G164">
-        <v>0.82288329999999998</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165">
-        <v>2</v>
-      </c>
-      <c r="B165" t="s">
-        <v>7</v>
-      </c>
-      <c r="C165">
-        <v>7000</v>
-      </c>
-      <c r="D165">
-        <v>8</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165">
-        <v>4.6219999999999999</v>
-      </c>
-      <c r="G165">
-        <v>0.51720109999999997</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166">
-        <v>3</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -6393,15 +6467,18 @@
         <v>16</v>
       </c>
       <c r="F166">
-        <v>6.08</v>
+        <v>3.274</v>
       </c>
       <c r="G166">
-        <v>0.6084716</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.82288329999999998</v>
+      </c>
+      <c r="I166" s="5">
+        <v>0.46249999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B167" t="s">
         <v>7</v>
@@ -6416,15 +6493,15 @@
         <v>16</v>
       </c>
       <c r="F167">
-        <v>4.1669999999999998</v>
+        <v>4.6219999999999999</v>
       </c>
       <c r="G167">
-        <v>8.0785399999999993E-2</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.51720109999999997</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B168" t="s">
         <v>7</v>
@@ -6439,18 +6516,15 @@
         <v>16</v>
       </c>
       <c r="F168">
-        <v>3.75</v>
+        <v>6.08</v>
       </c>
       <c r="G168">
-        <v>0.75198960000000004</v>
-      </c>
-      <c r="H168" s="3">
-        <v>1.42E-3</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.6084716</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B169" t="s">
         <v>7</v>
@@ -6465,15 +6539,15 @@
         <v>16</v>
       </c>
       <c r="F169">
-        <v>6.117</v>
+        <v>4.1669999999999998</v>
       </c>
       <c r="G169">
-        <v>0.20011860000000001</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+        <v>8.0785399999999993E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B170" t="s">
         <v>7</v>
@@ -6488,15 +6562,18 @@
         <v>16</v>
       </c>
       <c r="F170">
-        <v>4.37</v>
+        <v>3.75</v>
       </c>
       <c r="G170">
-        <v>0.1509016</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.75198960000000004</v>
+      </c>
+      <c r="H170" s="3">
+        <v>1.42E-3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B171" t="s">
         <v>7</v>
@@ -6511,18 +6588,15 @@
         <v>16</v>
       </c>
       <c r="F171">
-        <v>5.4930000000000003</v>
+        <v>6.117</v>
       </c>
       <c r="G171">
-        <v>0.19139790000000001</v>
-      </c>
-      <c r="H171" s="3">
-        <v>4.9700000000000005E-4</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.20011860000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B172" t="s">
         <v>7</v>
@@ -6537,15 +6611,15 @@
         <v>16</v>
       </c>
       <c r="F172">
-        <v>6.5529999999999999</v>
+        <v>4.37</v>
       </c>
       <c r="G172">
-        <v>0.2372909</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.1509016</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B173" t="s">
         <v>7</v>
@@ -6560,15 +6634,18 @@
         <v>16</v>
       </c>
       <c r="F173">
-        <v>6.7380000000000004</v>
+        <v>5.4930000000000003</v>
       </c>
       <c r="G173">
-        <v>0.86936270000000004</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19139790000000001</v>
+      </c>
+      <c r="H173" s="3">
+        <v>4.9700000000000005E-4</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B174" t="s">
         <v>7</v>
@@ -6583,15 +6660,15 @@
         <v>16</v>
       </c>
       <c r="F174">
-        <v>8.5559999999999992</v>
+        <v>6.5529999999999999</v>
       </c>
       <c r="G174">
-        <v>0.25653969999999998</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.2372909</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B175" t="s">
         <v>7</v>
@@ -6606,15 +6683,15 @@
         <v>16</v>
       </c>
       <c r="F175">
-        <v>8.9909999999999997</v>
+        <v>6.7380000000000004</v>
       </c>
       <c r="G175">
-        <v>0.24831110000000001</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.86936270000000004</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B176" t="s">
         <v>7</v>
@@ -6629,15 +6706,15 @@
         <v>16</v>
       </c>
       <c r="F176">
-        <v>3.2410000000000001</v>
+        <v>8.5559999999999992</v>
       </c>
       <c r="G176">
-        <v>0.92852429999999997</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.25653969999999998</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B177" t="s">
         <v>7</v>
@@ -6652,15 +6729,15 @@
         <v>16</v>
       </c>
       <c r="F177">
-        <v>6.83</v>
+        <v>8.9909999999999997</v>
       </c>
       <c r="G177">
-        <v>0.185974</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.24831110000000001</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B178" t="s">
         <v>7</v>
@@ -6675,15 +6752,15 @@
         <v>16</v>
       </c>
       <c r="F178">
-        <v>4.6689999999999996</v>
+        <v>3.2410000000000001</v>
       </c>
       <c r="G178">
-        <v>0.14155490000000001</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.92852429999999997</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B179" t="s">
         <v>7</v>
@@ -6698,15 +6775,15 @@
         <v>16</v>
       </c>
       <c r="F179">
-        <v>4.6680000000000001</v>
-      </c>
-      <c r="G179" s="2">
-        <v>3.5799999999999998E-2</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+        <v>6.83</v>
+      </c>
+      <c r="G179">
+        <v>0.185974</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B180" t="s">
         <v>7</v>
@@ -6720,13 +6797,16 @@
       <c r="E180" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G180" s="2">
-        <v>7.9100000000000004E-3</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>4.6689999999999996</v>
+      </c>
+      <c r="G180">
+        <v>0.14155490000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B181" t="s">
         <v>7</v>
@@ -6740,16 +6820,22 @@
       <c r="E181" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>4.6680000000000001</v>
+      </c>
+      <c r="G181" s="2">
+        <v>3.5799999999999998E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C182">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D182">
         <v>8</v>
@@ -6757,22 +6843,19 @@
       <c r="E182" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F182">
-        <v>5.7610000000000001</v>
-      </c>
-      <c r="G182">
-        <v>0.26785409999999998</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G182" s="2">
+        <v>7.9100000000000004E-3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C183">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D183">
         <v>8</v>
@@ -6780,16 +6863,13 @@
       <c r="E183" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F183">
-        <v>7.7670000000000003</v>
-      </c>
-      <c r="G183">
-        <v>0.32504749999999999</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="5">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -6804,15 +6884,18 @@
         <v>16</v>
       </c>
       <c r="F184">
-        <v>6.1159999999999997</v>
+        <v>5.7610000000000001</v>
       </c>
       <c r="G184">
-        <v>0.29072930000000002</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.26785409999999998</v>
+      </c>
+      <c r="I184" s="5">
+        <v>0.46597222222222223</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -6830,15 +6913,12 @@
         <v>7.7670000000000003</v>
       </c>
       <c r="G185">
-        <v>0.23869840000000001</v>
-      </c>
-      <c r="H185" s="3">
-        <v>2.33E-4</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.32504749999999999</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -6853,15 +6933,15 @@
         <v>16</v>
       </c>
       <c r="F186">
-        <v>8.6280000000000001</v>
+        <v>6.1159999999999997</v>
       </c>
       <c r="G186">
-        <v>1.6884380000000001</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.29072930000000002</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -6876,15 +6956,18 @@
         <v>16</v>
       </c>
       <c r="F187">
-        <v>4.7610000000000001</v>
+        <v>7.7670000000000003</v>
       </c>
       <c r="G187">
-        <v>0.19245409999999999</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.23869840000000001</v>
+      </c>
+      <c r="H187" s="3">
+        <v>2.33E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -6899,15 +6982,15 @@
         <v>16</v>
       </c>
       <c r="F188">
-        <v>7.0960000000000001</v>
+        <v>8.6280000000000001</v>
       </c>
       <c r="G188">
-        <v>0.26387480000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.6884380000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B189" t="s">
         <v>8</v>
@@ -6922,18 +7005,15 @@
         <v>16</v>
       </c>
       <c r="F189">
-        <v>6.4580000000000002</v>
+        <v>4.7610000000000001</v>
       </c>
       <c r="G189">
-        <v>0.28541640000000001</v>
-      </c>
-      <c r="H189" s="3">
-        <v>-2.2300000000000002E-3</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.19245409999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B190" t="s">
         <v>8</v>
@@ -6948,15 +7028,15 @@
         <v>16</v>
       </c>
       <c r="F190">
-        <v>5.4619999999999997</v>
+        <v>7.0960000000000001</v>
       </c>
       <c r="G190">
-        <v>0.17862149999999999</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.26387480000000002</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B191" t="s">
         <v>8</v>
@@ -6971,15 +7051,18 @@
         <v>16</v>
       </c>
       <c r="F191">
-        <v>6.867</v>
+        <v>6.4580000000000002</v>
       </c>
       <c r="G191">
-        <v>0.27038050000000002</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.28541640000000001</v>
+      </c>
+      <c r="H191" s="3">
+        <v>-2.2300000000000002E-3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B192" t="s">
         <v>8</v>
@@ -6994,15 +7077,15 @@
         <v>16</v>
       </c>
       <c r="F192">
-        <v>7.3310000000000004</v>
+        <v>5.4619999999999997</v>
       </c>
       <c r="G192">
-        <v>1.2676460000000001</v>
-      </c>
-    </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.17862149999999999</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B193" t="s">
         <v>8</v>
@@ -7017,15 +7100,15 @@
         <v>16</v>
       </c>
       <c r="F193">
-        <v>4.9930000000000003</v>
+        <v>6.867</v>
       </c>
       <c r="G193">
-        <v>0.2200878</v>
-      </c>
-    </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.27038050000000002</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B194" t="s">
         <v>8</v>
@@ -7040,15 +7123,15 @@
         <v>16</v>
       </c>
       <c r="F194">
-        <v>5.7560000000000002</v>
+        <v>7.3310000000000004</v>
       </c>
       <c r="G194">
-        <v>0.28338449999999998</v>
-      </c>
-    </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.2676460000000001</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B195" t="s">
         <v>8</v>
@@ -7063,15 +7146,15 @@
         <v>16</v>
       </c>
       <c r="F195">
-        <v>6.3339999999999996</v>
+        <v>4.9930000000000003</v>
       </c>
       <c r="G195">
-        <v>0.32565460000000002</v>
-      </c>
-    </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.2200878</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B196" t="s">
         <v>8</v>
@@ -7086,15 +7169,15 @@
         <v>16</v>
       </c>
       <c r="F196">
-        <v>5.2670000000000003</v>
+        <v>5.7560000000000002</v>
       </c>
       <c r="G196">
-        <v>1.919926</v>
-      </c>
-    </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.28338449999999998</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B197" t="s">
         <v>8</v>
@@ -7109,15 +7192,15 @@
         <v>16</v>
       </c>
       <c r="F197">
-        <v>6.7370000000000001</v>
+        <v>6.3339999999999996</v>
       </c>
       <c r="G197">
-        <v>0.34860059999999998</v>
-      </c>
-    </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.32565460000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B198" t="s">
         <v>8</v>
@@ -7131,13 +7214,16 @@
       <c r="E198" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F198">
+        <v>5.2670000000000003</v>
+      </c>
       <c r="G198">
-        <v>2.0878399999999998E-2</v>
-      </c>
-    </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.919926</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B199" t="s">
         <v>8</v>
@@ -7151,25 +7237,161 @@
       <c r="E199" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E204" s="1"/>
-    </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E205" s="1"/>
-    </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E208" s="1"/>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>6.7370000000000001</v>
+      </c>
+      <c r="G199">
+        <v>0.34860059999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>17</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <v>6262</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G200">
+        <v>2.0878399999999998E-2</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>6262</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I201" s="5">
+        <v>0.47083333333333338</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>1</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>7000</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F203">
+        <v>10.502000000000001</v>
+      </c>
+      <c r="I203" s="5">
+        <v>0.55833333333333335</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>2</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>7000</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F204">
+        <v>6.6180000000000003</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>3</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>7000</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F205">
+        <v>6.7729999999999997</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>4</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>7000</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F206">
+        <v>5.056</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>7000</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F207">
+        <v>5.4870000000000001</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>6</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>7000</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F208">
+        <v>7.8609999999999998</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -7180,10 +7402,13 @@
       <c r="E209" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>7.4829999999999997</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -7194,10 +7419,13 @@
       <c r="E210" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="4">
+        <v>6.28</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -7208,10 +7436,13 @@
       <c r="E211" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211">
+        <v>9.5180000000000007</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B212" t="s">
         <v>7</v>
@@ -7222,10 +7453,13 @@
       <c r="E212" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B213" t="s">
         <v>7</v>
@@ -7236,10 +7470,13 @@
       <c r="E213" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>4.6509999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B214" t="s">
         <v>7</v>
@@ -7250,10 +7487,13 @@
       <c r="E214" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>5.5739999999999998</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B215" t="s">
         <v>7</v>
@@ -7264,10 +7504,13 @@
       <c r="E215" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>8.4870000000000001</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B216" t="s">
         <v>7</v>
@@ -7278,10 +7521,13 @@
       <c r="E216" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>6.9470000000000001</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B217" t="s">
         <v>7</v>
@@ -7292,10 +7538,13 @@
       <c r="E217" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>7.984</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B218" t="s">
         <v>7</v>
@@ -7306,10 +7555,13 @@
       <c r="E218" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>6.7309999999999999</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B219" t="s">
         <v>7</v>
@@ -7320,10 +7572,13 @@
       <c r="E219" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>10.555</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B220" t="s">
         <v>7</v>
@@ -7334,10 +7589,13 @@
       <c r="E220" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>8.1479999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B221" t="s">
         <v>7</v>
@@ -7348,10 +7606,13 @@
       <c r="E221" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>10.364000000000001</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B222" t="s">
         <v>7</v>
@@ -7362,10 +7623,13 @@
       <c r="E222" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>5.1180000000000003</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B223" t="s">
         <v>7</v>
@@ -7376,10 +7640,13 @@
       <c r="E223" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>7.2380000000000004</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B224" t="s">
         <v>7</v>
@@ -7390,10 +7657,13 @@
       <c r="E224" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>8.0839999999999996</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B225" t="s">
         <v>7</v>
@@ -7404,10 +7674,13 @@
       <c r="E225" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>8.7569999999999997</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B226" t="s">
         <v>7</v>
@@ -7418,10 +7691,13 @@
       <c r="E226" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>5.2919999999999998</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="B227" t="s">
         <v>7</v>
@@ -7432,10 +7708,13 @@
       <c r="E227" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>9.4760000000000009</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B228" t="s">
         <v>7</v>
@@ -7447,9 +7726,9 @@
         <v>17</v>
       </c>
     </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B229" t="s">
         <v>7</v>
@@ -7460,24 +7739,33 @@
       <c r="E229" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I229" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B230" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C230">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="E230" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="I230" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
@@ -7488,10 +7776,13 @@
       <c r="E231" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231">
+        <v>5.6719999999999997</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B232" t="s">
         <v>8</v>
@@ -7502,10 +7793,13 @@
       <c r="E232" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232">
+        <v>6.6559999999999997</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B233" t="s">
         <v>8</v>
@@ -7516,10 +7810,13 @@
       <c r="E233" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233">
+        <v>5.2569999999999997</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B234" t="s">
         <v>8</v>
@@ -7530,10 +7827,13 @@
       <c r="E234" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234">
+        <v>4.1100000000000003</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B235" t="s">
         <v>8</v>
@@ -7544,10 +7844,13 @@
       <c r="E235" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235">
+        <v>7.5730000000000004</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B236" t="s">
         <v>8</v>
@@ -7558,10 +7861,13 @@
       <c r="E236" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236">
+        <v>5.4980000000000002</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B237" t="s">
         <v>8</v>
@@ -7572,10 +7878,13 @@
       <c r="E237" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237">
+        <v>5.3330000000000002</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B238" t="s">
         <v>8</v>
@@ -7586,10 +7895,13 @@
       <c r="E238" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238">
+        <v>7.5380000000000003</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B239" t="s">
         <v>8</v>
@@ -7600,10 +7912,13 @@
       <c r="E239" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239">
+        <v>5.3140000000000001</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B240" t="s">
         <v>8</v>
@@ -7614,10 +7929,13 @@
       <c r="E240" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240">
+        <v>5.577</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B241" t="s">
         <v>8</v>
@@ -7628,10 +7946,13 @@
       <c r="E241" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241">
+        <v>8.1519999999999992</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B242" t="s">
         <v>8</v>
@@ -7642,10 +7963,13 @@
       <c r="E242" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242">
+        <v>6.4489999999999998</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B243" t="s">
         <v>8</v>
@@ -7656,10 +7980,13 @@
       <c r="E243" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243">
+        <v>6.3029999999999999</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B244" t="s">
         <v>8</v>
@@ -7670,10 +7997,13 @@
       <c r="E244" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244">
+        <v>8.2029999999999994</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B245" t="s">
         <v>8</v>
@@ -7684,10 +8014,13 @@
       <c r="E245" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245">
+        <v>6.109</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B246" t="s">
         <v>8</v>
@@ -7698,10 +8031,13 @@
       <c r="E246" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246">
+        <v>6.3040000000000003</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B247" t="s">
         <v>8</v>
@@ -7712,10 +8048,13 @@
       <c r="E247" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247">
+        <v>5.8490000000000002</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B248" t="s">
         <v>8</v>
@@ -7726,10 +8065,13 @@
       <c r="E248" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248">
+        <v>5.1159999999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B249" t="s">
         <v>8</v>
@@ -7740,10 +8082,13 @@
       <c r="E249" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249">
+        <v>4.2350000000000003</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B250" t="s">
         <v>8</v>
@@ -7754,10 +8099,13 @@
       <c r="E250" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250">
+        <v>4.117</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B251" t="s">
         <v>8</v>
@@ -7768,10 +8116,13 @@
       <c r="E251" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251">
+        <v>5.5430000000000001</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B252" t="s">
         <v>8</v>
@@ -7782,21 +8133,92 @@
       <c r="E252" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E255" s="1"/>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E256" s="1"/>
-    </row>
-    <row r="257" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E257" s="1"/>
+      <c r="F252">
+        <v>6.2839999999999998</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>24</v>
+      </c>
+      <c r="B253" t="s">
+        <v>8</v>
+      </c>
+      <c r="C253">
+        <v>6262</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F253">
+        <v>7.8940000000000001</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>25</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254">
+        <v>6262</v>
+      </c>
+      <c r="E254" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F254">
+        <v>3.7349999999999999</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>26</v>
+      </c>
+      <c r="B255" t="s">
+        <v>8</v>
+      </c>
+      <c r="C255">
+        <v>6262</v>
+      </c>
+      <c r="E255" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>27</v>
+      </c>
+      <c r="B256" t="s">
+        <v>8</v>
+      </c>
+      <c r="C256">
+        <v>6262</v>
+      </c>
+      <c r="E256" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I256" s="5">
+        <v>0.56944444444444442</v>
+      </c>
+    </row>
+    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E393" s="1"/>
+    </row>
+    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E434" s="1"/>
+    </row>
+    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E435" s="1"/>
+    </row>
+    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E436" s="1"/>
+    </row>
+    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E437" s="1"/>
+    </row>
+    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E438" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{657A1D16-E9A3-488F-8AB5-F234D557BFC7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDAC8D-1B7C-469A-9B0D-F5E3DC379BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -2749,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A233" workbookViewId="0">
-      <selection activeCell="P166" sqref="P166"/>
+    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
+      <selection activeCell="K249" sqref="K249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7300,6 +7300,9 @@
       <c r="F203">
         <v>10.502000000000001</v>
       </c>
+      <c r="G203">
+        <v>0.21154629999999999</v>
+      </c>
       <c r="I203" s="5">
         <v>0.55833333333333335</v>
       </c>
@@ -7320,6 +7323,9 @@
       <c r="F204">
         <v>6.6180000000000003</v>
       </c>
+      <c r="G204">
+        <v>0.1749713</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -7337,6 +7343,9 @@
       <c r="F205">
         <v>6.7729999999999997</v>
       </c>
+      <c r="G205">
+        <v>0.1247981</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -7354,6 +7363,9 @@
       <c r="F206">
         <v>5.056</v>
       </c>
+      <c r="G206">
+        <v>0.28805960000000003</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -7370,6 +7382,9 @@
       </c>
       <c r="F207">
         <v>5.4870000000000001</v>
+      </c>
+      <c r="G207">
+        <v>1.2178119999999999</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -7388,8 +7403,11 @@
       <c r="F208">
         <v>7.8609999999999998</v>
       </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G208">
+        <v>0.38850410000000002</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>7</v>
       </c>
@@ -7405,8 +7423,11 @@
       <c r="F209">
         <v>7.4829999999999997</v>
       </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G209">
+        <v>0.15739900000000001</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>8</v>
       </c>
@@ -7422,8 +7443,11 @@
       <c r="F210" s="4">
         <v>6.28</v>
       </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G210">
+        <v>0.202734</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>9</v>
       </c>
@@ -7439,8 +7463,11 @@
       <c r="F211">
         <v>9.5180000000000007</v>
       </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G211">
+        <v>0.15336350000000001</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>10</v>
       </c>
@@ -7456,8 +7483,11 @@
       <c r="F212">
         <v>6.15</v>
       </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G212">
+        <v>0.16673379999999999</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>11</v>
       </c>
@@ -7473,8 +7503,11 @@
       <c r="F213">
         <v>4.6509999999999998</v>
       </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G213">
+        <v>0.84621930000000001</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>12</v>
       </c>
@@ -7490,8 +7523,11 @@
       <c r="F214">
         <v>5.5739999999999998</v>
       </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G214">
+        <v>0.22101309999999999</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7507,8 +7543,11 @@
       <c r="F215">
         <v>8.4870000000000001</v>
       </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G215">
+        <v>0.76901629999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>14</v>
       </c>
@@ -7524,8 +7563,11 @@
       <c r="F216">
         <v>6.9470000000000001</v>
       </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G216">
+        <v>0.71564950000000005</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>15</v>
       </c>
@@ -7541,8 +7583,11 @@
       <c r="F217">
         <v>7.984</v>
       </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G217">
+        <v>0.73222609999999999</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>16</v>
       </c>
@@ -7558,8 +7603,11 @@
       <c r="F218">
         <v>6.7309999999999999</v>
       </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G218">
+        <v>0.16922180000000001</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>17</v>
       </c>
@@ -7575,8 +7623,11 @@
       <c r="F219">
         <v>10.555</v>
       </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G219">
+        <v>0.24560070000000001</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>18</v>
       </c>
@@ -7592,8 +7643,11 @@
       <c r="F220">
         <v>8.1479999999999997</v>
       </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G220">
+        <v>0.2499875</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>19</v>
       </c>
@@ -7609,8 +7663,11 @@
       <c r="F221">
         <v>10.364000000000001</v>
       </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G221">
+        <v>0.1655054</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>20</v>
       </c>
@@ -7626,8 +7683,11 @@
       <c r="F222">
         <v>5.1180000000000003</v>
       </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G222" s="2">
+        <v>3.09E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>21</v>
       </c>
@@ -7643,8 +7703,11 @@
       <c r="F223">
         <v>7.2380000000000004</v>
       </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G223">
+        <v>0.16684789999999999</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>22</v>
       </c>
@@ -7659,6 +7722,9 @@
       </c>
       <c r="F224">
         <v>8.0839999999999996</v>
+      </c>
+      <c r="G224">
+        <v>1.9893190000000001</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -7677,6 +7743,9 @@
       <c r="F225">
         <v>8.7569999999999997</v>
       </c>
+      <c r="G225">
+        <v>0.18817929999999999</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -7694,6 +7763,9 @@
       <c r="F226">
         <v>5.2919999999999998</v>
       </c>
+      <c r="G226">
+        <v>0.47768159999999998</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -7711,6 +7783,9 @@
       <c r="F227">
         <v>9.4760000000000009</v>
       </c>
+      <c r="G227">
+        <v>0.25388359999999999</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -7725,6 +7800,9 @@
       <c r="E228" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G228" s="2">
+        <v>5.1999999999999998E-3</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -7739,6 +7817,9 @@
       <c r="E229" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G229" s="2">
+        <v>7.1199999999999996E-3</v>
+      </c>
       <c r="I229" s="5">
         <v>0.56527777777777777</v>
       </c>
@@ -7759,6 +7840,9 @@
       <c r="F230">
         <v>4.2069999999999999</v>
       </c>
+      <c r="G230">
+        <v>0.73594590000000004</v>
+      </c>
       <c r="I230" s="5">
         <v>0.56527777777777777</v>
       </c>
@@ -7779,6 +7863,9 @@
       <c r="F231">
         <v>5.6719999999999997</v>
       </c>
+      <c r="G231">
+        <v>0.19504779999999999</v>
+      </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -7796,6 +7883,9 @@
       <c r="F232">
         <v>6.6559999999999997</v>
       </c>
+      <c r="G232">
+        <v>0.21987110000000001</v>
+      </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -7813,6 +7903,9 @@
       <c r="F233">
         <v>5.2569999999999997</v>
       </c>
+      <c r="G233">
+        <v>0.2360749</v>
+      </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -7829,6 +7922,9 @@
       </c>
       <c r="F234">
         <v>4.1100000000000003</v>
+      </c>
+      <c r="G234">
+        <v>0.18381400000000001</v>
       </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
@@ -7847,6 +7943,9 @@
       <c r="F235">
         <v>7.5730000000000004</v>
       </c>
+      <c r="G235">
+        <v>0.2583511</v>
+      </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236">
@@ -7864,6 +7963,9 @@
       <c r="F236">
         <v>5.4980000000000002</v>
       </c>
+      <c r="G236">
+        <v>0.21883839999999999</v>
+      </c>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237">
@@ -7881,6 +7983,9 @@
       <c r="F237">
         <v>5.3330000000000002</v>
       </c>
+      <c r="G237">
+        <v>1.399708</v>
+      </c>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238">
@@ -7898,6 +8003,9 @@
       <c r="F238">
         <v>7.5380000000000003</v>
       </c>
+      <c r="G238">
+        <v>0.28827799999999998</v>
+      </c>
     </row>
     <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239">
@@ -7914,6 +8022,9 @@
       </c>
       <c r="F239">
         <v>5.3140000000000001</v>
+      </c>
+      <c r="G239">
+        <v>0.48118539999999999</v>
       </c>
     </row>
     <row r="240" spans="1:9" x14ac:dyDescent="0.25">
@@ -7932,6 +8043,9 @@
       <c r="F240">
         <v>5.577</v>
       </c>
+      <c r="G240">
+        <v>0.67748189999999997</v>
+      </c>
     </row>
     <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241">
@@ -7949,6 +8063,9 @@
       <c r="F241">
         <v>8.1519999999999992</v>
       </c>
+      <c r="G241">
+        <v>0.38812190000000002</v>
+      </c>
     </row>
     <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242">
@@ -7966,6 +8083,9 @@
       <c r="F242">
         <v>6.4489999999999998</v>
       </c>
+      <c r="G242">
+        <v>1.632914</v>
+      </c>
     </row>
     <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243">
@@ -7983,6 +8103,9 @@
       <c r="F243">
         <v>6.3029999999999999</v>
       </c>
+      <c r="G243">
+        <v>1.1092390000000001</v>
+      </c>
     </row>
     <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244">
@@ -8000,6 +8123,9 @@
       <c r="F244">
         <v>8.2029999999999994</v>
       </c>
+      <c r="G244">
+        <v>0.23159730000000001</v>
+      </c>
     </row>
     <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245">
@@ -8017,6 +8143,9 @@
       <c r="F245">
         <v>6.109</v>
       </c>
+      <c r="G245">
+        <v>0.20237640000000001</v>
+      </c>
     </row>
     <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246">
@@ -8034,6 +8163,9 @@
       <c r="F246">
         <v>6.3040000000000003</v>
       </c>
+      <c r="G246">
+        <v>0.91989739999999998</v>
+      </c>
     </row>
     <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247">
@@ -8050,6 +8182,9 @@
       </c>
       <c r="F247">
         <v>5.8490000000000002</v>
+      </c>
+      <c r="G247">
+        <v>0.27305230000000003</v>
       </c>
     </row>
     <row r="248" spans="1:9" x14ac:dyDescent="0.25">
@@ -8068,6 +8203,9 @@
       <c r="F248">
         <v>5.1159999999999997</v>
       </c>
+      <c r="G248">
+        <v>2.163821</v>
+      </c>
     </row>
     <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249">
@@ -8085,6 +8223,9 @@
       <c r="F249">
         <v>4.2350000000000003</v>
       </c>
+      <c r="G249">
+        <v>0.16889380000000001</v>
+      </c>
     </row>
     <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250">
@@ -8102,6 +8243,9 @@
       <c r="F250">
         <v>4.117</v>
       </c>
+      <c r="G250">
+        <v>0.1406567</v>
+      </c>
     </row>
     <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251">
@@ -8119,6 +8263,9 @@
       <c r="F251">
         <v>5.5430000000000001</v>
       </c>
+      <c r="G251">
+        <v>0.26491229999999999</v>
+      </c>
     </row>
     <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252">
@@ -8136,6 +8283,9 @@
       <c r="F252">
         <v>6.2839999999999998</v>
       </c>
+      <c r="G252">
+        <v>0.28355079999999999</v>
+      </c>
     </row>
     <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253">
@@ -8153,6 +8303,9 @@
       <c r="F253">
         <v>7.8940000000000001</v>
       </c>
+      <c r="G253">
+        <v>0.30215059999999999</v>
+      </c>
     </row>
     <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254">
@@ -8170,6 +8323,9 @@
       <c r="F254">
         <v>3.7349999999999999</v>
       </c>
+      <c r="G254">
+        <v>1.5316270000000001</v>
+      </c>
     </row>
     <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255">
@@ -8184,6 +8340,9 @@
       <c r="E255" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="G255" s="2">
+        <v>1.99E-3</v>
+      </c>
     </row>
     <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256">
@@ -8197,6 +8356,9 @@
       </c>
       <c r="E256" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="G256">
+        <v>1.5765600000000001E-2</v>
       </c>
       <c r="I256" s="5">
         <v>0.56944444444444442</v>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45FDAC8D-1B7C-469A-9B0D-F5E3DC379BC3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C539D-9E31-49D8-A84D-CC05888C4523}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -2749,8 +2749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="K249" sqref="K249"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S13" sqref="S13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7294,6 +7294,9 @@
       <c r="C203">
         <v>7000</v>
       </c>
+      <c r="D203">
+        <v>11</v>
+      </c>
       <c r="E203" s="1" t="s">
         <v>17</v>
       </c>
@@ -7317,6 +7320,9 @@
       <c r="C204">
         <v>7000</v>
       </c>
+      <c r="D204">
+        <v>11</v>
+      </c>
       <c r="E204" s="1" t="s">
         <v>17</v>
       </c>
@@ -7337,6 +7343,9 @@
       <c r="C205">
         <v>7000</v>
       </c>
+      <c r="D205">
+        <v>11</v>
+      </c>
       <c r="E205" s="1" t="s">
         <v>17</v>
       </c>
@@ -7357,6 +7366,9 @@
       <c r="C206">
         <v>7000</v>
       </c>
+      <c r="D206">
+        <v>11</v>
+      </c>
       <c r="E206" s="1" t="s">
         <v>17</v>
       </c>
@@ -7376,6 +7388,9 @@
       </c>
       <c r="C207">
         <v>7000</v>
+      </c>
+      <c r="D207">
+        <v>11</v>
       </c>
       <c r="E207" s="1" t="s">
         <v>17</v>
@@ -7397,6 +7412,9 @@
       <c r="C208">
         <v>7000</v>
       </c>
+      <c r="D208">
+        <v>11</v>
+      </c>
       <c r="E208" s="1" t="s">
         <v>17</v>
       </c>
@@ -7417,6 +7435,9 @@
       <c r="C209">
         <v>7000</v>
       </c>
+      <c r="D209">
+        <v>11</v>
+      </c>
       <c r="E209" s="1" t="s">
         <v>17</v>
       </c>
@@ -7436,6 +7457,9 @@
       </c>
       <c r="C210">
         <v>7000</v>
+      </c>
+      <c r="D210">
+        <v>11</v>
       </c>
       <c r="E210" s="1" t="s">
         <v>17</v>
@@ -7457,6 +7481,9 @@
       <c r="C211">
         <v>7000</v>
       </c>
+      <c r="D211">
+        <v>11</v>
+      </c>
       <c r="E211" s="1" t="s">
         <v>17</v>
       </c>
@@ -7476,6 +7503,9 @@
       </c>
       <c r="C212">
         <v>7000</v>
+      </c>
+      <c r="D212">
+        <v>11</v>
       </c>
       <c r="E212" s="1" t="s">
         <v>17</v>
@@ -7497,6 +7527,9 @@
       <c r="C213">
         <v>7000</v>
       </c>
+      <c r="D213">
+        <v>11</v>
+      </c>
       <c r="E213" s="1" t="s">
         <v>17</v>
       </c>
@@ -7517,6 +7550,9 @@
       <c r="C214">
         <v>7000</v>
       </c>
+      <c r="D214">
+        <v>11</v>
+      </c>
       <c r="E214" s="1" t="s">
         <v>17</v>
       </c>
@@ -7537,6 +7573,9 @@
       <c r="C215">
         <v>7000</v>
       </c>
+      <c r="D215">
+        <v>11</v>
+      </c>
       <c r="E215" s="1" t="s">
         <v>17</v>
       </c>
@@ -7557,6 +7596,9 @@
       <c r="C216">
         <v>7000</v>
       </c>
+      <c r="D216">
+        <v>11</v>
+      </c>
       <c r="E216" s="1" t="s">
         <v>17</v>
       </c>
@@ -7577,6 +7619,9 @@
       <c r="C217">
         <v>7000</v>
       </c>
+      <c r="D217">
+        <v>11</v>
+      </c>
       <c r="E217" s="1" t="s">
         <v>17</v>
       </c>
@@ -7597,6 +7642,9 @@
       <c r="C218">
         <v>7000</v>
       </c>
+      <c r="D218">
+        <v>11</v>
+      </c>
       <c r="E218" s="1" t="s">
         <v>17</v>
       </c>
@@ -7617,6 +7665,9 @@
       <c r="C219">
         <v>7000</v>
       </c>
+      <c r="D219">
+        <v>11</v>
+      </c>
       <c r="E219" s="1" t="s">
         <v>17</v>
       </c>
@@ -7636,6 +7687,9 @@
       </c>
       <c r="C220">
         <v>7000</v>
+      </c>
+      <c r="D220">
+        <v>11</v>
       </c>
       <c r="E220" s="1" t="s">
         <v>17</v>
@@ -7657,6 +7711,9 @@
       <c r="C221">
         <v>7000</v>
       </c>
+      <c r="D221">
+        <v>11</v>
+      </c>
       <c r="E221" s="1" t="s">
         <v>17</v>
       </c>
@@ -7677,6 +7734,9 @@
       <c r="C222">
         <v>7000</v>
       </c>
+      <c r="D222">
+        <v>11</v>
+      </c>
       <c r="E222" s="1" t="s">
         <v>17</v>
       </c>
@@ -7697,6 +7757,9 @@
       <c r="C223">
         <v>7000</v>
       </c>
+      <c r="D223">
+        <v>11</v>
+      </c>
       <c r="E223" s="1" t="s">
         <v>17</v>
       </c>
@@ -7717,6 +7780,9 @@
       <c r="C224">
         <v>7000</v>
       </c>
+      <c r="D224">
+        <v>11</v>
+      </c>
       <c r="E224" s="1" t="s">
         <v>17</v>
       </c>
@@ -7737,6 +7803,9 @@
       <c r="C225">
         <v>7000</v>
       </c>
+      <c r="D225">
+        <v>11</v>
+      </c>
       <c r="E225" s="1" t="s">
         <v>17</v>
       </c>
@@ -7757,6 +7826,9 @@
       <c r="C226">
         <v>7000</v>
       </c>
+      <c r="D226">
+        <v>11</v>
+      </c>
       <c r="E226" s="1" t="s">
         <v>17</v>
       </c>
@@ -7777,6 +7849,9 @@
       <c r="C227">
         <v>7000</v>
       </c>
+      <c r="D227">
+        <v>11</v>
+      </c>
       <c r="E227" s="1" t="s">
         <v>17</v>
       </c>
@@ -7797,6 +7872,9 @@
       <c r="C228">
         <v>7000</v>
       </c>
+      <c r="D228">
+        <v>11</v>
+      </c>
       <c r="E228" s="1" t="s">
         <v>17</v>
       </c>
@@ -7814,6 +7892,9 @@
       <c r="C229">
         <v>7000</v>
       </c>
+      <c r="D229">
+        <v>11</v>
+      </c>
       <c r="E229" s="1" t="s">
         <v>17</v>
       </c>
@@ -7834,6 +7915,9 @@
       <c r="C230">
         <v>6262</v>
       </c>
+      <c r="D230">
+        <v>11</v>
+      </c>
       <c r="E230" s="1" t="s">
         <v>17</v>
       </c>
@@ -7857,6 +7941,9 @@
       <c r="C231">
         <v>6262</v>
       </c>
+      <c r="D231">
+        <v>11</v>
+      </c>
       <c r="E231" s="1" t="s">
         <v>17</v>
       </c>
@@ -7877,6 +7964,9 @@
       <c r="C232">
         <v>6262</v>
       </c>
+      <c r="D232">
+        <v>11</v>
+      </c>
       <c r="E232" s="1" t="s">
         <v>17</v>
       </c>
@@ -7897,6 +7987,9 @@
       <c r="C233">
         <v>6262</v>
       </c>
+      <c r="D233">
+        <v>11</v>
+      </c>
       <c r="E233" s="1" t="s">
         <v>17</v>
       </c>
@@ -7916,6 +8009,9 @@
       </c>
       <c r="C234">
         <v>6262</v>
+      </c>
+      <c r="D234">
+        <v>11</v>
       </c>
       <c r="E234" s="1" t="s">
         <v>17</v>
@@ -7937,6 +8033,9 @@
       <c r="C235">
         <v>6262</v>
       </c>
+      <c r="D235">
+        <v>11</v>
+      </c>
       <c r="E235" s="1" t="s">
         <v>17</v>
       </c>
@@ -7957,6 +8056,9 @@
       <c r="C236">
         <v>6262</v>
       </c>
+      <c r="D236">
+        <v>11</v>
+      </c>
       <c r="E236" s="1" t="s">
         <v>17</v>
       </c>
@@ -7976,6 +8078,9 @@
       </c>
       <c r="C237">
         <v>6262</v>
+      </c>
+      <c r="D237">
+        <v>11</v>
       </c>
       <c r="E237" s="1" t="s">
         <v>17</v>
@@ -7997,6 +8102,9 @@
       <c r="C238">
         <v>6262</v>
       </c>
+      <c r="D238">
+        <v>11</v>
+      </c>
       <c r="E238" s="1" t="s">
         <v>17</v>
       </c>
@@ -8016,6 +8124,9 @@
       </c>
       <c r="C239">
         <v>6262</v>
+      </c>
+      <c r="D239">
+        <v>11</v>
       </c>
       <c r="E239" s="1" t="s">
         <v>17</v>
@@ -8037,6 +8148,9 @@
       <c r="C240">
         <v>6262</v>
       </c>
+      <c r="D240">
+        <v>11</v>
+      </c>
       <c r="E240" s="1" t="s">
         <v>17</v>
       </c>
@@ -8057,6 +8171,9 @@
       <c r="C241">
         <v>6262</v>
       </c>
+      <c r="D241">
+        <v>11</v>
+      </c>
       <c r="E241" s="1" t="s">
         <v>17</v>
       </c>
@@ -8077,6 +8194,9 @@
       <c r="C242">
         <v>6262</v>
       </c>
+      <c r="D242">
+        <v>11</v>
+      </c>
       <c r="E242" s="1" t="s">
         <v>17</v>
       </c>
@@ -8097,6 +8217,9 @@
       <c r="C243">
         <v>6262</v>
       </c>
+      <c r="D243">
+        <v>11</v>
+      </c>
       <c r="E243" s="1" t="s">
         <v>17</v>
       </c>
@@ -8117,6 +8240,9 @@
       <c r="C244">
         <v>6262</v>
       </c>
+      <c r="D244">
+        <v>11</v>
+      </c>
       <c r="E244" s="1" t="s">
         <v>17</v>
       </c>
@@ -8137,6 +8263,9 @@
       <c r="C245">
         <v>6262</v>
       </c>
+      <c r="D245">
+        <v>11</v>
+      </c>
       <c r="E245" s="1" t="s">
         <v>17</v>
       </c>
@@ -8157,6 +8286,9 @@
       <c r="C246">
         <v>6262</v>
       </c>
+      <c r="D246">
+        <v>11</v>
+      </c>
       <c r="E246" s="1" t="s">
         <v>17</v>
       </c>
@@ -8176,6 +8308,9 @@
       </c>
       <c r="C247">
         <v>6262</v>
+      </c>
+      <c r="D247">
+        <v>11</v>
       </c>
       <c r="E247" s="1" t="s">
         <v>17</v>
@@ -8197,6 +8332,9 @@
       <c r="C248">
         <v>6262</v>
       </c>
+      <c r="D248">
+        <v>11</v>
+      </c>
       <c r="E248" s="1" t="s">
         <v>17</v>
       </c>
@@ -8217,6 +8355,9 @@
       <c r="C249">
         <v>6262</v>
       </c>
+      <c r="D249">
+        <v>11</v>
+      </c>
       <c r="E249" s="1" t="s">
         <v>17</v>
       </c>
@@ -8237,6 +8378,9 @@
       <c r="C250">
         <v>6262</v>
       </c>
+      <c r="D250">
+        <v>11</v>
+      </c>
       <c r="E250" s="1" t="s">
         <v>17</v>
       </c>
@@ -8257,6 +8401,9 @@
       <c r="C251">
         <v>6262</v>
       </c>
+      <c r="D251">
+        <v>11</v>
+      </c>
       <c r="E251" s="1" t="s">
         <v>17</v>
       </c>
@@ -8277,6 +8424,9 @@
       <c r="C252">
         <v>6262</v>
       </c>
+      <c r="D252">
+        <v>11</v>
+      </c>
       <c r="E252" s="1" t="s">
         <v>17</v>
       </c>
@@ -8297,6 +8447,9 @@
       <c r="C253">
         <v>6262</v>
       </c>
+      <c r="D253">
+        <v>11</v>
+      </c>
       <c r="E253" s="1" t="s">
         <v>17</v>
       </c>
@@ -8317,6 +8470,9 @@
       <c r="C254">
         <v>6262</v>
       </c>
+      <c r="D254">
+        <v>11</v>
+      </c>
       <c r="E254" s="1" t="s">
         <v>17</v>
       </c>
@@ -8337,6 +8493,9 @@
       <c r="C255">
         <v>6262</v>
       </c>
+      <c r="D255">
+        <v>11</v>
+      </c>
       <c r="E255" s="1" t="s">
         <v>17</v>
       </c>
@@ -8353,6 +8512,9 @@
       </c>
       <c r="C256">
         <v>6262</v>
+      </c>
+      <c r="D256">
+        <v>11</v>
       </c>
       <c r="E256" s="1" t="s">
         <v>17</v>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andrew.nguyen\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C7C539D-9E31-49D8-A84D-CC05888C4523}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A876BF-60C7-4627-AF21-C9BE1E9AA0F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
     <sheet name="Day8 pupae" sheetId="2" r:id="rId2"/>
+    <sheet name="Day15 pupae" sheetId="3" r:id="rId3"/>
+    <sheet name="Day20pupae" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="755" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -89,6 +91,18 @@
   </si>
   <si>
     <t>if error for respiration</t>
+  </si>
+  <si>
+    <t>day14_weight</t>
+  </si>
+  <si>
+    <t>day15_resp</t>
+  </si>
+  <si>
+    <t>day19_weight</t>
+  </si>
+  <si>
+    <t>day20_resp</t>
   </si>
 </sst>
 </file>
@@ -2749,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8548,4 +8562,1437 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17AC73-92BE-423C-B9F5-6966FF440A93}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7000</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7000</v>
+      </c>
+      <c r="D5">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7000</v>
+      </c>
+      <c r="D6">
+        <v>8</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7000</v>
+      </c>
+      <c r="D7">
+        <v>8</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>8</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <v>8</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7000</v>
+      </c>
+      <c r="D11">
+        <v>8</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>8</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7000</v>
+      </c>
+      <c r="D13">
+        <v>8</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7000</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7000</v>
+      </c>
+      <c r="D15">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7000</v>
+      </c>
+      <c r="D17">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7000</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>7000</v>
+      </c>
+      <c r="D19">
+        <v>8</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7000</v>
+      </c>
+      <c r="D20">
+        <v>8</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>7000</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7000</v>
+      </c>
+      <c r="D22">
+        <v>8</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7000</v>
+      </c>
+      <c r="D23">
+        <v>8</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>6262</v>
+      </c>
+      <c r="D24">
+        <v>8</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>6262</v>
+      </c>
+      <c r="D25">
+        <v>8</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>6262</v>
+      </c>
+      <c r="D26">
+        <v>8</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>6262</v>
+      </c>
+      <c r="D27">
+        <v>8</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>6262</v>
+      </c>
+      <c r="D28">
+        <v>8</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>6</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>6262</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>6262</v>
+      </c>
+      <c r="D30">
+        <v>8</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>6262</v>
+      </c>
+      <c r="D31">
+        <v>8</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>6262</v>
+      </c>
+      <c r="D32">
+        <v>8</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>6262</v>
+      </c>
+      <c r="D33">
+        <v>8</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>11</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6262</v>
+      </c>
+      <c r="D34">
+        <v>8</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>12</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6262</v>
+      </c>
+      <c r="D35">
+        <v>8</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>13</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>6262</v>
+      </c>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>14</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>6262</v>
+      </c>
+      <c r="D37">
+        <v>8</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>15</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>6262</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>16</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>6262</v>
+      </c>
+      <c r="D39">
+        <v>8</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>17</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>6262</v>
+      </c>
+      <c r="D40">
+        <v>8</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>18</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>6262</v>
+      </c>
+      <c r="D41">
+        <v>8</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>19</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>6262</v>
+      </c>
+      <c r="D42">
+        <v>8</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>20</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>6262</v>
+      </c>
+      <c r="D43">
+        <v>8</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>6262</v>
+      </c>
+      <c r="D44">
+        <v>8</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>22</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>6262</v>
+      </c>
+      <c r="D45">
+        <v>8</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
+  <dimension ref="A1:I37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7000</v>
+      </c>
+      <c r="D2">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+      <c r="D3">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7000</v>
+      </c>
+      <c r="D5">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7000</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7000</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7000</v>
+      </c>
+      <c r="D11">
+        <v>18</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7000</v>
+      </c>
+      <c r="D13">
+        <v>18</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7000</v>
+      </c>
+      <c r="D14">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7000</v>
+      </c>
+      <c r="D15">
+        <v>18</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>18</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7000</v>
+      </c>
+      <c r="D17">
+        <v>18</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7000</v>
+      </c>
+      <c r="D18">
+        <v>18</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>6262</v>
+      </c>
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>6262</v>
+      </c>
+      <c r="D20">
+        <v>18</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>6262</v>
+      </c>
+      <c r="D21">
+        <v>18</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>6262</v>
+      </c>
+      <c r="D22">
+        <v>18</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>6262</v>
+      </c>
+      <c r="D23">
+        <v>18</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>6262</v>
+      </c>
+      <c r="D24">
+        <v>18</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>7</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <v>6262</v>
+      </c>
+      <c r="D25">
+        <v>18</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>6262</v>
+      </c>
+      <c r="D26">
+        <v>18</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>9</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>6262</v>
+      </c>
+      <c r="D27">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>6262</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>11</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>6262</v>
+      </c>
+      <c r="D29">
+        <v>18</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>6262</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>13</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>6262</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>14</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>6262</v>
+      </c>
+      <c r="D32">
+        <v>18</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>15</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>6262</v>
+      </c>
+      <c r="D33">
+        <v>18</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6262</v>
+      </c>
+      <c r="D34">
+        <v>18</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6262</v>
+      </c>
+      <c r="D35">
+        <v>18</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A876BF-60C7-4627-AF21-C9BE1E9AA0F7}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646166A3-E354-4EA0-8A75-F4F86AACAF1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="2" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -8568,8 +8568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17AC73-92BE-423C-B9F5-6966FF440A93}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8627,6 +8627,9 @@
       <c r="E2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F2">
+        <v>6.1139999999999999</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8644,6 +8647,9 @@
       <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F3">
+        <v>2.4860000000000002</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8661,6 +8667,9 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F4">
+        <v>4.6689999999999996</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8678,6 +8687,9 @@
       <c r="E5" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F5">
+        <v>5.8449999999999998</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8694,6 +8706,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F6">
+        <v>4.4939999999999998</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8712,6 +8727,9 @@
       <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F7">
+        <v>9.798</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8729,6 +8747,9 @@
       <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F8">
+        <v>4.694</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8745,6 +8766,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F9">
+        <v>5.609</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8763,6 +8787,9 @@
       <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F10">
+        <v>5.5410000000000004</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8779,6 +8806,9 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F11">
+        <v>7.3879999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8797,6 +8827,9 @@
       <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F12">
+        <v>5.234</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8814,6 +8847,9 @@
       <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F13">
+        <v>9.4969999999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8831,6 +8867,9 @@
       <c r="E14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F14">
+        <v>8.5980000000000008</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8848,6 +8887,9 @@
       <c r="E15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="F15">
+        <v>6.5190000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8865,8 +8907,11 @@
       <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>8.4960000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8882,8 +8927,11 @@
       <c r="E17" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F17">
+        <v>3.415</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8899,8 +8947,11 @@
       <c r="E18" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F18">
+        <v>2.669</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8916,8 +8967,11 @@
       <c r="E19" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>5.4740000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8933,8 +8987,11 @@
       <c r="E20" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>5.7839999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -8950,8 +9007,11 @@
       <c r="E21" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>7.6639999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -8968,7 +9028,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -8985,7 +9045,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9001,8 +9061,11 @@
       <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>7.5659999999999998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9018,8 +9081,11 @@
       <c r="E25" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>4.3550000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9035,8 +9101,11 @@
       <c r="E26" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>7.1689999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -9052,8 +9121,11 @@
       <c r="E27" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -9069,8 +9141,11 @@
       <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>5.2629999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -9086,8 +9161,11 @@
       <c r="E29" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>4.1230000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -9103,8 +9181,11 @@
       <c r="E30" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>6.1689999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -9120,8 +9201,11 @@
       <c r="E31" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -9137,8 +9221,11 @@
       <c r="E32" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>3.9670000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -9154,8 +9241,11 @@
       <c r="E33" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>5.9729999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -9171,8 +9261,11 @@
       <c r="E34" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34">
+        <v>9.1929999999999996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -9188,8 +9281,11 @@
       <c r="E35" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35">
+        <v>7.4710000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>
@@ -9205,8 +9301,11 @@
       <c r="E36" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36">
+        <v>5.9580000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -9222,8 +9321,11 @@
       <c r="E37" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>4.2089999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15</v>
       </c>
@@ -9239,8 +9341,11 @@
       <c r="E38" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>4.9859999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -9256,8 +9361,11 @@
       <c r="E39" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>3.46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -9273,8 +9381,11 @@
       <c r="E40" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>6.1959999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18</v>
       </c>
@@ -9290,8 +9401,11 @@
       <c r="E41" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>5.7869999999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -9307,8 +9421,11 @@
       <c r="E42" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>2.0150000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20</v>
       </c>
@@ -9324,8 +9441,11 @@
       <c r="E43" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>6.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
@@ -9342,7 +9462,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -9368,7 +9488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{646166A3-E354-4EA0-8A75-F4F86AACAF1F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CE41D-FB10-4167-952B-34E5E3A24FB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="2" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="25">
   <si>
     <t>N</t>
   </si>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8252292-F22C-44D7-8192-0F84B00EF6F9}">
   <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37:C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,8 +2763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E37"/>
+    <sheetView topLeftCell="A177" workbookViewId="0">
+      <selection activeCell="D166" sqref="D166:E201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8568,7 +8568,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17AC73-92BE-423C-B9F5-6966FF440A93}">
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
@@ -9486,10 +9486,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10110,7 +10110,3291 @@
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E37" s="1"/>
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37">
+        <v>7000</v>
+      </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38">
+        <v>7000</v>
+      </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39">
+        <v>7000</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+      <c r="B40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40">
+        <v>7000</v>
+      </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>7000</v>
+      </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>6</v>
+      </c>
+      <c r="B42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C42">
+        <v>7000</v>
+      </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>7</v>
+      </c>
+      <c r="B43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <v>7000</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>7</v>
+      </c>
+      <c r="C44">
+        <v>7000</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>9</v>
+      </c>
+      <c r="B45" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45">
+        <v>7000</v>
+      </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>10</v>
+      </c>
+      <c r="B46" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46">
+        <v>7000</v>
+      </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>7000</v>
+      </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>12</v>
+      </c>
+      <c r="B48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C48">
+        <v>7000</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>13</v>
+      </c>
+      <c r="B49" t="s">
+        <v>7</v>
+      </c>
+      <c r="C49">
+        <v>7000</v>
+      </c>
+      <c r="D49">
+        <v>5</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>14</v>
+      </c>
+      <c r="B50" t="s">
+        <v>7</v>
+      </c>
+      <c r="C50">
+        <v>7000</v>
+      </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>15</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>7000</v>
+      </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>16</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7000</v>
+      </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>17</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>7000</v>
+      </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>18</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>7000</v>
+      </c>
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>19</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7000</v>
+      </c>
+      <c r="D55">
+        <v>5</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>20</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7000</v>
+      </c>
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>21</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7000</v>
+      </c>
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1</v>
+      </c>
+      <c r="B58" t="s">
+        <v>8</v>
+      </c>
+      <c r="C58">
+        <v>6262</v>
+      </c>
+      <c r="D58">
+        <v>5</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2</v>
+      </c>
+      <c r="B59" t="s">
+        <v>8</v>
+      </c>
+      <c r="C59">
+        <v>6262</v>
+      </c>
+      <c r="D59">
+        <v>5</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60" t="s">
+        <v>8</v>
+      </c>
+      <c r="C60">
+        <v>6262</v>
+      </c>
+      <c r="D60">
+        <v>5</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4</v>
+      </c>
+      <c r="B61" t="s">
+        <v>8</v>
+      </c>
+      <c r="C61">
+        <v>6262</v>
+      </c>
+      <c r="D61">
+        <v>5</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>8</v>
+      </c>
+      <c r="C62">
+        <v>6262</v>
+      </c>
+      <c r="D62">
+        <v>5</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63" t="s">
+        <v>8</v>
+      </c>
+      <c r="C63">
+        <v>6262</v>
+      </c>
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>7</v>
+      </c>
+      <c r="B64" t="s">
+        <v>8</v>
+      </c>
+      <c r="C64">
+        <v>6262</v>
+      </c>
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>8</v>
+      </c>
+      <c r="B65" t="s">
+        <v>8</v>
+      </c>
+      <c r="C65">
+        <v>6262</v>
+      </c>
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>9</v>
+      </c>
+      <c r="B66" t="s">
+        <v>8</v>
+      </c>
+      <c r="C66">
+        <v>6262</v>
+      </c>
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>10</v>
+      </c>
+      <c r="B67" t="s">
+        <v>8</v>
+      </c>
+      <c r="C67">
+        <v>6262</v>
+      </c>
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>11</v>
+      </c>
+      <c r="B68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68">
+        <v>6262</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69">
+        <v>6262</v>
+      </c>
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>13</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>6262</v>
+      </c>
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>14</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>6262</v>
+      </c>
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>15</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>6262</v>
+      </c>
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>16</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>6262</v>
+      </c>
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>17</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>6262</v>
+      </c>
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>18</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>6262</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>19</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>6262</v>
+      </c>
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>20</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>6262</v>
+      </c>
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>21</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>6262</v>
+      </c>
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>7000</v>
+      </c>
+      <c r="D80">
+        <v>6</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2</v>
+      </c>
+      <c r="B81" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81">
+        <v>7000</v>
+      </c>
+      <c r="D81">
+        <v>6</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>3</v>
+      </c>
+      <c r="B82" t="s">
+        <v>7</v>
+      </c>
+      <c r="C82">
+        <v>7000</v>
+      </c>
+      <c r="D82">
+        <v>6</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83" t="s">
+        <v>7</v>
+      </c>
+      <c r="C83">
+        <v>7000</v>
+      </c>
+      <c r="D83">
+        <v>6</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>7</v>
+      </c>
+      <c r="C84">
+        <v>7000</v>
+      </c>
+      <c r="D84">
+        <v>6</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>6</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>7000</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>7</v>
+      </c>
+      <c r="B86" t="s">
+        <v>7</v>
+      </c>
+      <c r="C86">
+        <v>7000</v>
+      </c>
+      <c r="D86">
+        <v>6</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8</v>
+      </c>
+      <c r="B87" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87">
+        <v>7000</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>9</v>
+      </c>
+      <c r="B88" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88">
+        <v>7000</v>
+      </c>
+      <c r="D88">
+        <v>6</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>10</v>
+      </c>
+      <c r="B89" t="s">
+        <v>7</v>
+      </c>
+      <c r="C89">
+        <v>7000</v>
+      </c>
+      <c r="D89">
+        <v>6</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>11</v>
+      </c>
+      <c r="B90" t="s">
+        <v>7</v>
+      </c>
+      <c r="C90">
+        <v>7000</v>
+      </c>
+      <c r="D90">
+        <v>6</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>12</v>
+      </c>
+      <c r="B91" t="s">
+        <v>7</v>
+      </c>
+      <c r="C91">
+        <v>7000</v>
+      </c>
+      <c r="D91">
+        <v>6</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>7</v>
+      </c>
+      <c r="C92">
+        <v>7000</v>
+      </c>
+      <c r="D92">
+        <v>6</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>14</v>
+      </c>
+      <c r="B93" t="s">
+        <v>7</v>
+      </c>
+      <c r="C93">
+        <v>7000</v>
+      </c>
+      <c r="D93">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>15</v>
+      </c>
+      <c r="B94" t="s">
+        <v>7</v>
+      </c>
+      <c r="C94">
+        <v>7000</v>
+      </c>
+      <c r="D94">
+        <v>6</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>16</v>
+      </c>
+      <c r="B95" t="s">
+        <v>7</v>
+      </c>
+      <c r="C95">
+        <v>7000</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>17</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>7000</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>18</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>7000</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>19</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>7000</v>
+      </c>
+      <c r="D98">
+        <v>6</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>20</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>7000</v>
+      </c>
+      <c r="D99">
+        <v>6</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>21</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>7000</v>
+      </c>
+      <c r="D100">
+        <v>6</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>22</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>7000</v>
+      </c>
+      <c r="D101">
+        <v>6</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>7000</v>
+      </c>
+      <c r="D102">
+        <v>6</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>24</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>7000</v>
+      </c>
+      <c r="D103">
+        <v>6</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>25</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>7000</v>
+      </c>
+      <c r="D104">
+        <v>6</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>26</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>7000</v>
+      </c>
+      <c r="D105">
+        <v>6</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>27</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>7000</v>
+      </c>
+      <c r="D106">
+        <v>6</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>28</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>7000</v>
+      </c>
+      <c r="D107">
+        <v>6</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>29</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>7000</v>
+      </c>
+      <c r="D108">
+        <v>6</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>30</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>7000</v>
+      </c>
+      <c r="D109">
+        <v>6</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>31</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>7000</v>
+      </c>
+      <c r="D110">
+        <v>6</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>32</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>7000</v>
+      </c>
+      <c r="D111">
+        <v>6</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>1</v>
+      </c>
+      <c r="B112" t="s">
+        <v>8</v>
+      </c>
+      <c r="C112">
+        <v>6262</v>
+      </c>
+      <c r="D112">
+        <v>6</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2</v>
+      </c>
+      <c r="B113" t="s">
+        <v>8</v>
+      </c>
+      <c r="C113">
+        <v>6262</v>
+      </c>
+      <c r="D113">
+        <v>6</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>3</v>
+      </c>
+      <c r="B114" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114">
+        <v>6262</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>4</v>
+      </c>
+      <c r="B115" t="s">
+        <v>8</v>
+      </c>
+      <c r="C115">
+        <v>6262</v>
+      </c>
+      <c r="D115">
+        <v>6</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>8</v>
+      </c>
+      <c r="C116">
+        <v>6262</v>
+      </c>
+      <c r="D116">
+        <v>6</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117" t="s">
+        <v>8</v>
+      </c>
+      <c r="C117">
+        <v>6262</v>
+      </c>
+      <c r="D117">
+        <v>6</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>7</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>6262</v>
+      </c>
+      <c r="D118">
+        <v>6</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>8</v>
+      </c>
+      <c r="B119" t="s">
+        <v>8</v>
+      </c>
+      <c r="C119">
+        <v>6262</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>9</v>
+      </c>
+      <c r="B120" t="s">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>6262</v>
+      </c>
+      <c r="D120">
+        <v>6</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>10</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>6262</v>
+      </c>
+      <c r="D121">
+        <v>6</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>11</v>
+      </c>
+      <c r="B122" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122">
+        <v>6262</v>
+      </c>
+      <c r="D122">
+        <v>6</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>12</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>6262</v>
+      </c>
+      <c r="D123">
+        <v>6</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>13</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>6262</v>
+      </c>
+      <c r="D124">
+        <v>6</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>6262</v>
+      </c>
+      <c r="D125">
+        <v>6</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>15</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>6262</v>
+      </c>
+      <c r="D126">
+        <v>6</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>16</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>6262</v>
+      </c>
+      <c r="D127">
+        <v>6</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>17</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>6262</v>
+      </c>
+      <c r="D128">
+        <v>6</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>18</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>6262</v>
+      </c>
+      <c r="D129">
+        <v>6</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>19</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>6262</v>
+      </c>
+      <c r="D130">
+        <v>6</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>20</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>6262</v>
+      </c>
+      <c r="D131">
+        <v>6</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>21</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>6262</v>
+      </c>
+      <c r="D132">
+        <v>6</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>22</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>6262</v>
+      </c>
+      <c r="D133">
+        <v>6</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>23</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>6262</v>
+      </c>
+      <c r="D134">
+        <v>6</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>24</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>6262</v>
+      </c>
+      <c r="D135">
+        <v>6</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>25</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>6262</v>
+      </c>
+      <c r="D136">
+        <v>6</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>26</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>6262</v>
+      </c>
+      <c r="D137">
+        <v>6</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>27</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138">
+        <v>6262</v>
+      </c>
+      <c r="D138">
+        <v>6</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>28</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>6262</v>
+      </c>
+      <c r="D139">
+        <v>6</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>29</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>6262</v>
+      </c>
+      <c r="D140">
+        <v>6</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>30</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>6262</v>
+      </c>
+      <c r="D141">
+        <v>6</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>31</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>6262</v>
+      </c>
+      <c r="D142">
+        <v>6</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>32</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>6262</v>
+      </c>
+      <c r="D143">
+        <v>6</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>1</v>
+      </c>
+      <c r="B145" t="s">
+        <v>7</v>
+      </c>
+      <c r="C145">
+        <v>7000</v>
+      </c>
+      <c r="D145">
+        <v>7</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2</v>
+      </c>
+      <c r="B146" t="s">
+        <v>7</v>
+      </c>
+      <c r="C146">
+        <v>7000</v>
+      </c>
+      <c r="D146">
+        <v>7</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>3</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>7000</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>4</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>7000</v>
+      </c>
+      <c r="D148">
+        <v>7</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>7000</v>
+      </c>
+      <c r="D149">
+        <v>7</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>7000</v>
+      </c>
+      <c r="D150">
+        <v>7</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>7</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>7000</v>
+      </c>
+      <c r="D151">
+        <v>7</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>7000</v>
+      </c>
+      <c r="D152">
+        <v>7</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>9</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>7000</v>
+      </c>
+      <c r="D153">
+        <v>7</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>10</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>7000</v>
+      </c>
+      <c r="D154">
+        <v>7</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>11</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>7000</v>
+      </c>
+      <c r="D155">
+        <v>7</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>12</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>7000</v>
+      </c>
+      <c r="D156">
+        <v>7</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>13</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>7000</v>
+      </c>
+      <c r="D157">
+        <v>7</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>14</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>7000</v>
+      </c>
+      <c r="D158">
+        <v>7</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>15</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>7000</v>
+      </c>
+      <c r="D159">
+        <v>7</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>7000</v>
+      </c>
+      <c r="D160">
+        <v>7</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>17</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>7000</v>
+      </c>
+      <c r="D161">
+        <v>7</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>18</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>7000</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>19</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>7000</v>
+      </c>
+      <c r="D163">
+        <v>7</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>20</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>7000</v>
+      </c>
+      <c r="D164">
+        <v>7</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>21</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>7000</v>
+      </c>
+      <c r="D165">
+        <v>7</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>22</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>7000</v>
+      </c>
+      <c r="D166">
+        <v>7</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>1</v>
+      </c>
+      <c r="B167" t="s">
+        <v>8</v>
+      </c>
+      <c r="C167">
+        <v>6262</v>
+      </c>
+      <c r="D167">
+        <v>7</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>2</v>
+      </c>
+      <c r="B168" t="s">
+        <v>8</v>
+      </c>
+      <c r="C168">
+        <v>6262</v>
+      </c>
+      <c r="D168">
+        <v>7</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>3</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <v>6262</v>
+      </c>
+      <c r="D169">
+        <v>7</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>4</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>6262</v>
+      </c>
+      <c r="D170">
+        <v>7</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171">
+        <v>6262</v>
+      </c>
+      <c r="D171">
+        <v>7</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>6</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172">
+        <v>6262</v>
+      </c>
+      <c r="D172">
+        <v>7</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>7</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>6262</v>
+      </c>
+      <c r="D173">
+        <v>7</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>8</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>6262</v>
+      </c>
+      <c r="D174">
+        <v>7</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>9</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>6262</v>
+      </c>
+      <c r="D175">
+        <v>7</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>10</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>6262</v>
+      </c>
+      <c r="D176">
+        <v>7</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>11</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <v>6262</v>
+      </c>
+      <c r="D177">
+        <v>7</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>12</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>6262</v>
+      </c>
+      <c r="D178">
+        <v>7</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>13</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>6262</v>
+      </c>
+      <c r="D179">
+        <v>7</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>14</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>6262</v>
+      </c>
+      <c r="D180">
+        <v>7</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>15</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>6262</v>
+      </c>
+      <c r="D181">
+        <v>7</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>16</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>6262</v>
+      </c>
+      <c r="D182">
+        <v>7</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>6262</v>
+      </c>
+      <c r="D183">
+        <v>7</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>18</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>6262</v>
+      </c>
+      <c r="D184">
+        <v>7</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>19</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>6262</v>
+      </c>
+      <c r="D185">
+        <v>7</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>20</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>6262</v>
+      </c>
+      <c r="D186">
+        <v>7</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>21</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>6262</v>
+      </c>
+      <c r="D187">
+        <v>7</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>22</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>6262</v>
+      </c>
+      <c r="D188">
+        <v>7</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>1</v>
+      </c>
+      <c r="B190" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190">
+        <v>7000</v>
+      </c>
+      <c r="D190">
+        <v>8</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>2</v>
+      </c>
+      <c r="B191" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191">
+        <v>7000</v>
+      </c>
+      <c r="D191">
+        <v>8</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>3</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>7000</v>
+      </c>
+      <c r="D192">
+        <v>8</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>4</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>7000</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>7000</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>6</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>7000</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>7</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>7000</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>8</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>7000</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>9</v>
+      </c>
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>7000</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>10</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>7000</v>
+      </c>
+      <c r="D199">
+        <v>8</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>11</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>7000</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>12</v>
+      </c>
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>7000</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>13</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>7000</v>
+      </c>
+      <c r="D202">
+        <v>8</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>14</v>
+      </c>
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>7000</v>
+      </c>
+      <c r="D203">
+        <v>8</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>15</v>
+      </c>
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>7000</v>
+      </c>
+      <c r="D204">
+        <v>8</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>16</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>7000</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>17</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>7000</v>
+      </c>
+      <c r="D206">
+        <v>8</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>7000</v>
+      </c>
+      <c r="D207">
+        <v>8</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>19</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>7000</v>
+      </c>
+      <c r="D208">
+        <v>8</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>20</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>7000</v>
+      </c>
+      <c r="D209">
+        <v>8</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>21</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>7000</v>
+      </c>
+      <c r="D210">
+        <v>8</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>22</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>7000</v>
+      </c>
+      <c r="D211">
+        <v>8</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>1</v>
+      </c>
+      <c r="B212" t="s">
+        <v>8</v>
+      </c>
+      <c r="C212">
+        <v>6262</v>
+      </c>
+      <c r="D212">
+        <v>8</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>2</v>
+      </c>
+      <c r="B213" t="s">
+        <v>8</v>
+      </c>
+      <c r="C213">
+        <v>6262</v>
+      </c>
+      <c r="D213">
+        <v>8</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>3</v>
+      </c>
+      <c r="B214" t="s">
+        <v>8</v>
+      </c>
+      <c r="C214">
+        <v>6262</v>
+      </c>
+      <c r="D214">
+        <v>8</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>4</v>
+      </c>
+      <c r="B215" t="s">
+        <v>8</v>
+      </c>
+      <c r="C215">
+        <v>6262</v>
+      </c>
+      <c r="D215">
+        <v>8</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>8</v>
+      </c>
+      <c r="C216">
+        <v>6262</v>
+      </c>
+      <c r="D216">
+        <v>8</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>6</v>
+      </c>
+      <c r="B217" t="s">
+        <v>8</v>
+      </c>
+      <c r="C217">
+        <v>6262</v>
+      </c>
+      <c r="D217">
+        <v>8</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>7</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218">
+        <v>6262</v>
+      </c>
+      <c r="D218">
+        <v>8</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>8</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <v>6262</v>
+      </c>
+      <c r="D219">
+        <v>8</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>9</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220">
+        <v>6262</v>
+      </c>
+      <c r="D220">
+        <v>8</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>10</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221">
+        <v>6262</v>
+      </c>
+      <c r="D221">
+        <v>8</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>11</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222">
+        <v>6262</v>
+      </c>
+      <c r="D222">
+        <v>8</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>12</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223">
+        <v>6262</v>
+      </c>
+      <c r="D223">
+        <v>8</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>13</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224">
+        <v>6262</v>
+      </c>
+      <c r="D224">
+        <v>8</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>14</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <v>6262</v>
+      </c>
+      <c r="D225">
+        <v>8</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>15</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226">
+        <v>6262</v>
+      </c>
+      <c r="D226">
+        <v>8</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>16</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227">
+        <v>6262</v>
+      </c>
+      <c r="D227">
+        <v>8</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>17</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228">
+        <v>6262</v>
+      </c>
+      <c r="D228">
+        <v>8</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>18</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>6262</v>
+      </c>
+      <c r="D229">
+        <v>8</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>19</v>
+      </c>
+      <c r="B230" t="s">
+        <v>8</v>
+      </c>
+      <c r="C230">
+        <v>6262</v>
+      </c>
+      <c r="D230">
+        <v>8</v>
+      </c>
+      <c r="E230" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>20</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231">
+        <v>6262</v>
+      </c>
+      <c r="D231">
+        <v>8</v>
+      </c>
+      <c r="E231" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>21</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>6262</v>
+      </c>
+      <c r="D232">
+        <v>8</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1CE41D-FB10-4167-952B-34E5E3A24FB1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B4E55-596F-4308-B9EA-24F73CD8408E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -9488,8 +9488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="J231" sqref="J231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9547,6 +9547,12 @@
       <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F2">
+        <v>5.4930000000000003</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.45069444444444445</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -9564,6 +9570,9 @@
       <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F3">
+        <v>7.7309999999999999</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -9581,6 +9590,9 @@
       <c r="E4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F4">
+        <v>2.6389999999999998</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -9598,6 +9610,9 @@
       <c r="E5" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F5">
+        <v>4.3949999999999996</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -9614,6 +9629,9 @@
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F6">
+        <v>10.275</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9632,6 +9650,9 @@
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F7">
+        <v>3.2839999999999998</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -9649,6 +9670,9 @@
       <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F8">
+        <v>6.5659999999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -9665,6 +9689,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F9">
+        <v>3.33</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9683,6 +9710,9 @@
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F10">
+        <v>5.2859999999999996</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -9699,6 +9729,9 @@
       </c>
       <c r="E11" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="F11">
+        <v>6.093</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9717,6 +9750,9 @@
       <c r="E12" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F12">
+        <v>4.8239999999999998</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -9734,6 +9770,9 @@
       <c r="E13" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F13">
+        <v>4.5510000000000002</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -9751,6 +9790,9 @@
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F14">
+        <v>5.3120000000000003</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9768,6 +9810,9 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="F15">
+        <v>9.5670000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -9785,8 +9830,11 @@
       <c r="E16" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16">
+        <v>7.0590000000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9803,7 +9851,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9819,8 +9867,11 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I18" s="5">
+        <v>0.45416666666666666</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1</v>
       </c>
@@ -9836,8 +9887,14 @@
       <c r="E19" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F19">
+        <v>7.93</v>
+      </c>
+      <c r="I19" s="5">
+        <v>0.45416666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -9853,8 +9910,11 @@
       <c r="E20" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F20">
+        <v>4.5229999999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>3</v>
       </c>
@@ -9870,8 +9930,11 @@
       <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21">
+        <v>5.46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4</v>
       </c>
@@ -9887,8 +9950,11 @@
       <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F22">
+        <v>3.9649999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -9904,8 +9970,11 @@
       <c r="E23" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F23">
+        <v>5.8040000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>6</v>
       </c>
@@ -9921,8 +9990,11 @@
       <c r="E24" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24">
+        <v>4.5460000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>7</v>
       </c>
@@ -9938,8 +10010,11 @@
       <c r="E25" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F25">
+        <v>5.6020000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>8</v>
       </c>
@@ -9955,8 +10030,11 @@
       <c r="E26" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>6.0119999999999996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>9</v>
       </c>
@@ -9972,8 +10050,11 @@
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>3.84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -9989,8 +10070,11 @@
       <c r="E28" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F28">
+        <v>4.9969999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>11</v>
       </c>
@@ -10006,8 +10090,11 @@
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29">
+        <v>5.51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>12</v>
       </c>
@@ -10023,8 +10110,11 @@
       <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <v>2.7679999999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>13</v>
       </c>
@@ -10040,8 +10130,11 @@
       <c r="E31" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31">
+        <v>5.7290000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>14</v>
       </c>
@@ -10057,8 +10150,11 @@
       <c r="E32" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32">
+        <v>2.2719999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>15</v>
       </c>
@@ -10074,8 +10170,11 @@
       <c r="E33" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33">
+        <v>3.5049999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>16</v>
       </c>
@@ -10092,7 +10191,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>17</v>
       </c>
@@ -10108,8 +10207,11 @@
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="5">
+        <v>0.45694444444444443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -10125,8 +10227,14 @@
       <c r="E37" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37">
+        <v>5.524</v>
+      </c>
+      <c r="I37" s="5">
+        <v>0.52013888888888882</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -10142,8 +10250,11 @@
       <c r="E38" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38">
+        <v>10.587999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>3</v>
       </c>
@@ -10159,8 +10270,11 @@
       <c r="E39" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39">
+        <v>5.7779999999999996</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>4</v>
       </c>
@@ -10176,8 +10290,11 @@
       <c r="E40" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40">
+        <v>9.7840000000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -10193,8 +10310,11 @@
       <c r="E41" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41">
+        <v>4.8209999999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>6</v>
       </c>
@@ -10210,8 +10330,11 @@
       <c r="E42" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42">
+        <v>8.2859999999999996</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>7</v>
       </c>
@@ -10227,8 +10350,11 @@
       <c r="E43" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43">
+        <v>6.8230000000000004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>8</v>
       </c>
@@ -10244,8 +10370,11 @@
       <c r="E44" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44">
+        <v>5.4009999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>9</v>
       </c>
@@ -10261,8 +10390,11 @@
       <c r="E45" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45">
+        <v>4.1379999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>10</v>
       </c>
@@ -10278,8 +10410,11 @@
       <c r="E46" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46">
+        <v>7.3250000000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>11</v>
       </c>
@@ -10295,8 +10430,11 @@
       <c r="E47" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47">
+        <v>7.0979999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>12</v>
       </c>
@@ -10312,8 +10450,11 @@
       <c r="E48" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48">
+        <v>5.36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>13</v>
       </c>
@@ -10329,8 +10470,11 @@
       <c r="E49" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49">
+        <v>6.077</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -10346,8 +10490,11 @@
       <c r="E50" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50">
+        <v>7.2160000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -10363,8 +10510,11 @@
       <c r="E51" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51">
+        <v>4.8109999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>16</v>
       </c>
@@ -10380,8 +10530,11 @@
       <c r="E52" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52">
+        <v>6.5170000000000003</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>17</v>
       </c>
@@ -10397,8 +10550,11 @@
       <c r="E53" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53">
+        <v>6.7619999999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>18</v>
       </c>
@@ -10414,8 +10570,11 @@
       <c r="E54" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54">
+        <v>7.5549999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -10431,8 +10590,14 @@
       <c r="E55" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55">
+        <v>5.19</v>
+      </c>
+      <c r="I55" s="5">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>20</v>
       </c>
@@ -10449,7 +10614,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>21</v>
       </c>
@@ -10466,7 +10631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -10482,8 +10647,14 @@
       <c r="E58" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>6.6580000000000004</v>
+      </c>
+      <c r="I58" s="5">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -10499,8 +10670,11 @@
       <c r="E59" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>3</v>
       </c>
@@ -10516,8 +10690,11 @@
       <c r="E60" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>5.1440000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -10533,8 +10710,11 @@
       <c r="E61" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>4.8129999999999997</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>5</v>
       </c>
@@ -10550,8 +10730,11 @@
       <c r="E62" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>5.6689999999999996</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>6</v>
       </c>
@@ -10567,8 +10750,11 @@
       <c r="E63" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>4.9669999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>7</v>
       </c>
@@ -10584,8 +10770,11 @@
       <c r="E64" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>6.827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>8</v>
       </c>
@@ -10601,8 +10790,11 @@
       <c r="E65" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>5.9610000000000003</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>9</v>
       </c>
@@ -10618,8 +10810,11 @@
       <c r="E66" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>4.7629999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>10</v>
       </c>
@@ -10635,8 +10830,11 @@
       <c r="E67" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>5.3220000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>11</v>
       </c>
@@ -10652,8 +10850,11 @@
       <c r="E68" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>4.1970000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>12</v>
       </c>
@@ -10669,8 +10870,11 @@
       <c r="E69" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>5.8019999999999996</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>13</v>
       </c>
@@ -10686,8 +10890,11 @@
       <c r="E70" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>5.4870000000000001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>14</v>
       </c>
@@ -10703,8 +10910,11 @@
       <c r="E71" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>4.101</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>15</v>
       </c>
@@ -10720,8 +10930,11 @@
       <c r="E72" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>6.2960000000000003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -10737,8 +10950,11 @@
       <c r="E73" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>5.4109999999999996</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>17</v>
       </c>
@@ -10754,8 +10970,11 @@
       <c r="E74" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>2.5169999999999999</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>18</v>
       </c>
@@ -10771,8 +10990,11 @@
       <c r="E75" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>4.8079999999999998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>19</v>
       </c>
@@ -10788,8 +11010,11 @@
       <c r="E76" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>4.609</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>20</v>
       </c>
@@ -10806,7 +11031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>21</v>
       </c>
@@ -10822,11 +11047,14 @@
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I78" s="5">
+        <v>0.52638888888888891</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1</v>
       </c>
@@ -10842,8 +11070,14 @@
       <c r="E80" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="I80" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -10859,8 +11093,11 @@
       <c r="E81" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>7.0609999999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -10876,8 +11113,11 @@
       <c r="E82" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>7.0019999999999998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -10893,8 +11133,11 @@
       <c r="E83" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>5.569</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>5</v>
       </c>
@@ -10910,8 +11153,11 @@
       <c r="E84" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>6.5270000000000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>6</v>
       </c>
@@ -10927,8 +11173,11 @@
       <c r="E85" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>4.9909999999999997</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>7</v>
       </c>
@@ -10944,8 +11193,11 @@
       <c r="E86" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>7.1120000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>8</v>
       </c>
@@ -10961,8 +11213,11 @@
       <c r="E87" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>5.0199999999999996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>9</v>
       </c>
@@ -10978,8 +11233,11 @@
       <c r="E88" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>7.3090000000000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>10</v>
       </c>
@@ -10995,8 +11253,11 @@
       <c r="E89" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>5.8949999999999996</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>11</v>
       </c>
@@ -11012,8 +11273,11 @@
       <c r="E90" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>5.8120000000000003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>12</v>
       </c>
@@ -11029,8 +11293,11 @@
       <c r="E91" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>7.0140000000000002</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>13</v>
       </c>
@@ -11046,8 +11313,11 @@
       <c r="E92" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>6.3390000000000004</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>14</v>
       </c>
@@ -11063,8 +11333,11 @@
       <c r="E93" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>6.0030000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>15</v>
       </c>
@@ -11080,8 +11353,11 @@
       <c r="E94" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>7.0990000000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>16</v>
       </c>
@@ -11097,8 +11373,11 @@
       <c r="E95" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>6.5469999999999997</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>17</v>
       </c>
@@ -11114,8 +11393,11 @@
       <c r="E96" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>8.4480000000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>18</v>
       </c>
@@ -11131,8 +11413,11 @@
       <c r="E97" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>3.956</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>19</v>
       </c>
@@ -11148,8 +11433,11 @@
       <c r="E98" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>10.196999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>20</v>
       </c>
@@ -11165,8 +11453,11 @@
       <c r="E99" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99">
+        <v>7.069</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>21</v>
       </c>
@@ -11182,8 +11473,11 @@
       <c r="E100" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100">
+        <v>8.9619999999999997</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>22</v>
       </c>
@@ -11199,8 +11493,11 @@
       <c r="E101" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101">
+        <v>8.8040000000000003</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>23</v>
       </c>
@@ -11216,8 +11513,11 @@
       <c r="E102" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102">
+        <v>5.98</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>24</v>
       </c>
@@ -11233,8 +11533,11 @@
       <c r="E103" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103">
+        <v>7.74</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>25</v>
       </c>
@@ -11250,8 +11553,11 @@
       <c r="E104" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104">
+        <v>8.5779999999999994</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>26</v>
       </c>
@@ -11267,8 +11573,11 @@
       <c r="E105" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105">
+        <v>5.0369999999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>27</v>
       </c>
@@ -11284,8 +11593,11 @@
       <c r="E106" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106">
+        <v>7.4249999999999998</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>28</v>
       </c>
@@ -11301,8 +11613,11 @@
       <c r="E107" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107">
+        <v>5.0659999999999998</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>29</v>
       </c>
@@ -11318,8 +11633,11 @@
       <c r="E108" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108">
+        <v>8.9949999999999992</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>30</v>
       </c>
@@ -11335,8 +11653,11 @@
       <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109">
+        <v>6.3410000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>31</v>
       </c>
@@ -11353,7 +11674,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>32</v>
       </c>
@@ -11369,8 +11690,11 @@
       <c r="E111" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I111" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1</v>
       </c>
@@ -11386,8 +11710,14 @@
       <c r="E112" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>4.8869999999999996</v>
+      </c>
+      <c r="I112" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2</v>
       </c>
@@ -11403,8 +11733,11 @@
       <c r="E113" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>6.7530000000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -11420,8 +11753,11 @@
       <c r="E114" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>4.4580000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>4</v>
       </c>
@@ -11437,8 +11773,11 @@
       <c r="E115" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>6.8170000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>5</v>
       </c>
@@ -11454,8 +11793,11 @@
       <c r="E116" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>6.423</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -11471,8 +11813,11 @@
       <c r="E117" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>6.6849999999999996</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>7</v>
       </c>
@@ -11488,8 +11833,11 @@
       <c r="E118" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>4.6719999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>8</v>
       </c>
@@ -11505,8 +11853,11 @@
       <c r="E119" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>7.3129999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>9</v>
       </c>
@@ -11522,8 +11873,11 @@
       <c r="E120" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>6.06</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>10</v>
       </c>
@@ -11539,8 +11893,11 @@
       <c r="E121" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>3.81</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>11</v>
       </c>
@@ -11556,8 +11913,11 @@
       <c r="E122" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122">
+        <v>4.4189999999999996</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>12</v>
       </c>
@@ -11573,8 +11933,11 @@
       <c r="E123" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123">
+        <v>6.1760000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>13</v>
       </c>
@@ -11590,8 +11953,11 @@
       <c r="E124" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>6.6340000000000003</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>14</v>
       </c>
@@ -11607,8 +11973,11 @@
       <c r="E125" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>9.2270000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>15</v>
       </c>
@@ -11624,8 +11993,11 @@
       <c r="E126" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>8.984</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>16</v>
       </c>
@@ -11641,8 +12013,11 @@
       <c r="E127" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>5.2389999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>17</v>
       </c>
@@ -11658,8 +12033,11 @@
       <c r="E128" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>5.3630000000000004</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>18</v>
       </c>
@@ -11675,8 +12053,11 @@
       <c r="E129" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>4.415</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>19</v>
       </c>
@@ -11692,8 +12073,11 @@
       <c r="E130" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>6.0670000000000002</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>20</v>
       </c>
@@ -11709,8 +12093,11 @@
       <c r="E131" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>4.4009999999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>21</v>
       </c>
@@ -11726,8 +12113,11 @@
       <c r="E132" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>8.9039999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>22</v>
       </c>
@@ -11743,8 +12133,11 @@
       <c r="E133" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>4.3789999999999996</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>23</v>
       </c>
@@ -11760,8 +12153,11 @@
       <c r="E134" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>5.4539999999999997</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>24</v>
       </c>
@@ -11777,8 +12173,11 @@
       <c r="E135" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>8.827</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>25</v>
       </c>
@@ -11794,8 +12193,11 @@
       <c r="E136" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>6.617</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>26</v>
       </c>
@@ -11811,8 +12213,11 @@
       <c r="E137" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>5.7229999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>27</v>
       </c>
@@ -11828,8 +12233,11 @@
       <c r="E138" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>5.9669999999999996</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>28</v>
       </c>
@@ -11845,8 +12253,11 @@
       <c r="E139" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>6.7830000000000004</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>29</v>
       </c>
@@ -11862,8 +12273,11 @@
       <c r="E140" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>5.867</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>30</v>
       </c>
@@ -11879,8 +12293,11 @@
       <c r="E141" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>6.1429999999999998</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>31</v>
       </c>
@@ -11897,7 +12314,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>32</v>
       </c>
@@ -11913,11 +12330,14 @@
       <c r="E143" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I143" s="5">
+        <v>0.57638888888888895</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>1</v>
       </c>
@@ -11933,8 +12353,11 @@
       <c r="E145" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145">
+        <v>6.3689999999999998</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2</v>
       </c>
@@ -11950,8 +12373,11 @@
       <c r="E146" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146">
+        <v>6.5110000000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>3</v>
       </c>
@@ -11967,8 +12393,11 @@
       <c r="E147" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147">
+        <v>8.5109999999999992</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>4</v>
       </c>
@@ -11984,8 +12413,11 @@
       <c r="E148" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148">
+        <v>5.173</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>5</v>
       </c>
@@ -12001,8 +12433,11 @@
       <c r="E149" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149">
+        <v>6.7720000000000002</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>6</v>
       </c>
@@ -12018,8 +12453,11 @@
       <c r="E150" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150">
+        <v>6.6890000000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>7</v>
       </c>
@@ -12035,8 +12473,11 @@
       <c r="E151" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151">
+        <v>5.3639999999999999</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>8</v>
       </c>
@@ -12052,8 +12493,11 @@
       <c r="E152" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152">
+        <v>8.1989999999999998</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>9</v>
       </c>
@@ -12069,8 +12513,11 @@
       <c r="E153" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153">
+        <v>6.74</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>10</v>
       </c>
@@ -12086,8 +12533,11 @@
       <c r="E154" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154">
+        <v>5.5570000000000004</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>11</v>
       </c>
@@ -12103,8 +12553,11 @@
       <c r="E155" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155">
+        <v>7.3079999999999998</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>12</v>
       </c>
@@ -12120,8 +12573,11 @@
       <c r="E156" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156">
+        <v>7.6589999999999998</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>13</v>
       </c>
@@ -12137,8 +12593,11 @@
       <c r="E157" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157">
+        <v>7.851</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>14</v>
       </c>
@@ -12154,8 +12613,11 @@
       <c r="E158" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158">
+        <v>5.3330000000000002</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>15</v>
       </c>
@@ -12171,8 +12633,11 @@
       <c r="E159" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159">
+        <v>7.673</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>16</v>
       </c>
@@ -12188,8 +12653,11 @@
       <c r="E160" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>6.0869999999999997</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>17</v>
       </c>
@@ -12205,8 +12673,11 @@
       <c r="E161" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>6.2130000000000001</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>18</v>
       </c>
@@ -12222,8 +12693,11 @@
       <c r="E162" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>7.5010000000000003</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>19</v>
       </c>
@@ -12239,8 +12713,11 @@
       <c r="E163" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>7.3369999999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>20</v>
       </c>
@@ -12256,8 +12733,11 @@
       <c r="E164" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>9.609</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>21</v>
       </c>
@@ -12274,7 +12754,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>22</v>
       </c>
@@ -12290,8 +12770,11 @@
       <c r="E166" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I166" s="5">
+        <v>0.44513888888888892</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -12307,8 +12790,14 @@
       <c r="E167" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167">
+        <v>5.649</v>
+      </c>
+      <c r="I167" s="5">
+        <v>0.44513888888888892</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2</v>
       </c>
@@ -12324,8 +12813,11 @@
       <c r="E168" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168">
+        <v>4.891</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>3</v>
       </c>
@@ -12341,8 +12833,11 @@
       <c r="E169" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>6.73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>4</v>
       </c>
@@ -12358,8 +12853,11 @@
       <c r="E170" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>6.298</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>5</v>
       </c>
@@ -12375,8 +12873,11 @@
       <c r="E171" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>6.3140000000000001</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>6</v>
       </c>
@@ -12392,8 +12893,11 @@
       <c r="E172" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>8.4429999999999996</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>7</v>
       </c>
@@ -12409,8 +12913,11 @@
       <c r="E173" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>5.8310000000000004</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>8</v>
       </c>
@@ -12426,8 +12933,11 @@
       <c r="E174" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>6.306</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>9</v>
       </c>
@@ -12443,8 +12953,11 @@
       <c r="E175" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>5.1619999999999999</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>10</v>
       </c>
@@ -12460,8 +12973,11 @@
       <c r="E176" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>7.7990000000000004</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>11</v>
       </c>
@@ -12477,8 +12993,11 @@
       <c r="E177" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>4.6539999999999999</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>12</v>
       </c>
@@ -12494,8 +13013,11 @@
       <c r="E178" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>5.9960000000000004</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>13</v>
       </c>
@@ -12511,8 +13033,11 @@
       <c r="E179" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>6.1280000000000001</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>14</v>
       </c>
@@ -12528,8 +13053,11 @@
       <c r="E180" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>8.8089999999999993</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>15</v>
       </c>
@@ -12545,8 +13073,11 @@
       <c r="E181" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>7.1440000000000001</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>16</v>
       </c>
@@ -12562,8 +13093,11 @@
       <c r="E182" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>8.69</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>17</v>
       </c>
@@ -12579,8 +13113,11 @@
       <c r="E183" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>8.5809999999999995</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>18</v>
       </c>
@@ -12596,8 +13133,11 @@
       <c r="E184" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>5.2539999999999996</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>19</v>
       </c>
@@ -12613,8 +13153,11 @@
       <c r="E185" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>6.26</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>20</v>
       </c>
@@ -12630,8 +13173,11 @@
       <c r="E186" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>5.5739999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>21</v>
       </c>
@@ -12648,7 +13194,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>22</v>
       </c>
@@ -12664,8 +13210,11 @@
       <c r="E188" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I188" s="5">
+        <v>0.44791666666666669</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -12681,8 +13230,14 @@
       <c r="E190" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I190" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2</v>
       </c>
@@ -12698,8 +13253,11 @@
       <c r="E191" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191">
+        <v>7.056</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>3</v>
       </c>
@@ -12715,8 +13273,11 @@
       <c r="E192" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192">
+        <v>8.9290000000000003</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>4</v>
       </c>
@@ -12732,8 +13293,11 @@
       <c r="E193" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193">
+        <v>6.7169999999999996</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>5</v>
       </c>
@@ -12749,8 +13313,11 @@
       <c r="E194" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194">
+        <v>5.0949999999999998</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>6</v>
       </c>
@@ -12766,8 +13333,11 @@
       <c r="E195" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195">
+        <v>10.433999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>7</v>
       </c>
@@ -12783,8 +13353,11 @@
       <c r="E196" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196">
+        <v>8.9239999999999995</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>8</v>
       </c>
@@ -12800,8 +13373,11 @@
       <c r="E197" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197">
+        <v>5.851</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>9</v>
       </c>
@@ -12817,8 +13393,11 @@
       <c r="E198" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198">
+        <v>7.2320000000000002</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>10</v>
       </c>
@@ -12834,8 +13413,11 @@
       <c r="E199" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199">
+        <v>6.9779999999999998</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>11</v>
       </c>
@@ -12851,8 +13433,11 @@
       <c r="E200" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200">
+        <v>2.3170000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>12</v>
       </c>
@@ -12868,8 +13453,11 @@
       <c r="E201" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201">
+        <v>7.0750000000000002</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>13</v>
       </c>
@@ -12885,8 +13473,11 @@
       <c r="E202" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202">
+        <v>4.7119999999999997</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>14</v>
       </c>
@@ -12902,8 +13493,11 @@
       <c r="E203" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203">
+        <v>5.3659999999999997</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>15</v>
       </c>
@@ -12919,8 +13513,11 @@
       <c r="E204" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204">
+        <v>5.9089999999999998</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>16</v>
       </c>
@@ -12936,8 +13533,11 @@
       <c r="E205" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205">
+        <v>6.3109999999999999</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>17</v>
       </c>
@@ -12953,8 +13553,11 @@
       <c r="E206" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206">
+        <v>6.0990000000000002</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>18</v>
       </c>
@@ -12970,8 +13573,11 @@
       <c r="E207" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207">
+        <v>4.9249999999999998</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>19</v>
       </c>
@@ -12987,8 +13593,11 @@
       <c r="E208" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208">
+        <v>8.1820000000000004</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>20</v>
       </c>
@@ -13004,8 +13613,11 @@
       <c r="E209" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>21</v>
       </c>
@@ -13022,7 +13634,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>22</v>
       </c>
@@ -13038,8 +13650,11 @@
       <c r="E211" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I211" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>1</v>
       </c>
@@ -13055,8 +13670,14 @@
       <c r="E212" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212">
+        <v>8.7370000000000001</v>
+      </c>
+      <c r="I212" s="5">
+        <v>0.45069444444444445</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2</v>
       </c>
@@ -13072,8 +13693,11 @@
       <c r="E213" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213">
+        <v>8.1189999999999998</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>3</v>
       </c>
@@ -13089,8 +13713,11 @@
       <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214">
+        <v>6.6040000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>4</v>
       </c>
@@ -13106,8 +13733,11 @@
       <c r="E215" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215">
+        <v>7.1559999999999997</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>5</v>
       </c>
@@ -13123,8 +13753,11 @@
       <c r="E216" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216">
+        <v>5.1369999999999996</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>6</v>
       </c>
@@ -13140,8 +13773,11 @@
       <c r="E217" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217">
+        <v>3.52</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>7</v>
       </c>
@@ -13157,8 +13793,11 @@
       <c r="E218" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218">
+        <v>6.048</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>8</v>
       </c>
@@ -13174,8 +13813,11 @@
       <c r="E219" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219">
+        <v>6.16</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>9</v>
       </c>
@@ -13191,8 +13833,11 @@
       <c r="E220" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220">
+        <v>5.7649999999999997</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>10</v>
       </c>
@@ -13208,8 +13853,11 @@
       <c r="E221" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>11</v>
       </c>
@@ -13225,8 +13873,11 @@
       <c r="E222" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222">
+        <v>6.6070000000000002</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>12</v>
       </c>
@@ -13242,8 +13893,11 @@
       <c r="E223" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223">
+        <v>3.4449999999999998</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>13</v>
       </c>
@@ -13259,8 +13913,11 @@
       <c r="E224" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224">
+        <v>2.258</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>14</v>
       </c>
@@ -13276,8 +13933,11 @@
       <c r="E225" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225">
+        <v>2.5459999999999998</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>15</v>
       </c>
@@ -13293,8 +13953,11 @@
       <c r="E226" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226">
+        <v>5.6639999999999997</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>16</v>
       </c>
@@ -13310,8 +13973,11 @@
       <c r="E227" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227">
+        <v>4.8639999999999999</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>17</v>
       </c>
@@ -13327,8 +13993,11 @@
       <c r="E228" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228">
+        <v>5.2720000000000002</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>18</v>
       </c>
@@ -13344,8 +14013,11 @@
       <c r="E229" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229">
+        <v>7.5250000000000004</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>19</v>
       </c>
@@ -13361,8 +14033,11 @@
       <c r="E230" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>20</v>
       </c>
@@ -13379,7 +14054,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>21</v>
       </c>
@@ -13394,6 +14069,9 @@
       </c>
       <c r="E232" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I232" s="5">
+        <v>0.45555555555555555</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C30B4E55-596F-4308-B9EA-24F73CD8408E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F6A63A-F54F-479A-A31E-449E5BA51026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -8566,10 +8566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17AC73-92BE-423C-B9F5-6966FF440A93}">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J56" sqref="J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8630,6 +8630,9 @@
       <c r="F2">
         <v>6.1139999999999999</v>
       </c>
+      <c r="G2" s="2">
+        <v>7.4407089999999995E-2</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -8650,6 +8653,9 @@
       <c r="F3">
         <v>2.4860000000000002</v>
       </c>
+      <c r="G3">
+        <v>0.10665910000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -8670,6 +8676,9 @@
       <c r="F4">
         <v>4.6689999999999996</v>
       </c>
+      <c r="G4">
+        <v>0.18684029999999999</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -8690,6 +8699,9 @@
       <c r="F5">
         <v>5.8449999999999998</v>
       </c>
+      <c r="G5">
+        <v>0.5991012</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -8709,6 +8721,9 @@
       </c>
       <c r="F6">
         <v>4.4939999999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>3.8381140000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -8730,6 +8745,9 @@
       <c r="F7">
         <v>9.798</v>
       </c>
+      <c r="G7" s="2">
+        <v>5.279851E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -8750,6 +8768,9 @@
       <c r="F8">
         <v>4.694</v>
       </c>
+      <c r="G8" s="2">
+        <v>2.8007669999999998E-2</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -8769,6 +8790,9 @@
       </c>
       <c r="F9">
         <v>5.609</v>
+      </c>
+      <c r="G9">
+        <v>0.20164260000000001</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -8790,6 +8814,9 @@
       <c r="F10">
         <v>5.5410000000000004</v>
       </c>
+      <c r="G10">
+        <v>0.22522519999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -8809,6 +8836,9 @@
       </c>
       <c r="F11">
         <v>7.3879999999999999</v>
+      </c>
+      <c r="G11" s="2">
+        <v>9.1625440000000002E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -8830,6 +8860,9 @@
       <c r="F12">
         <v>5.234</v>
       </c>
+      <c r="G12">
+        <v>0.63431789999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -8850,6 +8883,9 @@
       <c r="F13">
         <v>9.4969999999999999</v>
       </c>
+      <c r="G13">
+        <v>0.14794199999999999</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -8870,6 +8906,9 @@
       <c r="F14">
         <v>8.5980000000000008</v>
       </c>
+      <c r="G14">
+        <v>0.1050379</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -8890,6 +8929,9 @@
       <c r="F15">
         <v>6.5190000000000001</v>
       </c>
+      <c r="G15">
+        <v>0.82744450000000003</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -8910,8 +8952,11 @@
       <c r="F16">
         <v>8.4960000000000004</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>5.4879669999999998E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8930,8 +8975,11 @@
       <c r="F17">
         <v>3.415</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="2">
+        <v>7.9218419999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8950,8 +8998,11 @@
       <c r="F18">
         <v>2.669</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>5.6446139999999999E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8970,8 +9021,11 @@
       <c r="F19">
         <v>5.4740000000000002</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>7.6571319999999998E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8990,8 +9044,11 @@
       <c r="F20">
         <v>5.7839999999999998</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>8.763812E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9010,8 +9067,11 @@
       <c r="F21">
         <v>7.6639999999999997</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.14352019999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9027,8 +9087,11 @@
       <c r="E22" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>7.3196250000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9044,8 +9107,11 @@
       <c r="E23" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>3.8144339999999998E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9064,8 +9130,12 @@
       <c r="F24">
         <v>7.5659999999999998</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>-7.3151389999999997E-2</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9084,8 +9154,11 @@
       <c r="F25">
         <v>4.3550000000000004</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.68406370000000005</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9104,8 +9177,11 @@
       <c r="F26">
         <v>7.1689999999999996</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="2">
+        <v>-5.4871629999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
@@ -9124,8 +9200,11 @@
       <c r="F27">
         <v>5.85</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="2">
+        <v>3.065793E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -9144,8 +9223,11 @@
       <c r="F28">
         <v>5.2629999999999999</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="2">
+        <v>7.9541239999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>6</v>
       </c>
@@ -9164,8 +9246,11 @@
       <c r="F29">
         <v>4.1230000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.59967789999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>7</v>
       </c>
@@ -9184,8 +9269,11 @@
       <c r="F30">
         <v>6.1689999999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="2">
+        <v>-2.9420230000000002E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>8</v>
       </c>
@@ -9204,8 +9292,11 @@
       <c r="F31">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.12700049999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>9</v>
       </c>
@@ -9224,8 +9315,11 @@
       <c r="F32">
         <v>3.9670000000000001</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>0.39733190000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>10</v>
       </c>
@@ -9244,8 +9338,11 @@
       <c r="F33">
         <v>5.9729999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>0.17719090000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>11</v>
       </c>
@@ -9264,8 +9361,11 @@
       <c r="F34">
         <v>9.1929999999999996</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>0.96462239999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -9284,8 +9384,11 @@
       <c r="F35">
         <v>7.4710000000000001</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.1337216</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>13</v>
       </c>
@@ -9304,8 +9407,11 @@
       <c r="F36">
         <v>5.9580000000000002</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1.1043540000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>14</v>
       </c>
@@ -9324,8 +9430,11 @@
       <c r="F37">
         <v>4.2089999999999996</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>0.16330130000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>15</v>
       </c>
@@ -9344,8 +9453,11 @@
       <c r="F38">
         <v>4.9859999999999998</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>0.191106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>16</v>
       </c>
@@ -9364,8 +9476,11 @@
       <c r="F39">
         <v>3.46</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>0.1070575</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>17</v>
       </c>
@@ -9384,8 +9499,11 @@
       <c r="F40">
         <v>6.1959999999999997</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0.1964282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>18</v>
       </c>
@@ -9404,8 +9522,11 @@
       <c r="F41">
         <v>5.7869999999999999</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0.178149</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>19</v>
       </c>
@@ -9424,8 +9545,11 @@
       <c r="F42">
         <v>2.0150000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0.1218732</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>20</v>
       </c>
@@ -9444,8 +9568,11 @@
       <c r="F43">
         <v>6.72</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H43" s="2">
+        <v>6.9259109999999999E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>21</v>
       </c>
@@ -9461,8 +9588,11 @@
       <c r="E44" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0.16364890000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -9477,6 +9607,14 @@
       </c>
       <c r="E45" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-2.9832159999999999E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H46" s="2">
+        <v>1.250778E-2</v>
       </c>
     </row>
   </sheetData>
@@ -9486,10 +9624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
-  <dimension ref="A1:I232"/>
+  <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A210" workbookViewId="0">
-      <selection activeCell="J231" sqref="J231"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="J50" sqref="J50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10230,6 +10368,9 @@
       <c r="F37">
         <v>5.524</v>
       </c>
+      <c r="G37">
+        <v>0.70826560000000005</v>
+      </c>
       <c r="I37" s="5">
         <v>0.52013888888888882</v>
       </c>
@@ -10253,6 +10394,9 @@
       <c r="F38">
         <v>10.587999999999999</v>
       </c>
+      <c r="G38" s="2">
+        <v>1.9875660000000001E-3</v>
+      </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
@@ -10273,6 +10417,9 @@
       <c r="F39">
         <v>5.7779999999999996</v>
       </c>
+      <c r="G39" s="2">
+        <v>5.6006760000000003E-2</v>
+      </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
@@ -10293,6 +10440,9 @@
       <c r="F40">
         <v>9.7840000000000007</v>
       </c>
+      <c r="G40">
+        <v>0.31883129999999998</v>
+      </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
@@ -10312,6 +10462,9 @@
       </c>
       <c r="F41">
         <v>4.8209999999999997</v>
+      </c>
+      <c r="G41">
+        <v>0.86371869999999995</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10333,6 +10486,9 @@
       <c r="F42">
         <v>8.2859999999999996</v>
       </c>
+      <c r="G42">
+        <v>0.54437729999999995</v>
+      </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
@@ -10353,6 +10509,9 @@
       <c r="F43">
         <v>6.8230000000000004</v>
       </c>
+      <c r="G43">
+        <v>0.84603289999999998</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
@@ -10372,6 +10531,9 @@
       </c>
       <c r="F44">
         <v>5.4009999999999998</v>
+      </c>
+      <c r="G44" s="2">
+        <v>5.6414550000000001E-2</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -10393,6 +10555,9 @@
       <c r="F45">
         <v>4.1379999999999999</v>
       </c>
+      <c r="G45">
+        <v>0.7194315</v>
+      </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
@@ -10412,6 +10577,9 @@
       </c>
       <c r="F46">
         <v>7.3250000000000002</v>
+      </c>
+      <c r="G46" s="2">
+        <v>4.842461E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -10433,6 +10601,9 @@
       <c r="F47">
         <v>7.0979999999999999</v>
       </c>
+      <c r="G47">
+        <v>7.1902599999999997E-2</v>
+      </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
@@ -10453,6 +10624,9 @@
       <c r="F48">
         <v>5.36</v>
       </c>
+      <c r="G48">
+        <v>0.80332700000000001</v>
+      </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -10473,6 +10647,9 @@
       <c r="F49">
         <v>6.077</v>
       </c>
+      <c r="G49" s="2">
+        <v>8.2793969999999995E-2</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
@@ -10493,6 +10670,9 @@
       <c r="F50">
         <v>7.2160000000000002</v>
       </c>
+      <c r="G50">
+        <v>0.6901214</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -10513,6 +10693,9 @@
       <c r="F51">
         <v>4.8109999999999999</v>
       </c>
+      <c r="G51" s="2">
+        <v>8.1495990000000004E-2</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -10532,6 +10715,9 @@
       </c>
       <c r="F52">
         <v>6.5170000000000003</v>
+      </c>
+      <c r="G52">
+        <v>0.29950130000000003</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -10553,6 +10739,9 @@
       <c r="F53">
         <v>6.7619999999999996</v>
       </c>
+      <c r="G53" s="2">
+        <v>6.3220540000000006E-2</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -10572,6 +10761,9 @@
       </c>
       <c r="F54">
         <v>7.5549999999999997</v>
+      </c>
+      <c r="G54">
+        <v>0.37286639999999999</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -10593,6 +10785,9 @@
       <c r="F55">
         <v>5.19</v>
       </c>
+      <c r="G55" s="2">
+        <v>6.5389390000000006E-2</v>
+      </c>
       <c r="I55" s="5">
         <v>0.52361111111111114</v>
       </c>
@@ -10613,6 +10808,9 @@
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G56">
+        <v>0.13105230000000001</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -10630,6 +10828,9 @@
       <c r="E57" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G57" s="2">
+        <v>5.0087279999999996E-3</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -10650,6 +10851,9 @@
       <c r="F58">
         <v>6.6580000000000004</v>
       </c>
+      <c r="G58" s="2">
+        <v>5.4131120000000003E-3</v>
+      </c>
       <c r="I58" s="5">
         <v>0.52361111111111114</v>
       </c>
@@ -10673,6 +10877,9 @@
       <c r="F59">
         <v>7.3</v>
       </c>
+      <c r="G59" s="2">
+        <v>8.0277950000000001E-2</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -10693,6 +10900,9 @@
       <c r="F60">
         <v>5.1440000000000001</v>
       </c>
+      <c r="G60" s="2">
+        <v>1.3382540000000001E-3</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -10713,6 +10923,9 @@
       <c r="F61">
         <v>4.8129999999999997</v>
       </c>
+      <c r="G61">
+        <v>1.1932309999999999</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -10732,6 +10945,9 @@
       </c>
       <c r="F62">
         <v>5.6689999999999996</v>
+      </c>
+      <c r="G62" s="2">
+        <v>5.9091560000000001E-2</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -10753,6 +10969,9 @@
       <c r="F63">
         <v>4.9669999999999996</v>
       </c>
+      <c r="G63">
+        <v>0.9053795</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -10773,6 +10992,9 @@
       <c r="F64">
         <v>6.827</v>
       </c>
+      <c r="G64">
+        <v>0.15438160000000001</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -10792,6 +11014,9 @@
       </c>
       <c r="F65">
         <v>5.9610000000000003</v>
+      </c>
+      <c r="G65">
+        <v>0.91609289999999999</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -10813,6 +11038,9 @@
       <c r="F66">
         <v>4.7629999999999999</v>
       </c>
+      <c r="G66" s="2">
+        <v>7.7665890000000001E-2</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -10832,6 +11060,9 @@
       </c>
       <c r="F67">
         <v>5.3220000000000001</v>
+      </c>
+      <c r="G67" s="2">
+        <v>6.5767010000000001E-2</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -10853,6 +11084,9 @@
       <c r="F68">
         <v>4.1970000000000001</v>
       </c>
+      <c r="G68">
+        <v>1.6958500000000001E-2</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -10873,6 +11107,9 @@
       <c r="F69">
         <v>5.8019999999999996</v>
       </c>
+      <c r="G69">
+        <v>1.0737639999999999</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -10893,6 +11130,9 @@
       <c r="F70">
         <v>5.4870000000000001</v>
       </c>
+      <c r="G70">
+        <v>0.90915000000000001</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -10913,6 +11153,9 @@
       <c r="F71">
         <v>4.101</v>
       </c>
+      <c r="G71">
+        <v>0.96459839999999997</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -10933,6 +11176,9 @@
       <c r="F72">
         <v>6.2960000000000003</v>
       </c>
+      <c r="G72">
+        <v>0.85136820000000002</v>
+      </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
@@ -10952,6 +11198,9 @@
       </c>
       <c r="F73">
         <v>5.4109999999999996</v>
+      </c>
+      <c r="G73" s="2">
+        <v>9.9732589999999996E-2</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -10973,6 +11222,9 @@
       <c r="F74">
         <v>2.5169999999999999</v>
       </c>
+      <c r="G74">
+        <v>0.1239735</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -10992,6 +11244,9 @@
       </c>
       <c r="F75">
         <v>4.8079999999999998</v>
+      </c>
+      <c r="G75">
+        <v>0.78274980000000005</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -11013,6 +11268,9 @@
       <c r="F76">
         <v>4.609</v>
       </c>
+      <c r="G76" s="2">
+        <v>2.2903429999999999E-2</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -11030,6 +11288,9 @@
       <c r="E77" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G77">
+        <v>0.81265679999999996</v>
+      </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -11047,79 +11308,27 @@
       <c r="E78" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G78">
+        <v>0.87939299999999998</v>
+      </c>
       <c r="I78" s="5">
         <v>0.52638888888888891</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
+      <c r="G79" s="2">
+        <v>3.5472809999999998E-3</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
+      <c r="G80">
+        <v>1.65469E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
         <v>1</v>
-      </c>
-      <c r="B80" t="s">
-        <v>7</v>
-      </c>
-      <c r="C80">
-        <v>7000</v>
-      </c>
-      <c r="D80">
-        <v>6</v>
-      </c>
-      <c r="E80" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F80">
-        <v>4.7869999999999999</v>
-      </c>
-      <c r="I80" s="5">
-        <v>0.56527777777777777</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2</v>
-      </c>
-      <c r="B81" t="s">
-        <v>7</v>
-      </c>
-      <c r="C81">
-        <v>7000</v>
-      </c>
-      <c r="D81">
-        <v>6</v>
-      </c>
-      <c r="E81" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F81">
-        <v>7.0609999999999999</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>3</v>
-      </c>
-      <c r="B82" t="s">
-        <v>7</v>
-      </c>
-      <c r="C82">
-        <v>7000</v>
-      </c>
-      <c r="D82">
-        <v>6</v>
-      </c>
-      <c r="E82" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F82">
-        <v>7.0019999999999998</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>4</v>
       </c>
       <c r="B83" t="s">
         <v>7</v>
@@ -11134,12 +11343,18 @@
         <v>14</v>
       </c>
       <c r="F83">
-        <v>5.569</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.7869999999999999</v>
+      </c>
+      <c r="G83" s="2">
+        <v>1.5633739999999999E-4</v>
+      </c>
+      <c r="I83" s="5">
+        <v>0.56527777777777777</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B84" t="s">
         <v>7</v>
@@ -11154,12 +11369,15 @@
         <v>14</v>
       </c>
       <c r="F84">
-        <v>6.5270000000000001</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0609999999999999</v>
+      </c>
+      <c r="G84" s="2">
+        <v>6.9060670000000005E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B85" t="s">
         <v>7</v>
@@ -11174,12 +11392,15 @@
         <v>14</v>
       </c>
       <c r="F85">
-        <v>4.9909999999999997</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0019999999999998</v>
+      </c>
+      <c r="G85" s="2">
+        <v>6.4024559999999994E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B86" t="s">
         <v>7</v>
@@ -11194,12 +11415,15 @@
         <v>14</v>
       </c>
       <c r="F86">
-        <v>7.1120000000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.569</v>
+      </c>
+      <c r="G86">
+        <v>0.70300019999999996</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B87" t="s">
         <v>7</v>
@@ -11214,12 +11438,15 @@
         <v>14</v>
       </c>
       <c r="F87">
-        <v>5.0199999999999996</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.5270000000000001</v>
+      </c>
+      <c r="G87" s="2">
+        <v>5.3431340000000001E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B88" t="s">
         <v>7</v>
@@ -11234,12 +11461,15 @@
         <v>14</v>
       </c>
       <c r="F88">
-        <v>7.3090000000000002</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.9909999999999997</v>
+      </c>
+      <c r="G88" s="2">
+        <v>2.4062210000000001E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B89" t="s">
         <v>7</v>
@@ -11254,12 +11484,15 @@
         <v>14</v>
       </c>
       <c r="F89">
-        <v>5.8949999999999996</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.1120000000000001</v>
+      </c>
+      <c r="G89">
+        <v>0.46669100000000002</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B90" t="s">
         <v>7</v>
@@ -11274,12 +11507,15 @@
         <v>14</v>
       </c>
       <c r="F90">
-        <v>5.8120000000000003</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="G90">
+        <v>7.2352100000000003E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B91" t="s">
         <v>7</v>
@@ -11294,12 +11530,15 @@
         <v>14</v>
       </c>
       <c r="F91">
-        <v>7.0140000000000002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.3090000000000002</v>
+      </c>
+      <c r="G91" s="2">
+        <v>4.2103639999999998E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B92" t="s">
         <v>7</v>
@@ -11314,12 +11553,15 @@
         <v>14</v>
       </c>
       <c r="F92">
-        <v>6.3390000000000004</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.8949999999999996</v>
+      </c>
+      <c r="G92">
+        <v>0.1106039</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B93" t="s">
         <v>7</v>
@@ -11334,12 +11576,15 @@
         <v>14</v>
       </c>
       <c r="F93">
-        <v>6.0030000000000001</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.8120000000000003</v>
+      </c>
+      <c r="G93" s="2">
+        <v>8.6419770000000007E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B94" t="s">
         <v>7</v>
@@ -11354,12 +11599,15 @@
         <v>14</v>
       </c>
       <c r="F94">
-        <v>7.0990000000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.0140000000000002</v>
+      </c>
+      <c r="G94" s="2">
+        <v>7.0623119999999998E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B95" t="s">
         <v>7</v>
@@ -11374,12 +11622,15 @@
         <v>14</v>
       </c>
       <c r="F95">
-        <v>6.5469999999999997</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3390000000000004</v>
+      </c>
+      <c r="G95">
+        <v>7.8585699999999994E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B96" t="s">
         <v>7</v>
@@ -11394,12 +11645,15 @@
         <v>14</v>
       </c>
       <c r="F96">
-        <v>8.4480000000000004</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.0030000000000001</v>
+      </c>
+      <c r="G96" s="2">
+        <v>8.6651069999999997E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B97" t="s">
         <v>7</v>
@@ -11414,12 +11668,15 @@
         <v>14</v>
       </c>
       <c r="F97">
-        <v>3.956</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.0990000000000002</v>
+      </c>
+      <c r="G97">
+        <v>0.70763889999999996</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B98" t="s">
         <v>7</v>
@@ -11434,12 +11691,15 @@
         <v>14</v>
       </c>
       <c r="F98">
-        <v>10.196999999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.5469999999999997</v>
+      </c>
+      <c r="G98" s="2">
+        <v>6.4687939999999999E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B99" t="s">
         <v>7</v>
@@ -11454,12 +11714,15 @@
         <v>14</v>
       </c>
       <c r="F99">
-        <v>7.069</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.4480000000000004</v>
+      </c>
+      <c r="G99">
+        <v>0.4464706</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B100" t="s">
         <v>7</v>
@@ -11474,12 +11737,15 @@
         <v>14</v>
       </c>
       <c r="F100">
-        <v>8.9619999999999997</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.956</v>
+      </c>
+      <c r="G100">
+        <v>0.49385699999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B101" t="s">
         <v>7</v>
@@ -11494,12 +11760,15 @@
         <v>14</v>
       </c>
       <c r="F101">
-        <v>8.8040000000000003</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+        <v>10.196999999999999</v>
+      </c>
+      <c r="G101">
+        <v>0.36102309999999999</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B102" t="s">
         <v>7</v>
@@ -11514,12 +11783,15 @@
         <v>14</v>
       </c>
       <c r="F102">
-        <v>5.98</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.069</v>
+      </c>
+      <c r="G102">
+        <v>0.1151914</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B103" t="s">
         <v>7</v>
@@ -11534,12 +11806,15 @@
         <v>14</v>
       </c>
       <c r="F103">
-        <v>7.74</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.9619999999999997</v>
+      </c>
+      <c r="G103">
+        <v>0.68350319999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B104" t="s">
         <v>7</v>
@@ -11554,12 +11829,15 @@
         <v>14</v>
       </c>
       <c r="F104">
-        <v>8.5779999999999994</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.8040000000000003</v>
+      </c>
+      <c r="G104">
+        <v>0.95239879999999999</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B105" t="s">
         <v>7</v>
@@ -11574,12 +11852,15 @@
         <v>14</v>
       </c>
       <c r="F105">
-        <v>5.0369999999999999</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.98</v>
+      </c>
+      <c r="G105" s="2">
+        <v>6.6400509999999996E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B106" t="s">
         <v>7</v>
@@ -11594,12 +11875,15 @@
         <v>14</v>
       </c>
       <c r="F106">
-        <v>7.4249999999999998</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.74</v>
+      </c>
+      <c r="G106">
+        <v>0.58904140000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B107" t="s">
         <v>7</v>
@@ -11614,12 +11898,15 @@
         <v>14</v>
       </c>
       <c r="F107">
-        <v>5.0659999999999998</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.5779999999999994</v>
+      </c>
+      <c r="G107" s="2">
+        <v>6.1400179999999999E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B108" t="s">
         <v>7</v>
@@ -11634,12 +11921,15 @@
         <v>14</v>
       </c>
       <c r="F108">
-        <v>8.9949999999999992</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.0369999999999999</v>
+      </c>
+      <c r="G108">
+        <v>0.83223429999999998</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B109" t="s">
         <v>7</v>
@@ -11654,12 +11944,15 @@
         <v>14</v>
       </c>
       <c r="F109">
-        <v>6.3410000000000002</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.4249999999999998</v>
+      </c>
+      <c r="G109">
+        <v>0.50877470000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B110" t="s">
         <v>7</v>
@@ -11673,10 +11966,16 @@
       <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F110">
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="G110">
+        <v>0.70229799999999998</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B111" t="s">
         <v>7</v>
@@ -11690,19 +11989,22 @@
       <c r="E111" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I111" s="5">
-        <v>0.57013888888888886</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F111">
+        <v>8.9949999999999992</v>
+      </c>
+      <c r="G111" s="2">
+        <v>7.2023840000000006E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C112">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D112">
         <v>6</v>
@@ -11711,21 +12013,21 @@
         <v>14</v>
       </c>
       <c r="F112">
-        <v>4.8869999999999996</v>
-      </c>
-      <c r="I112" s="5">
-        <v>0.57013888888888886</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3410000000000002</v>
+      </c>
+      <c r="G112" s="2">
+        <v>5.345428E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C113">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D113">
         <v>6</v>
@@ -11733,19 +12035,22 @@
       <c r="E113" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F113">
-        <v>6.7530000000000001</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G113" s="2">
+        <v>4.5953349999999997E-2</v>
+      </c>
+      <c r="I113" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D114">
         <v>6</v>
@@ -11753,13 +12058,16 @@
       <c r="E114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F114">
-        <v>4.4580000000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G114" s="2">
+        <v>9.7969089999999995E-3</v>
+      </c>
+      <c r="I114" s="5">
+        <v>0.57013888888888886</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B115" t="s">
         <v>8</v>
@@ -11774,12 +12082,15 @@
         <v>14</v>
       </c>
       <c r="F115">
-        <v>6.8170000000000002</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.8869999999999996</v>
+      </c>
+      <c r="G115" s="2">
+        <v>-1.4540660000000001E-4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B116" t="s">
         <v>8</v>
@@ -11794,12 +12105,15 @@
         <v>14</v>
       </c>
       <c r="F116">
-        <v>6.423</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.7530000000000001</v>
+      </c>
+      <c r="G116">
+        <v>0.1014433</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B117" t="s">
         <v>8</v>
@@ -11814,12 +12128,15 @@
         <v>14</v>
       </c>
       <c r="F117">
-        <v>6.6849999999999996</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.4580000000000002</v>
+      </c>
+      <c r="G117" s="2">
+        <v>6.2222529999999998E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B118" t="s">
         <v>8</v>
@@ -11834,12 +12151,15 @@
         <v>14</v>
       </c>
       <c r="F118">
-        <v>4.6719999999999997</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="G118" s="2">
+        <v>4.6740980000000001E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B119" t="s">
         <v>8</v>
@@ -11854,12 +12174,15 @@
         <v>14</v>
       </c>
       <c r="F119">
-        <v>7.3129999999999997</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.423</v>
+      </c>
+      <c r="G119">
+        <v>1.042424</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B120" t="s">
         <v>8</v>
@@ -11874,12 +12197,15 @@
         <v>14</v>
       </c>
       <c r="F120">
-        <v>6.06</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6849999999999996</v>
+      </c>
+      <c r="G120" s="2">
+        <v>8.0901909999999994E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B121" t="s">
         <v>8</v>
@@ -11894,12 +12220,15 @@
         <v>14</v>
       </c>
       <c r="F121">
-        <v>3.81</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.6719999999999997</v>
+      </c>
+      <c r="G121" s="2">
+        <v>9.724671E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B122" t="s">
         <v>8</v>
@@ -11914,12 +12243,15 @@
         <v>14</v>
       </c>
       <c r="F122">
-        <v>4.4189999999999996</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.3129999999999997</v>
+      </c>
+      <c r="G122">
+        <v>0.71386959999999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B123" t="s">
         <v>8</v>
@@ -11934,12 +12266,15 @@
         <v>14</v>
       </c>
       <c r="F123">
-        <v>6.1760000000000002</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.06</v>
+      </c>
+      <c r="G123">
+        <v>0.13073419999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B124" t="s">
         <v>8</v>
@@ -11954,12 +12289,15 @@
         <v>14</v>
       </c>
       <c r="F124">
-        <v>6.6340000000000003</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.81</v>
+      </c>
+      <c r="G124">
+        <v>8.8433999999999999E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B125" t="s">
         <v>8</v>
@@ -11974,12 +12312,15 @@
         <v>14</v>
       </c>
       <c r="F125">
-        <v>9.2270000000000003</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.4189999999999996</v>
+      </c>
+      <c r="G125">
+        <v>0.5991746</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B126" t="s">
         <v>8</v>
@@ -11994,12 +12335,15 @@
         <v>14</v>
       </c>
       <c r="F126">
-        <v>8.984</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.1760000000000002</v>
+      </c>
+      <c r="G126" s="2">
+        <v>1.538048E-2</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B127" t="s">
         <v>8</v>
@@ -12014,12 +12358,15 @@
         <v>14</v>
       </c>
       <c r="F127">
-        <v>5.2389999999999999</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6340000000000003</v>
+      </c>
+      <c r="G127">
+        <v>0.94660809999999995</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B128" t="s">
         <v>8</v>
@@ -12034,12 +12381,15 @@
         <v>14</v>
       </c>
       <c r="F128">
-        <v>5.3630000000000004</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.2270000000000003</v>
+      </c>
+      <c r="G128">
+        <v>0.13231580000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B129" t="s">
         <v>8</v>
@@ -12054,12 +12404,15 @@
         <v>14</v>
       </c>
       <c r="F129">
-        <v>4.415</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.984</v>
+      </c>
+      <c r="G129">
+        <v>0.30280220000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B130" t="s">
         <v>8</v>
@@ -12074,12 +12427,15 @@
         <v>14</v>
       </c>
       <c r="F130">
-        <v>6.0670000000000002</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.2389999999999999</v>
+      </c>
+      <c r="G130">
+        <v>0.1120326</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B131" t="s">
         <v>8</v>
@@ -12094,12 +12450,15 @@
         <v>14</v>
       </c>
       <c r="F131">
-        <v>4.4009999999999998</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.3630000000000004</v>
+      </c>
+      <c r="G131">
+        <v>0.99288399999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B132" t="s">
         <v>8</v>
@@ -12114,12 +12473,15 @@
         <v>14</v>
       </c>
       <c r="F132">
-        <v>8.9039999999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.415</v>
+      </c>
+      <c r="G132">
+        <v>1.250842</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B133" t="s">
         <v>8</v>
@@ -12134,12 +12496,15 @@
         <v>14</v>
       </c>
       <c r="F133">
-        <v>4.3789999999999996</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.0670000000000002</v>
+      </c>
+      <c r="G133" s="2">
+        <v>7.3258509999999999E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B134" t="s">
         <v>8</v>
@@ -12154,12 +12519,15 @@
         <v>14</v>
       </c>
       <c r="F134">
-        <v>5.4539999999999997</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.4009999999999998</v>
+      </c>
+      <c r="G134" s="2">
+        <v>5.9430959999999998E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B135" t="s">
         <v>8</v>
@@ -12174,12 +12542,15 @@
         <v>14</v>
       </c>
       <c r="F135">
-        <v>8.827</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.9039999999999999</v>
+      </c>
+      <c r="G135">
+        <v>8.7482599999999994E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B136" t="s">
         <v>8</v>
@@ -12194,12 +12565,15 @@
         <v>14</v>
       </c>
       <c r="F136">
-        <v>6.617</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="G136">
+        <v>0.1067939</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B137" t="s">
         <v>8</v>
@@ -12214,12 +12588,15 @@
         <v>14</v>
       </c>
       <c r="F137">
-        <v>5.7229999999999999</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.4539999999999997</v>
+      </c>
+      <c r="G137">
+        <v>0.67171159999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B138" t="s">
         <v>8</v>
@@ -12234,12 +12611,15 @@
         <v>14</v>
       </c>
       <c r="F138">
-        <v>5.9669999999999996</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.827</v>
+      </c>
+      <c r="G138">
+        <v>0.110722</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B139" t="s">
         <v>8</v>
@@ -12254,12 +12634,15 @@
         <v>14</v>
       </c>
       <c r="F139">
-        <v>6.7830000000000004</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.617</v>
+      </c>
+      <c r="G139" s="2">
+        <v>8.0412479999999995E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
         <v>8</v>
@@ -12274,12 +12657,15 @@
         <v>14</v>
       </c>
       <c r="F140">
-        <v>5.867</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.7229999999999999</v>
+      </c>
+      <c r="G140">
+        <v>0.1343956</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B141" t="s">
         <v>8</v>
@@ -12294,12 +12680,15 @@
         <v>14</v>
       </c>
       <c r="F141">
-        <v>6.1429999999999998</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.9669999999999996</v>
+      </c>
+      <c r="G141" s="2">
+        <v>9.8792359999999996E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="B142" t="s">
         <v>8</v>
@@ -12313,10 +12702,16 @@
       <c r="E142" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>6.7830000000000004</v>
+      </c>
+      <c r="G142" s="2">
+        <v>7.6063549999999994E-2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B143" t="s">
         <v>8</v>
@@ -12330,76 +12725,82 @@
       <c r="E143" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="I143" s="5">
+      <c r="F143">
+        <v>5.867</v>
+      </c>
+      <c r="G143">
+        <v>7.2718599999999994E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>30</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>6262</v>
+      </c>
+      <c r="D144">
+        <v>6</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144">
+        <v>6.1429999999999998</v>
+      </c>
+      <c r="G144">
+        <v>0.69921960000000005</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>31</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>6262</v>
+      </c>
+      <c r="D145">
+        <v>6</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G145">
+        <v>0.11471430000000001</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>32</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>6262</v>
+      </c>
+      <c r="D146">
+        <v>6</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G146" s="2">
+        <v>1.286145E-2</v>
+      </c>
+      <c r="I146" s="5">
         <v>0.57638888888888895</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
         <v>1</v>
-      </c>
-      <c r="B145" t="s">
-        <v>7</v>
-      </c>
-      <c r="C145">
-        <v>7000</v>
-      </c>
-      <c r="D145">
-        <v>7</v>
-      </c>
-      <c r="E145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F145">
-        <v>6.3689999999999998</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146">
-        <v>2</v>
-      </c>
-      <c r="B146" t="s">
-        <v>7</v>
-      </c>
-      <c r="C146">
-        <v>7000</v>
-      </c>
-      <c r="D146">
-        <v>7</v>
-      </c>
-      <c r="E146" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F146">
-        <v>6.5110000000000001</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147">
-        <v>3</v>
-      </c>
-      <c r="B147" t="s">
-        <v>7</v>
-      </c>
-      <c r="C147">
-        <v>7000</v>
-      </c>
-      <c r="D147">
-        <v>7</v>
-      </c>
-      <c r="E147" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F147">
-        <v>8.5109999999999992</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148">
-        <v>4</v>
       </c>
       <c r="B148" t="s">
         <v>7</v>
@@ -12414,12 +12815,15 @@
         <v>15</v>
       </c>
       <c r="F148">
-        <v>5.173</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.3689999999999998</v>
+      </c>
+      <c r="G148">
+        <v>0.22220519999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B149" t="s">
         <v>7</v>
@@ -12434,12 +12838,15 @@
         <v>15</v>
       </c>
       <c r="F149">
-        <v>6.7720000000000002</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.5110000000000001</v>
+      </c>
+      <c r="G149" s="2">
+        <v>6.0428839999999998E-2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B150" t="s">
         <v>7</v>
@@ -12454,12 +12861,15 @@
         <v>15</v>
       </c>
       <c r="F150">
-        <v>6.6890000000000001</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.5109999999999992</v>
+      </c>
+      <c r="G150" s="2">
+        <v>5.4290669999999999E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B151" t="s">
         <v>7</v>
@@ -12474,12 +12884,15 @@
         <v>15</v>
       </c>
       <c r="F151">
-        <v>5.3639999999999999</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.173</v>
+      </c>
+      <c r="G151" s="2">
+        <v>9.3927380000000005E-2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B152" t="s">
         <v>7</v>
@@ -12494,12 +12907,15 @@
         <v>15</v>
       </c>
       <c r="F152">
-        <v>8.1989999999999998</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.7720000000000002</v>
+      </c>
+      <c r="G152" s="2">
+        <v>6.269653E-2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B153" t="s">
         <v>7</v>
@@ -12514,12 +12930,15 @@
         <v>15</v>
       </c>
       <c r="F153">
-        <v>6.74</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.6890000000000001</v>
+      </c>
+      <c r="G153" s="2">
+        <v>6.6100740000000005E-2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B154" t="s">
         <v>7</v>
@@ -12534,12 +12953,15 @@
         <v>15</v>
       </c>
       <c r="F154">
-        <v>5.5570000000000004</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.3639999999999999</v>
+      </c>
+      <c r="G154" s="2">
+        <v>6.2530409999999995E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B155" t="s">
         <v>7</v>
@@ -12554,12 +12976,15 @@
         <v>15</v>
       </c>
       <c r="F155">
-        <v>7.3079999999999998</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8.1989999999999998</v>
+      </c>
+      <c r="G155">
+        <v>4.0423199999999999E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B156" t="s">
         <v>7</v>
@@ -12574,12 +12999,15 @@
         <v>15</v>
       </c>
       <c r="F156">
-        <v>7.6589999999999998</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6.74</v>
+      </c>
+      <c r="G156">
+        <v>0.75765420000000006</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B157" t="s">
         <v>7</v>
@@ -12594,12 +13022,15 @@
         <v>15</v>
       </c>
       <c r="F157">
-        <v>7.851</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5.5570000000000004</v>
+      </c>
+      <c r="G157">
+        <v>0.17341880000000001</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B158" t="s">
         <v>7</v>
@@ -12614,12 +13045,15 @@
         <v>15</v>
       </c>
       <c r="F158">
-        <v>5.3330000000000002</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.3079999999999998</v>
+      </c>
+      <c r="G158">
+        <v>8.5843000000000003E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B159" t="s">
         <v>7</v>
@@ -12634,12 +13068,15 @@
         <v>15</v>
       </c>
       <c r="F159">
-        <v>7.673</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7.6589999999999998</v>
+      </c>
+      <c r="G159" s="2">
+        <v>5.4478409999999998E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B160" t="s">
         <v>7</v>
@@ -12654,12 +13091,15 @@
         <v>15</v>
       </c>
       <c r="F160">
-        <v>6.0869999999999997</v>
+        <v>7.851</v>
+      </c>
+      <c r="G160">
+        <v>5.9321800000000001E-2</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B161" t="s">
         <v>7</v>
@@ -12674,12 +13114,15 @@
         <v>15</v>
       </c>
       <c r="F161">
-        <v>6.2130000000000001</v>
+        <v>5.3330000000000002</v>
+      </c>
+      <c r="G161">
+        <v>0.64826320000000004</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B162" t="s">
         <v>7</v>
@@ -12694,12 +13137,15 @@
         <v>15</v>
       </c>
       <c r="F162">
-        <v>7.5010000000000003</v>
+        <v>7.673</v>
+      </c>
+      <c r="G162" s="2">
+        <v>8.0922289999999994E-2</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B163" t="s">
         <v>7</v>
@@ -12714,12 +13160,15 @@
         <v>15</v>
       </c>
       <c r="F163">
-        <v>7.3369999999999997</v>
+        <v>6.0869999999999997</v>
+      </c>
+      <c r="G163" s="2">
+        <v>7.5178140000000004E-2</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B164" t="s">
         <v>7</v>
@@ -12734,12 +13183,15 @@
         <v>15</v>
       </c>
       <c r="F164">
-        <v>9.609</v>
+        <v>6.2130000000000001</v>
+      </c>
+      <c r="G164" s="2">
+        <v>8.9861839999999998E-2</v>
       </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B165" t="s">
         <v>7</v>
@@ -12753,10 +13205,16 @@
       <c r="E165" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F165">
+        <v>7.5010000000000003</v>
+      </c>
+      <c r="G165" s="2">
+        <v>9.8185729999999999E-2</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B166" t="s">
         <v>7</v>
@@ -12770,19 +13228,22 @@
       <c r="E166" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I166" s="5">
-        <v>0.44513888888888892</v>
+      <c r="F166">
+        <v>7.3369999999999997</v>
+      </c>
+      <c r="G166" s="2">
+        <v>7.4203290000000005E-2</v>
       </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C167">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D167">
         <v>7</v>
@@ -12791,21 +13252,21 @@
         <v>15</v>
       </c>
       <c r="F167">
-        <v>5.649</v>
-      </c>
-      <c r="I167" s="5">
-        <v>0.44513888888888892</v>
+        <v>9.609</v>
+      </c>
+      <c r="G167" s="2">
+        <v>7.7302170000000003E-2</v>
       </c>
     </row>
     <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C168">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D168">
         <v>7</v>
@@ -12813,19 +13274,22 @@
       <c r="E168" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F168">
-        <v>4.891</v>
+      <c r="G168" s="2">
+        <v>4.6325649999999999E-3</v>
+      </c>
+      <c r="I168" s="5">
+        <v>0.44513888888888892</v>
       </c>
     </row>
     <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C169">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D169">
         <v>7</v>
@@ -12833,13 +13297,16 @@
       <c r="E169" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F169">
-        <v>6.73</v>
+      <c r="G169" s="2">
+        <v>6.2220970000000002E-3</v>
+      </c>
+      <c r="I169" s="5">
+        <v>0.44513888888888892</v>
       </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B170" t="s">
         <v>8</v>
@@ -12854,12 +13321,15 @@
         <v>15</v>
       </c>
       <c r="F170">
-        <v>6.298</v>
+        <v>5.649</v>
+      </c>
+      <c r="G170">
+        <v>0.10565919999999999</v>
       </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B171" t="s">
         <v>8</v>
@@ -12874,12 +13344,15 @@
         <v>15</v>
       </c>
       <c r="F171">
-        <v>6.3140000000000001</v>
+        <v>4.891</v>
+      </c>
+      <c r="G171" s="2">
+        <v>7.0173509999999995E-2</v>
       </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B172" t="s">
         <v>8</v>
@@ -12894,12 +13367,15 @@
         <v>15</v>
       </c>
       <c r="F172">
-        <v>8.4429999999999996</v>
+        <v>6.73</v>
+      </c>
+      <c r="G172">
+        <v>0.1102137</v>
       </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B173" t="s">
         <v>8</v>
@@ -12914,12 +13390,15 @@
         <v>15</v>
       </c>
       <c r="F173">
-        <v>5.8310000000000004</v>
+        <v>6.298</v>
+      </c>
+      <c r="G173" s="2">
+        <v>9.8907629999999996E-2</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B174" t="s">
         <v>8</v>
@@ -12934,12 +13413,15 @@
         <v>15</v>
       </c>
       <c r="F174">
-        <v>6.306</v>
+        <v>6.3140000000000001</v>
+      </c>
+      <c r="G174">
+        <v>0.143848</v>
       </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B175" t="s">
         <v>8</v>
@@ -12954,12 +13436,15 @@
         <v>15</v>
       </c>
       <c r="F175">
-        <v>5.1619999999999999</v>
+        <v>8.4429999999999996</v>
+      </c>
+      <c r="G175">
+        <v>0.1090238</v>
       </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B176" t="s">
         <v>8</v>
@@ -12974,12 +13459,15 @@
         <v>15</v>
       </c>
       <c r="F176">
-        <v>7.7990000000000004</v>
+        <v>5.8310000000000004</v>
+      </c>
+      <c r="G176">
+        <v>1.0972930000000001</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B177" t="s">
         <v>8</v>
@@ -12994,12 +13482,15 @@
         <v>15</v>
       </c>
       <c r="F177">
-        <v>4.6539999999999999</v>
+        <v>6.306</v>
+      </c>
+      <c r="G177" s="2">
+        <v>8.826357E-2</v>
       </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B178" t="s">
         <v>8</v>
@@ -13014,12 +13505,15 @@
         <v>15</v>
       </c>
       <c r="F178">
-        <v>5.9960000000000004</v>
+        <v>5.1619999999999999</v>
+      </c>
+      <c r="G178" s="2">
+        <v>6.1354060000000002E-2</v>
       </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B179" t="s">
         <v>8</v>
@@ -13034,12 +13528,15 @@
         <v>15</v>
       </c>
       <c r="F179">
-        <v>6.1280000000000001</v>
+        <v>7.7990000000000004</v>
+      </c>
+      <c r="G179">
+        <v>0.12467</v>
       </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B180" t="s">
         <v>8</v>
@@ -13054,12 +13551,15 @@
         <v>15</v>
       </c>
       <c r="F180">
-        <v>8.8089999999999993</v>
+        <v>4.6539999999999999</v>
+      </c>
+      <c r="G180" s="2">
+        <v>8.9146320000000001E-2</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B181" t="s">
         <v>8</v>
@@ -13074,12 +13574,15 @@
         <v>15</v>
       </c>
       <c r="F181">
-        <v>7.1440000000000001</v>
+        <v>5.9960000000000004</v>
+      </c>
+      <c r="G181">
+        <v>0.14337610000000001</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B182" t="s">
         <v>8</v>
@@ -13094,12 +13597,15 @@
         <v>15</v>
       </c>
       <c r="F182">
-        <v>8.69</v>
+        <v>6.1280000000000001</v>
+      </c>
+      <c r="G182" s="2">
+        <v>9.9283969999999999E-2</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B183" t="s">
         <v>8</v>
@@ -13114,12 +13620,15 @@
         <v>15</v>
       </c>
       <c r="F183">
-        <v>8.5809999999999995</v>
+        <v>8.8089999999999993</v>
+      </c>
+      <c r="G183">
+        <v>0.16152040000000001</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B184" t="s">
         <v>8</v>
@@ -13134,12 +13643,15 @@
         <v>15</v>
       </c>
       <c r="F184">
-        <v>5.2539999999999996</v>
+        <v>7.1440000000000001</v>
+      </c>
+      <c r="G184">
+        <v>0.2134865</v>
       </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B185" t="s">
         <v>8</v>
@@ -13154,12 +13666,15 @@
         <v>15</v>
       </c>
       <c r="F185">
-        <v>6.26</v>
+        <v>8.69</v>
+      </c>
+      <c r="G185" s="2">
+        <v>8.8367840000000003E-2</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B186" t="s">
         <v>8</v>
@@ -13174,12 +13689,15 @@
         <v>15</v>
       </c>
       <c r="F186">
-        <v>5.5739999999999998</v>
+        <v>8.5809999999999995</v>
+      </c>
+      <c r="G186">
+        <v>0.13265389999999999</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B187" t="s">
         <v>8</v>
@@ -13193,10 +13711,16 @@
       <c r="E187" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F187">
+        <v>5.2539999999999996</v>
+      </c>
+      <c r="G187">
+        <v>1.031264</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B188" t="s">
         <v>8</v>
@@ -13210,396 +13734,405 @@
       <c r="E188" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I188" s="5">
-        <v>0.44791666666666669</v>
+      <c r="F188">
+        <v>6.26</v>
+      </c>
+      <c r="G188">
+        <v>0.18882840000000001</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>20</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <v>6262</v>
+      </c>
+      <c r="D189">
+        <v>7</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F189">
+        <v>5.5739999999999998</v>
+      </c>
+      <c r="G189">
+        <v>1.0254399999999999</v>
       </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190">
-        <v>7000</v>
+        <v>6262</v>
       </c>
       <c r="D190">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190">
-        <v>9.7100000000000009</v>
+        <v>15</v>
+      </c>
+      <c r="G190" s="2">
+        <v>2.608118E-3</v>
       </c>
       <c r="I190" s="5">
-        <v>0.44722222222222219</v>
+        <v>0.44791666666666669</v>
       </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
+        <v>22</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>6262</v>
+      </c>
+      <c r="D191">
+        <v>7</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G191" s="2">
+        <v>1.860262E-2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>1</v>
+      </c>
+      <c r="B193" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193">
+        <v>7000</v>
+      </c>
+      <c r="D193">
+        <v>8</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F193">
+        <v>9.7100000000000009</v>
+      </c>
+      <c r="I193" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
         <v>2</v>
       </c>
-      <c r="B191" t="s">
-        <v>7</v>
-      </c>
-      <c r="C191">
-        <v>7000</v>
-      </c>
-      <c r="D191">
-        <v>8</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F191">
+      <c r="B194" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194">
+        <v>7000</v>
+      </c>
+      <c r="D194">
+        <v>8</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F194">
         <v>7.056</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A192">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
         <v>3</v>
       </c>
-      <c r="B192" t="s">
-        <v>7</v>
-      </c>
-      <c r="C192">
-        <v>7000</v>
-      </c>
-      <c r="D192">
-        <v>8</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F192">
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>7000</v>
+      </c>
+      <c r="D195">
+        <v>8</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F195">
         <v>8.9290000000000003</v>
       </c>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A193">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
         <v>4</v>
       </c>
-      <c r="B193" t="s">
-        <v>7</v>
-      </c>
-      <c r="C193">
-        <v>7000</v>
-      </c>
-      <c r="D193">
-        <v>8</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F193">
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>7000</v>
+      </c>
+      <c r="D196">
+        <v>8</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F196">
         <v>6.7169999999999996</v>
       </c>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A194">
-        <v>5</v>
-      </c>
-      <c r="B194" t="s">
-        <v>7</v>
-      </c>
-      <c r="C194">
-        <v>7000</v>
-      </c>
-      <c r="D194">
-        <v>8</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F194">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197">
+        <v>7000</v>
+      </c>
+      <c r="D197">
+        <v>8</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197">
         <v>5.0949999999999998</v>
       </c>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A195">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
         <v>6</v>
       </c>
-      <c r="B195" t="s">
-        <v>7</v>
-      </c>
-      <c r="C195">
-        <v>7000</v>
-      </c>
-      <c r="D195">
-        <v>8</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F195">
+      <c r="B198" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198">
+        <v>7000</v>
+      </c>
+      <c r="D198">
+        <v>8</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F198">
         <v>10.433999999999999</v>
       </c>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A196">
-        <v>7</v>
-      </c>
-      <c r="B196" t="s">
-        <v>7</v>
-      </c>
-      <c r="C196">
-        <v>7000</v>
-      </c>
-      <c r="D196">
-        <v>8</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F196">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>7</v>
+      </c>
+      <c r="B199" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199">
+        <v>7000</v>
+      </c>
+      <c r="D199">
+        <v>8</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F199">
         <v>8.9239999999999995</v>
       </c>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A197">
-        <v>8</v>
-      </c>
-      <c r="B197" t="s">
-        <v>7</v>
-      </c>
-      <c r="C197">
-        <v>7000</v>
-      </c>
-      <c r="D197">
-        <v>8</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F197">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>8</v>
+      </c>
+      <c r="B200" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200">
+        <v>7000</v>
+      </c>
+      <c r="D200">
+        <v>8</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F200">
         <v>5.851</v>
       </c>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A198">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
         <v>9</v>
       </c>
-      <c r="B198" t="s">
-        <v>7</v>
-      </c>
-      <c r="C198">
-        <v>7000</v>
-      </c>
-      <c r="D198">
-        <v>8</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F198">
+      <c r="B201" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201">
+        <v>7000</v>
+      </c>
+      <c r="D201">
+        <v>8</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F201">
         <v>7.2320000000000002</v>
       </c>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A199">
-        <v>10</v>
-      </c>
-      <c r="B199" t="s">
-        <v>7</v>
-      </c>
-      <c r="C199">
-        <v>7000</v>
-      </c>
-      <c r="D199">
-        <v>8</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F199">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>10</v>
+      </c>
+      <c r="B202" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202">
+        <v>7000</v>
+      </c>
+      <c r="D202">
+        <v>8</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F202">
         <v>6.9779999999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A200">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
         <v>11</v>
       </c>
-      <c r="B200" t="s">
-        <v>7</v>
-      </c>
-      <c r="C200">
-        <v>7000</v>
-      </c>
-      <c r="D200">
-        <v>8</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F200">
+      <c r="B203" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203">
+        <v>7000</v>
+      </c>
+      <c r="D203">
+        <v>8</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F203">
         <v>2.3170000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A201">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
         <v>12</v>
       </c>
-      <c r="B201" t="s">
-        <v>7</v>
-      </c>
-      <c r="C201">
-        <v>7000</v>
-      </c>
-      <c r="D201">
-        <v>8</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F201">
+      <c r="B204" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204">
+        <v>7000</v>
+      </c>
+      <c r="D204">
+        <v>8</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F204">
         <v>7.0750000000000002</v>
       </c>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A202">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A205">
         <v>13</v>
       </c>
-      <c r="B202" t="s">
-        <v>7</v>
-      </c>
-      <c r="C202">
-        <v>7000</v>
-      </c>
-      <c r="D202">
-        <v>8</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F202">
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>7000</v>
+      </c>
+      <c r="D205">
+        <v>8</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F205">
         <v>4.7119999999999997</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A203">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A206">
         <v>14</v>
       </c>
-      <c r="B203" t="s">
-        <v>7</v>
-      </c>
-      <c r="C203">
-        <v>7000</v>
-      </c>
-      <c r="D203">
-        <v>8</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F203">
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>7000</v>
+      </c>
+      <c r="D206">
+        <v>8</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F206">
         <v>5.3659999999999997</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A204">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A207">
         <v>15</v>
       </c>
-      <c r="B204" t="s">
-        <v>7</v>
-      </c>
-      <c r="C204">
-        <v>7000</v>
-      </c>
-      <c r="D204">
-        <v>8</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F204">
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>7000</v>
+      </c>
+      <c r="D207">
+        <v>8</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F207">
         <v>5.9089999999999998</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A205">
-        <v>16</v>
-      </c>
-      <c r="B205" t="s">
-        <v>7</v>
-      </c>
-      <c r="C205">
-        <v>7000</v>
-      </c>
-      <c r="D205">
-        <v>8</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F205">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>16</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>7000</v>
+      </c>
+      <c r="D208">
+        <v>8</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F208">
         <v>6.3109999999999999</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A206">
-        <v>17</v>
-      </c>
-      <c r="B206" t="s">
-        <v>7</v>
-      </c>
-      <c r="C206">
-        <v>7000</v>
-      </c>
-      <c r="D206">
-        <v>8</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F206">
-        <v>6.0990000000000002</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A207">
-        <v>18</v>
-      </c>
-      <c r="B207" t="s">
-        <v>7</v>
-      </c>
-      <c r="C207">
-        <v>7000</v>
-      </c>
-      <c r="D207">
-        <v>8</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F207">
-        <v>4.9249999999999998</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A208">
-        <v>19</v>
-      </c>
-      <c r="B208" t="s">
-        <v>7</v>
-      </c>
-      <c r="C208">
-        <v>7000</v>
-      </c>
-      <c r="D208">
-        <v>8</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F208">
-        <v>8.1820000000000004</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B209" t="s">
         <v>7</v>
@@ -13614,12 +14147,12 @@
         <v>16</v>
       </c>
       <c r="F209">
-        <v>5.8</v>
+        <v>6.0990000000000002</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B210" t="s">
         <v>7</v>
@@ -13632,11 +14165,14 @@
       </c>
       <c r="E210" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F210">
+        <v>4.9249999999999998</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B211" t="s">
         <v>7</v>
@@ -13650,19 +14186,19 @@
       <c r="E211" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I211" s="5">
-        <v>0.45069444444444445</v>
+      <c r="F211">
+        <v>8.1820000000000004</v>
       </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B212" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C212">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D212">
         <v>8</v>
@@ -13671,21 +14207,18 @@
         <v>16</v>
       </c>
       <c r="F212">
-        <v>8.7370000000000001</v>
-      </c>
-      <c r="I212" s="5">
-        <v>0.45069444444444445</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C213">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D213">
         <v>8</v>
@@ -13693,19 +14226,19 @@
       <c r="E213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F213">
-        <v>8.1189999999999998</v>
+      <c r="I213" s="5">
+        <v>0.45069444444444445</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B214" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C214">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D214">
         <v>8</v>
@@ -13713,13 +14246,13 @@
       <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F214">
-        <v>6.6040000000000001</v>
+      <c r="I214" s="5">
+        <v>0.45069444444444445</v>
       </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B215" t="s">
         <v>8</v>
@@ -13734,12 +14267,12 @@
         <v>16</v>
       </c>
       <c r="F215">
-        <v>7.1559999999999997</v>
+        <v>8.7370000000000001</v>
       </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B216" t="s">
         <v>8</v>
@@ -13754,12 +14287,12 @@
         <v>16</v>
       </c>
       <c r="F216">
-        <v>5.1369999999999996</v>
+        <v>8.1189999999999998</v>
       </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B217" t="s">
         <v>8</v>
@@ -13774,12 +14307,12 @@
         <v>16</v>
       </c>
       <c r="F217">
-        <v>3.52</v>
+        <v>6.6040000000000001</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B218" t="s">
         <v>8</v>
@@ -13794,12 +14327,12 @@
         <v>16</v>
       </c>
       <c r="F218">
-        <v>6.048</v>
+        <v>7.1559999999999997</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B219" t="s">
         <v>8</v>
@@ -13814,12 +14347,12 @@
         <v>16</v>
       </c>
       <c r="F219">
-        <v>6.16</v>
+        <v>5.1369999999999996</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B220" t="s">
         <v>8</v>
@@ -13834,12 +14367,12 @@
         <v>16</v>
       </c>
       <c r="F220">
-        <v>5.7649999999999997</v>
+        <v>3.52</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B221" t="s">
         <v>8</v>
@@ -13854,12 +14387,12 @@
         <v>16</v>
       </c>
       <c r="F221">
-        <v>8.24</v>
+        <v>6.048</v>
       </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B222" t="s">
         <v>8</v>
@@ -13874,12 +14407,12 @@
         <v>16</v>
       </c>
       <c r="F222">
-        <v>6.6070000000000002</v>
+        <v>6.16</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B223" t="s">
         <v>8</v>
@@ -13894,12 +14427,12 @@
         <v>16</v>
       </c>
       <c r="F223">
-        <v>3.4449999999999998</v>
+        <v>5.7649999999999997</v>
       </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B224" t="s">
         <v>8</v>
@@ -13914,12 +14447,12 @@
         <v>16</v>
       </c>
       <c r="F224">
-        <v>2.258</v>
+        <v>8.24</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B225" t="s">
         <v>8</v>
@@ -13934,12 +14467,12 @@
         <v>16</v>
       </c>
       <c r="F225">
-        <v>2.5459999999999998</v>
+        <v>6.6070000000000002</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B226" t="s">
         <v>8</v>
@@ -13954,12 +14487,12 @@
         <v>16</v>
       </c>
       <c r="F226">
-        <v>5.6639999999999997</v>
+        <v>3.4449999999999998</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B227" t="s">
         <v>8</v>
@@ -13974,12 +14507,12 @@
         <v>16</v>
       </c>
       <c r="F227">
-        <v>4.8639999999999999</v>
+        <v>2.258</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B228" t="s">
         <v>8</v>
@@ -13994,12 +14527,12 @@
         <v>16</v>
       </c>
       <c r="F228">
-        <v>5.2720000000000002</v>
+        <v>2.5459999999999998</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B229" t="s">
         <v>8</v>
@@ -14014,12 +14547,12 @@
         <v>16</v>
       </c>
       <c r="F229">
-        <v>7.5250000000000004</v>
+        <v>5.6639999999999997</v>
       </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B230" t="s">
         <v>8</v>
@@ -14034,12 +14567,12 @@
         <v>16</v>
       </c>
       <c r="F230">
-        <v>5.15</v>
+        <v>4.8639999999999999</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B231" t="s">
         <v>8</v>
@@ -14052,27 +14585,90 @@
       </c>
       <c r="E231" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="F231">
+        <v>5.2720000000000002</v>
       </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
+        <v>18</v>
+      </c>
+      <c r="B232" t="s">
+        <v>8</v>
+      </c>
+      <c r="C232">
+        <v>6262</v>
+      </c>
+      <c r="D232">
+        <v>8</v>
+      </c>
+      <c r="E232" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F232">
+        <v>7.5250000000000004</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>8</v>
+      </c>
+      <c r="C233">
+        <v>6262</v>
+      </c>
+      <c r="D233">
+        <v>8</v>
+      </c>
+      <c r="E233" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F233">
+        <v>5.15</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>20</v>
+      </c>
+      <c r="B234" t="s">
+        <v>8</v>
+      </c>
+      <c r="C234">
+        <v>6262</v>
+      </c>
+      <c r="D234">
+        <v>8</v>
+      </c>
+      <c r="E234" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I234" s="5">
+        <v>0.45555555555555555</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A235">
         <v>21</v>
       </c>
-      <c r="B232" t="s">
-        <v>8</v>
-      </c>
-      <c r="C232">
-        <v>6262</v>
-      </c>
-      <c r="D232">
-        <v>8</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I232" s="5">
-        <v>0.45555555555555555</v>
-      </c>
+      <c r="B235" t="s">
+        <v>8</v>
+      </c>
+      <c r="C235">
+        <v>6262</v>
+      </c>
+      <c r="D235">
+        <v>8</v>
+      </c>
+      <c r="E235" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E301" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F6A63A-F54F-479A-A31E-449E5BA51026}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6268BA-33D4-48B8-868E-D7387A27426C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -9626,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9688,6 +9688,9 @@
       <c r="F2">
         <v>5.4930000000000003</v>
       </c>
+      <c r="H2">
+        <v>0.25923370000000001</v>
+      </c>
       <c r="I2" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -9711,6 +9714,9 @@
       <c r="F3">
         <v>7.7309999999999999</v>
       </c>
+      <c r="H3" s="2">
+        <v>2.1769980000000001E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -9731,6 +9737,9 @@
       <c r="F4">
         <v>2.6389999999999998</v>
       </c>
+      <c r="H4">
+        <v>0.57221960000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -9751,6 +9760,9 @@
       <c r="F5">
         <v>4.3949999999999996</v>
       </c>
+      <c r="H5">
+        <v>0.5638341</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -9770,6 +9782,9 @@
       </c>
       <c r="F6">
         <v>10.275</v>
+      </c>
+      <c r="H6">
+        <v>0.1211013</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9791,6 +9806,9 @@
       <c r="F7">
         <v>3.2839999999999998</v>
       </c>
+      <c r="H7" s="2">
+        <v>6.0454010000000002E-2</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -9811,6 +9829,9 @@
       <c r="F8">
         <v>6.5659999999999998</v>
       </c>
+      <c r="H8">
+        <v>0.74405169999999998</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -9830,6 +9851,9 @@
       </c>
       <c r="F9">
         <v>3.33</v>
+      </c>
+      <c r="H9" s="2">
+        <v>5.8182110000000002E-2</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -9851,6 +9875,9 @@
       <c r="F10">
         <v>5.2859999999999996</v>
       </c>
+      <c r="H10" s="2">
+        <v>7.4097120000000002E-2</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -9870,6 +9897,9 @@
       </c>
       <c r="F11">
         <v>6.093</v>
+      </c>
+      <c r="H11">
+        <v>0.71304290000000004</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9891,6 +9921,9 @@
       <c r="F12">
         <v>4.8239999999999998</v>
       </c>
+      <c r="H12" s="2">
+        <v>9.4041440000000004E-2</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -9911,6 +9944,9 @@
       <c r="F13">
         <v>4.5510000000000002</v>
       </c>
+      <c r="H13" s="2">
+        <v>5.7580180000000002E-2</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -9931,6 +9967,9 @@
       <c r="F14">
         <v>5.3120000000000003</v>
       </c>
+      <c r="H14" s="2">
+        <v>5.666504E-2</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -9951,6 +9990,9 @@
       <c r="F15">
         <v>9.5670000000000002</v>
       </c>
+      <c r="H15">
+        <v>0.75377640000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -9971,6 +10013,9 @@
       <c r="F16">
         <v>7.0590000000000002</v>
       </c>
+      <c r="H16" s="2">
+        <v>6.3233230000000001E-2</v>
+      </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -9987,6 +10032,9 @@
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H17">
+        <v>6.2713099999999994E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -10005,6 +10053,9 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H18" s="2">
+        <v>7.3917979999999998E-3</v>
+      </c>
       <c r="I18" s="5">
         <v>0.45416666666666666</v>
       </c>
@@ -10028,6 +10079,9 @@
       <c r="F19">
         <v>7.93</v>
       </c>
+      <c r="H19" s="2">
+        <v>7.1979319999999998E-3</v>
+      </c>
       <c r="I19" s="5">
         <v>0.45416666666666666</v>
       </c>
@@ -10051,6 +10105,9 @@
       <c r="F20">
         <v>4.5229999999999997</v>
       </c>
+      <c r="H20">
+        <v>0.40099190000000001</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -10071,6 +10128,9 @@
       <c r="F21">
         <v>5.46</v>
       </c>
+      <c r="H21" s="2">
+        <v>1.5954280000000001E-2</v>
+      </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -10091,6 +10151,9 @@
       <c r="F22">
         <v>3.9649999999999999</v>
       </c>
+      <c r="H22" s="2">
+        <v>1.253663E-2</v>
+      </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -10110,6 +10173,9 @@
       </c>
       <c r="F23">
         <v>5.8040000000000003</v>
+      </c>
+      <c r="H23">
+        <v>0.92971000000000004</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -10131,6 +10197,9 @@
       <c r="F24">
         <v>4.5460000000000003</v>
       </c>
+      <c r="H24">
+        <v>0.70063980000000003</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -10151,6 +10220,9 @@
       <c r="F25">
         <v>5.6020000000000003</v>
       </c>
+      <c r="H25" s="2">
+        <v>5.6583080000000001E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -10170,6 +10242,9 @@
       </c>
       <c r="F26">
         <v>6.0119999999999996</v>
+      </c>
+      <c r="H26" s="2">
+        <v>8.6239659999999996E-2</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -10191,6 +10266,9 @@
       <c r="F27">
         <v>3.84</v>
       </c>
+      <c r="H27" s="2">
+        <v>7.0294949999999995E-2</v>
+      </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -10210,6 +10288,9 @@
       </c>
       <c r="F28">
         <v>4.9969999999999999</v>
+      </c>
+      <c r="H28" s="2">
+        <v>4.616642E-2</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
@@ -10231,6 +10312,9 @@
       <c r="F29">
         <v>5.51</v>
       </c>
+      <c r="H29">
+        <v>0.60171680000000005</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -10251,6 +10335,9 @@
       <c r="F30">
         <v>2.7679999999999998</v>
       </c>
+      <c r="H30">
+        <v>1.262175</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -10271,6 +10358,9 @@
       <c r="F31">
         <v>5.7290000000000001</v>
       </c>
+      <c r="H31">
+        <v>0.85847589999999996</v>
+      </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -10291,6 +10381,9 @@
       <c r="F32">
         <v>2.2719999999999998</v>
       </c>
+      <c r="H32" s="2">
+        <v>4.8666029999999999E-2</v>
+      </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -10311,6 +10404,9 @@
       <c r="F33">
         <v>3.5049999999999999</v>
       </c>
+      <c r="H33" s="2">
+        <v>6.4596029999999999E-2</v>
+      </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -10327,6 +10423,9 @@
       </c>
       <c r="E34" s="1" t="s">
         <v>13</v>
+      </c>
+      <c r="H34">
+        <v>0.8055525</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -10345,8 +10444,16 @@
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H35" s="2">
+        <v>6.3976290000000005E-2</v>
+      </c>
       <c r="I35" s="5">
         <v>0.45694444444444443</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H36" s="2">
+        <v>-4.3080970000000003E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -10370,6 +10477,9 @@
       </c>
       <c r="G37">
         <v>0.70826560000000005</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-1.241104E-2</v>
       </c>
       <c r="I37" s="5">
         <v>0.52013888888888882</v>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC6268BA-33D4-48B8-868E-D7387A27426C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A92E7-3512-4EAB-8430-4162794001F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -9626,8 +9626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
+      <selection activeCell="M220" sqref="M220"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13936,6 +13936,9 @@
       <c r="F193">
         <v>9.7100000000000009</v>
       </c>
+      <c r="H193">
+        <v>0.22391249999999999</v>
+      </c>
       <c r="I193" s="5">
         <v>0.44722222222222219</v>
       </c>
@@ -13959,6 +13962,9 @@
       <c r="F194">
         <v>7.056</v>
       </c>
+      <c r="H194" s="2">
+        <v>6.6925349999999995E-2</v>
+      </c>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -13979,6 +13985,9 @@
       <c r="F195">
         <v>8.9290000000000003</v>
       </c>
+      <c r="H195" s="2">
+        <v>4.9125750000000003E-2</v>
+      </c>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -13999,6 +14008,9 @@
       <c r="F196">
         <v>6.7169999999999996</v>
       </c>
+      <c r="H196" s="2">
+        <v>4.939872E-2</v>
+      </c>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -14018,6 +14030,9 @@
       </c>
       <c r="F197">
         <v>5.0949999999999998</v>
+      </c>
+      <c r="H197">
+        <v>0.15068570000000001</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -14039,6 +14054,9 @@
       <c r="F198">
         <v>10.433999999999999</v>
       </c>
+      <c r="H198" s="2">
+        <v>3.8747160000000003E-2</v>
+      </c>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -14059,6 +14077,9 @@
       <c r="F199">
         <v>8.9239999999999995</v>
       </c>
+      <c r="H199">
+        <v>0.11958539999999999</v>
+      </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200">
@@ -14078,6 +14099,9 @@
       </c>
       <c r="F200">
         <v>5.851</v>
+      </c>
+      <c r="H200" s="2">
+        <v>7.1045259999999999E-2</v>
       </c>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
@@ -14099,6 +14123,9 @@
       <c r="F201">
         <v>7.2320000000000002</v>
       </c>
+      <c r="H201">
+        <v>0.1778054</v>
+      </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -14118,6 +14145,9 @@
       </c>
       <c r="F202">
         <v>6.9779999999999998</v>
+      </c>
+      <c r="H202">
+        <v>0.40373019999999998</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -14139,6 +14169,9 @@
       <c r="F203">
         <v>2.3170000000000002</v>
       </c>
+      <c r="H203" s="2">
+        <v>6.0479890000000001E-2</v>
+      </c>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -14159,6 +14192,9 @@
       <c r="F204">
         <v>7.0750000000000002</v>
       </c>
+      <c r="H204" s="2">
+        <v>1.3995570000000001E-2</v>
+      </c>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -14179,6 +14215,9 @@
       <c r="F205">
         <v>4.7119999999999997</v>
       </c>
+      <c r="H205">
+        <v>0.77723900000000001</v>
+      </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206">
@@ -14199,6 +14238,9 @@
       <c r="F206">
         <v>5.3659999999999997</v>
       </c>
+      <c r="H206">
+        <v>0.15613369999999999</v>
+      </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207">
@@ -14219,6 +14261,9 @@
       <c r="F207">
         <v>5.9089999999999998</v>
       </c>
+      <c r="H207">
+        <v>0.56041359999999996</v>
+      </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -14238,6 +14283,9 @@
       </c>
       <c r="F208">
         <v>6.3109999999999999</v>
+      </c>
+      <c r="H208">
+        <v>0.60055360000000002</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -14259,6 +14307,9 @@
       <c r="F209">
         <v>6.0990000000000002</v>
       </c>
+      <c r="H209">
+        <v>0.82961910000000005</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -14278,6 +14329,9 @@
       </c>
       <c r="F210">
         <v>4.9249999999999998</v>
+      </c>
+      <c r="H210">
+        <v>0.9001287</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -14299,6 +14353,9 @@
       <c r="F211">
         <v>8.1820000000000004</v>
       </c>
+      <c r="H211" s="2">
+        <v>5.1093409999999999E-2</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -14319,6 +14376,9 @@
       <c r="F212">
         <v>5.8</v>
       </c>
+      <c r="H212" s="2">
+        <v>3.9790529999999998E-2</v>
+      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -14336,6 +14396,9 @@
       <c r="E213" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H213" s="2">
+        <v>9.8990750000000002E-2</v>
+      </c>
       <c r="I213" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -14356,6 +14419,9 @@
       <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H214" s="2">
+        <v>5.6058949999999996E-3</v>
+      </c>
       <c r="I214" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -14379,6 +14445,9 @@
       <c r="F215">
         <v>8.7370000000000001</v>
       </c>
+      <c r="H215" s="2">
+        <v>4.7585889999999997E-3</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -14399,6 +14468,9 @@
       <c r="F216">
         <v>8.1189999999999998</v>
       </c>
+      <c r="H216">
+        <v>1.197152</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -14419,6 +14491,9 @@
       <c r="F217">
         <v>6.6040000000000001</v>
       </c>
+      <c r="H217">
+        <v>0.22833690000000001</v>
+      </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218">
@@ -14439,6 +14514,9 @@
       <c r="F218">
         <v>7.1559999999999997</v>
       </c>
+      <c r="H218">
+        <v>0.26404879999999997</v>
+      </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219">
@@ -14458,6 +14536,9 @@
       </c>
       <c r="F219">
         <v>5.1369999999999996</v>
+      </c>
+      <c r="H219">
+        <v>9.9998799999999999E-2</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -14479,6 +14560,9 @@
       <c r="F220">
         <v>3.52</v>
       </c>
+      <c r="H220">
+        <v>1.3915850000000001</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -14499,6 +14583,9 @@
       <c r="F221">
         <v>6.048</v>
       </c>
+      <c r="H221" s="2">
+        <v>7.8096020000000002E-2</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -14518,6 +14605,9 @@
       </c>
       <c r="F222">
         <v>6.16</v>
+      </c>
+      <c r="H222" s="2">
+        <v>7.3995019999999995E-2</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -14539,6 +14629,9 @@
       <c r="F223">
         <v>5.7649999999999997</v>
       </c>
+      <c r="H223" s="2">
+        <v>9.2180380000000006E-2</v>
+      </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -14558,6 +14651,9 @@
       </c>
       <c r="F224">
         <v>8.24</v>
+      </c>
+      <c r="H224">
+        <v>0.14330780000000001</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -14579,6 +14675,9 @@
       <c r="F225">
         <v>6.6070000000000002</v>
       </c>
+      <c r="H225">
+        <v>1.3326979999999999</v>
+      </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226">
@@ -14599,6 +14698,9 @@
       <c r="F226">
         <v>3.4449999999999998</v>
       </c>
+      <c r="H226">
+        <v>0.1641282</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -14619,6 +14721,9 @@
       <c r="F227">
         <v>2.258</v>
       </c>
+      <c r="H227">
+        <v>0.11630119999999999</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -14639,6 +14744,9 @@
       <c r="F228">
         <v>2.5459999999999998</v>
       </c>
+      <c r="H228">
+        <v>1.47356</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -14659,6 +14767,9 @@
       <c r="F229">
         <v>5.6639999999999997</v>
       </c>
+      <c r="H229" s="2">
+        <v>2.265323E-2</v>
+      </c>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -14678,6 +14789,9 @@
       </c>
       <c r="F230">
         <v>4.8639999999999999</v>
+      </c>
+      <c r="H230">
+        <v>0.18719050000000001</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -14699,6 +14813,9 @@
       <c r="F231">
         <v>5.2720000000000002</v>
       </c>
+      <c r="H231" s="2">
+        <v>5.2527329999999997E-2</v>
+      </c>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -14718,6 +14835,9 @@
       </c>
       <c r="F232">
         <v>7.5250000000000004</v>
+      </c>
+      <c r="H232" s="2">
+        <v>5.8781050000000001E-2</v>
       </c>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
@@ -14739,6 +14859,9 @@
       <c r="F233">
         <v>5.15</v>
       </c>
+      <c r="H233" s="2">
+        <v>9.5102409999999998E-2</v>
+      </c>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -14756,6 +14879,9 @@
       <c r="E234" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H234">
+        <v>0.1004196</v>
+      </c>
       <c r="I234" s="5">
         <v>0.45555555555555555</v>
       </c>
@@ -14775,6 +14901,24 @@
       </c>
       <c r="E235" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="H235">
+        <v>0.2101761</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H236" s="2">
+        <v>1.6479330000000001E-3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H237" s="2">
+        <v>1.7026010000000001E-2</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H238" s="2">
+        <v>1.8194680000000001E-2</v>
       </c>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31A92E7-3512-4EAB-8430-4162794001F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59737DE0-0689-4000-BF91-2E0F156C46F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
     <sheet name="Day8 pupae" sheetId="2" r:id="rId2"/>
     <sheet name="Day15 pupae" sheetId="3" r:id="rId3"/>
     <sheet name="Day20pupae" sheetId="4" r:id="rId4"/>
+    <sheet name="Day8 Pupae Haw" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1315" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="27">
   <si>
     <t>N</t>
   </si>
@@ -103,6 +104,12 @@
   </si>
   <si>
     <t>day20_resp</t>
+  </si>
+  <si>
+    <t>2018-09-23</t>
+  </si>
+  <si>
+    <t>2018-09-24</t>
   </si>
 </sst>
 </file>
@@ -2763,8 +2770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView topLeftCell="A177" workbookViewId="0">
-      <selection activeCell="D166" sqref="D166:E201"/>
+    <sheetView topLeftCell="A160" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9626,8 +9633,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" workbookViewId="0">
-      <selection activeCell="M220" sqref="M220"/>
+    <sheetView topLeftCell="A110" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14927,4 +14934,1633 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
+  <dimension ref="A1:I88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="K74" sqref="K74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7000</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7000</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7000</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7000</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7000</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7000</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7000</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7000</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7000</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7000</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>7000</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7000</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>7000</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7000</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7000</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>7000</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>7000</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>6262</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27">
+        <v>6262</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28">
+        <v>6262</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>4</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>6262</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>6262</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>6262</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>6262</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>6262</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>9</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6262</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6262</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>11</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>6262</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>12</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>6262</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>13</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>6262</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>6262</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>15</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>6262</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>6262</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>17</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>6262</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>18</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>6262</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>19</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>6262</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>20</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>6262</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>21</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>6262</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>22</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>6262</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>6262</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>24</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>6262</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s">
+        <v>7</v>
+      </c>
+      <c r="C51">
+        <v>7000</v>
+      </c>
+      <c r="D51">
+        <v>4</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F51">
+        <v>6.5670000000000002</v>
+      </c>
+      <c r="I51" s="5">
+        <v>0.43888888888888888</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52">
+        <v>7000</v>
+      </c>
+      <c r="D52">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F52">
+        <v>10.282999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>3</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>7000</v>
+      </c>
+      <c r="D53">
+        <v>4</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53">
+        <v>10.066000000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54">
+        <v>7000</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F54">
+        <v>9.7539999999999996</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55">
+        <v>7000</v>
+      </c>
+      <c r="D55">
+        <v>4</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55">
+        <v>8.7360000000000007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" t="s">
+        <v>7</v>
+      </c>
+      <c r="C56">
+        <v>7000</v>
+      </c>
+      <c r="D56">
+        <v>4</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F56">
+        <v>10.375999999999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7000</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F57">
+        <v>9.2249999999999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>7000</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F58">
+        <v>6.7279999999999998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>9</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>7000</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F59">
+        <v>6.66</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>10</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60">
+        <v>7.2309999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>7000</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F61">
+        <v>7.7779999999999996</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>12</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>7000</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F62">
+        <v>8.6110000000000007</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>13</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>7000</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F63">
+        <v>3.984</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>14</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>7000</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64">
+        <v>9.8550000000000004</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>15</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>7000</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65">
+        <v>9.9830000000000005</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>16</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>7000</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66">
+        <v>5.008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>17</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>7000</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67">
+        <v>9.3670000000000009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>18</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>7000</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>19</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>7000</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I69" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>6262</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F70">
+        <v>7.258</v>
+      </c>
+      <c r="I70" s="5">
+        <v>0.44097222222222227</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2</v>
+      </c>
+      <c r="B71" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71">
+        <v>6262</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71">
+        <v>9.8689999999999998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72">
+        <v>6262</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72">
+        <v>5.8230000000000004</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4</v>
+      </c>
+      <c r="B73" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73">
+        <v>6262</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F73">
+        <v>10.824</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74">
+        <v>6262</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F74">
+        <v>6.1890000000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6</v>
+      </c>
+      <c r="B75" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75">
+        <v>6262</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F75">
+        <v>4.49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7</v>
+      </c>
+      <c r="B76" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76">
+        <v>6262</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F76">
+        <v>3.2290000000000001</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8</v>
+      </c>
+      <c r="B77" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77">
+        <v>6262</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F77">
+        <v>9.2330000000000005</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>6262</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F78">
+        <v>4.2610000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>6262</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F79">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>11</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>6262</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F80">
+        <v>6.968</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>6262</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81">
+        <v>4.476</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>13</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>6262</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F82">
+        <v>7.5640000000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>14</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>6262</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F83">
+        <v>4.0030000000000001</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>15</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>6262</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F84">
+        <v>7.2729999999999997</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>16</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>6262</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F85">
+        <v>5.1180000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>17</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>6262</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>18</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>6262</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>19</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>6262</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I88" s="5">
+        <v>0.44375000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59737DE0-0689-4000-BF91-2E0F156C46F9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AE496-6FEA-4064-9E5F-D63074BC274F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1496" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="28">
   <si>
     <t>N</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>2018-09-24</t>
+  </si>
+  <si>
+    <t>2018-09-25</t>
   </si>
 </sst>
 </file>
@@ -2770,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView topLeftCell="A160" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView topLeftCell="A222" workbookViewId="0">
+      <selection activeCell="A203" sqref="A203:C256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14938,10 +14941,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="K74" sqref="K74"/>
+    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="H141" sqref="H141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16161,6 +16164,9 @@
       <c r="E68" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F68">
+        <v>6.6180000000000003</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -16178,19 +16184,19 @@
       <c r="E69" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I69" s="5">
-        <v>0.44097222222222227</v>
+      <c r="F69">
+        <v>7.6989999999999998</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C70">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D70">
         <v>4</v>
@@ -16199,21 +16205,18 @@
         <v>26</v>
       </c>
       <c r="F70">
-        <v>7.258</v>
-      </c>
-      <c r="I70" s="5">
-        <v>0.44097222222222227</v>
+        <v>9.968</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C71">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D71">
         <v>4</v>
@@ -16221,19 +16224,16 @@
       <c r="E71" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F71">
-        <v>9.8689999999999998</v>
-      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C72">
-        <v>6262</v>
+        <v>7000</v>
       </c>
       <c r="D72">
         <v>4</v>
@@ -16241,13 +16241,13 @@
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F72">
-        <v>5.8230000000000004</v>
+      <c r="I72" s="5">
+        <v>0.44097222222222227</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B73" t="s">
         <v>8</v>
@@ -16262,12 +16262,15 @@
         <v>26</v>
       </c>
       <c r="F73">
-        <v>10.824</v>
+        <v>7.258</v>
+      </c>
+      <c r="I73" s="5">
+        <v>0.44097222222222227</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B74" t="s">
         <v>8</v>
@@ -16282,12 +16285,12 @@
         <v>26</v>
       </c>
       <c r="F74">
-        <v>6.1890000000000001</v>
+        <v>9.8689999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B75" t="s">
         <v>8</v>
@@ -16302,12 +16305,12 @@
         <v>26</v>
       </c>
       <c r="F75">
-        <v>4.49</v>
+        <v>5.8230000000000004</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B76" t="s">
         <v>8</v>
@@ -16322,12 +16325,12 @@
         <v>26</v>
       </c>
       <c r="F76">
-        <v>3.2290000000000001</v>
+        <v>10.824</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B77" t="s">
         <v>8</v>
@@ -16342,12 +16345,12 @@
         <v>26</v>
       </c>
       <c r="F77">
-        <v>9.2330000000000005</v>
+        <v>6.1890000000000001</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B78" t="s">
         <v>8</v>
@@ -16362,12 +16365,12 @@
         <v>26</v>
       </c>
       <c r="F78">
-        <v>4.2610000000000001</v>
+        <v>4.49</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B79" t="s">
         <v>8</v>
@@ -16382,12 +16385,12 @@
         <v>26</v>
       </c>
       <c r="F79">
-        <v>9.08</v>
+        <v>3.2290000000000001</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B80" t="s">
         <v>8</v>
@@ -16402,12 +16405,12 @@
         <v>26</v>
       </c>
       <c r="F80">
-        <v>6.968</v>
+        <v>9.2330000000000005</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B81" t="s">
         <v>8</v>
@@ -16422,12 +16425,12 @@
         <v>26</v>
       </c>
       <c r="F81">
-        <v>4.476</v>
+        <v>4.2610000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B82" t="s">
         <v>8</v>
@@ -16442,12 +16445,12 @@
         <v>26</v>
       </c>
       <c r="F82">
-        <v>7.5640000000000001</v>
+        <v>9.08</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B83" t="s">
         <v>8</v>
@@ -16462,12 +16465,12 @@
         <v>26</v>
       </c>
       <c r="F83">
-        <v>4.0030000000000001</v>
+        <v>6.968</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B84" t="s">
         <v>8</v>
@@ -16482,12 +16485,12 @@
         <v>26</v>
       </c>
       <c r="F84">
-        <v>7.2729999999999997</v>
+        <v>4.476</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B85" t="s">
         <v>8</v>
@@ -16502,12 +16505,12 @@
         <v>26</v>
       </c>
       <c r="F85">
-        <v>5.1180000000000003</v>
+        <v>7.5640000000000001</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B86" t="s">
         <v>8</v>
@@ -16521,10 +16524,13 @@
       <c r="E86" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F86">
+        <v>4.0030000000000001</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B87" t="s">
         <v>8</v>
@@ -16538,10 +16544,13 @@
       <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="F87">
+        <v>7.2729999999999997</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B88" t="s">
         <v>8</v>
@@ -16555,9 +16564,1224 @@
       <c r="E88" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="I88" s="5">
+      <c r="F88">
+        <v>5.1180000000000003</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>17</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>6262</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F89">
+        <v>9.5939999999999994</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>18</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>6262</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F90">
+        <v>6.6470000000000002</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>19</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>6262</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91">
+        <v>10.670999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>20</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>6262</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F92">
+        <v>7.109</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>21</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>6262</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>6262</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I94" s="5">
         <v>0.44375000000000003</v>
       </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1</v>
+      </c>
+      <c r="B96" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96">
+        <v>7000</v>
+      </c>
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F96">
+        <v>7.4960000000000004</v>
+      </c>
+      <c r="I96" s="5">
+        <v>0.43472222222222223</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>2</v>
+      </c>
+      <c r="B97" t="s">
+        <v>7</v>
+      </c>
+      <c r="C97">
+        <v>7000</v>
+      </c>
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F97">
+        <v>2.8479999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>3</v>
+      </c>
+      <c r="B98" t="s">
+        <v>7</v>
+      </c>
+      <c r="C98">
+        <v>7000</v>
+      </c>
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F98">
+        <v>6.5289999999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>4</v>
+      </c>
+      <c r="B99" t="s">
+        <v>7</v>
+      </c>
+      <c r="C99">
+        <v>7000</v>
+      </c>
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F99">
+        <v>10.788</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>7</v>
+      </c>
+      <c r="C100">
+        <v>7000</v>
+      </c>
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F100">
+        <v>6.3719999999999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>6</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>7000</v>
+      </c>
+      <c r="D101">
+        <v>5</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F101">
+        <v>6.9050000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>7</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>7000</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F102">
+        <v>6.069</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>7000</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F103">
+        <v>8.4559999999999995</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>9</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>7000</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F104">
+        <v>10.252000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>10</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>7000</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105">
+        <v>7.5309999999999997</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>11</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>7000</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106">
+        <v>9.4510000000000005</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>12</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>7000</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107">
+        <v>9.9090000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>7000</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F108">
+        <v>3.3610000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>14</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>7000</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F109">
+        <v>5.6310000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>15</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>7000</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F110">
+        <v>8.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>16</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>7000</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F111">
+        <v>4.6619999999999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>17</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>7000</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F112">
+        <v>5.9240000000000004</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>18</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>7000</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F113">
+        <v>7.3819999999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>19</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>7000</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F114">
+        <v>11.063000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>20</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>7000</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F115">
+        <v>5.4509999999999996</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>21</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>7000</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F116">
+        <v>8.9920000000000009</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>22</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>7000</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F117">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>23</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>7000</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F118">
+        <v>5.5949999999999998</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>24</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>7000</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F119">
+        <v>4.3040000000000003</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>7000</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F120">
+        <v>6.952</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>26</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>7000</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>27</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>7000</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1</v>
+      </c>
+      <c r="B123" t="s">
+        <v>8</v>
+      </c>
+      <c r="C123">
+        <v>6262</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F123">
+        <v>5.7610000000000001</v>
+      </c>
+      <c r="I123" s="5">
+        <v>0.4375</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>6262</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124">
+        <v>7.681</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>3</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>6262</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>10.02</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>4</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>6262</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F126">
+        <v>8.0850000000000009</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>6262</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F127">
+        <v>3.5630000000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>6262</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F128">
+        <v>4.3620000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>6262</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F129">
+        <v>6.6260000000000003</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>8</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>6262</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F130">
+        <v>6.5389999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>9</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>6262</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F131">
+        <v>6.5519999999999996</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>10</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>6262</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F132">
+        <v>3.9329999999999998</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>11</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>6262</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F133">
+        <v>6.3719999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>12</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>6262</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F134">
+        <v>10.712999999999999</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>13</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>6262</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135">
+        <v>3.9980000000000002</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>14</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>6262</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136">
+        <v>6.1449999999999996</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>6262</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F137">
+        <v>10.019</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>16</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138">
+        <v>6262</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F138">
+        <v>6.0170000000000003</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>17</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>6262</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F139">
+        <v>7.3780000000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>18</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>6262</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140">
+        <v>5.4379999999999997</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>19</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>6262</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F141">
+        <v>4.766</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>20</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>6262</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F142">
+        <v>6.8630000000000004</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>21</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>6262</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F143">
+        <v>5.1609999999999996</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>22</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>6262</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F144">
+        <v>9.9410000000000007</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>23</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>6262</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F145">
+        <v>10.058999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>24</v>
+      </c>
+      <c r="B146" t="s">
+        <v>8</v>
+      </c>
+      <c r="C146">
+        <v>6262</v>
+      </c>
+      <c r="D146">
+        <v>5</v>
+      </c>
+      <c r="E146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F146">
+        <v>7.5469999999999997</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>25</v>
+      </c>
+      <c r="B147" t="s">
+        <v>8</v>
+      </c>
+      <c r="C147">
+        <v>6262</v>
+      </c>
+      <c r="D147">
+        <v>5</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F147">
+        <v>5.5330000000000004</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>26</v>
+      </c>
+      <c r="B148" t="s">
+        <v>8</v>
+      </c>
+      <c r="C148">
+        <v>6262</v>
+      </c>
+      <c r="D148">
+        <v>5</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>27</v>
+      </c>
+      <c r="B149" t="s">
+        <v>8</v>
+      </c>
+      <c r="C149">
+        <v>6262</v>
+      </c>
+      <c r="D149">
+        <v>5</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" s="5">
+        <v>0.44166666666666665</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E155" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A29AE496-6FEA-4064-9E5F-D63074BC274F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B08E14-A4E5-46A9-808A-7723505FA78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1616" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="29">
   <si>
     <t>N</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>2018-09-25</t>
+  </si>
+  <si>
+    <t>2018-09-26</t>
   </si>
 </sst>
 </file>
@@ -14941,10 +14944,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="H141" sqref="H141"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="I191" sqref="I191"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15002,6 +15005,9 @@
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H2">
+        <v>0.1964496</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -15019,6 +15025,9 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H3">
+        <v>0.13447400000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -15036,6 +15045,9 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H4" s="2">
+        <v>1.2999999999999999E-4</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -15053,6 +15065,9 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H5">
+        <v>0.13846310000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -15070,6 +15085,9 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H6">
+        <v>0.1146397</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -15087,6 +15105,9 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H7">
+        <v>0.20148350000000001</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -15104,6 +15125,9 @@
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H8">
+        <v>0.1288678</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -15120,6 +15144,9 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="H9">
+        <v>1.2297579999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -15138,6 +15165,9 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H10">
+        <v>0.18464910000000001</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -15155,6 +15185,9 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H11">
+        <v>0.15417900000000001</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -15172,6 +15205,9 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H12">
+        <v>0.13202059999999999</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -15189,6 +15225,9 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H13">
+        <v>0.14467050000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -15206,6 +15245,9 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H14">
+        <v>0.18728230000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -15223,6 +15265,9 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H15">
+        <v>0.13965060000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -15240,8 +15285,11 @@
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1.3061480000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15257,8 +15305,11 @@
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>0.21159420000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15274,8 +15325,11 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>0.18755959999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15291,8 +15345,11 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="2">
+        <v>2.98E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15308,8 +15365,11 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>0.1832532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15325,8 +15385,11 @@
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>0.1737901</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15342,8 +15405,11 @@
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1.3630599999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15359,8 +15425,11 @@
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>0.18163409999999999</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15376,8 +15445,11 @@
       <c r="E24" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>0.1273463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15393,8 +15465,11 @@
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" s="2">
+        <v>7.9600000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -15410,8 +15485,11 @@
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" s="2">
+        <v>9.58E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -15427,8 +15505,11 @@
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>0.18537609999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -15444,8 +15525,11 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H28">
+        <v>1.313636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -15461,8 +15545,11 @@
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H29" s="2">
+        <v>3.7500000000000001E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15478,8 +15565,11 @@
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1.3969659999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -15495,8 +15585,11 @@
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>0.25645810000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -15512,8 +15605,11 @@
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H32">
+        <v>2.2562380000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -15529,8 +15625,11 @@
       <c r="E33" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H33">
+        <v>1.3471059999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -15546,8 +15645,11 @@
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H34">
+        <v>1.1928399999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -15563,8 +15665,11 @@
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H35">
+        <v>0.249226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -15580,8 +15685,11 @@
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H36">
+        <v>1.5736859999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -15597,8 +15705,11 @@
       <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H37">
+        <v>1.214072</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -15614,8 +15725,11 @@
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H38">
+        <v>1.2745690000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -15631,8 +15745,11 @@
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H39">
+        <v>1.3353699999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15</v>
       </c>
@@ -15648,8 +15765,11 @@
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H40">
+        <v>0.31579950000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -15665,8 +15785,11 @@
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H41">
+        <v>0.19332179999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -15682,8 +15805,11 @@
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H42">
+        <v>0.34069579999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -15699,8 +15825,11 @@
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H43">
+        <v>0.89297289999999996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -15716,8 +15845,11 @@
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H44">
+        <v>0.1030281</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -15733,8 +15865,11 @@
       <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H45">
+        <v>0.2093206</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
@@ -15750,8 +15885,11 @@
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H46">
+        <v>0.2477685</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -15767,8 +15905,11 @@
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H47">
+        <v>0.23895430000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -15783,6 +15924,9 @@
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="H48">
+        <v>0.1786893</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15801,9 +15945,15 @@
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="H49">
+        <v>0.29616809999999999</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
+      <c r="H50" s="2">
+        <v>-2.2899999999999999E-3</v>
+      </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -15824,6 +15974,9 @@
       <c r="F51">
         <v>6.5670000000000002</v>
       </c>
+      <c r="H51" s="2">
+        <v>1.0999999999999999E-2</v>
+      </c>
       <c r="I51" s="5">
         <v>0.43888888888888888</v>
       </c>
@@ -17769,19 +17922,1084 @@
       <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E151" s="1"/>
+      <c r="A151">
+        <v>1</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>7000</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F151">
+        <v>4.673</v>
+      </c>
+      <c r="I151" s="5">
+        <v>0.43888888888888888</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E152" s="1"/>
+      <c r="A152">
+        <v>2</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>7000</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152">
+        <v>10.297000000000001</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E153" s="1"/>
+      <c r="A153">
+        <v>3</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>7000</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F153">
+        <v>10.494999999999999</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E154" s="1"/>
+      <c r="A154">
+        <v>4</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>7000</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F154">
+        <v>10.529</v>
+      </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E155" s="1"/>
+      <c r="A155">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>7000</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F155">
+        <v>9.2509999999999994</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>6</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>7000</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F156">
+        <v>7.8319999999999999</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>7</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>7000</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157">
+        <v>7.0940000000000003</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>7000</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F158">
+        <v>10.210000000000001</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>9</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>7000</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F159">
+        <v>8.5180000000000007</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>10</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>7000</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F160">
+        <v>9.41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>11</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>7000</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F161">
+        <v>8.4329999999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>12</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>7000</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F162">
+        <v>6.8150000000000004</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>13</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>7000</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F163">
+        <v>5.5519999999999996</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>14</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>7000</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F164">
+        <v>7.133</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>15</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>7000</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F165">
+        <v>10.016</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>7000</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F166">
+        <v>8.891</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>17</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>7000</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F167">
+        <v>6.9530000000000003</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>18</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>7000</v>
+      </c>
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>19</v>
+      </c>
+      <c r="B169" t="s">
+        <v>7</v>
+      </c>
+      <c r="C169">
+        <v>7000</v>
+      </c>
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F169">
+        <v>5.9260000000000002</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>20</v>
+      </c>
+      <c r="B170" t="s">
+        <v>7</v>
+      </c>
+      <c r="C170">
+        <v>7000</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F170">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>21</v>
+      </c>
+      <c r="B171" t="s">
+        <v>7</v>
+      </c>
+      <c r="C171">
+        <v>7000</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F171">
+        <v>9.0239999999999991</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>22</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>7000</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F172">
+        <v>9.0380000000000003</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>23</v>
+      </c>
+      <c r="B173" t="s">
+        <v>7</v>
+      </c>
+      <c r="C173">
+        <v>7000</v>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F173">
+        <v>5.3109999999999999</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>24</v>
+      </c>
+      <c r="B174" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174">
+        <v>7000</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F174">
+        <v>7.4169999999999998</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>25</v>
+      </c>
+      <c r="B175" t="s">
+        <v>7</v>
+      </c>
+      <c r="C175">
+        <v>7000</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F175">
+        <v>8.83</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>26</v>
+      </c>
+      <c r="B176" t="s">
+        <v>7</v>
+      </c>
+      <c r="C176">
+        <v>7000</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>27</v>
+      </c>
+      <c r="B177" t="s">
+        <v>7</v>
+      </c>
+      <c r="C177">
+        <v>7000</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I177" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>1</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>6262</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F178">
+        <v>7.9029999999999996</v>
+      </c>
+      <c r="I178" s="5">
+        <v>0.44305555555555554</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>2</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>6262</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F179">
+        <v>7.78</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>3</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>6262</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F180">
+        <v>7.2290000000000001</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>6262</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F181">
+        <v>9.5380000000000003</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>6262</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F182">
+        <v>9.3919999999999995</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>6</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>6262</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F183">
+        <v>4.6909999999999998</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>7</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>6262</v>
+      </c>
+      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F184">
+        <v>7.93</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>8</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>6262</v>
+      </c>
+      <c r="D185">
+        <v>6</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F185">
+        <v>7.3289999999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>9</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>6262</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F186">
+        <v>6.806</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>6262</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F187">
+        <v>4.8959999999999999</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>11</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>6262</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F188">
+        <v>5.109</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>12</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <v>6262</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F189">
+        <v>10.651999999999999</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>13</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>6262</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F190">
+        <v>3.665</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>14</v>
+      </c>
+      <c r="B191" t="s">
+        <v>8</v>
+      </c>
+      <c r="C191">
+        <v>6262</v>
+      </c>
+      <c r="D191">
+        <v>6</v>
+      </c>
+      <c r="E191" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F191">
+        <v>9.343</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>15</v>
+      </c>
+      <c r="B192" t="s">
+        <v>8</v>
+      </c>
+      <c r="C192">
+        <v>6262</v>
+      </c>
+      <c r="D192">
+        <v>6</v>
+      </c>
+      <c r="E192" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F192">
+        <v>7.4320000000000004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>16</v>
+      </c>
+      <c r="B193" t="s">
+        <v>8</v>
+      </c>
+      <c r="C193">
+        <v>6262</v>
+      </c>
+      <c r="D193">
+        <v>6</v>
+      </c>
+      <c r="E193" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F193">
+        <v>6.3659999999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>8</v>
+      </c>
+      <c r="C194">
+        <v>6262</v>
+      </c>
+      <c r="D194">
+        <v>6</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F194">
+        <v>3.835</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>18</v>
+      </c>
+      <c r="B195" t="s">
+        <v>8</v>
+      </c>
+      <c r="C195">
+        <v>6262</v>
+      </c>
+      <c r="D195">
+        <v>6</v>
+      </c>
+      <c r="E195" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F195">
+        <v>7.9119999999999999</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>19</v>
+      </c>
+      <c r="B196" t="s">
+        <v>8</v>
+      </c>
+      <c r="C196">
+        <v>6262</v>
+      </c>
+      <c r="D196">
+        <v>6</v>
+      </c>
+      <c r="E196" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F196">
+        <v>4.665</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>20</v>
+      </c>
+      <c r="B197" t="s">
+        <v>8</v>
+      </c>
+      <c r="C197">
+        <v>6262</v>
+      </c>
+      <c r="D197">
+        <v>6</v>
+      </c>
+      <c r="E197" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F197">
+        <v>4.8179999999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>21</v>
+      </c>
+      <c r="B198" t="s">
+        <v>8</v>
+      </c>
+      <c r="C198">
+        <v>6262</v>
+      </c>
+      <c r="D198">
+        <v>6</v>
+      </c>
+      <c r="E198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F198">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>22</v>
+      </c>
+      <c r="B199" t="s">
+        <v>8</v>
+      </c>
+      <c r="C199">
+        <v>6262</v>
+      </c>
+      <c r="D199">
+        <v>6</v>
+      </c>
+      <c r="E199" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F199">
+        <v>4.4210000000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>23</v>
+      </c>
+      <c r="B200" t="s">
+        <v>8</v>
+      </c>
+      <c r="C200">
+        <v>6262</v>
+      </c>
+      <c r="D200">
+        <v>6</v>
+      </c>
+      <c r="E200" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F200">
+        <v>5.3650000000000002</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>24</v>
+      </c>
+      <c r="B201" t="s">
+        <v>8</v>
+      </c>
+      <c r="C201">
+        <v>6262</v>
+      </c>
+      <c r="D201">
+        <v>6</v>
+      </c>
+      <c r="E201" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F201">
+        <v>6.6849999999999996</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>25</v>
+      </c>
+      <c r="B202" t="s">
+        <v>8</v>
+      </c>
+      <c r="C202">
+        <v>6262</v>
+      </c>
+      <c r="D202">
+        <v>6</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F202">
+        <v>5.468</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>26</v>
+      </c>
+      <c r="B203" t="s">
+        <v>8</v>
+      </c>
+      <c r="C203">
+        <v>6262</v>
+      </c>
+      <c r="D203">
+        <v>6</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>27</v>
+      </c>
+      <c r="B204" t="s">
+        <v>8</v>
+      </c>
+      <c r="C204">
+        <v>6262</v>
+      </c>
+      <c r="D204">
+        <v>6</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I204" s="5">
+        <v>0.44722222222222219</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B08E14-A4E5-46A9-808A-7723505FA78C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA83BBBE-CC05-4F29-929B-85666399F3E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -14944,10 +14944,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
-  <dimension ref="A1:I204"/>
+  <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="I191" sqref="I191"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15005,8 +15005,8 @@
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2">
-        <v>0.1964496</v>
+      <c r="G2">
+        <v>0.1959313</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15025,8 +15025,8 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H3">
-        <v>0.13447400000000001</v>
+      <c r="G3">
+        <v>0.13280919999999999</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -15045,9 +15045,6 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="2">
-        <v>1.2999999999999999E-4</v>
-      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -15065,8 +15062,8 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5">
-        <v>0.13846310000000001</v>
+      <c r="H5" s="2">
+        <v>1.2965129999999999E-4</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15086,7 +15083,7 @@
         <v>25</v>
       </c>
       <c r="H6">
-        <v>0.1146397</v>
+        <v>0.13846310000000001</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -15106,7 +15103,7 @@
         <v>25</v>
       </c>
       <c r="H7">
-        <v>0.20148350000000001</v>
+        <v>0.1146397</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -15126,7 +15123,7 @@
         <v>25</v>
       </c>
       <c r="H8">
-        <v>0.1288678</v>
+        <v>0.20148350000000001</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -15146,7 +15143,7 @@
         <v>25</v>
       </c>
       <c r="H9">
-        <v>1.2297579999999999</v>
+        <v>0.1288678</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -15166,7 +15163,7 @@
         <v>25</v>
       </c>
       <c r="H10">
-        <v>0.18464910000000001</v>
+        <v>1.2297579999999999</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -15186,7 +15183,7 @@
         <v>25</v>
       </c>
       <c r="H11">
-        <v>0.15417900000000001</v>
+        <v>0.18464910000000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -15206,7 +15203,7 @@
         <v>25</v>
       </c>
       <c r="H12">
-        <v>0.13202059999999999</v>
+        <v>0.15417900000000001</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -15226,7 +15223,7 @@
         <v>25</v>
       </c>
       <c r="H13">
-        <v>0.14467050000000001</v>
+        <v>0.13202059999999999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -15246,7 +15243,7 @@
         <v>25</v>
       </c>
       <c r="H14">
-        <v>0.18728230000000001</v>
+        <v>0.14467050000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -15266,7 +15263,7 @@
         <v>25</v>
       </c>
       <c r="H15">
-        <v>0.13965060000000001</v>
+        <v>0.18728230000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -15286,7 +15283,7 @@
         <v>25</v>
       </c>
       <c r="H16">
-        <v>1.3061480000000001</v>
+        <v>0.13965060000000001</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -15306,7 +15303,7 @@
         <v>25</v>
       </c>
       <c r="H17">
-        <v>0.21159420000000001</v>
+        <v>1.3061480000000001</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -15326,7 +15323,7 @@
         <v>25</v>
       </c>
       <c r="H18">
-        <v>0.18755959999999999</v>
+        <v>0.21159420000000001</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -15345,8 +15342,8 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="2">
-        <v>2.98E-2</v>
+      <c r="H19">
+        <v>0.18755959999999999</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -15365,8 +15362,8 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H20">
-        <v>0.1832532</v>
+      <c r="H20" s="2">
+        <v>2.9835029999999998E-2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -15386,7 +15383,7 @@
         <v>25</v>
       </c>
       <c r="H21">
-        <v>0.1737901</v>
+        <v>0.1832532</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -15406,7 +15403,7 @@
         <v>25</v>
       </c>
       <c r="H22">
-        <v>1.3630599999999999</v>
+        <v>0.1737901</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -15426,7 +15423,7 @@
         <v>25</v>
       </c>
       <c r="H23">
-        <v>0.18163409999999999</v>
+        <v>1.3630599999999999</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -15446,7 +15443,7 @@
         <v>25</v>
       </c>
       <c r="H24">
-        <v>0.1273463</v>
+        <v>0.18163409999999999</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -15465,8 +15462,8 @@
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H25" s="2">
-        <v>7.9600000000000001E-3</v>
+      <c r="H25">
+        <v>0.1273463</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -15485,8 +15482,11 @@
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G26">
+        <v>0.1861408</v>
+      </c>
       <c r="H26" s="2">
-        <v>9.58E-3</v>
+        <v>7.9635360000000002E-3</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -15505,8 +15505,11 @@
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H27">
-        <v>0.18537609999999999</v>
+      <c r="G27">
+        <v>1.3165</v>
+      </c>
+      <c r="H27" s="2">
+        <v>9.5789580000000003E-3</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
@@ -15525,9 +15528,6 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H28">
-        <v>1.313636</v>
-      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -15545,9 +15545,7 @@
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="2">
-        <v>3.7500000000000001E-4</v>
-      </c>
+      <c r="H29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -15564,9 +15562,6 @@
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H30">
-        <v>1.3969659999999999</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
@@ -15585,9 +15580,6 @@
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H31">
-        <v>0.25645810000000002</v>
-      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -15605,11 +15597,8 @@
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H32">
-        <v>2.2562380000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -15625,11 +15614,8 @@
       <c r="E33" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H33">
-        <v>1.3471059999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -15645,11 +15631,8 @@
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H34">
-        <v>1.1928399999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -15665,11 +15648,8 @@
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H35">
-        <v>0.249226</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -15685,11 +15665,8 @@
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H36">
-        <v>1.5736859999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -15705,11 +15682,8 @@
       <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H37">
-        <v>1.214072</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -15725,11 +15699,8 @@
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H38">
-        <v>1.2745690000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -15745,11 +15716,8 @@
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H39">
-        <v>1.3353699999999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15</v>
       </c>
@@ -15765,11 +15733,8 @@
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H40">
-        <v>0.31579950000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -15785,11 +15750,8 @@
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H41">
-        <v>0.19332179999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -15805,11 +15767,8 @@
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H42">
-        <v>0.34069579999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -15825,11 +15784,8 @@
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H43">
-        <v>0.89297289999999996</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -15845,11 +15801,8 @@
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H44">
-        <v>0.1030281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -15865,11 +15818,8 @@
       <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H45">
-        <v>0.2093206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
@@ -15885,11 +15835,8 @@
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H46">
-        <v>0.2477685</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -15905,11 +15852,8 @@
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H47">
-        <v>0.23895430000000001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -15924,9 +15868,6 @@
       </c>
       <c r="E48" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="H48">
-        <v>0.1786893</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15945,15 +15886,10 @@
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H49">
-        <v>0.29616809999999999</v>
-      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
-      <c r="H50" s="2">
-        <v>-2.2899999999999999E-3</v>
-      </c>
+      <c r="H50" s="2"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -15974,9 +15910,10 @@
       <c r="F51">
         <v>6.5670000000000002</v>
       </c>
-      <c r="H51" s="2">
-        <v>1.0999999999999999E-2</v>
-      </c>
+      <c r="G51">
+        <v>1.747625</v>
+      </c>
+      <c r="H51" s="2"/>
       <c r="I51" s="5">
         <v>0.43888888888888888</v>
       </c>
@@ -16000,6 +15937,9 @@
       <c r="F52">
         <v>10.282999999999999</v>
       </c>
+      <c r="G52">
+        <v>0.1888166</v>
+      </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -16020,6 +15960,9 @@
       <c r="F53">
         <v>10.066000000000001</v>
       </c>
+      <c r="G53">
+        <v>0.233904</v>
+      </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -16040,6 +15983,9 @@
       <c r="F54">
         <v>9.7539999999999996</v>
       </c>
+      <c r="G54">
+        <v>0.25244559999999999</v>
+      </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
@@ -16059,6 +16005,9 @@
       </c>
       <c r="F55">
         <v>8.7360000000000007</v>
+      </c>
+      <c r="G55">
+        <v>0.28593800000000003</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -16080,6 +16029,9 @@
       <c r="F56">
         <v>10.375999999999999</v>
       </c>
+      <c r="G56">
+        <v>0.22163859999999999</v>
+      </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
@@ -16100,6 +16052,9 @@
       <c r="F57">
         <v>9.2249999999999996</v>
       </c>
+      <c r="G57">
+        <v>0.26097809999999999</v>
+      </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
@@ -16119,6 +16074,9 @@
       </c>
       <c r="F58">
         <v>6.7279999999999998</v>
+      </c>
+      <c r="G58">
+        <v>0.68704220000000005</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -16140,6 +16098,9 @@
       <c r="F59">
         <v>6.66</v>
       </c>
+      <c r="G59">
+        <v>0.16861000000000001</v>
+      </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
@@ -16160,6 +16121,9 @@
       <c r="F60">
         <v>7.2309999999999999</v>
       </c>
+      <c r="G60">
+        <v>0.72152130000000003</v>
+      </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
@@ -16180,6 +16144,9 @@
       <c r="F61">
         <v>7.7779999999999996</v>
       </c>
+      <c r="G61">
+        <v>0.17226159999999999</v>
+      </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
@@ -16200,6 +16167,9 @@
       <c r="F62">
         <v>8.6110000000000007</v>
       </c>
+      <c r="G62">
+        <v>0.2370458</v>
+      </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
@@ -16220,6 +16190,9 @@
       <c r="F63">
         <v>3.984</v>
       </c>
+      <c r="G63">
+        <v>0.7958674</v>
+      </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
@@ -16240,6 +16213,9 @@
       <c r="F64">
         <v>9.8550000000000004</v>
       </c>
+      <c r="G64">
+        <v>0.32352950000000003</v>
+      </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
@@ -16260,6 +16236,9 @@
       <c r="F65">
         <v>9.9830000000000005</v>
       </c>
+      <c r="G65">
+        <v>0.30870829999999999</v>
+      </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -16280,6 +16259,9 @@
       <c r="F66">
         <v>5.008</v>
       </c>
+      <c r="G66">
+        <v>1.110511</v>
+      </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -16300,6 +16282,9 @@
       <c r="F67">
         <v>9.3670000000000009</v>
       </c>
+      <c r="G67">
+        <v>0.29545260000000001</v>
+      </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -16320,6 +16305,9 @@
       <c r="F68">
         <v>6.6180000000000003</v>
       </c>
+      <c r="G68">
+        <v>0.1147828</v>
+      </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -16340,6 +16328,9 @@
       <c r="F69">
         <v>7.6989999999999998</v>
       </c>
+      <c r="G69">
+        <v>0.50623240000000003</v>
+      </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -16360,6 +16351,9 @@
       <c r="F70">
         <v>9.968</v>
       </c>
+      <c r="G70">
+        <v>0.1952904</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -16377,6 +16371,9 @@
       <c r="E71" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G71" s="2">
+        <v>7.2274990000000001E-3</v>
+      </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
@@ -16394,6 +16391,9 @@
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G72" s="2">
+        <v>9.0168020000000008E-3</v>
+      </c>
       <c r="I72" s="5">
         <v>0.44097222222222227</v>
       </c>
@@ -16417,6 +16417,9 @@
       <c r="F73">
         <v>7.258</v>
       </c>
+      <c r="G73">
+        <v>0.24899109999999999</v>
+      </c>
       <c r="I73" s="5">
         <v>0.44097222222222227</v>
       </c>
@@ -16440,6 +16443,9 @@
       <c r="F74">
         <v>9.8689999999999998</v>
       </c>
+      <c r="G74">
+        <v>3.0284279999999999</v>
+      </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
@@ -16460,6 +16466,9 @@
       <c r="F75">
         <v>5.8230000000000004</v>
       </c>
+      <c r="G75">
+        <v>0.2325622</v>
+      </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -16480,6 +16489,9 @@
       <c r="F76">
         <v>10.824</v>
       </c>
+      <c r="G76">
+        <v>1.260429</v>
+      </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -16499,6 +16511,9 @@
       </c>
       <c r="F77">
         <v>6.1890000000000001</v>
+      </c>
+      <c r="G77">
+        <v>0.9397993</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -16520,6 +16535,9 @@
       <c r="F78">
         <v>4.49</v>
       </c>
+      <c r="G78">
+        <v>2.0155150000000002</v>
+      </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -16540,6 +16558,9 @@
       <c r="F79">
         <v>3.2290000000000001</v>
       </c>
+      <c r="G79">
+        <v>0.4259947</v>
+      </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -16559,6 +16580,9 @@
       </c>
       <c r="F80">
         <v>9.2330000000000005</v>
+      </c>
+      <c r="G80">
+        <v>0.28481420000000002</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -16580,6 +16604,9 @@
       <c r="F81">
         <v>4.2610000000000001</v>
       </c>
+      <c r="G81">
+        <v>2.3792870000000002</v>
+      </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -16600,6 +16627,9 @@
       <c r="F82">
         <v>9.08</v>
       </c>
+      <c r="G82">
+        <v>0.292022</v>
+      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -16620,6 +16650,9 @@
       <c r="F83">
         <v>6.968</v>
       </c>
+      <c r="G83">
+        <v>0.19167120000000001</v>
+      </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -16640,6 +16673,9 @@
       <c r="F84">
         <v>4.476</v>
       </c>
+      <c r="G84">
+        <v>0.31883600000000001</v>
+      </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -16660,6 +16696,9 @@
       <c r="F85">
         <v>7.5640000000000001</v>
       </c>
+      <c r="G85">
+        <v>0.24645320000000001</v>
+      </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -16680,6 +16719,9 @@
       <c r="F86">
         <v>4.0030000000000001</v>
       </c>
+      <c r="G86">
+        <v>2.2098529999999998</v>
+      </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -16700,6 +16742,9 @@
       <c r="F87">
         <v>7.2729999999999997</v>
       </c>
+      <c r="G87">
+        <v>0.1714688</v>
+      </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -16720,6 +16765,9 @@
       <c r="F88">
         <v>5.1180000000000003</v>
       </c>
+      <c r="G88">
+        <v>0.18792349999999999</v>
+      </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -16740,6 +16788,9 @@
       <c r="F89">
         <v>9.5939999999999994</v>
       </c>
+      <c r="G89">
+        <v>0.29954019999999998</v>
+      </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -16760,6 +16811,9 @@
       <c r="F90">
         <v>6.6470000000000002</v>
       </c>
+      <c r="G90" s="2">
+        <v>5.3076289999999998E-2</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -16780,6 +16834,9 @@
       <c r="F91">
         <v>10.670999999999999</v>
       </c>
+      <c r="G91">
+        <v>1.2754129999999999</v>
+      </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92">
@@ -16800,6 +16857,9 @@
       <c r="F92">
         <v>7.109</v>
       </c>
+      <c r="G92">
+        <v>0.26494499999999999</v>
+      </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -16817,6 +16877,9 @@
       <c r="E93" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G93" s="2">
+        <v>1.8313380000000001E-3</v>
+      </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -16834,6 +16897,9 @@
       <c r="E94" s="1" t="s">
         <v>26</v>
       </c>
+      <c r="G94" s="2">
+        <v>1.3033319999999999E-2</v>
+      </c>
       <c r="I94" s="5">
         <v>0.44375000000000003</v>
       </c>
@@ -16861,7 +16927,7 @@
         <v>0.43472222222222223</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2</v>
       </c>
@@ -16881,7 +16947,7 @@
         <v>2.8479999999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -16901,7 +16967,7 @@
         <v>6.5289999999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -16921,7 +16987,7 @@
         <v>10.788</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>5</v>
       </c>
@@ -16941,7 +17007,7 @@
         <v>6.3719999999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>6</v>
       </c>
@@ -16961,7 +17027,7 @@
         <v>6.9050000000000002</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>7</v>
       </c>
@@ -16981,7 +17047,7 @@
         <v>6.069</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>8</v>
       </c>
@@ -17001,7 +17067,7 @@
         <v>8.4559999999999995</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>9</v>
       </c>
@@ -17021,7 +17087,7 @@
         <v>10.252000000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>10</v>
       </c>
@@ -17041,7 +17107,7 @@
         <v>7.5309999999999997</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>11</v>
       </c>
@@ -17061,7 +17127,7 @@
         <v>9.4510000000000005</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>12</v>
       </c>
@@ -17081,7 +17147,7 @@
         <v>9.9090000000000007</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>13</v>
       </c>
@@ -17100,8 +17166,9 @@
       <c r="F108">
         <v>3.3610000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>14</v>
       </c>
@@ -17120,8 +17187,9 @@
       <c r="F109">
         <v>5.6310000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>15</v>
       </c>
@@ -17141,7 +17209,7 @@
         <v>8.14</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>16</v>
       </c>
@@ -17161,7 +17229,7 @@
         <v>4.6619999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>17</v>
       </c>
@@ -17181,7 +17249,7 @@
         <v>5.9240000000000004</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>18</v>
       </c>
@@ -17201,7 +17269,7 @@
         <v>7.3819999999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>19</v>
       </c>
@@ -17221,7 +17289,7 @@
         <v>11.063000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>20</v>
       </c>
@@ -17241,7 +17309,7 @@
         <v>5.4509999999999996</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>21</v>
       </c>
@@ -17261,7 +17329,7 @@
         <v>8.9920000000000009</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>22</v>
       </c>
@@ -17281,7 +17349,7 @@
         <v>6.95</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>23</v>
       </c>
@@ -17301,7 +17369,7 @@
         <v>5.5949999999999998</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>24</v>
       </c>
@@ -17321,7 +17389,7 @@
         <v>4.3040000000000003</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>25</v>
       </c>
@@ -17341,7 +17409,7 @@
         <v>6.952</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>26</v>
       </c>
@@ -17357,8 +17425,9 @@
       <c r="E121" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>27</v>
       </c>
@@ -17377,8 +17446,9 @@
       <c r="I122" s="5">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1</v>
       </c>
@@ -17400,8 +17470,9 @@
       <c r="I123" s="5">
         <v>0.4375</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L123" s="2"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2</v>
       </c>
@@ -17421,7 +17492,7 @@
         <v>7.681</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>3</v>
       </c>
@@ -17440,8 +17511,9 @@
       <c r="F125">
         <v>10.02</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>4</v>
       </c>
@@ -17461,7 +17533,7 @@
         <v>8.0850000000000009</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>5</v>
       </c>
@@ -17480,8 +17552,9 @@
       <c r="F127">
         <v>3.5630000000000002</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>6</v>
       </c>
@@ -17501,7 +17574,7 @@
         <v>4.3620000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>7</v>
       </c>
@@ -17520,8 +17593,9 @@
       <c r="F129">
         <v>6.6260000000000003</v>
       </c>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -17540,8 +17614,9 @@
       <c r="F130">
         <v>6.5389999999999997</v>
       </c>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>9</v>
       </c>
@@ -17561,7 +17636,7 @@
         <v>6.5519999999999996</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>10</v>
       </c>
@@ -17581,7 +17656,7 @@
         <v>3.9329999999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>11</v>
       </c>
@@ -17601,7 +17676,7 @@
         <v>6.3719999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>12</v>
       </c>
@@ -17621,7 +17696,7 @@
         <v>10.712999999999999</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>13</v>
       </c>
@@ -17640,8 +17715,9 @@
       <c r="F135">
         <v>3.9980000000000002</v>
       </c>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L135" s="2"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>14</v>
       </c>
@@ -17661,7 +17737,7 @@
         <v>6.1449999999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>15</v>
       </c>
@@ -17681,7 +17757,7 @@
         <v>10.019</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>16</v>
       </c>
@@ -17701,7 +17777,7 @@
         <v>6.0170000000000003</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>17</v>
       </c>
@@ -17720,8 +17796,9 @@
       <c r="F139">
         <v>7.3780000000000001</v>
       </c>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L139" s="2"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>18</v>
       </c>
@@ -17741,7 +17818,7 @@
         <v>5.4379999999999997</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>19</v>
       </c>
@@ -17761,7 +17838,7 @@
         <v>4.766</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>20</v>
       </c>
@@ -17781,7 +17858,7 @@
         <v>6.8630000000000004</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>21</v>
       </c>
@@ -17801,7 +17878,7 @@
         <v>5.1609999999999996</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>22</v>
       </c>
@@ -17821,7 +17898,7 @@
         <v>9.9410000000000007</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>23</v>
       </c>
@@ -17841,7 +17918,7 @@
         <v>10.058999999999999</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>24</v>
       </c>
@@ -17861,7 +17938,7 @@
         <v>7.5469999999999997</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>25</v>
       </c>
@@ -17880,8 +17957,9 @@
       <c r="F147">
         <v>5.5330000000000004</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L147" s="2"/>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>26</v>
       </c>
@@ -17897,8 +17975,9 @@
       <c r="E148" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L148" s="2"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>27</v>
       </c>
@@ -17917,11 +17996,13 @@
       <c r="I149" s="5">
         <v>0.44166666666666665</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L149" s="2"/>
+    </row>
+    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
       <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L150" s="2"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>1</v>
       </c>
@@ -17943,8 +18024,9 @@
       <c r="I151" s="5">
         <v>0.43888888888888888</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L151" s="2"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2</v>
       </c>
@@ -17963,8 +18045,9 @@
       <c r="F152">
         <v>10.297000000000001</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L152" s="2"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>3</v>
       </c>
@@ -17983,8 +18066,9 @@
       <c r="F153">
         <v>10.494999999999999</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L153" s="2"/>
+    </row>
+    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>4</v>
       </c>
@@ -18003,8 +18087,9 @@
       <c r="F154">
         <v>10.529</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L154" s="2"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>5</v>
       </c>
@@ -18023,8 +18108,9 @@
       <c r="F155">
         <v>9.2509999999999994</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L155" s="2"/>
+    </row>
+    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>6</v>
       </c>
@@ -18043,8 +18129,9 @@
       <c r="F156">
         <v>7.8319999999999999</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L156" s="2"/>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>7</v>
       </c>
@@ -18063,8 +18150,9 @@
       <c r="F157">
         <v>7.0940000000000003</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L157" s="2"/>
+    </row>
+    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>8</v>
       </c>
@@ -18083,8 +18171,9 @@
       <c r="F158">
         <v>10.210000000000001</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L158" s="2"/>
+    </row>
+    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>9</v>
       </c>
@@ -18103,8 +18192,9 @@
       <c r="F159">
         <v>8.5180000000000007</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L159" s="2"/>
+    </row>
+    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>10</v>
       </c>
@@ -18123,8 +18213,9 @@
       <c r="F160">
         <v>9.41</v>
       </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L160" s="2"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>11</v>
       </c>
@@ -18143,8 +18234,9 @@
       <c r="F161">
         <v>8.4329999999999998</v>
       </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L161" s="2"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>12</v>
       </c>
@@ -18163,8 +18255,9 @@
       <c r="F162">
         <v>6.8150000000000004</v>
       </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L162" s="2"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>13</v>
       </c>
@@ -18183,8 +18276,9 @@
       <c r="F163">
         <v>5.5519999999999996</v>
       </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L163" s="2"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>14</v>
       </c>
@@ -18203,8 +18297,9 @@
       <c r="F164">
         <v>7.133</v>
       </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L164" s="2"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>15</v>
       </c>
@@ -18223,8 +18318,9 @@
       <c r="F165">
         <v>10.016</v>
       </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L165" s="2"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>16</v>
       </c>
@@ -18243,8 +18339,9 @@
       <c r="F166">
         <v>8.891</v>
       </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L166" s="2"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>17</v>
       </c>
@@ -18263,8 +18360,9 @@
       <c r="F167">
         <v>6.9530000000000003</v>
       </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L167" s="2"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>18</v>
       </c>
@@ -18283,8 +18381,9 @@
       <c r="F168">
         <v>6</v>
       </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L168" s="2"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>19</v>
       </c>
@@ -18303,8 +18402,9 @@
       <c r="F169">
         <v>5.9260000000000002</v>
       </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L169" s="2"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>20</v>
       </c>
@@ -18323,8 +18423,9 @@
       <c r="F170">
         <v>6.02</v>
       </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L170" s="2"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>21</v>
       </c>
@@ -18343,8 +18444,9 @@
       <c r="F171">
         <v>9.0239999999999991</v>
       </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L171" s="2"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>22</v>
       </c>
@@ -18363,8 +18465,9 @@
       <c r="F172">
         <v>9.0380000000000003</v>
       </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L172" s="2"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>23</v>
       </c>
@@ -18383,8 +18486,9 @@
       <c r="F173">
         <v>5.3109999999999999</v>
       </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L173" s="2"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>24</v>
       </c>
@@ -18403,8 +18507,9 @@
       <c r="F174">
         <v>7.4169999999999998</v>
       </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L174" s="2"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>25</v>
       </c>
@@ -18423,8 +18528,9 @@
       <c r="F175">
         <v>8.83</v>
       </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>26</v>
       </c>
@@ -18440,8 +18546,9 @@
       <c r="E176" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>27</v>
       </c>
@@ -18460,8 +18567,9 @@
       <c r="I177" s="5">
         <v>0.44305555555555554</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L177" s="2"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -18483,8 +18591,9 @@
       <c r="I178" s="5">
         <v>0.44305555555555554</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2</v>
       </c>
@@ -18503,8 +18612,9 @@
       <c r="F179">
         <v>7.78</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>3</v>
       </c>
@@ -18523,8 +18633,9 @@
       <c r="F180">
         <v>7.2290000000000001</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>4</v>
       </c>
@@ -18543,8 +18654,9 @@
       <c r="F181">
         <v>9.5380000000000003</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L181" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>5</v>
       </c>
@@ -18563,8 +18675,9 @@
       <c r="F182">
         <v>9.3919999999999995</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>6</v>
       </c>
@@ -18583,8 +18696,9 @@
       <c r="F183">
         <v>4.6909999999999998</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L183" s="2"/>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>7</v>
       </c>
@@ -18603,8 +18717,9 @@
       <c r="F184">
         <v>7.93</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L184" s="2"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>8</v>
       </c>
@@ -18623,8 +18738,9 @@
       <c r="F185">
         <v>7.3289999999999997</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L185" s="2"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>9</v>
       </c>
@@ -18643,8 +18759,9 @@
       <c r="F186">
         <v>6.806</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L186" s="2"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>10</v>
       </c>
@@ -18663,8 +18780,9 @@
       <c r="F187">
         <v>4.8959999999999999</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L187" s="2"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>11</v>
       </c>
@@ -18683,8 +18801,9 @@
       <c r="F188">
         <v>5.109</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L188" s="2"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>12</v>
       </c>
@@ -18703,8 +18822,9 @@
       <c r="F189">
         <v>10.651999999999999</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L189" s="2"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>13</v>
       </c>
@@ -18723,8 +18843,9 @@
       <c r="F190">
         <v>3.665</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L190" s="2"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>14</v>
       </c>
@@ -18743,8 +18864,9 @@
       <c r="F191">
         <v>9.343</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L191" s="2"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>15</v>
       </c>
@@ -18763,8 +18885,9 @@
       <c r="F192">
         <v>7.4320000000000004</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L192" s="2"/>
+    </row>
+    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>16</v>
       </c>
@@ -18783,8 +18906,9 @@
       <c r="F193">
         <v>6.3659999999999997</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L193" s="2"/>
+    </row>
+    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>17</v>
       </c>
@@ -18803,8 +18927,9 @@
       <c r="F194">
         <v>3.835</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L194" s="2"/>
+    </row>
+    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>18</v>
       </c>
@@ -18823,8 +18948,9 @@
       <c r="F195">
         <v>7.9119999999999999</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L195" s="2"/>
+    </row>
+    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>19</v>
       </c>
@@ -18843,8 +18969,9 @@
       <c r="F196">
         <v>4.665</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L196" s="2"/>
+    </row>
+    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>20</v>
       </c>
@@ -18863,8 +18990,9 @@
       <c r="F197">
         <v>4.8179999999999996</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L197" s="2"/>
+    </row>
+    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>21</v>
       </c>
@@ -18883,8 +19011,9 @@
       <c r="F198">
         <v>6.77</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L198" s="2"/>
+    </row>
+    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>22</v>
       </c>
@@ -18903,8 +19032,9 @@
       <c r="F199">
         <v>4.4210000000000003</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L199" s="2"/>
+    </row>
+    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>23</v>
       </c>
@@ -18924,7 +19054,7 @@
         <v>5.3650000000000002</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>24</v>
       </c>
@@ -18944,7 +19074,7 @@
         <v>6.6849999999999996</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>25</v>
       </c>
@@ -18964,7 +19094,7 @@
         <v>5.468</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>26</v>
       </c>
@@ -18981,7 +19111,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>27</v>
       </c>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA83BBBE-CC05-4F29-929B-85666399F3E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986DEBF0-B07E-4C6F-B9D2-8C55DCC885E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -158,13 +158,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -14946,8 +14947,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15045,6 +15046,7 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
@@ -15062,9 +15064,7 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="2">
-        <v>1.2965129999999999E-4</v>
-      </c>
+      <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -15082,9 +15082,8 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6">
-        <v>0.13846310000000001</v>
-      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
@@ -15102,9 +15101,7 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H7">
-        <v>0.1146397</v>
-      </c>
+      <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -15122,9 +15119,7 @@
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H8">
-        <v>0.20148350000000001</v>
-      </c>
+      <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
@@ -15142,9 +15137,7 @@
       <c r="E9" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H9">
-        <v>0.1288678</v>
-      </c>
+      <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -15162,9 +15155,7 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H10">
-        <v>1.2297579999999999</v>
-      </c>
+      <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -15182,9 +15173,7 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H11">
-        <v>0.18464910000000001</v>
-      </c>
+      <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -15202,9 +15191,7 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H12">
-        <v>0.15417900000000001</v>
-      </c>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -15222,9 +15209,7 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H13">
-        <v>0.13202059999999999</v>
-      </c>
+      <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -15242,9 +15227,7 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H14">
-        <v>0.14467050000000001</v>
-      </c>
+      <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -15262,9 +15245,7 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15">
-        <v>0.18728230000000001</v>
-      </c>
+      <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -15282,11 +15263,9 @@
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H16">
-        <v>0.13965060000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15302,11 +15281,9 @@
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H17">
-        <v>1.3061480000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15322,11 +15299,9 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H18">
-        <v>0.21159420000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15342,11 +15317,9 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H19">
-        <v>0.18755959999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="6"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15362,11 +15335,9 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H20" s="2">
-        <v>2.9835029999999998E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="6"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15382,11 +15353,10 @@
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H21">
-        <v>0.1832532</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="2"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15402,11 +15372,9 @@
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H22">
-        <v>0.1737901</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="6"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15422,11 +15390,9 @@
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H23">
-        <v>1.3630599999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="6"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15442,11 +15408,9 @@
       <c r="E24" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H24">
-        <v>0.18163409999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="6"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15462,11 +15426,9 @@
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H25">
-        <v>0.1273463</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="6"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -15485,11 +15447,9 @@
       <c r="G26">
         <v>0.1861408</v>
       </c>
-      <c r="H26" s="2">
-        <v>7.9635360000000002E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -15508,11 +15468,10 @@
       <c r="G27">
         <v>1.3165</v>
       </c>
-      <c r="H27" s="2">
-        <v>9.5789580000000003E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="2"/>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -15528,8 +15487,10 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H28" s="2"/>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>4</v>
       </c>
@@ -15545,9 +15506,9 @@
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="6"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15563,8 +15524,9 @@
       <c r="E30" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="6"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>6</v>
       </c>
@@ -15580,8 +15542,10 @@
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31" s="2"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7</v>
       </c>
@@ -15597,8 +15561,9 @@
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I32" s="6"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8</v>
       </c>
@@ -15614,8 +15579,9 @@
       <c r="E33" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I33" s="6"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9</v>
       </c>
@@ -15631,8 +15597,9 @@
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I34" s="6"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10</v>
       </c>
@@ -15648,8 +15615,9 @@
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I35" s="6"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>11</v>
       </c>
@@ -15665,8 +15633,9 @@
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I36" s="6"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -15682,8 +15651,9 @@
       <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I37" s="6"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -15699,8 +15669,9 @@
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I38" s="6"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>14</v>
       </c>
@@ -15716,8 +15687,9 @@
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I39" s="6"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>15</v>
       </c>
@@ -15733,8 +15705,9 @@
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I40" s="6"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>16</v>
       </c>
@@ -15750,8 +15723,9 @@
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>17</v>
       </c>
@@ -15767,8 +15741,9 @@
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I42" s="6"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>18</v>
       </c>
@@ -15784,8 +15759,9 @@
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I43" s="6"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>19</v>
       </c>
@@ -15801,8 +15777,9 @@
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I44" s="6"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>20</v>
       </c>
@@ -15818,8 +15795,9 @@
       <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I45" s="6"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>21</v>
       </c>
@@ -15835,8 +15813,9 @@
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I46" s="6"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -15852,8 +15831,9 @@
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I47" s="6"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>23</v>
       </c>
@@ -15869,6 +15849,7 @@
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
@@ -15886,10 +15867,11 @@
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>
-      <c r="H50" s="2"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
@@ -15913,10 +15895,7 @@
       <c r="G51">
         <v>1.747625</v>
       </c>
-      <c r="H51" s="2"/>
-      <c r="I51" s="5">
-        <v>0.43888888888888888</v>
-      </c>
+      <c r="I51" s="5"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -15940,6 +15919,8 @@
       <c r="G52">
         <v>0.1888166</v>
       </c>
+      <c r="H52" s="2"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
@@ -15963,6 +15944,8 @@
       <c r="G53">
         <v>0.233904</v>
       </c>
+      <c r="H53" s="2"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
@@ -16923,6 +16906,9 @@
       <c r="F96">
         <v>7.4960000000000004</v>
       </c>
+      <c r="G96">
+        <v>0.25743899999999997</v>
+      </c>
       <c r="I96" s="5">
         <v>0.43472222222222223</v>
       </c>
@@ -16946,6 +16932,9 @@
       <c r="F97">
         <v>2.8479999999999999</v>
       </c>
+      <c r="G97">
+        <v>7.6102900000000001E-2</v>
+      </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98">
@@ -16966,6 +16955,9 @@
       <c r="F98">
         <v>6.5289999999999999</v>
       </c>
+      <c r="G98">
+        <v>0.17404919999999999</v>
+      </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99">
@@ -16986,6 +16978,9 @@
       <c r="F99">
         <v>10.788</v>
       </c>
+      <c r="G99">
+        <v>0.2348218</v>
+      </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100">
@@ -17005,6 +17000,9 @@
       </c>
       <c r="F100">
         <v>6.3719999999999999</v>
+      </c>
+      <c r="G100">
+        <v>0.1621233</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
@@ -17026,6 +17024,9 @@
       <c r="F101">
         <v>6.9050000000000002</v>
       </c>
+      <c r="G101">
+        <v>1.951673</v>
+      </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102">
@@ -17046,6 +17047,9 @@
       <c r="F102">
         <v>6.069</v>
       </c>
+      <c r="G102">
+        <v>0.1396802</v>
+      </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -17065,6 +17069,9 @@
       </c>
       <c r="F103">
         <v>8.4559999999999995</v>
+      </c>
+      <c r="G103">
+        <v>0.18345819999999999</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
@@ -17086,6 +17093,9 @@
       <c r="F104">
         <v>10.252000000000001</v>
       </c>
+      <c r="G104">
+        <v>0.19748389999999999</v>
+      </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -17106,6 +17116,9 @@
       <c r="F105">
         <v>7.5309999999999997</v>
       </c>
+      <c r="G105">
+        <v>0.21986820000000001</v>
+      </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -17126,6 +17139,9 @@
       <c r="F106">
         <v>9.4510000000000005</v>
       </c>
+      <c r="G106">
+        <v>0.88032889999999997</v>
+      </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -17146,6 +17162,9 @@
       <c r="F107">
         <v>9.9090000000000007</v>
       </c>
+      <c r="G107">
+        <v>0.24762700000000001</v>
+      </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -17166,6 +17185,9 @@
       <c r="F108">
         <v>3.3610000000000002</v>
       </c>
+      <c r="G108" s="2">
+        <v>8.5800000000000001E-2</v>
+      </c>
       <c r="L108" s="2"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25">
@@ -17187,6 +17209,9 @@
       <c r="F109">
         <v>5.6310000000000002</v>
       </c>
+      <c r="G109" s="2">
+        <v>3.3700000000000001E-2</v>
+      </c>
       <c r="L109" s="2"/>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25">
@@ -17208,6 +17233,9 @@
       <c r="F110">
         <v>8.14</v>
       </c>
+      <c r="G110">
+        <v>0.17433850000000001</v>
+      </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -17228,6 +17256,9 @@
       <c r="F111">
         <v>4.6619999999999999</v>
       </c>
+      <c r="G111">
+        <v>0.1020875</v>
+      </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -17248,6 +17279,9 @@
       <c r="F112">
         <v>5.9240000000000004</v>
       </c>
+      <c r="G112">
+        <v>0.1513504</v>
+      </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A113">
@@ -17268,6 +17302,9 @@
       <c r="F113">
         <v>7.3819999999999997</v>
       </c>
+      <c r="G113">
+        <v>0.68500669999999997</v>
+      </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A114">
@@ -17288,6 +17325,9 @@
       <c r="F114">
         <v>11.063000000000001</v>
       </c>
+      <c r="G114">
+        <v>0.23012589999999999</v>
+      </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A115">
@@ -17308,6 +17348,9 @@
       <c r="F115">
         <v>5.4509999999999996</v>
       </c>
+      <c r="G115">
+        <v>0.10940999999999999</v>
+      </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A116">
@@ -17328,6 +17371,9 @@
       <c r="F116">
         <v>8.9920000000000009</v>
       </c>
+      <c r="G116">
+        <v>0.25621430000000001</v>
+      </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A117">
@@ -17348,6 +17394,9 @@
       <c r="F117">
         <v>6.95</v>
       </c>
+      <c r="G117">
+        <v>0.14125779999999999</v>
+      </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A118">
@@ -17368,6 +17417,9 @@
       <c r="F118">
         <v>5.5949999999999998</v>
       </c>
+      <c r="G118">
+        <v>1.161861</v>
+      </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A119">
@@ -17388,6 +17440,9 @@
       <c r="F119">
         <v>4.3040000000000003</v>
       </c>
+      <c r="G119">
+        <v>0.99669560000000001</v>
+      </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A120">
@@ -17408,6 +17463,9 @@
       <c r="F120">
         <v>6.952</v>
       </c>
+      <c r="G120">
+        <v>0.46128360000000002</v>
+      </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A121">
@@ -17425,6 +17483,9 @@
       <c r="E121" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="G121" s="2">
+        <v>3.2099999999999997E-2</v>
+      </c>
       <c r="L121" s="2"/>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.25">
@@ -17467,6 +17528,9 @@
       <c r="F123">
         <v>5.7610000000000001</v>
       </c>
+      <c r="G123">
+        <v>0.2619496</v>
+      </c>
       <c r="I123" s="5">
         <v>0.4375</v>
       </c>
@@ -17491,6 +17555,9 @@
       <c r="F124">
         <v>7.681</v>
       </c>
+      <c r="G124">
+        <v>0.31628790000000001</v>
+      </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A125">
@@ -17511,6 +17578,9 @@
       <c r="F125">
         <v>10.02</v>
       </c>
+      <c r="G125">
+        <v>1.323132</v>
+      </c>
       <c r="L125" s="2"/>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.25">
@@ -17532,6 +17602,9 @@
       <c r="F126">
         <v>8.0850000000000009</v>
       </c>
+      <c r="G126">
+        <v>0.3262333</v>
+      </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A127">
@@ -17551,6 +17624,9 @@
       </c>
       <c r="F127">
         <v>3.5630000000000002</v>
+      </c>
+      <c r="G127">
+        <v>1.911262</v>
       </c>
       <c r="L127" s="2"/>
     </row>
@@ -17573,6 +17649,9 @@
       <c r="F128">
         <v>4.3620000000000001</v>
       </c>
+      <c r="G128">
+        <v>0.20131689999999999</v>
+      </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129">
@@ -17593,6 +17672,9 @@
       <c r="F129">
         <v>6.6260000000000003</v>
       </c>
+      <c r="G129">
+        <v>1.113766</v>
+      </c>
       <c r="L129" s="2"/>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.25">
@@ -17613,6 +17695,9 @@
       </c>
       <c r="F130">
         <v>6.5389999999999997</v>
+      </c>
+      <c r="G130">
+        <v>0.27003880000000002</v>
       </c>
       <c r="L130" s="2"/>
     </row>
@@ -17635,6 +17720,9 @@
       <c r="F131">
         <v>6.5519999999999996</v>
       </c>
+      <c r="G131">
+        <v>0.31909389999999999</v>
+      </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132">
@@ -17655,6 +17743,9 @@
       <c r="F132">
         <v>3.9329999999999998</v>
       </c>
+      <c r="G132">
+        <v>0.77735189999999998</v>
+      </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133">
@@ -17675,6 +17766,9 @@
       <c r="F133">
         <v>6.3719999999999999</v>
       </c>
+      <c r="G133">
+        <v>0.28544890000000001</v>
+      </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A134">
@@ -17695,6 +17789,9 @@
       <c r="F134">
         <v>10.712999999999999</v>
       </c>
+      <c r="G134">
+        <v>0.49923050000000002</v>
+      </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135">
@@ -17715,6 +17812,9 @@
       <c r="F135">
         <v>3.9980000000000002</v>
       </c>
+      <c r="G135">
+        <v>1.1527879999999999</v>
+      </c>
       <c r="L135" s="2"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
@@ -17736,6 +17836,9 @@
       <c r="F136">
         <v>6.1449999999999996</v>
       </c>
+      <c r="G136">
+        <v>0.21225250000000001</v>
+      </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137">
@@ -17756,6 +17859,9 @@
       <c r="F137">
         <v>10.019</v>
       </c>
+      <c r="G137">
+        <v>0.43510769999999999</v>
+      </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A138">
@@ -17776,6 +17882,9 @@
       <c r="F138">
         <v>6.0170000000000003</v>
       </c>
+      <c r="G138">
+        <v>0.3272793</v>
+      </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139">
@@ -17796,6 +17905,9 @@
       <c r="F139">
         <v>7.3780000000000001</v>
       </c>
+      <c r="G139">
+        <v>1.0853250000000001</v>
+      </c>
       <c r="L139" s="2"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
@@ -17817,6 +17929,9 @@
       <c r="F140">
         <v>5.4379999999999997</v>
       </c>
+      <c r="G140">
+        <v>0.18603169999999999</v>
+      </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141">
@@ -17837,6 +17952,9 @@
       <c r="F141">
         <v>4.766</v>
       </c>
+      <c r="G141">
+        <v>2.2876249999999998</v>
+      </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A142">
@@ -17857,6 +17975,9 @@
       <c r="F142">
         <v>6.8630000000000004</v>
       </c>
+      <c r="G142">
+        <v>0.25271919999999998</v>
+      </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143">
@@ -17877,6 +17998,9 @@
       <c r="F143">
         <v>5.1609999999999996</v>
       </c>
+      <c r="G143">
+        <v>0.1851923</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144">
@@ -17897,6 +18021,9 @@
       <c r="F144">
         <v>9.9410000000000007</v>
       </c>
+      <c r="G144">
+        <v>0.37357430000000003</v>
+      </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145">
@@ -17917,6 +18044,9 @@
       <c r="F145">
         <v>10.058999999999999</v>
       </c>
+      <c r="G145">
+        <v>0.30079250000000002</v>
+      </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A146">
@@ -17937,6 +18067,9 @@
       <c r="F146">
         <v>7.5469999999999997</v>
       </c>
+      <c r="G146">
+        <v>2.2706949999999999</v>
+      </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147">
@@ -17957,6 +18090,9 @@
       <c r="F147">
         <v>5.5330000000000004</v>
       </c>
+      <c r="G147">
+        <v>1.333645</v>
+      </c>
       <c r="L147" s="2"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
@@ -17974,6 +18110,9 @@
       </c>
       <c r="E148" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="G148" s="2">
+        <v>4.8300000000000003E-2</v>
       </c>
       <c r="L148" s="2"/>
     </row>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986DEBF0-B07E-4C6F-B9D2-8C55DCC885E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4C5EE-2F9C-432E-9AFC-5CD6C6ABD845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1724" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -116,6 +116,9 @@
   </si>
   <si>
     <t>2018-09-26</t>
+  </si>
+  <si>
+    <t>2018-09-29</t>
   </si>
 </sst>
 </file>
@@ -14945,10 +14948,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
-  <dimension ref="A1:L204"/>
+  <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19270,6 +19273,486 @@
         <v>0.44722222222222219</v>
       </c>
     </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>1</v>
+      </c>
+      <c r="B206" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206">
+        <v>7000</v>
+      </c>
+      <c r="D206">
+        <v>9</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F206">
+        <v>6.5510000000000002</v>
+      </c>
+      <c r="I206" s="5">
+        <v>0.48680555555555555</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>2</v>
+      </c>
+      <c r="B207" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207">
+        <v>7000</v>
+      </c>
+      <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F207">
+        <v>7.1219999999999999</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>3</v>
+      </c>
+      <c r="B208" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208">
+        <v>7000</v>
+      </c>
+      <c r="D208">
+        <v>9</v>
+      </c>
+      <c r="E208" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F208">
+        <v>5.319</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>4</v>
+      </c>
+      <c r="B209" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209">
+        <v>7000</v>
+      </c>
+      <c r="D209">
+        <v>9</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F209">
+        <v>7.218</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210">
+        <v>7000</v>
+      </c>
+      <c r="D210">
+        <v>9</v>
+      </c>
+      <c r="E210" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F210">
+        <v>9.2070000000000007</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>6</v>
+      </c>
+      <c r="B211" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211">
+        <v>7000</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+      <c r="E211" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F211">
+        <v>8.7569999999999997</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>7</v>
+      </c>
+      <c r="B212" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212">
+        <v>7000</v>
+      </c>
+      <c r="D212">
+        <v>9</v>
+      </c>
+      <c r="E212" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F212">
+        <v>5.85</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>8</v>
+      </c>
+      <c r="B213" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213">
+        <v>7000</v>
+      </c>
+      <c r="D213">
+        <v>9</v>
+      </c>
+      <c r="E213" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F213">
+        <v>7.4139999999999997</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>9</v>
+      </c>
+      <c r="B214" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214">
+        <v>7000</v>
+      </c>
+      <c r="D214">
+        <v>9</v>
+      </c>
+      <c r="E214" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F214">
+        <v>13.143000000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>10</v>
+      </c>
+      <c r="B215" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215">
+        <v>7000</v>
+      </c>
+      <c r="D215">
+        <v>9</v>
+      </c>
+      <c r="E215" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F215">
+        <v>6.6219999999999999</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>11</v>
+      </c>
+      <c r="B216" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216">
+        <v>7000</v>
+      </c>
+      <c r="D216">
+        <v>9</v>
+      </c>
+      <c r="E216" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>12</v>
+      </c>
+      <c r="B217" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217">
+        <v>7000</v>
+      </c>
+      <c r="D217">
+        <v>9</v>
+      </c>
+      <c r="E217" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I217" s="5">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>1</v>
+      </c>
+      <c r="B218" t="s">
+        <v>8</v>
+      </c>
+      <c r="C218">
+        <v>6262</v>
+      </c>
+      <c r="D218">
+        <v>9</v>
+      </c>
+      <c r="E218" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F218">
+        <v>8.1780000000000008</v>
+      </c>
+      <c r="I218" s="5">
+        <v>0.48888888888888887</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>2</v>
+      </c>
+      <c r="B219" t="s">
+        <v>8</v>
+      </c>
+      <c r="C219">
+        <v>6262</v>
+      </c>
+      <c r="D219">
+        <v>9</v>
+      </c>
+      <c r="E219" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F219">
+        <v>9.7940000000000005</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>3</v>
+      </c>
+      <c r="B220" t="s">
+        <v>8</v>
+      </c>
+      <c r="C220">
+        <v>6262</v>
+      </c>
+      <c r="D220">
+        <v>9</v>
+      </c>
+      <c r="E220" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F220">
+        <v>9.9990000000000006</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>4</v>
+      </c>
+      <c r="B221" t="s">
+        <v>8</v>
+      </c>
+      <c r="C221">
+        <v>6262</v>
+      </c>
+      <c r="D221">
+        <v>9</v>
+      </c>
+      <c r="E221" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F221">
+        <v>7.2549999999999999</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>8</v>
+      </c>
+      <c r="C222">
+        <v>6262</v>
+      </c>
+      <c r="D222">
+        <v>9</v>
+      </c>
+      <c r="E222" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F222">
+        <v>9.952</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>6</v>
+      </c>
+      <c r="B223" t="s">
+        <v>8</v>
+      </c>
+      <c r="C223">
+        <v>6262</v>
+      </c>
+      <c r="D223">
+        <v>9</v>
+      </c>
+      <c r="E223" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F223">
+        <v>10.162000000000001</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>7</v>
+      </c>
+      <c r="B224" t="s">
+        <v>8</v>
+      </c>
+      <c r="C224">
+        <v>6262</v>
+      </c>
+      <c r="D224">
+        <v>9</v>
+      </c>
+      <c r="E224" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F224">
+        <v>7.6980000000000004</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>8</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <v>6262</v>
+      </c>
+      <c r="D225">
+        <v>9</v>
+      </c>
+      <c r="E225" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F225">
+        <v>6.383</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>9</v>
+      </c>
+      <c r="B226" t="s">
+        <v>8</v>
+      </c>
+      <c r="C226">
+        <v>6262</v>
+      </c>
+      <c r="D226">
+        <v>9</v>
+      </c>
+      <c r="E226" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F226">
+        <v>7.274</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>10</v>
+      </c>
+      <c r="B227" t="s">
+        <v>8</v>
+      </c>
+      <c r="C227">
+        <v>6262</v>
+      </c>
+      <c r="D227">
+        <v>9</v>
+      </c>
+      <c r="E227" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F227">
+        <v>9.1920000000000002</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>11</v>
+      </c>
+      <c r="B228" t="s">
+        <v>8</v>
+      </c>
+      <c r="C228">
+        <v>6262</v>
+      </c>
+      <c r="D228">
+        <v>9</v>
+      </c>
+      <c r="E228" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>12</v>
+      </c>
+      <c r="B229" t="s">
+        <v>8</v>
+      </c>
+      <c r="C229">
+        <v>6262</v>
+      </c>
+      <c r="D229">
+        <v>9</v>
+      </c>
+      <c r="E229" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I229" s="5">
+        <v>0.49305555555555558</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED4C5EE-2F9C-432E-9AFC-5CD6C6ABD845}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B302C4-1666-45E4-9DEC-695C1BAD3F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,6 +136,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -169,6 +175,8 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8585,8 +8593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F17AC73-92BE-423C-B9F5-6966FF440A93}">
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9643,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115:C138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9705,8 +9713,8 @@
       <c r="F2">
         <v>5.4930000000000003</v>
       </c>
-      <c r="H2">
-        <v>0.25923370000000001</v>
+      <c r="G2" s="2">
+        <v>2.1769980000000001E-2</v>
       </c>
       <c r="I2" s="5">
         <v>0.45069444444444445</v>
@@ -9731,9 +9739,10 @@
       <c r="F3">
         <v>7.7309999999999999</v>
       </c>
-      <c r="H3" s="2">
-        <v>2.1769980000000001E-2</v>
-      </c>
+      <c r="G3">
+        <v>0.57221960000000005</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -9754,8 +9763,8 @@
       <c r="F4">
         <v>2.6389999999999998</v>
       </c>
-      <c r="H4">
-        <v>0.57221960000000005</v>
+      <c r="G4">
+        <v>0.5638341</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -9777,8 +9786,8 @@
       <c r="F5">
         <v>4.3949999999999996</v>
       </c>
-      <c r="H5">
-        <v>0.5638341</v>
+      <c r="G5">
+        <v>0.1211013</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -9800,8 +9809,8 @@
       <c r="F6">
         <v>10.275</v>
       </c>
-      <c r="H6">
-        <v>0.1211013</v>
+      <c r="G6" s="2">
+        <v>6.0454010000000002E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -9823,9 +9832,10 @@
       <c r="F7">
         <v>3.2839999999999998</v>
       </c>
-      <c r="H7" s="2">
-        <v>6.0454010000000002E-2</v>
-      </c>
+      <c r="G7">
+        <v>0.74405169999999998</v>
+      </c>
+      <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
@@ -9846,8 +9856,8 @@
       <c r="F8">
         <v>6.5659999999999998</v>
       </c>
-      <c r="H8">
-        <v>0.74405169999999998</v>
+      <c r="G8" s="2">
+        <v>5.8182110000000002E-2</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -9869,9 +9879,10 @@
       <c r="F9">
         <v>3.33</v>
       </c>
-      <c r="H9" s="2">
-        <v>5.8182110000000002E-2</v>
-      </c>
+      <c r="G9" s="2">
+        <v>7.4097120000000002E-2</v>
+      </c>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -9892,9 +9903,10 @@
       <c r="F10">
         <v>5.2859999999999996</v>
       </c>
-      <c r="H10" s="2">
-        <v>7.4097120000000002E-2</v>
-      </c>
+      <c r="G10">
+        <v>0.71304290000000004</v>
+      </c>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -9915,8 +9927,8 @@
       <c r="F11">
         <v>6.093</v>
       </c>
-      <c r="H11">
-        <v>0.71304290000000004</v>
+      <c r="G11" s="2">
+        <v>9.4041440000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -9938,9 +9950,10 @@
       <c r="F12">
         <v>4.8239999999999998</v>
       </c>
-      <c r="H12" s="2">
-        <v>9.4041440000000004E-2</v>
-      </c>
+      <c r="G12" s="2">
+        <v>5.7580180000000002E-2</v>
+      </c>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -9961,9 +9974,10 @@
       <c r="F13">
         <v>4.5510000000000002</v>
       </c>
-      <c r="H13" s="2">
-        <v>5.7580180000000002E-2</v>
-      </c>
+      <c r="G13" s="2">
+        <v>5.666504E-2</v>
+      </c>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -9984,9 +9998,10 @@
       <c r="F14">
         <v>5.3120000000000003</v>
       </c>
-      <c r="H14" s="2">
-        <v>5.666504E-2</v>
-      </c>
+      <c r="G14">
+        <v>0.75377640000000001</v>
+      </c>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -10007,8 +10022,8 @@
       <c r="F15">
         <v>9.5670000000000002</v>
       </c>
-      <c r="H15">
-        <v>0.75377640000000001</v>
+      <c r="G15" s="2">
+        <v>6.3233230000000001E-2</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -10030,9 +10045,10 @@
       <c r="F16">
         <v>7.0590000000000002</v>
       </c>
-      <c r="H16" s="2">
-        <v>6.3233230000000001E-2</v>
-      </c>
+      <c r="G16">
+        <v>6.2713099999999994E-2</v>
+      </c>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
@@ -10050,8 +10066,8 @@
       <c r="E17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H17">
-        <v>6.2713099999999994E-2</v>
+      <c r="G17" s="2">
+        <v>7.3917979999999998E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -10070,9 +10086,10 @@
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H18" s="2">
-        <v>7.3917979999999998E-3</v>
-      </c>
+      <c r="G18" s="2">
+        <v>7.1979319999999998E-3</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="5">
         <v>0.45416666666666666</v>
       </c>
@@ -10096,9 +10113,10 @@
       <c r="F19">
         <v>7.93</v>
       </c>
-      <c r="H19" s="2">
-        <v>7.1979319999999998E-3</v>
-      </c>
+      <c r="G19" s="2">
+        <v>1.5954280000000001E-2</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="5">
         <v>0.45416666666666666</v>
       </c>
@@ -10122,8 +10140,8 @@
       <c r="F20">
         <v>4.5229999999999997</v>
       </c>
-      <c r="H20">
-        <v>0.40099190000000001</v>
+      <c r="G20" s="2">
+        <v>1.253663E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -10145,9 +10163,10 @@
       <c r="F21">
         <v>5.46</v>
       </c>
-      <c r="H21" s="2">
-        <v>1.5954280000000001E-2</v>
-      </c>
+      <c r="G21">
+        <v>0.92971000000000004</v>
+      </c>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -10168,9 +10187,10 @@
       <c r="F22">
         <v>3.9649999999999999</v>
       </c>
-      <c r="H22" s="2">
-        <v>1.253663E-2</v>
-      </c>
+      <c r="G22">
+        <v>0.70063980000000003</v>
+      </c>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -10191,8 +10211,8 @@
       <c r="F23">
         <v>5.8040000000000003</v>
       </c>
-      <c r="H23">
-        <v>0.92971000000000004</v>
+      <c r="G23" s="2">
+        <v>5.6583080000000001E-2</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -10214,8 +10234,8 @@
       <c r="F24">
         <v>4.5460000000000003</v>
       </c>
-      <c r="H24">
-        <v>0.70063980000000003</v>
+      <c r="G24" s="2">
+        <v>8.6239659999999996E-2</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -10237,9 +10257,10 @@
       <c r="F25">
         <v>5.6020000000000003</v>
       </c>
-      <c r="H25" s="2">
-        <v>5.6583080000000001E-2</v>
-      </c>
+      <c r="G25" s="2">
+        <v>7.0294949999999995E-2</v>
+      </c>
+      <c r="H25" s="2"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -10260,9 +10281,10 @@
       <c r="F26">
         <v>6.0119999999999996</v>
       </c>
-      <c r="H26" s="2">
-        <v>8.6239659999999996E-2</v>
-      </c>
+      <c r="G26" s="2">
+        <v>4.616642E-2</v>
+      </c>
+      <c r="H26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -10283,9 +10305,10 @@
       <c r="F27">
         <v>3.84</v>
       </c>
-      <c r="H27" s="2">
-        <v>7.0294949999999995E-2</v>
-      </c>
+      <c r="G27">
+        <v>0.60171680000000005</v>
+      </c>
+      <c r="H27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -10306,9 +10329,10 @@
       <c r="F28">
         <v>4.9969999999999999</v>
       </c>
-      <c r="H28" s="2">
-        <v>4.616642E-2</v>
-      </c>
+      <c r="G28">
+        <v>1.262175</v>
+      </c>
+      <c r="H28" s="2"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -10329,8 +10353,8 @@
       <c r="F29">
         <v>5.51</v>
       </c>
-      <c r="H29">
-        <v>0.60171680000000005</v>
+      <c r="G29">
+        <v>0.85847589999999996</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -10352,8 +10376,8 @@
       <c r="F30">
         <v>2.7679999999999998</v>
       </c>
-      <c r="H30">
-        <v>1.262175</v>
+      <c r="G30" s="2">
+        <v>4.8666029999999999E-2</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -10375,8 +10399,8 @@
       <c r="F31">
         <v>5.7290000000000001</v>
       </c>
-      <c r="H31">
-        <v>0.85847589999999996</v>
+      <c r="G31" s="2">
+        <v>6.4596029999999999E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -10398,9 +10422,10 @@
       <c r="F32">
         <v>2.2719999999999998</v>
       </c>
-      <c r="H32" s="2">
-        <v>4.8666029999999999E-2</v>
-      </c>
+      <c r="G32">
+        <v>0.8055525</v>
+      </c>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -10421,9 +10446,10 @@
       <c r="F33">
         <v>3.5049999999999999</v>
       </c>
-      <c r="H33" s="2">
-        <v>6.4596029999999999E-2</v>
-      </c>
+      <c r="G33" s="2">
+        <v>6.3976290000000005E-2</v>
+      </c>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
@@ -10441,8 +10467,8 @@
       <c r="E34" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H34">
-        <v>0.8055525</v>
+      <c r="G34" s="2">
+        <v>-4.3080970000000003E-3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -10461,17 +10487,16 @@
       <c r="E35" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="H35" s="2">
-        <v>6.3976290000000005E-2</v>
-      </c>
+      <c r="G35" s="2">
+        <v>-1.241104E-2</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="5">
         <v>0.45694444444444443</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H36" s="2">
-        <v>-4.3080970000000003E-3</v>
-      </c>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
@@ -10492,12 +10517,10 @@
       <c r="F37">
         <v>5.524</v>
       </c>
-      <c r="G37">
-        <v>0.70826560000000005</v>
-      </c>
-      <c r="H37" s="2">
-        <v>-1.241104E-2</v>
-      </c>
+      <c r="G37" s="2">
+        <v>1.9875660000000001E-3</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="5">
         <v>0.52013888888888882</v>
       </c>
@@ -10522,7 +10545,7 @@
         <v>10.587999999999999</v>
       </c>
       <c r="G38" s="2">
-        <v>1.9875660000000001E-3</v>
+        <v>5.6006760000000003E-2</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -10544,8 +10567,8 @@
       <c r="F39">
         <v>5.7779999999999996</v>
       </c>
-      <c r="G39" s="2">
-        <v>5.6006760000000003E-2</v>
+      <c r="G39">
+        <v>0.31883129999999998</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -10568,7 +10591,7 @@
         <v>9.7840000000000007</v>
       </c>
       <c r="G40">
-        <v>0.31883129999999998</v>
+        <v>0.86371869999999995</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -10591,7 +10614,7 @@
         <v>4.8209999999999997</v>
       </c>
       <c r="G41">
-        <v>0.86371869999999995</v>
+        <v>0.54437729999999995</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -10614,7 +10637,7 @@
         <v>8.2859999999999996</v>
       </c>
       <c r="G42">
-        <v>0.54437729999999995</v>
+        <v>0.84603289999999998</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -10636,8 +10659,8 @@
       <c r="F43">
         <v>6.8230000000000004</v>
       </c>
-      <c r="G43">
-        <v>0.84603289999999998</v>
+      <c r="G43" s="2">
+        <v>5.6414550000000001E-2</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10659,8 +10682,8 @@
       <c r="F44">
         <v>5.4009999999999998</v>
       </c>
-      <c r="G44" s="2">
-        <v>5.6414550000000001E-2</v>
+      <c r="G44">
+        <v>0.7194315</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -10682,8 +10705,8 @@
       <c r="F45">
         <v>4.1379999999999999</v>
       </c>
-      <c r="G45">
-        <v>0.7194315</v>
+      <c r="G45" s="2">
+        <v>4.842461E-2</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -10705,8 +10728,8 @@
       <c r="F46">
         <v>7.3250000000000002</v>
       </c>
-      <c r="G46" s="2">
-        <v>4.842461E-2</v>
+      <c r="G46">
+        <v>7.1902599999999997E-2</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -10729,7 +10752,7 @@
         <v>7.0979999999999999</v>
       </c>
       <c r="G47">
-        <v>7.1902599999999997E-2</v>
+        <v>0.80332700000000001</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -10751,8 +10774,8 @@
       <c r="F48">
         <v>5.36</v>
       </c>
-      <c r="G48">
-        <v>0.80332700000000001</v>
+      <c r="G48" s="2">
+        <v>8.2793969999999995E-2</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -10774,8 +10797,8 @@
       <c r="F49">
         <v>6.077</v>
       </c>
-      <c r="G49" s="2">
-        <v>8.2793969999999995E-2</v>
+      <c r="G49">
+        <v>0.6901214</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
@@ -10797,8 +10820,8 @@
       <c r="F50">
         <v>7.2160000000000002</v>
       </c>
-      <c r="G50">
-        <v>0.6901214</v>
+      <c r="G50" s="2">
+        <v>8.1495990000000004E-2</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -10820,8 +10843,8 @@
       <c r="F51">
         <v>4.8109999999999999</v>
       </c>
-      <c r="G51" s="2">
-        <v>8.1495990000000004E-2</v>
+      <c r="G51">
+        <v>0.29950130000000003</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -10843,8 +10866,8 @@
       <c r="F52">
         <v>6.5170000000000003</v>
       </c>
-      <c r="G52">
-        <v>0.29950130000000003</v>
+      <c r="G52" s="2">
+        <v>6.3220540000000006E-2</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -10866,8 +10889,8 @@
       <c r="F53">
         <v>6.7619999999999996</v>
       </c>
-      <c r="G53" s="2">
-        <v>6.3220540000000006E-2</v>
+      <c r="G53">
+        <v>0.37286639999999999</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -10889,8 +10912,8 @@
       <c r="F54">
         <v>7.5549999999999997</v>
       </c>
-      <c r="G54">
-        <v>0.37286639999999999</v>
+      <c r="G54" s="2">
+        <v>6.5389390000000006E-2</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -10912,8 +10935,8 @@
       <c r="F55">
         <v>5.19</v>
       </c>
-      <c r="G55" s="2">
-        <v>6.5389390000000006E-2</v>
+      <c r="G55">
+        <v>0.13105230000000001</v>
       </c>
       <c r="I55" s="5">
         <v>0.52361111111111114</v>
@@ -10935,8 +10958,8 @@
       <c r="E56" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G56">
-        <v>0.13105230000000001</v>
+      <c r="G56" s="2">
+        <v>5.0087279999999996E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -10956,7 +10979,7 @@
         <v>10</v>
       </c>
       <c r="G57" s="2">
-        <v>5.0087279999999996E-3</v>
+        <v>5.4131120000000003E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -10979,7 +11002,7 @@
         <v>6.6580000000000004</v>
       </c>
       <c r="G58" s="2">
-        <v>5.4131120000000003E-3</v>
+        <v>1.3382540000000001E-3</v>
       </c>
       <c r="I58" s="5">
         <v>0.52361111111111114</v>
@@ -11004,8 +11027,8 @@
       <c r="F59">
         <v>7.3</v>
       </c>
-      <c r="G59" s="2">
-        <v>8.0277950000000001E-2</v>
+      <c r="G59">
+        <v>1.1932309999999999</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -11028,7 +11051,7 @@
         <v>5.1440000000000001</v>
       </c>
       <c r="G60" s="2">
-        <v>1.3382540000000001E-3</v>
+        <v>5.9091560000000001E-2</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -11051,7 +11074,7 @@
         <v>4.8129999999999997</v>
       </c>
       <c r="G61">
-        <v>1.1932309999999999</v>
+        <v>0.9053795</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -11073,8 +11096,8 @@
       <c r="F62">
         <v>5.6689999999999996</v>
       </c>
-      <c r="G62" s="2">
-        <v>5.9091560000000001E-2</v>
+      <c r="G62">
+        <v>0.15438160000000001</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -11097,7 +11120,7 @@
         <v>4.9669999999999996</v>
       </c>
       <c r="G63">
-        <v>0.9053795</v>
+        <v>0.91609289999999999</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -11119,8 +11142,8 @@
       <c r="F64">
         <v>6.827</v>
       </c>
-      <c r="G64">
-        <v>0.15438160000000001</v>
+      <c r="G64" s="2">
+        <v>7.7665890000000001E-2</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -11142,8 +11165,8 @@
       <c r="F65">
         <v>5.9610000000000003</v>
       </c>
-      <c r="G65">
-        <v>0.91609289999999999</v>
+      <c r="G65" s="2">
+        <v>6.5767010000000001E-2</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -11165,8 +11188,8 @@
       <c r="F66">
         <v>4.7629999999999999</v>
       </c>
-      <c r="G66" s="2">
-        <v>7.7665890000000001E-2</v>
+      <c r="G66">
+        <v>1.6958500000000001E-2</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -11188,8 +11211,8 @@
       <c r="F67">
         <v>5.3220000000000001</v>
       </c>
-      <c r="G67" s="2">
-        <v>6.5767010000000001E-2</v>
+      <c r="G67">
+        <v>1.0737639999999999</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -11212,7 +11235,7 @@
         <v>4.1970000000000001</v>
       </c>
       <c r="G68">
-        <v>1.6958500000000001E-2</v>
+        <v>0.90915000000000001</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -11235,7 +11258,7 @@
         <v>5.8019999999999996</v>
       </c>
       <c r="G69">
-        <v>1.0737639999999999</v>
+        <v>0.96459839999999997</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -11258,7 +11281,7 @@
         <v>5.4870000000000001</v>
       </c>
       <c r="G70">
-        <v>0.90915000000000001</v>
+        <v>0.85136820000000002</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -11280,8 +11303,8 @@
       <c r="F71">
         <v>4.101</v>
       </c>
-      <c r="G71">
-        <v>0.96459839999999997</v>
+      <c r="G71" s="2">
+        <v>9.9732589999999996E-2</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -11304,7 +11327,7 @@
         <v>6.2960000000000003</v>
       </c>
       <c r="G72">
-        <v>0.85136820000000002</v>
+        <v>0.1239735</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -11326,8 +11349,8 @@
       <c r="F73">
         <v>5.4109999999999996</v>
       </c>
-      <c r="G73" s="2">
-        <v>9.9732589999999996E-2</v>
+      <c r="G73">
+        <v>0.78274980000000005</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -11349,8 +11372,8 @@
       <c r="F74">
         <v>2.5169999999999999</v>
       </c>
-      <c r="G74">
-        <v>0.1239735</v>
+      <c r="G74" s="2">
+        <v>2.2903429999999999E-2</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -11373,7 +11396,7 @@
         <v>4.8079999999999998</v>
       </c>
       <c r="G75">
-        <v>0.78274980000000005</v>
+        <v>0.81265679999999996</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -11395,8 +11418,8 @@
       <c r="F76">
         <v>4.609</v>
       </c>
-      <c r="G76" s="2">
-        <v>2.2903429999999999E-2</v>
+      <c r="G76">
+        <v>0.87939299999999998</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -11415,8 +11438,8 @@
       <c r="E77" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G77">
-        <v>0.81265679999999996</v>
+      <c r="G77" s="2">
+        <v>3.5472809999999998E-3</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -11436,7 +11459,7 @@
         <v>10</v>
       </c>
       <c r="G78">
-        <v>0.87939299999999998</v>
+        <v>1.65469E-2</v>
       </c>
       <c r="I78" s="5">
         <v>0.52638888888888891</v>
@@ -11444,14 +11467,6 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E79" s="1"/>
-      <c r="G79" s="2">
-        <v>3.5472809999999998E-3</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="G80">
-        <v>1.65469E-2</v>
-      </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -11473,7 +11488,7 @@
         <v>4.7869999999999999</v>
       </c>
       <c r="G83" s="2">
-        <v>1.5633739999999999E-4</v>
+        <v>6.9060670000000005E-2</v>
       </c>
       <c r="I83" s="5">
         <v>0.56527777777777777</v>
@@ -11499,7 +11514,7 @@
         <v>7.0609999999999999</v>
       </c>
       <c r="G84" s="2">
-        <v>6.9060670000000005E-2</v>
+        <v>6.4024559999999994E-2</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -11521,8 +11536,8 @@
       <c r="F85">
         <v>7.0019999999999998</v>
       </c>
-      <c r="G85" s="2">
-        <v>6.4024559999999994E-2</v>
+      <c r="G85">
+        <v>0.70300019999999996</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -11544,8 +11559,8 @@
       <c r="F86">
         <v>5.569</v>
       </c>
-      <c r="G86">
-        <v>0.70300019999999996</v>
+      <c r="G86" s="2">
+        <v>5.3431340000000001E-2</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -11568,7 +11583,7 @@
         <v>6.5270000000000001</v>
       </c>
       <c r="G87" s="2">
-        <v>5.3431340000000001E-2</v>
+        <v>2.4062210000000001E-2</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -11590,8 +11605,8 @@
       <c r="F88">
         <v>4.9909999999999997</v>
       </c>
-      <c r="G88" s="2">
-        <v>2.4062210000000001E-2</v>
+      <c r="G88">
+        <v>0.46669100000000002</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -11614,7 +11629,7 @@
         <v>7.1120000000000001</v>
       </c>
       <c r="G89">
-        <v>0.46669100000000002</v>
+        <v>7.2352100000000003E-2</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -11636,8 +11651,8 @@
       <c r="F90">
         <v>5.0199999999999996</v>
       </c>
-      <c r="G90">
-        <v>7.2352100000000003E-2</v>
+      <c r="G90" s="2">
+        <v>4.2103639999999998E-2</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
@@ -11659,8 +11674,8 @@
       <c r="F91">
         <v>7.3090000000000002</v>
       </c>
-      <c r="G91" s="2">
-        <v>4.2103639999999998E-2</v>
+      <c r="G91">
+        <v>0.1106039</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -11682,8 +11697,8 @@
       <c r="F92">
         <v>5.8949999999999996</v>
       </c>
-      <c r="G92">
-        <v>0.1106039</v>
+      <c r="G92" s="2">
+        <v>8.6419770000000007E-2</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
@@ -11706,7 +11721,7 @@
         <v>5.8120000000000003</v>
       </c>
       <c r="G93" s="2">
-        <v>8.6419770000000007E-2</v>
+        <v>7.0623119999999998E-2</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -11728,8 +11743,8 @@
       <c r="F94">
         <v>7.0140000000000002</v>
       </c>
-      <c r="G94" s="2">
-        <v>7.0623119999999998E-2</v>
+      <c r="G94">
+        <v>7.8585699999999994E-2</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -11751,8 +11766,8 @@
       <c r="F95">
         <v>6.3390000000000004</v>
       </c>
-      <c r="G95">
-        <v>7.8585699999999994E-2</v>
+      <c r="G95" s="2">
+        <v>8.6651069999999997E-2</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -11774,8 +11789,8 @@
       <c r="F96">
         <v>6.0030000000000001</v>
       </c>
-      <c r="G96" s="2">
-        <v>8.6651069999999997E-2</v>
+      <c r="G96">
+        <v>0.70763889999999996</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
@@ -11797,8 +11812,8 @@
       <c r="F97">
         <v>7.0990000000000002</v>
       </c>
-      <c r="G97">
-        <v>0.70763889999999996</v>
+      <c r="G97" s="2">
+        <v>6.4687939999999999E-2</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
@@ -11820,8 +11835,8 @@
       <c r="F98">
         <v>6.5469999999999997</v>
       </c>
-      <c r="G98" s="2">
-        <v>6.4687939999999999E-2</v>
+      <c r="G98">
+        <v>0.4464706</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
@@ -11844,7 +11859,7 @@
         <v>8.4480000000000004</v>
       </c>
       <c r="G99">
-        <v>0.4464706</v>
+        <v>0.49385699999999999</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
@@ -11867,7 +11882,7 @@
         <v>3.956</v>
       </c>
       <c r="G100">
-        <v>0.49385699999999999</v>
+        <v>0.36102309999999999</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
@@ -11890,7 +11905,7 @@
         <v>10.196999999999999</v>
       </c>
       <c r="G101">
-        <v>0.36102309999999999</v>
+        <v>0.1151914</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
@@ -11913,7 +11928,7 @@
         <v>7.069</v>
       </c>
       <c r="G102">
-        <v>0.1151914</v>
+        <v>0.68350319999999998</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
@@ -11936,7 +11951,7 @@
         <v>8.9619999999999997</v>
       </c>
       <c r="G103">
-        <v>0.68350319999999998</v>
+        <v>0.95239879999999999</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
@@ -11958,8 +11973,8 @@
       <c r="F104">
         <v>8.8040000000000003</v>
       </c>
-      <c r="G104">
-        <v>0.95239879999999999</v>
+      <c r="G104" s="2">
+        <v>6.6400509999999996E-2</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
@@ -11981,8 +11996,8 @@
       <c r="F105">
         <v>5.98</v>
       </c>
-      <c r="G105" s="2">
-        <v>6.6400509999999996E-2</v>
+      <c r="G105">
+        <v>0.58904140000000005</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
@@ -12004,8 +12019,8 @@
       <c r="F106">
         <v>7.74</v>
       </c>
-      <c r="G106">
-        <v>0.58904140000000005</v>
+      <c r="G106" s="2">
+        <v>6.1400179999999999E-2</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
@@ -12027,8 +12042,8 @@
       <c r="F107">
         <v>8.5779999999999994</v>
       </c>
-      <c r="G107" s="2">
-        <v>6.1400179999999999E-2</v>
+      <c r="G107">
+        <v>0.83223429999999998</v>
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
@@ -12051,7 +12066,7 @@
         <v>5.0369999999999999</v>
       </c>
       <c r="G108">
-        <v>0.83223429999999998</v>
+        <v>0.50877470000000002</v>
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
@@ -12074,7 +12089,7 @@
         <v>7.4249999999999998</v>
       </c>
       <c r="G109">
-        <v>0.50877470000000002</v>
+        <v>0.70229799999999998</v>
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
@@ -12096,8 +12111,8 @@
       <c r="F110">
         <v>5.0659999999999998</v>
       </c>
-      <c r="G110">
-        <v>0.70229799999999998</v>
+      <c r="G110" s="2">
+        <v>7.2023840000000006E-2</v>
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
@@ -12120,7 +12135,7 @@
         <v>8.9949999999999992</v>
       </c>
       <c r="G111" s="2">
-        <v>7.2023840000000006E-2</v>
+        <v>5.345428E-2</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
@@ -12143,7 +12158,7 @@
         <v>6.3410000000000002</v>
       </c>
       <c r="G112" s="2">
-        <v>5.345428E-2</v>
+        <v>4.5953349999999997E-2</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
@@ -12163,7 +12178,7 @@
         <v>14</v>
       </c>
       <c r="G113" s="2">
-        <v>4.5953349999999997E-2</v>
+        <v>9.7969089999999995E-3</v>
       </c>
       <c r="I113" s="5">
         <v>0.57013888888888886</v>
@@ -12185,9 +12200,7 @@
       <c r="E114" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G114" s="2">
-        <v>9.7969089999999995E-3</v>
-      </c>
+      <c r="G114" s="2"/>
       <c r="I114" s="5">
         <v>0.57013888888888886</v>
       </c>
@@ -12211,8 +12224,8 @@
       <c r="F115">
         <v>4.8869999999999996</v>
       </c>
-      <c r="G115" s="2">
-        <v>-1.4540660000000001E-4</v>
+      <c r="G115">
+        <v>0.1014433</v>
       </c>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
@@ -12234,8 +12247,8 @@
       <c r="F116">
         <v>6.7530000000000001</v>
       </c>
-      <c r="G116">
-        <v>0.1014433</v>
+      <c r="G116" s="2">
+        <v>6.2222529999999998E-2</v>
       </c>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
@@ -12258,7 +12271,7 @@
         <v>4.4580000000000002</v>
       </c>
       <c r="G117" s="2">
-        <v>6.2222529999999998E-2</v>
+        <v>4.6740980000000001E-2</v>
       </c>
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
@@ -12280,8 +12293,8 @@
       <c r="F118">
         <v>6.8170000000000002</v>
       </c>
-      <c r="G118" s="2">
-        <v>4.6740980000000001E-2</v>
+      <c r="G118">
+        <v>1.042424</v>
       </c>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
@@ -12303,8 +12316,8 @@
       <c r="F119">
         <v>6.423</v>
       </c>
-      <c r="G119">
-        <v>1.042424</v>
+      <c r="G119" s="2">
+        <v>8.0901909999999994E-2</v>
       </c>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
@@ -12327,7 +12340,7 @@
         <v>6.6849999999999996</v>
       </c>
       <c r="G120" s="2">
-        <v>8.0901909999999994E-2</v>
+        <v>9.724671E-2</v>
       </c>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
@@ -12349,8 +12362,8 @@
       <c r="F121">
         <v>4.6719999999999997</v>
       </c>
-      <c r="G121" s="2">
-        <v>9.724671E-2</v>
+      <c r="G121">
+        <v>0.71386959999999999</v>
       </c>
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
@@ -12373,7 +12386,7 @@
         <v>7.3129999999999997</v>
       </c>
       <c r="G122">
-        <v>0.71386959999999999</v>
+        <v>0.13073419999999999</v>
       </c>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
@@ -12396,7 +12409,7 @@
         <v>6.06</v>
       </c>
       <c r="G123">
-        <v>0.13073419999999999</v>
+        <v>8.8433999999999999E-2</v>
       </c>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
@@ -12419,7 +12432,7 @@
         <v>3.81</v>
       </c>
       <c r="G124">
-        <v>8.8433999999999999E-2</v>
+        <v>0.5991746</v>
       </c>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
@@ -12441,8 +12454,8 @@
       <c r="F125">
         <v>4.4189999999999996</v>
       </c>
-      <c r="G125">
-        <v>0.5991746</v>
+      <c r="G125" s="2">
+        <v>1.538048E-2</v>
       </c>
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
@@ -12464,8 +12477,8 @@
       <c r="F126">
         <v>6.1760000000000002</v>
       </c>
-      <c r="G126" s="2">
-        <v>1.538048E-2</v>
+      <c r="G126">
+        <v>0.94660809999999995</v>
       </c>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
@@ -12488,7 +12501,7 @@
         <v>6.6340000000000003</v>
       </c>
       <c r="G127">
-        <v>0.94660809999999995</v>
+        <v>0.13231580000000001</v>
       </c>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
@@ -12511,7 +12524,7 @@
         <v>9.2270000000000003</v>
       </c>
       <c r="G128">
-        <v>0.13231580000000001</v>
+        <v>0.30280220000000002</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
@@ -12534,7 +12547,7 @@
         <v>8.984</v>
       </c>
       <c r="G129">
-        <v>0.30280220000000002</v>
+        <v>0.1120326</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
@@ -12557,7 +12570,7 @@
         <v>5.2389999999999999</v>
       </c>
       <c r="G130">
-        <v>0.1120326</v>
+        <v>0.99288399999999999</v>
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
@@ -12580,7 +12593,7 @@
         <v>5.3630000000000004</v>
       </c>
       <c r="G131">
-        <v>0.99288399999999999</v>
+        <v>1.250842</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -12602,8 +12615,8 @@
       <c r="F132">
         <v>4.415</v>
       </c>
-      <c r="G132">
-        <v>1.250842</v>
+      <c r="G132" s="2">
+        <v>7.3258509999999999E-2</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
@@ -12626,7 +12639,7 @@
         <v>6.0670000000000002</v>
       </c>
       <c r="G133" s="2">
-        <v>7.3258509999999999E-2</v>
+        <v>5.9430959999999998E-2</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
@@ -12648,8 +12661,8 @@
       <c r="F134">
         <v>4.4009999999999998</v>
       </c>
-      <c r="G134" s="2">
-        <v>5.9430959999999998E-2</v>
+      <c r="G134">
+        <v>8.7482599999999994E-2</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
@@ -12672,7 +12685,7 @@
         <v>8.9039999999999999</v>
       </c>
       <c r="G135">
-        <v>8.7482599999999994E-2</v>
+        <v>0.1067939</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
@@ -12695,7 +12708,7 @@
         <v>4.3789999999999996</v>
       </c>
       <c r="G136">
-        <v>0.1067939</v>
+        <v>0.67171159999999996</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
@@ -12718,7 +12731,7 @@
         <v>5.4539999999999997</v>
       </c>
       <c r="G137">
-        <v>0.67171159999999996</v>
+        <v>0.110722</v>
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
@@ -12740,8 +12753,8 @@
       <c r="F138">
         <v>8.827</v>
       </c>
-      <c r="G138">
-        <v>0.110722</v>
+      <c r="G138" s="2">
+        <v>8.0412479999999995E-2</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
@@ -12763,8 +12776,8 @@
       <c r="F139">
         <v>6.617</v>
       </c>
-      <c r="G139" s="2">
-        <v>8.0412479999999995E-2</v>
+      <c r="G139">
+        <v>0.1343956</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
@@ -12786,8 +12799,8 @@
       <c r="F140">
         <v>5.7229999999999999</v>
       </c>
-      <c r="G140">
-        <v>0.1343956</v>
+      <c r="G140" s="2">
+        <v>9.8792359999999996E-2</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
@@ -12810,7 +12823,7 @@
         <v>5.9669999999999996</v>
       </c>
       <c r="G141" s="2">
-        <v>9.8792359999999996E-2</v>
+        <v>7.6063549999999994E-2</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -12832,8 +12845,8 @@
       <c r="F142">
         <v>6.7830000000000004</v>
       </c>
-      <c r="G142" s="2">
-        <v>7.6063549999999994E-2</v>
+      <c r="G142">
+        <v>7.2718599999999994E-2</v>
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
@@ -12856,7 +12869,7 @@
         <v>5.867</v>
       </c>
       <c r="G143">
-        <v>7.2718599999999994E-2</v>
+        <v>0.69921960000000005</v>
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
@@ -12879,7 +12892,7 @@
         <v>6.1429999999999998</v>
       </c>
       <c r="G144">
-        <v>0.69921960000000005</v>
+        <v>0.11471430000000001</v>
       </c>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
@@ -12898,8 +12911,8 @@
       <c r="E145" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G145">
-        <v>0.11471430000000001</v>
+      <c r="G145" s="2">
+        <v>1.286145E-2</v>
       </c>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
@@ -12918,9 +12931,7 @@
       <c r="E146" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G146" s="2">
-        <v>1.286145E-2</v>
-      </c>
+      <c r="G146" s="2"/>
       <c r="I146" s="5">
         <v>0.57638888888888895</v>
       </c>
@@ -13953,9 +13964,10 @@
       <c r="F193">
         <v>9.7100000000000009</v>
       </c>
-      <c r="H193">
-        <v>0.22391249999999999</v>
-      </c>
+      <c r="G193" s="2">
+        <v>6.6925349999999995E-2</v>
+      </c>
+      <c r="H193" s="7"/>
       <c r="I193" s="5">
         <v>0.44722222222222219</v>
       </c>
@@ -13979,9 +13991,10 @@
       <c r="F194">
         <v>7.056</v>
       </c>
-      <c r="H194" s="2">
-        <v>6.6925349999999995E-2</v>
-      </c>
+      <c r="G194" s="2">
+        <v>4.9125750000000003E-2</v>
+      </c>
+      <c r="H194" s="2"/>
     </row>
     <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195">
@@ -14002,9 +14015,10 @@
       <c r="F195">
         <v>8.9290000000000003</v>
       </c>
-      <c r="H195" s="2">
-        <v>4.9125750000000003E-2</v>
-      </c>
+      <c r="G195" s="2">
+        <v>4.939872E-2</v>
+      </c>
+      <c r="H195" s="2"/>
     </row>
     <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196">
@@ -14025,9 +14039,10 @@
       <c r="F196">
         <v>6.7169999999999996</v>
       </c>
-      <c r="H196" s="2">
-        <v>4.939872E-2</v>
-      </c>
+      <c r="G196">
+        <v>0.15068570000000001</v>
+      </c>
+      <c r="H196" s="2"/>
     </row>
     <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197">
@@ -14048,8 +14063,8 @@
       <c r="F197">
         <v>5.0949999999999998</v>
       </c>
-      <c r="H197">
-        <v>0.15068570000000001</v>
+      <c r="G197" s="2">
+        <v>3.8747160000000003E-2</v>
       </c>
     </row>
     <row r="198" spans="1:9" x14ac:dyDescent="0.25">
@@ -14071,9 +14086,10 @@
       <c r="F198">
         <v>10.433999999999999</v>
       </c>
-      <c r="H198" s="2">
-        <v>3.8747160000000003E-2</v>
-      </c>
+      <c r="G198">
+        <v>0.11958539999999999</v>
+      </c>
+      <c r="H198" s="2"/>
     </row>
     <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199">
@@ -14094,8 +14110,8 @@
       <c r="F199">
         <v>8.9239999999999995</v>
       </c>
-      <c r="H199">
-        <v>0.11958539999999999</v>
+      <c r="G199" s="2">
+        <v>7.1045259999999999E-2</v>
       </c>
     </row>
     <row r="200" spans="1:9" x14ac:dyDescent="0.25">
@@ -14117,9 +14133,10 @@
       <c r="F200">
         <v>5.851</v>
       </c>
-      <c r="H200" s="2">
-        <v>7.1045259999999999E-2</v>
-      </c>
+      <c r="G200">
+        <v>0.1778054</v>
+      </c>
+      <c r="H200" s="2"/>
     </row>
     <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -14140,8 +14157,8 @@
       <c r="F201">
         <v>7.2320000000000002</v>
       </c>
-      <c r="H201">
-        <v>0.1778054</v>
+      <c r="G201">
+        <v>0.40373019999999998</v>
       </c>
     </row>
     <row r="202" spans="1:9" x14ac:dyDescent="0.25">
@@ -14163,8 +14180,8 @@
       <c r="F202">
         <v>6.9779999999999998</v>
       </c>
-      <c r="H202">
-        <v>0.40373019999999998</v>
+      <c r="G202" s="2">
+        <v>6.0479890000000001E-2</v>
       </c>
     </row>
     <row r="203" spans="1:9" x14ac:dyDescent="0.25">
@@ -14186,9 +14203,10 @@
       <c r="F203">
         <v>2.3170000000000002</v>
       </c>
-      <c r="H203" s="2">
-        <v>6.0479890000000001E-2</v>
-      </c>
+      <c r="G203" s="2">
+        <v>1.3995570000000001E-2</v>
+      </c>
+      <c r="H203" s="2"/>
     </row>
     <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -14209,9 +14227,10 @@
       <c r="F204">
         <v>7.0750000000000002</v>
       </c>
-      <c r="H204" s="2">
-        <v>1.3995570000000001E-2</v>
-      </c>
+      <c r="G204">
+        <v>0.77723900000000001</v>
+      </c>
+      <c r="H204" s="2"/>
     </row>
     <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205">
@@ -14232,8 +14251,8 @@
       <c r="F205">
         <v>4.7119999999999997</v>
       </c>
-      <c r="H205">
-        <v>0.77723900000000001</v>
+      <c r="G205">
+        <v>0.15613369999999999</v>
       </c>
     </row>
     <row r="206" spans="1:9" x14ac:dyDescent="0.25">
@@ -14255,8 +14274,8 @@
       <c r="F206">
         <v>5.3659999999999997</v>
       </c>
-      <c r="H206">
-        <v>0.15613369999999999</v>
+      <c r="G206">
+        <v>0.56041359999999996</v>
       </c>
     </row>
     <row r="207" spans="1:9" x14ac:dyDescent="0.25">
@@ -14278,8 +14297,8 @@
       <c r="F207">
         <v>5.9089999999999998</v>
       </c>
-      <c r="H207">
-        <v>0.56041359999999996</v>
+      <c r="G207">
+        <v>0.60055360000000002</v>
       </c>
     </row>
     <row r="208" spans="1:9" x14ac:dyDescent="0.25">
@@ -14301,8 +14320,8 @@
       <c r="F208">
         <v>6.3109999999999999</v>
       </c>
-      <c r="H208">
-        <v>0.60055360000000002</v>
+      <c r="G208">
+        <v>0.82961910000000005</v>
       </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
@@ -14324,8 +14343,8 @@
       <c r="F209">
         <v>6.0990000000000002</v>
       </c>
-      <c r="H209">
-        <v>0.82961910000000005</v>
+      <c r="G209">
+        <v>0.9001287</v>
       </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
@@ -14347,8 +14366,8 @@
       <c r="F210">
         <v>4.9249999999999998</v>
       </c>
-      <c r="H210">
-        <v>0.9001287</v>
+      <c r="G210" s="2">
+        <v>5.1093409999999999E-2</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -14370,9 +14389,10 @@
       <c r="F211">
         <v>8.1820000000000004</v>
       </c>
-      <c r="H211" s="2">
-        <v>5.1093409999999999E-2</v>
-      </c>
+      <c r="G211" s="2">
+        <v>3.9790529999999998E-2</v>
+      </c>
+      <c r="H211" s="2"/>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -14393,9 +14413,10 @@
       <c r="F212">
         <v>5.8</v>
       </c>
-      <c r="H212" s="2">
-        <v>3.9790529999999998E-2</v>
-      </c>
+      <c r="G212" s="2">
+        <v>9.8990750000000002E-2</v>
+      </c>
+      <c r="H212" s="2"/>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -14413,9 +14434,10 @@
       <c r="E213" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H213" s="2">
-        <v>9.8990750000000002E-2</v>
-      </c>
+      <c r="G213" s="2">
+        <v>5.6058949999999996E-3</v>
+      </c>
+      <c r="H213" s="2"/>
       <c r="I213" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -14436,9 +14458,10 @@
       <c r="E214" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H214" s="2">
+      <c r="G214" s="2">
         <v>5.6058949999999996E-3</v>
       </c>
+      <c r="H214" s="2"/>
       <c r="I214" s="5">
         <v>0.45069444444444445</v>
       </c>
@@ -14462,9 +14485,10 @@
       <c r="F215">
         <v>8.7370000000000001</v>
       </c>
-      <c r="H215" s="2">
-        <v>4.7585889999999997E-3</v>
-      </c>
+      <c r="G215">
+        <v>0.22833690000000001</v>
+      </c>
+      <c r="H215" s="3"/>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -14485,9 +14509,10 @@
       <c r="F216">
         <v>8.1189999999999998</v>
       </c>
-      <c r="H216">
-        <v>1.197152</v>
-      </c>
+      <c r="G216">
+        <v>0.26404879999999997</v>
+      </c>
+      <c r="H216" s="7"/>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -14508,8 +14533,8 @@
       <c r="F217">
         <v>6.6040000000000001</v>
       </c>
-      <c r="H217">
-        <v>0.22833690000000001</v>
+      <c r="G217">
+        <v>9.9998799999999999E-2</v>
       </c>
     </row>
     <row r="218" spans="1:9" x14ac:dyDescent="0.25">
@@ -14531,8 +14556,8 @@
       <c r="F218">
         <v>7.1559999999999997</v>
       </c>
-      <c r="H218">
-        <v>0.26404879999999997</v>
+      <c r="G218">
+        <v>1.3915850000000001</v>
       </c>
     </row>
     <row r="219" spans="1:9" x14ac:dyDescent="0.25">
@@ -14554,8 +14579,8 @@
       <c r="F219">
         <v>5.1369999999999996</v>
       </c>
-      <c r="H219">
-        <v>9.9998799999999999E-2</v>
+      <c r="G219" s="2">
+        <v>7.8096020000000002E-2</v>
       </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
@@ -14577,8 +14602,8 @@
       <c r="F220">
         <v>3.52</v>
       </c>
-      <c r="H220">
-        <v>1.3915850000000001</v>
+      <c r="G220" s="2">
+        <v>7.3995019999999995E-2</v>
       </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
@@ -14600,9 +14625,10 @@
       <c r="F221">
         <v>6.048</v>
       </c>
-      <c r="H221" s="2">
-        <v>7.8096020000000002E-2</v>
-      </c>
+      <c r="G221" s="2">
+        <v>9.2180380000000006E-2</v>
+      </c>
+      <c r="H221" s="2"/>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -14623,9 +14649,10 @@
       <c r="F222">
         <v>6.16</v>
       </c>
-      <c r="H222" s="2">
-        <v>7.3995019999999995E-2</v>
-      </c>
+      <c r="G222">
+        <v>0.14330780000000001</v>
+      </c>
+      <c r="H222" s="2"/>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223">
@@ -14646,9 +14673,10 @@
       <c r="F223">
         <v>5.7649999999999997</v>
       </c>
-      <c r="H223" s="2">
-        <v>9.2180380000000006E-2</v>
-      </c>
+      <c r="G223">
+        <v>1.3326979999999999</v>
+      </c>
+      <c r="H223" s="2"/>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -14669,8 +14697,8 @@
       <c r="F224">
         <v>8.24</v>
       </c>
-      <c r="H224">
-        <v>0.14330780000000001</v>
+      <c r="G224">
+        <v>0.1641282</v>
       </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
@@ -14692,8 +14720,8 @@
       <c r="F225">
         <v>6.6070000000000002</v>
       </c>
-      <c r="H225">
-        <v>1.3326979999999999</v>
+      <c r="G225">
+        <v>0.11630119999999999</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -14715,8 +14743,8 @@
       <c r="F226">
         <v>3.4449999999999998</v>
       </c>
-      <c r="H226">
-        <v>0.1641282</v>
+      <c r="G226">
+        <v>1.47356</v>
       </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
@@ -14738,8 +14766,8 @@
       <c r="F227">
         <v>2.258</v>
       </c>
-      <c r="H227">
-        <v>0.11630119999999999</v>
+      <c r="G227" s="2">
+        <v>2.265323E-2</v>
       </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
@@ -14761,8 +14789,8 @@
       <c r="F228">
         <v>2.5459999999999998</v>
       </c>
-      <c r="H228">
-        <v>1.47356</v>
+      <c r="G228">
+        <v>0.18719050000000001</v>
       </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
@@ -14784,9 +14812,10 @@
       <c r="F229">
         <v>5.6639999999999997</v>
       </c>
-      <c r="H229" s="2">
-        <v>2.265323E-2</v>
-      </c>
+      <c r="G229" s="2">
+        <v>5.2527329999999997E-2</v>
+      </c>
+      <c r="H229" s="2"/>
     </row>
     <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230">
@@ -14807,8 +14836,8 @@
       <c r="F230">
         <v>4.8639999999999999</v>
       </c>
-      <c r="H230">
-        <v>0.18719050000000001</v>
+      <c r="G230" s="2">
+        <v>5.8781050000000001E-2</v>
       </c>
     </row>
     <row r="231" spans="1:9" x14ac:dyDescent="0.25">
@@ -14830,9 +14859,10 @@
       <c r="F231">
         <v>5.2720000000000002</v>
       </c>
-      <c r="H231" s="2">
-        <v>5.2527329999999997E-2</v>
-      </c>
+      <c r="G231" s="2">
+        <v>9.5102409999999998E-2</v>
+      </c>
+      <c r="H231" s="2"/>
     </row>
     <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232">
@@ -14853,9 +14883,10 @@
       <c r="F232">
         <v>7.5250000000000004</v>
       </c>
-      <c r="H232" s="2">
-        <v>5.8781050000000001E-2</v>
-      </c>
+      <c r="G232">
+        <v>0.1004196</v>
+      </c>
+      <c r="H232" s="2"/>
     </row>
     <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233">
@@ -14876,9 +14907,10 @@
       <c r="F233">
         <v>5.15</v>
       </c>
-      <c r="H233" s="2">
-        <v>9.5102409999999998E-2</v>
-      </c>
+      <c r="G233">
+        <v>0.2101761</v>
+      </c>
+      <c r="H233" s="2"/>
     </row>
     <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234">
@@ -14896,8 +14928,8 @@
       <c r="E234" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H234">
-        <v>0.1004196</v>
+      <c r="G234" s="2">
+        <v>1.7026010000000001E-2</v>
       </c>
       <c r="I234" s="5">
         <v>0.45555555555555555</v>
@@ -14919,30 +14951,25 @@
       <c r="E235" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H235">
-        <v>0.2101761</v>
+      <c r="G235" s="8">
+        <v>1.8194680000000001E-2</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H236" s="2">
-        <v>1.6479330000000001E-3</v>
-      </c>
+      <c r="H236" s="2"/>
     </row>
     <row r="237" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H237" s="2">
-        <v>1.7026010000000001E-2</v>
-      </c>
+      <c r="H237" s="2"/>
     </row>
     <row r="238" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H238" s="2">
-        <v>1.8194680000000001E-2</v>
-      </c>
+      <c r="H238" s="3"/>
     </row>
     <row r="301" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E301" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14950,7 +14977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <selection activeCell="H226" sqref="H226"/>
     </sheetView>
   </sheetViews>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4B302C4-1666-45E4-9DEC-695C1BAD3F41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940CF667-21BF-44F7-AAB4-403A85185A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="3" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -9651,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14977,8 +14977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H226" sqref="H226"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I160" sqref="I160"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15925,7 +15925,9 @@
       <c r="G51">
         <v>1.747625</v>
       </c>
-      <c r="I51" s="5"/>
+      <c r="I51" s="5">
+        <v>0.4381944444444445</v>
+      </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
@@ -18190,6 +18192,9 @@
       <c r="F151">
         <v>4.673</v>
       </c>
+      <c r="G151" s="2">
+        <v>9.9218940000000005E-2</v>
+      </c>
       <c r="I151" s="5">
         <v>0.43888888888888888</v>
       </c>
@@ -18214,6 +18219,9 @@
       <c r="F152">
         <v>10.297000000000001</v>
       </c>
+      <c r="G152">
+        <v>0.19388839999999999</v>
+      </c>
       <c r="L152" s="2"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
@@ -18235,6 +18243,9 @@
       <c r="F153">
         <v>10.494999999999999</v>
       </c>
+      <c r="G153">
+        <v>0.26897710000000002</v>
+      </c>
       <c r="L153" s="2"/>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.25">
@@ -18256,6 +18267,9 @@
       <c r="F154">
         <v>10.529</v>
       </c>
+      <c r="G154">
+        <v>0.26141439999999999</v>
+      </c>
       <c r="L154" s="2"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
@@ -18276,6 +18290,9 @@
       </c>
       <c r="F155">
         <v>9.2509999999999994</v>
+      </c>
+      <c r="G155">
+        <v>1.203821</v>
       </c>
       <c r="L155" s="2"/>
     </row>
@@ -18298,6 +18315,9 @@
       <c r="F156">
         <v>7.8319999999999999</v>
       </c>
+      <c r="G156">
+        <v>0.14842269999999999</v>
+      </c>
       <c r="L156" s="2"/>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -18319,6 +18339,9 @@
       <c r="F157">
         <v>7.0940000000000003</v>
       </c>
+      <c r="G157">
+        <v>0.1099246</v>
+      </c>
       <c r="L157" s="2"/>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.25">
@@ -18339,6 +18362,9 @@
       </c>
       <c r="F158">
         <v>10.210000000000001</v>
+      </c>
+      <c r="G158">
+        <v>0.21521560000000001</v>
       </c>
       <c r="L158" s="2"/>
     </row>
@@ -18361,6 +18387,9 @@
       <c r="F159">
         <v>8.5180000000000007</v>
       </c>
+      <c r="G159">
+        <v>0.18623400000000001</v>
+      </c>
       <c r="L159" s="2"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
@@ -18382,6 +18411,9 @@
       <c r="F160">
         <v>9.41</v>
       </c>
+      <c r="G160">
+        <v>0.1877347</v>
+      </c>
       <c r="L160" s="2"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
@@ -18403,6 +18435,9 @@
       <c r="F161">
         <v>8.4329999999999998</v>
       </c>
+      <c r="G161">
+        <v>0.16846630000000001</v>
+      </c>
       <c r="L161" s="2"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
@@ -18424,6 +18459,9 @@
       <c r="F162">
         <v>6.8150000000000004</v>
       </c>
+      <c r="G162">
+        <v>0.14766750000000001</v>
+      </c>
       <c r="L162" s="2"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
@@ -18445,6 +18483,9 @@
       <c r="F163">
         <v>5.5519999999999996</v>
       </c>
+      <c r="G163">
+        <v>1.0267470000000001</v>
+      </c>
       <c r="L163" s="2"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
@@ -18466,6 +18507,9 @@
       <c r="F164">
         <v>7.133</v>
       </c>
+      <c r="G164">
+        <v>0.20898800000000001</v>
+      </c>
       <c r="L164" s="2"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
@@ -18487,6 +18531,9 @@
       <c r="F165">
         <v>10.016</v>
       </c>
+      <c r="G165">
+        <v>1.4308160000000001</v>
+      </c>
       <c r="L165" s="2"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
@@ -18508,6 +18555,9 @@
       <c r="F166">
         <v>8.891</v>
       </c>
+      <c r="G166">
+        <v>0.22493730000000001</v>
+      </c>
       <c r="L166" s="2"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
@@ -18529,6 +18579,9 @@
       <c r="F167">
         <v>6.9530000000000003</v>
       </c>
+      <c r="G167">
+        <v>0.13776730000000001</v>
+      </c>
       <c r="L167" s="2"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
@@ -18550,6 +18603,9 @@
       <c r="F168">
         <v>6</v>
       </c>
+      <c r="G168">
+        <v>1.824306</v>
+      </c>
       <c r="L168" s="2"/>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.25">
@@ -18571,6 +18627,9 @@
       <c r="F169">
         <v>5.9260000000000002</v>
       </c>
+      <c r="G169">
+        <v>0.14437610000000001</v>
+      </c>
       <c r="L169" s="2"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
@@ -18592,6 +18651,9 @@
       <c r="F170">
         <v>6.02</v>
       </c>
+      <c r="G170">
+        <v>0.17171939999999999</v>
+      </c>
       <c r="L170" s="2"/>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.25">
@@ -18613,6 +18675,9 @@
       <c r="F171">
         <v>9.0239999999999991</v>
       </c>
+      <c r="G171">
+        <v>0.18461069999999999</v>
+      </c>
       <c r="L171" s="2"/>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.25">
@@ -18634,6 +18699,9 @@
       <c r="F172">
         <v>9.0380000000000003</v>
       </c>
+      <c r="G172">
+        <v>0.17446300000000001</v>
+      </c>
       <c r="L172" s="2"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
@@ -18655,6 +18723,9 @@
       <c r="F173">
         <v>5.3109999999999999</v>
       </c>
+      <c r="G173">
+        <v>0.65267629999999999</v>
+      </c>
       <c r="L173" s="2"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
@@ -18676,6 +18747,9 @@
       <c r="F174">
         <v>7.4169999999999998</v>
       </c>
+      <c r="G174">
+        <v>0.1411231</v>
+      </c>
       <c r="L174" s="2"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
@@ -18697,6 +18771,9 @@
       <c r="F175">
         <v>8.83</v>
       </c>
+      <c r="G175">
+        <v>0.79163969999999995</v>
+      </c>
       <c r="L175" s="2"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
@@ -18715,6 +18792,9 @@
       <c r="E176" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G176" s="2">
+        <v>1.018496E-2</v>
+      </c>
       <c r="L176" s="2"/>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.25">
@@ -18757,6 +18837,9 @@
       <c r="F178">
         <v>7.9029999999999996</v>
       </c>
+      <c r="G178">
+        <v>0.93242159999999996</v>
+      </c>
       <c r="I178" s="5">
         <v>0.44305555555555554</v>
       </c>
@@ -18781,6 +18864,9 @@
       <c r="F179">
         <v>7.78</v>
       </c>
+      <c r="G179">
+        <v>0.23161680000000001</v>
+      </c>
       <c r="L179" s="2"/>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.25">
@@ -18802,6 +18888,9 @@
       <c r="F180">
         <v>7.2290000000000001</v>
       </c>
+      <c r="G180">
+        <v>0.28040330000000002</v>
+      </c>
       <c r="L180" s="2"/>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.25">
@@ -18823,6 +18912,9 @@
       <c r="F181">
         <v>9.5380000000000003</v>
       </c>
+      <c r="G181">
+        <v>0.41557709999999998</v>
+      </c>
       <c r="L181" s="2"/>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.25">
@@ -18843,6 +18935,9 @@
       </c>
       <c r="F182">
         <v>9.3919999999999995</v>
+      </c>
+      <c r="G182">
+        <v>0.35730650000000003</v>
       </c>
       <c r="L182" s="2"/>
     </row>
@@ -18865,6 +18960,9 @@
       <c r="F183">
         <v>4.6909999999999998</v>
       </c>
+      <c r="G183">
+        <v>0.13304050000000001</v>
+      </c>
       <c r="L183" s="2"/>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.25">
@@ -18886,6 +18984,9 @@
       <c r="F184">
         <v>7.93</v>
       </c>
+      <c r="G184">
+        <v>0.15072679999999999</v>
+      </c>
       <c r="L184" s="2"/>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.25">
@@ -18906,6 +19007,9 @@
       </c>
       <c r="F185">
         <v>7.3289999999999997</v>
+      </c>
+      <c r="G185">
+        <v>0.2378924</v>
       </c>
       <c r="L185" s="2"/>
     </row>
@@ -18928,6 +19032,9 @@
       <c r="F186">
         <v>6.806</v>
       </c>
+      <c r="G186">
+        <v>0.84334699999999996</v>
+      </c>
       <c r="L186" s="2"/>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.25">
@@ -18949,6 +19056,9 @@
       <c r="F187">
         <v>4.8959999999999999</v>
       </c>
+      <c r="G187">
+        <v>0.19727149999999999</v>
+      </c>
       <c r="L187" s="2"/>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.25">
@@ -18970,6 +19080,9 @@
       <c r="F188">
         <v>5.109</v>
       </c>
+      <c r="G188">
+        <v>0.22148480000000001</v>
+      </c>
       <c r="L188" s="2"/>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.25">
@@ -18991,6 +19104,9 @@
       <c r="F189">
         <v>10.651999999999999</v>
       </c>
+      <c r="G189">
+        <v>0.39133099999999998</v>
+      </c>
       <c r="L189" s="2"/>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.25">
@@ -19012,6 +19128,9 @@
       <c r="F190">
         <v>3.665</v>
       </c>
+      <c r="G190">
+        <v>1.790179</v>
+      </c>
       <c r="L190" s="2"/>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.25">
@@ -19033,6 +19152,9 @@
       <c r="F191">
         <v>9.343</v>
       </c>
+      <c r="G191">
+        <v>0.2733022</v>
+      </c>
       <c r="L191" s="2"/>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.25">
@@ -19054,6 +19176,9 @@
       <c r="F192">
         <v>7.4320000000000004</v>
       </c>
+      <c r="G192">
+        <v>0.2330835</v>
+      </c>
       <c r="L192" s="2"/>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.25">
@@ -19075,6 +19200,9 @@
       <c r="F193">
         <v>6.3659999999999997</v>
       </c>
+      <c r="G193">
+        <v>0.33156999999999998</v>
+      </c>
       <c r="L193" s="2"/>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.25">
@@ -19096,6 +19224,9 @@
       <c r="F194">
         <v>3.835</v>
       </c>
+      <c r="G194">
+        <v>0.18286759999999999</v>
+      </c>
       <c r="L194" s="2"/>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.25">
@@ -19117,6 +19248,9 @@
       <c r="F195">
         <v>7.9119999999999999</v>
       </c>
+      <c r="G195">
+        <v>0.3007571</v>
+      </c>
       <c r="L195" s="2"/>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.25">
@@ -19138,6 +19272,9 @@
       <c r="F196">
         <v>4.665</v>
       </c>
+      <c r="G196">
+        <v>0.1318368</v>
+      </c>
       <c r="L196" s="2"/>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.25">
@@ -19159,6 +19296,9 @@
       <c r="F197">
         <v>4.8179999999999996</v>
       </c>
+      <c r="G197">
+        <v>0.6799925</v>
+      </c>
       <c r="L197" s="2"/>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.25">
@@ -19180,6 +19320,9 @@
       <c r="F198">
         <v>6.77</v>
       </c>
+      <c r="G198">
+        <v>0.20280400000000001</v>
+      </c>
       <c r="L198" s="2"/>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.25">
@@ -19201,6 +19344,9 @@
       <c r="F199">
         <v>4.4210000000000003</v>
       </c>
+      <c r="G199">
+        <v>2.250607</v>
+      </c>
       <c r="L199" s="2"/>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
@@ -19222,6 +19368,9 @@
       <c r="F200">
         <v>5.3650000000000002</v>
       </c>
+      <c r="G200">
+        <v>0.23950360000000001</v>
+      </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201">
@@ -19242,6 +19391,9 @@
       <c r="F201">
         <v>6.6849999999999996</v>
       </c>
+      <c r="G201">
+        <v>0.22392110000000001</v>
+      </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202">
@@ -19262,6 +19414,9 @@
       <c r="F202">
         <v>5.468</v>
       </c>
+      <c r="G202">
+        <v>0.1138271</v>
+      </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203">
@@ -19279,6 +19434,9 @@
       <c r="E203" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G203" s="2">
+        <v>1.7681990000000002E-2</v>
+      </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204">
@@ -19319,6 +19477,9 @@
       <c r="F206">
         <v>6.5510000000000002</v>
       </c>
+      <c r="G206">
+        <v>0.1851517</v>
+      </c>
       <c r="I206" s="5">
         <v>0.48680555555555555</v>
       </c>
@@ -19342,6 +19503,9 @@
       <c r="F207">
         <v>7.1219999999999999</v>
       </c>
+      <c r="G207">
+        <v>0.16767580000000001</v>
+      </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208">
@@ -19362,6 +19526,9 @@
       <c r="F208">
         <v>5.319</v>
       </c>
+      <c r="G208">
+        <v>0.4968552</v>
+      </c>
     </row>
     <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209">
@@ -19382,6 +19549,9 @@
       <c r="F209">
         <v>7.218</v>
       </c>
+      <c r="G209">
+        <v>0.17077990000000001</v>
+      </c>
     </row>
     <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210">
@@ -19401,6 +19571,9 @@
       </c>
       <c r="F210">
         <v>9.2070000000000007</v>
+      </c>
+      <c r="G210">
+        <v>0.2681673</v>
       </c>
     </row>
     <row r="211" spans="1:9" x14ac:dyDescent="0.25">
@@ -19422,6 +19595,9 @@
       <c r="F211">
         <v>8.7569999999999997</v>
       </c>
+      <c r="G211">
+        <v>0.81175909999999996</v>
+      </c>
     </row>
     <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212">
@@ -19442,6 +19618,9 @@
       <c r="F212">
         <v>5.85</v>
       </c>
+      <c r="G212">
+        <v>0.1082356</v>
+      </c>
     </row>
     <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213">
@@ -19461,6 +19640,9 @@
       </c>
       <c r="F213">
         <v>7.4139999999999997</v>
+      </c>
+      <c r="G213">
+        <v>0.22923869999999999</v>
       </c>
     </row>
     <row r="214" spans="1:9" x14ac:dyDescent="0.25">
@@ -19482,6 +19664,9 @@
       <c r="F214">
         <v>13.143000000000001</v>
       </c>
+      <c r="G214">
+        <v>0.31816820000000001</v>
+      </c>
     </row>
     <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215">
@@ -19502,6 +19687,9 @@
       <c r="F215">
         <v>6.6219999999999999</v>
       </c>
+      <c r="G215">
+        <v>0.1783515</v>
+      </c>
     </row>
     <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216">
@@ -19519,6 +19707,9 @@
       <c r="E216" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G216" s="2">
+        <v>7.3971389999999996E-3</v>
+      </c>
     </row>
     <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217">
@@ -19536,6 +19727,9 @@
       <c r="E217" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G217" s="2">
+        <v>8.3938729999999996E-3</v>
+      </c>
       <c r="I217" s="5">
         <v>0.48888888888888887</v>
       </c>
@@ -19559,6 +19753,9 @@
       <c r="F218">
         <v>8.1780000000000008</v>
       </c>
+      <c r="G218">
+        <v>1.1850449999999999</v>
+      </c>
       <c r="I218" s="5">
         <v>0.48888888888888887</v>
       </c>
@@ -19582,6 +19779,9 @@
       <c r="F219">
         <v>9.7940000000000005</v>
       </c>
+      <c r="G219">
+        <v>0.3382793</v>
+      </c>
     </row>
     <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220">
@@ -19602,6 +19802,9 @@
       <c r="F220">
         <v>9.9990000000000006</v>
       </c>
+      <c r="G220">
+        <v>0.27920159999999999</v>
+      </c>
     </row>
     <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221">
@@ -19622,6 +19825,9 @@
       <c r="F221">
         <v>7.2549999999999999</v>
       </c>
+      <c r="G221">
+        <v>1.3860980000000001</v>
+      </c>
     </row>
     <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222">
@@ -19641,6 +19847,9 @@
       </c>
       <c r="F222">
         <v>9.952</v>
+      </c>
+      <c r="G222">
+        <v>0.39794800000000002</v>
       </c>
     </row>
     <row r="223" spans="1:9" x14ac:dyDescent="0.25">
@@ -19662,6 +19871,9 @@
       <c r="F223">
         <v>10.162000000000001</v>
       </c>
+      <c r="G223">
+        <v>0.3271</v>
+      </c>
     </row>
     <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224">
@@ -19682,6 +19894,9 @@
       <c r="F224">
         <v>7.6980000000000004</v>
       </c>
+      <c r="G224">
+        <v>0.2409693</v>
+      </c>
     </row>
     <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225">
@@ -19701,6 +19916,9 @@
       </c>
       <c r="F225">
         <v>6.383</v>
+      </c>
+      <c r="G225">
+        <v>0.21346519999999999</v>
       </c>
     </row>
     <row r="226" spans="1:9" x14ac:dyDescent="0.25">
@@ -19722,6 +19940,9 @@
       <c r="F226">
         <v>7.274</v>
       </c>
+      <c r="G226">
+        <v>0.20057249999999999</v>
+      </c>
     </row>
     <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227">
@@ -19742,6 +19963,9 @@
       <c r="F227">
         <v>9.1920000000000002</v>
       </c>
+      <c r="G227">
+        <v>0.30252069999999998</v>
+      </c>
     </row>
     <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228">
@@ -19759,6 +19983,9 @@
       <c r="E228" s="1" t="s">
         <v>29</v>
       </c>
+      <c r="G228" s="2">
+        <v>-8.0693789999999998E-3</v>
+      </c>
     </row>
     <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229">
@@ -19775,6 +20002,9 @@
       </c>
       <c r="E229" s="1" t="s">
         <v>29</v>
+      </c>
+      <c r="G229" s="2">
+        <v>6.853624E-3</v>
       </c>
       <c r="I229" s="5">
         <v>0.49305555555555558</v>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{940CF667-21BF-44F7-AAB4-403A85185A8D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE156CFC-E735-4BEC-ADC4-B468EFCBC696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -14978,7 +14978,7 @@
   <dimension ref="A1:L229"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I160" sqref="I160"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15036,8 +15036,14 @@
       <c r="E2" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F2">
+        <v>7.8780000000000001</v>
+      </c>
       <c r="G2">
         <v>0.1959313</v>
+      </c>
+      <c r="I2" s="5">
+        <v>0.57430555555555551</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -15056,6 +15062,9 @@
       <c r="E3" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F3">
+        <v>6.2</v>
+      </c>
       <c r="G3">
         <v>0.13280919999999999</v>
       </c>
@@ -15076,6 +15085,13 @@
       <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F4">
+        <v>6.5380000000000003</v>
+      </c>
+      <c r="G4">
+        <v>0.13846310000000001</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -15094,6 +15110,12 @@
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F5">
+        <v>6.9930000000000003</v>
+      </c>
+      <c r="G5">
+        <v>0.1146397</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -15112,7 +15134,12 @@
       <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="2"/>
+      <c r="F6">
+        <v>8.1210000000000004</v>
+      </c>
+      <c r="G6">
+        <v>0.20148350000000001</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -15131,6 +15158,12 @@
       <c r="E7" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F7">
+        <v>5.38</v>
+      </c>
+      <c r="G7">
+        <v>0.1288678</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -15149,6 +15182,12 @@
       <c r="E8" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F8">
+        <v>4.4770000000000003</v>
+      </c>
+      <c r="G8">
+        <v>1.2297579999999999</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -15166,6 +15205,12 @@
       </c>
       <c r="E9" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F9">
+        <v>7.532</v>
+      </c>
+      <c r="G9">
+        <v>0.18464910000000001</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -15185,6 +15230,12 @@
       <c r="E10" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F10">
+        <v>10.3</v>
+      </c>
+      <c r="G10">
+        <v>0.15417900000000001</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -15203,6 +15254,12 @@
       <c r="E11" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F11">
+        <v>7.032</v>
+      </c>
+      <c r="G11">
+        <v>0.13202059999999999</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -15221,6 +15278,12 @@
       <c r="E12" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F12">
+        <v>6.258</v>
+      </c>
+      <c r="G12">
+        <v>0.14467050000000001</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -15239,6 +15302,12 @@
       <c r="E13" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F13">
+        <v>9.6560000000000006</v>
+      </c>
+      <c r="G13">
+        <v>0.18728230000000001</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -15257,6 +15326,12 @@
       <c r="E14" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F14">
+        <v>6.0270000000000001</v>
+      </c>
+      <c r="G14">
+        <v>0.13965060000000001</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -15275,6 +15350,12 @@
       <c r="E15" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F15">
+        <v>5.7629999999999999</v>
+      </c>
+      <c r="G15">
+        <v>1.3061480000000001</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -15293,6 +15374,12 @@
       <c r="E16" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F16">
+        <v>9.0169999999999995</v>
+      </c>
+      <c r="G16">
+        <v>0.21159420000000001</v>
+      </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -15311,6 +15398,12 @@
       <c r="E17" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F17">
+        <v>7.2249999999999996</v>
+      </c>
+      <c r="G17">
+        <v>0.18755959999999999</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -15329,6 +15422,12 @@
       <c r="E18" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F18">
+        <v>9.5239999999999991</v>
+      </c>
+      <c r="G18" s="2">
+        <v>2.9835029999999998E-2</v>
+      </c>
       <c r="I18" s="6"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -15347,6 +15446,12 @@
       <c r="E19" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F19">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="G19">
+        <v>0.1832532</v>
+      </c>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -15365,6 +15470,12 @@
       <c r="E20" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F20">
+        <v>8.1240000000000006</v>
+      </c>
+      <c r="G20">
+        <v>0.1737901</v>
+      </c>
       <c r="I20" s="6"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -15383,7 +15494,12 @@
       <c r="E21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H21" s="2"/>
+      <c r="F21">
+        <v>4.4850000000000003</v>
+      </c>
+      <c r="G21">
+        <v>1.3630599999999999</v>
+      </c>
       <c r="I21" s="6"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -15402,6 +15518,12 @@
       <c r="E22" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F22">
+        <v>9.9589999999999996</v>
+      </c>
+      <c r="G22">
+        <v>0.18163409999999999</v>
+      </c>
       <c r="I22" s="6"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -15420,6 +15542,12 @@
       <c r="E23" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F23">
+        <v>7.3369999999999997</v>
+      </c>
+      <c r="G23">
+        <v>0.1273463</v>
+      </c>
       <c r="I23" s="6"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
@@ -15438,6 +15566,9 @@
       <c r="E24" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G24" s="2">
+        <v>7.9635360000000002E-3</v>
+      </c>
       <c r="I24" s="6"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -15456,7 +15587,12 @@
       <c r="E25" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I25" s="6"/>
+      <c r="G25" s="2">
+        <v>9.5789580000000003E-3</v>
+      </c>
+      <c r="I25">
+        <v>13.52</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -15474,10 +15610,15 @@
       <c r="E26" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F26">
+        <v>5.1269999999999998</v>
+      </c>
       <c r="G26">
         <v>0.1861408</v>
       </c>
-      <c r="I26" s="6"/>
+      <c r="I26">
+        <v>13.52</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -15495,6 +15636,9 @@
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F27">
+        <v>3.4729999999999999</v>
+      </c>
       <c r="G27">
         <v>1.3165</v>
       </c>
@@ -15517,6 +15661,12 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F28">
+        <v>4.8890000000000002</v>
+      </c>
+      <c r="G28">
+        <v>1.3969659999999999</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28" s="6"/>
     </row>
@@ -15536,6 +15686,12 @@
       <c r="E29" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F29">
+        <v>7.3689999999999998</v>
+      </c>
+      <c r="G29">
+        <v>0.25645810000000002</v>
+      </c>
       <c r="I29" s="6"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -15553,6 +15709,12 @@
       </c>
       <c r="E30" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F30">
+        <v>7.7329999999999997</v>
+      </c>
+      <c r="G30">
+        <v>2.2562380000000002</v>
       </c>
       <c r="I30" s="6"/>
     </row>
@@ -15572,6 +15734,12 @@
       <c r="E31" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F31">
+        <v>10.013</v>
+      </c>
+      <c r="G31">
+        <v>1.3471059999999999</v>
+      </c>
       <c r="H31" s="2"/>
       <c r="I31" s="6"/>
     </row>
@@ -15591,6 +15759,12 @@
       <c r="E32" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F32">
+        <v>3.306</v>
+      </c>
+      <c r="G32">
+        <v>1.1928399999999999</v>
+      </c>
       <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -15608,6 +15782,12 @@
       </c>
       <c r="E33" s="1" t="s">
         <v>25</v>
+      </c>
+      <c r="F33">
+        <v>6.8170000000000002</v>
+      </c>
+      <c r="G33">
+        <v>0.249226</v>
       </c>
       <c r="I33" s="6"/>
     </row>
@@ -15627,6 +15807,12 @@
       <c r="E34" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F34">
+        <v>4.7679999999999998</v>
+      </c>
+      <c r="G34">
+        <v>1.5736859999999999</v>
+      </c>
       <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -15645,6 +15831,12 @@
       <c r="E35" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F35">
+        <v>3.1970000000000001</v>
+      </c>
+      <c r="G35">
+        <v>1.214072</v>
+      </c>
       <c r="I35" s="6"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -15663,6 +15855,12 @@
       <c r="E36" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F36">
+        <v>11.337999999999999</v>
+      </c>
+      <c r="G36">
+        <v>1.2745690000000001</v>
+      </c>
       <c r="I36" s="6"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -15681,6 +15879,12 @@
       <c r="E37" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F37">
+        <v>4.798</v>
+      </c>
+      <c r="G37">
+        <v>1.3353699999999999</v>
+      </c>
       <c r="I37" s="6"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -15699,6 +15903,12 @@
       <c r="E38" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F38">
+        <v>10.231</v>
+      </c>
+      <c r="G38">
+        <v>0.31579950000000001</v>
+      </c>
       <c r="I38" s="6"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -15717,6 +15927,12 @@
       <c r="E39" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F39">
+        <v>5.7949999999999999</v>
+      </c>
+      <c r="G39">
+        <v>0.19332179999999999</v>
+      </c>
       <c r="I39" s="6"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -15735,6 +15951,12 @@
       <c r="E40" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F40">
+        <v>9.0060000000000002</v>
+      </c>
+      <c r="G40">
+        <v>0.34069579999999999</v>
+      </c>
       <c r="I40" s="6"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -15753,6 +15975,12 @@
       <c r="E41" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F41">
+        <v>4.6660000000000004</v>
+      </c>
+      <c r="G41">
+        <v>0.89297289999999996</v>
+      </c>
       <c r="I41" s="6"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -15771,6 +15999,12 @@
       <c r="E42" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F42">
+        <v>4.391</v>
+      </c>
+      <c r="G42">
+        <v>0.1030281</v>
+      </c>
       <c r="I42" s="6"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -15789,6 +16023,12 @@
       <c r="E43" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F43">
+        <v>5.5</v>
+      </c>
+      <c r="G43">
+        <v>0.2093206</v>
+      </c>
       <c r="I43" s="6"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -15807,6 +16047,12 @@
       <c r="E44" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F44">
+        <v>7.327</v>
+      </c>
+      <c r="G44">
+        <v>0.2477685</v>
+      </c>
       <c r="I44" s="6"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -15825,6 +16071,12 @@
       <c r="E45" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F45">
+        <v>7.4859999999999998</v>
+      </c>
+      <c r="G45">
+        <v>0.23895430000000001</v>
+      </c>
       <c r="I45" s="6"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -15843,6 +16095,12 @@
       <c r="E46" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F46">
+        <v>6.9269999999999996</v>
+      </c>
+      <c r="G46">
+        <v>0.1786893</v>
+      </c>
       <c r="I46" s="6"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -15861,6 +16119,12 @@
       <c r="E47" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="F47">
+        <v>9.8109999999999999</v>
+      </c>
+      <c r="G47">
+        <v>0.29616809999999999</v>
+      </c>
       <c r="I47" s="6"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -15879,6 +16143,9 @@
       <c r="E48" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="G48" s="2">
+        <v>-2.2919170000000001E-3</v>
+      </c>
       <c r="I48" s="6"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
@@ -15897,7 +16164,12 @@
       <c r="E49" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I49" s="6"/>
+      <c r="G49" s="2">
+        <v>1.100254E-2</v>
+      </c>
+      <c r="I49" s="6">
+        <v>0.58124999999999993</v>
+      </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E50" s="1"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE156CFC-E735-4BEC-ADC4-B468EFCBC696}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F256F-4B88-4C5B-A6BA-F9BF65A475B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -2788,8 +2788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView topLeftCell="A222" workbookViewId="0">
-      <selection activeCell="A203" sqref="A203:C256"/>
+    <sheetView topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="I256" sqref="I256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9651,8 +9651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="L232" sqref="L232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12958,6 +12958,9 @@
       <c r="G148">
         <v>0.22220519999999999</v>
       </c>
+      <c r="I148" s="5">
+        <v>0.44097222222222227</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -13921,9 +13924,6 @@
       <c r="G190" s="2">
         <v>2.608118E-3</v>
       </c>
-      <c r="I190" s="5">
-        <v>0.44791666666666669</v>
-      </c>
     </row>
     <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191">
@@ -13944,6 +13944,9 @@
       <c r="G191" s="2">
         <v>1.860262E-2</v>
       </c>
+      <c r="I191" s="5">
+        <v>0.44791666666666669</v>
+      </c>
     </row>
     <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193">
@@ -14931,9 +14934,6 @@
       <c r="G234" s="2">
         <v>1.7026010000000001E-2</v>
       </c>
-      <c r="I234" s="5">
-        <v>0.45555555555555555</v>
-      </c>
     </row>
     <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235">
@@ -14953,6 +14953,9 @@
       </c>
       <c r="G235" s="8">
         <v>1.8194680000000001E-2</v>
+      </c>
+      <c r="I235" s="5">
+        <v>0.45555555555555555</v>
       </c>
     </row>
     <row r="236" spans="1:9" x14ac:dyDescent="0.25">
@@ -14977,8 +14980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="O227" sqref="O227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF9F256F-4B88-4C5B-A6BA-F9BF65A475B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A13D80-7795-4E3A-A78B-AC6809EC00AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Day15 pupae" sheetId="3" r:id="rId3"/>
     <sheet name="Day20pupae" sheetId="4" r:id="rId4"/>
     <sheet name="Day8 Pupae Haw" sheetId="5" r:id="rId5"/>
+    <sheet name="Day20pupae Haw" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="30">
   <si>
     <t>N</t>
   </si>
@@ -9651,8 +9652,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="L232" sqref="L232"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14980,8 +14981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="O227" sqref="O227"/>
+    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+      <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20289,4 +20290,3360 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
+  <dimension ref="A1:G190"/>
+  <sheetViews>
+    <sheetView topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="H146" sqref="H146"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>7000</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2">
+        <v>8.0299999999999994</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>7000</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3">
+        <v>9.1489999999999991</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>7000</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>7.0289999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>7000</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>7000</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6">
+        <v>4.4379999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>7000</v>
+      </c>
+      <c r="D7">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>9.3079999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>7000</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8">
+        <v>6.9340000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>7000</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9">
+        <v>10.221</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>7000</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10">
+        <v>5.6529999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>7000</v>
+      </c>
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11">
+        <v>4.649</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12">
+        <v>7000</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>5.9909999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>7000</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13">
+        <v>10.547000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14">
+        <v>7000</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14">
+        <v>9.0670000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>7000</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15">
+        <v>5.593</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>7000</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16">
+        <v>7.0359999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>7000</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17">
+        <v>7.4820000000000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18">
+        <v>7000</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18">
+        <v>7.0590000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19">
+        <v>7000</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19">
+        <v>6.4729999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20">
+        <v>7000</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20">
+        <v>5.04</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21">
+        <v>7000</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21">
+        <v>7.4809999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>7000</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22">
+        <v>8.1229999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>7000</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23">
+        <v>7.1609999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <v>7000</v>
+      </c>
+      <c r="D24">
+        <v>3</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24">
+        <v>10.010999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25">
+        <v>7000</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25">
+        <v>4.798</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>7000</v>
+      </c>
+      <c r="D26">
+        <v>3</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26">
+        <v>3.996</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <v>7000</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28">
+        <v>7000</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29">
+        <v>6262</v>
+      </c>
+      <c r="D29">
+        <v>3</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29">
+        <v>5.9420000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>6262</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30">
+        <v>3.302</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>6262</v>
+      </c>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31">
+        <v>9.5709999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+      <c r="B32" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>6262</v>
+      </c>
+      <c r="D32">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F32">
+        <v>8.65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>5</v>
+      </c>
+      <c r="B33" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33">
+        <v>6262</v>
+      </c>
+      <c r="D33">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F33">
+        <v>7.4630000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>6</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>6262</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34">
+        <v>5.4630000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>7</v>
+      </c>
+      <c r="B35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35">
+        <v>6262</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F35">
+        <v>7.1219999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>6262</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36">
+        <v>9.4450000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>9</v>
+      </c>
+      <c r="B37" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37">
+        <v>6262</v>
+      </c>
+      <c r="D37">
+        <v>3</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>6.8620000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>6262</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F38">
+        <v>9.577</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>11</v>
+      </c>
+      <c r="B39" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39">
+        <v>6262</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39">
+        <v>10.648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>12</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>6262</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F40">
+        <v>9.3780000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>13</v>
+      </c>
+      <c r="B41" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41">
+        <v>6262</v>
+      </c>
+      <c r="D41">
+        <v>3</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41">
+        <v>6.9779999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>6262</v>
+      </c>
+      <c r="D42">
+        <v>3</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F42">
+        <v>7.5529999999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>6262</v>
+      </c>
+      <c r="D43">
+        <v>3</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43">
+        <v>9.1690000000000005</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>16</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>6262</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44">
+        <v>7.5949999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>8</v>
+      </c>
+      <c r="C45">
+        <v>6262</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45">
+        <v>6.593</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>18</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>6262</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46">
+        <v>7.234</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>19</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>6262</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F47">
+        <v>8.89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>20</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>6262</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48">
+        <v>4.0629999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>21</v>
+      </c>
+      <c r="B49" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49">
+        <v>6262</v>
+      </c>
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49">
+        <v>7.4539999999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>22</v>
+      </c>
+      <c r="B50" t="s">
+        <v>8</v>
+      </c>
+      <c r="C50">
+        <v>6262</v>
+      </c>
+      <c r="D50">
+        <v>3</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F50">
+        <v>5.5780000000000003</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>23</v>
+      </c>
+      <c r="B51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C51">
+        <v>6262</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F51">
+        <v>6.0030000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>24</v>
+      </c>
+      <c r="B52" t="s">
+        <v>8</v>
+      </c>
+      <c r="C52">
+        <v>6262</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F52">
+        <v>5.7549999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>25</v>
+      </c>
+      <c r="B53" t="s">
+        <v>8</v>
+      </c>
+      <c r="C53">
+        <v>6262</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F53">
+        <v>7.3920000000000003</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>6262</v>
+      </c>
+      <c r="D54">
+        <v>3</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>27</v>
+      </c>
+      <c r="B55" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55">
+        <v>6262</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+      <c r="B57" t="s">
+        <v>7</v>
+      </c>
+      <c r="C57">
+        <v>7000</v>
+      </c>
+      <c r="D57">
+        <v>4</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+      <c r="B58" t="s">
+        <v>7</v>
+      </c>
+      <c r="C58">
+        <v>7000</v>
+      </c>
+      <c r="D58">
+        <v>4</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59" t="s">
+        <v>7</v>
+      </c>
+      <c r="C59">
+        <v>7000</v>
+      </c>
+      <c r="D59">
+        <v>4</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+      <c r="B60" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60">
+        <v>7000</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>7</v>
+      </c>
+      <c r="C61">
+        <v>7000</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="C62">
+        <v>7000</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>7</v>
+      </c>
+      <c r="B63" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63">
+        <v>7000</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>8</v>
+      </c>
+      <c r="B64" t="s">
+        <v>7</v>
+      </c>
+      <c r="C64">
+        <v>7000</v>
+      </c>
+      <c r="D64">
+        <v>4</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>9</v>
+      </c>
+      <c r="B65" t="s">
+        <v>7</v>
+      </c>
+      <c r="C65">
+        <v>7000</v>
+      </c>
+      <c r="D65">
+        <v>4</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>10</v>
+      </c>
+      <c r="B66" t="s">
+        <v>7</v>
+      </c>
+      <c r="C66">
+        <v>7000</v>
+      </c>
+      <c r="D66">
+        <v>4</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67">
+        <v>7000</v>
+      </c>
+      <c r="D67">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C68">
+        <v>7000</v>
+      </c>
+      <c r="D68">
+        <v>4</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>13</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>7000</v>
+      </c>
+      <c r="D69">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>14</v>
+      </c>
+      <c r="B70" t="s">
+        <v>7</v>
+      </c>
+      <c r="C70">
+        <v>7000</v>
+      </c>
+      <c r="D70">
+        <v>4</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>15</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71">
+        <v>7000</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>16</v>
+      </c>
+      <c r="B72" t="s">
+        <v>7</v>
+      </c>
+      <c r="C72">
+        <v>7000</v>
+      </c>
+      <c r="D72">
+        <v>4</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>17</v>
+      </c>
+      <c r="B73" t="s">
+        <v>7</v>
+      </c>
+      <c r="C73">
+        <v>7000</v>
+      </c>
+      <c r="D73">
+        <v>4</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>18</v>
+      </c>
+      <c r="B74" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74">
+        <v>7000</v>
+      </c>
+      <c r="D74">
+        <v>4</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>19</v>
+      </c>
+      <c r="B75" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75">
+        <v>7000</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>20</v>
+      </c>
+      <c r="B76" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76">
+        <v>7000</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>21</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>7000</v>
+      </c>
+      <c r="D77">
+        <v>4</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>22</v>
+      </c>
+      <c r="B78" t="s">
+        <v>7</v>
+      </c>
+      <c r="C78">
+        <v>7000</v>
+      </c>
+      <c r="D78">
+        <v>4</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1</v>
+      </c>
+      <c r="B79" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79">
+        <v>6262</v>
+      </c>
+      <c r="D79">
+        <v>4</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2</v>
+      </c>
+      <c r="B80" t="s">
+        <v>8</v>
+      </c>
+      <c r="C80">
+        <v>6262</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>3</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>6262</v>
+      </c>
+      <c r="D81">
+        <v>4</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82" t="s">
+        <v>8</v>
+      </c>
+      <c r="C82">
+        <v>6262</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83">
+        <v>6262</v>
+      </c>
+      <c r="D83">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>6</v>
+      </c>
+      <c r="B84" t="s">
+        <v>8</v>
+      </c>
+      <c r="C84">
+        <v>6262</v>
+      </c>
+      <c r="D84">
+        <v>4</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>6262</v>
+      </c>
+      <c r="D85">
+        <v>4</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>6262</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>9</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>6262</v>
+      </c>
+      <c r="D87">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>10</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>6262</v>
+      </c>
+      <c r="D88">
+        <v>4</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>11</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>6262</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>12</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>6262</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>6262</v>
+      </c>
+      <c r="D91">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>14</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>6262</v>
+      </c>
+      <c r="D92">
+        <v>4</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>15</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>6262</v>
+      </c>
+      <c r="D93">
+        <v>4</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>16</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>6262</v>
+      </c>
+      <c r="D94">
+        <v>4</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>17</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>6262</v>
+      </c>
+      <c r="D95">
+        <v>4</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>18</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>6262</v>
+      </c>
+      <c r="D96">
+        <v>4</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>19</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>6262</v>
+      </c>
+      <c r="D97">
+        <v>4</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>20</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>6262</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>21</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>6262</v>
+      </c>
+      <c r="D99">
+        <v>4</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>6262</v>
+      </c>
+      <c r="D100">
+        <v>4</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>1</v>
+      </c>
+      <c r="B102" t="s">
+        <v>7</v>
+      </c>
+      <c r="C102">
+        <v>7000</v>
+      </c>
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2</v>
+      </c>
+      <c r="B103" t="s">
+        <v>7</v>
+      </c>
+      <c r="C103">
+        <v>7000</v>
+      </c>
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>3</v>
+      </c>
+      <c r="B104" t="s">
+        <v>7</v>
+      </c>
+      <c r="C104">
+        <v>7000</v>
+      </c>
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>4</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>7000</v>
+      </c>
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>7</v>
+      </c>
+      <c r="C106">
+        <v>7000</v>
+      </c>
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>6</v>
+      </c>
+      <c r="B107" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107">
+        <v>7000</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>7</v>
+      </c>
+      <c r="B108" t="s">
+        <v>7</v>
+      </c>
+      <c r="C108">
+        <v>7000</v>
+      </c>
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>8</v>
+      </c>
+      <c r="B109" t="s">
+        <v>7</v>
+      </c>
+      <c r="C109">
+        <v>7000</v>
+      </c>
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>9</v>
+      </c>
+      <c r="B110" t="s">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>7000</v>
+      </c>
+      <c r="D110">
+        <v>5</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>10</v>
+      </c>
+      <c r="B111" t="s">
+        <v>7</v>
+      </c>
+      <c r="C111">
+        <v>7000</v>
+      </c>
+      <c r="D111">
+        <v>5</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>11</v>
+      </c>
+      <c r="B112" t="s">
+        <v>7</v>
+      </c>
+      <c r="C112">
+        <v>7000</v>
+      </c>
+      <c r="D112">
+        <v>5</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>12</v>
+      </c>
+      <c r="B113" t="s">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>7000</v>
+      </c>
+      <c r="D113">
+        <v>5</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>13</v>
+      </c>
+      <c r="B114" t="s">
+        <v>7</v>
+      </c>
+      <c r="C114">
+        <v>7000</v>
+      </c>
+      <c r="D114">
+        <v>5</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>7</v>
+      </c>
+      <c r="C115">
+        <v>7000</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>15</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>7000</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>16</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>7000</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>17</v>
+      </c>
+      <c r="B118" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118">
+        <v>7000</v>
+      </c>
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>18</v>
+      </c>
+      <c r="B119" t="s">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>7000</v>
+      </c>
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>19</v>
+      </c>
+      <c r="B120" t="s">
+        <v>7</v>
+      </c>
+      <c r="C120">
+        <v>7000</v>
+      </c>
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>20</v>
+      </c>
+      <c r="B121" t="s">
+        <v>7</v>
+      </c>
+      <c r="C121">
+        <v>7000</v>
+      </c>
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>21</v>
+      </c>
+      <c r="B122" t="s">
+        <v>7</v>
+      </c>
+      <c r="C122">
+        <v>7000</v>
+      </c>
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>22</v>
+      </c>
+      <c r="B123" t="s">
+        <v>7</v>
+      </c>
+      <c r="C123">
+        <v>7000</v>
+      </c>
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>6262</v>
+      </c>
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>6262</v>
+      </c>
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>3</v>
+      </c>
+      <c r="B126" t="s">
+        <v>8</v>
+      </c>
+      <c r="C126">
+        <v>6262</v>
+      </c>
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>4</v>
+      </c>
+      <c r="B127" t="s">
+        <v>8</v>
+      </c>
+      <c r="C127">
+        <v>6262</v>
+      </c>
+      <c r="D127">
+        <v>5</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>8</v>
+      </c>
+      <c r="C128">
+        <v>6262</v>
+      </c>
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>6</v>
+      </c>
+      <c r="B129" t="s">
+        <v>8</v>
+      </c>
+      <c r="C129">
+        <v>6262</v>
+      </c>
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130">
+        <v>6262</v>
+      </c>
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>8</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>6262</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>9</v>
+      </c>
+      <c r="B132" t="s">
+        <v>8</v>
+      </c>
+      <c r="C132">
+        <v>6262</v>
+      </c>
+      <c r="D132">
+        <v>5</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>10</v>
+      </c>
+      <c r="B133" t="s">
+        <v>8</v>
+      </c>
+      <c r="C133">
+        <v>6262</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>11</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>6262</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>12</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>6262</v>
+      </c>
+      <c r="D135">
+        <v>5</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>13</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>6262</v>
+      </c>
+      <c r="D136">
+        <v>5</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>14</v>
+      </c>
+      <c r="B137" t="s">
+        <v>8</v>
+      </c>
+      <c r="C137">
+        <v>6262</v>
+      </c>
+      <c r="D137">
+        <v>5</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>8</v>
+      </c>
+      <c r="C138">
+        <v>6262</v>
+      </c>
+      <c r="D138">
+        <v>5</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>16</v>
+      </c>
+      <c r="B139" t="s">
+        <v>8</v>
+      </c>
+      <c r="C139">
+        <v>6262</v>
+      </c>
+      <c r="D139">
+        <v>5</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>17</v>
+      </c>
+      <c r="B140" t="s">
+        <v>8</v>
+      </c>
+      <c r="C140">
+        <v>6262</v>
+      </c>
+      <c r="D140">
+        <v>5</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>18</v>
+      </c>
+      <c r="B141" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141">
+        <v>6262</v>
+      </c>
+      <c r="D141">
+        <v>5</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>19</v>
+      </c>
+      <c r="B142" t="s">
+        <v>8</v>
+      </c>
+      <c r="C142">
+        <v>6262</v>
+      </c>
+      <c r="D142">
+        <v>5</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>20</v>
+      </c>
+      <c r="B143" t="s">
+        <v>8</v>
+      </c>
+      <c r="C143">
+        <v>6262</v>
+      </c>
+      <c r="D143">
+        <v>5</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>21</v>
+      </c>
+      <c r="B144" t="s">
+        <v>8</v>
+      </c>
+      <c r="C144">
+        <v>6262</v>
+      </c>
+      <c r="D144">
+        <v>5</v>
+      </c>
+      <c r="E144" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>22</v>
+      </c>
+      <c r="B145" t="s">
+        <v>8</v>
+      </c>
+      <c r="C145">
+        <v>6262</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>1</v>
+      </c>
+      <c r="B147" t="s">
+        <v>7</v>
+      </c>
+      <c r="C147">
+        <v>7000</v>
+      </c>
+      <c r="D147">
+        <v>6</v>
+      </c>
+      <c r="E147" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2</v>
+      </c>
+      <c r="B148" t="s">
+        <v>7</v>
+      </c>
+      <c r="C148">
+        <v>7000</v>
+      </c>
+      <c r="D148">
+        <v>6</v>
+      </c>
+      <c r="E148" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>3</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149">
+        <v>7000</v>
+      </c>
+      <c r="D149">
+        <v>6</v>
+      </c>
+      <c r="E149" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>4</v>
+      </c>
+      <c r="B150" t="s">
+        <v>7</v>
+      </c>
+      <c r="C150">
+        <v>7000</v>
+      </c>
+      <c r="D150">
+        <v>6</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>7000</v>
+      </c>
+      <c r="D151">
+        <v>6</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>6</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>7000</v>
+      </c>
+      <c r="D152">
+        <v>6</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>7</v>
+      </c>
+      <c r="B153" t="s">
+        <v>7</v>
+      </c>
+      <c r="C153">
+        <v>7000</v>
+      </c>
+      <c r="D153">
+        <v>6</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154" t="s">
+        <v>7</v>
+      </c>
+      <c r="C154">
+        <v>7000</v>
+      </c>
+      <c r="D154">
+        <v>6</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>9</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>7000</v>
+      </c>
+      <c r="D155">
+        <v>6</v>
+      </c>
+      <c r="E155" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>10</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>7000</v>
+      </c>
+      <c r="D156">
+        <v>6</v>
+      </c>
+      <c r="E156" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>11</v>
+      </c>
+      <c r="B157" t="s">
+        <v>7</v>
+      </c>
+      <c r="C157">
+        <v>7000</v>
+      </c>
+      <c r="D157">
+        <v>6</v>
+      </c>
+      <c r="E157" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>12</v>
+      </c>
+      <c r="B158" t="s">
+        <v>7</v>
+      </c>
+      <c r="C158">
+        <v>7000</v>
+      </c>
+      <c r="D158">
+        <v>6</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>13</v>
+      </c>
+      <c r="B159" t="s">
+        <v>7</v>
+      </c>
+      <c r="C159">
+        <v>7000</v>
+      </c>
+      <c r="D159">
+        <v>6</v>
+      </c>
+      <c r="E159" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>14</v>
+      </c>
+      <c r="B160" t="s">
+        <v>7</v>
+      </c>
+      <c r="C160">
+        <v>7000</v>
+      </c>
+      <c r="D160">
+        <v>6</v>
+      </c>
+      <c r="E160" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>15</v>
+      </c>
+      <c r="B161" t="s">
+        <v>7</v>
+      </c>
+      <c r="C161">
+        <v>7000</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>16</v>
+      </c>
+      <c r="B162" t="s">
+        <v>7</v>
+      </c>
+      <c r="C162">
+        <v>7000</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>17</v>
+      </c>
+      <c r="B163" t="s">
+        <v>7</v>
+      </c>
+      <c r="C163">
+        <v>7000</v>
+      </c>
+      <c r="D163">
+        <v>6</v>
+      </c>
+      <c r="E163" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>18</v>
+      </c>
+      <c r="B164" t="s">
+        <v>7</v>
+      </c>
+      <c r="C164">
+        <v>7000</v>
+      </c>
+      <c r="D164">
+        <v>6</v>
+      </c>
+      <c r="E164" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>19</v>
+      </c>
+      <c r="B165" t="s">
+        <v>7</v>
+      </c>
+      <c r="C165">
+        <v>7000</v>
+      </c>
+      <c r="D165">
+        <v>6</v>
+      </c>
+      <c r="E165" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>20</v>
+      </c>
+      <c r="B166" t="s">
+        <v>7</v>
+      </c>
+      <c r="C166">
+        <v>7000</v>
+      </c>
+      <c r="D166">
+        <v>6</v>
+      </c>
+      <c r="E166" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>21</v>
+      </c>
+      <c r="B167" t="s">
+        <v>7</v>
+      </c>
+      <c r="C167">
+        <v>7000</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>22</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>7000</v>
+      </c>
+      <c r="D168">
+        <v>6</v>
+      </c>
+      <c r="E168" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>1</v>
+      </c>
+      <c r="B169" t="s">
+        <v>8</v>
+      </c>
+      <c r="C169">
+        <v>6262</v>
+      </c>
+      <c r="D169">
+        <v>6</v>
+      </c>
+      <c r="E169" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>2</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>6262</v>
+      </c>
+      <c r="D170">
+        <v>6</v>
+      </c>
+      <c r="E170" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>3</v>
+      </c>
+      <c r="B171" t="s">
+        <v>8</v>
+      </c>
+      <c r="C171">
+        <v>6262</v>
+      </c>
+      <c r="D171">
+        <v>6</v>
+      </c>
+      <c r="E171" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>4</v>
+      </c>
+      <c r="B172" t="s">
+        <v>8</v>
+      </c>
+      <c r="C172">
+        <v>6262</v>
+      </c>
+      <c r="D172">
+        <v>6</v>
+      </c>
+      <c r="E172" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>8</v>
+      </c>
+      <c r="C173">
+        <v>6262</v>
+      </c>
+      <c r="D173">
+        <v>6</v>
+      </c>
+      <c r="E173" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>6</v>
+      </c>
+      <c r="B174" t="s">
+        <v>8</v>
+      </c>
+      <c r="C174">
+        <v>6262</v>
+      </c>
+      <c r="D174">
+        <v>6</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>7</v>
+      </c>
+      <c r="B175" t="s">
+        <v>8</v>
+      </c>
+      <c r="C175">
+        <v>6262</v>
+      </c>
+      <c r="D175">
+        <v>6</v>
+      </c>
+      <c r="E175" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>8</v>
+      </c>
+      <c r="B176" t="s">
+        <v>8</v>
+      </c>
+      <c r="C176">
+        <v>6262</v>
+      </c>
+      <c r="D176">
+        <v>6</v>
+      </c>
+      <c r="E176" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177" t="s">
+        <v>8</v>
+      </c>
+      <c r="C177">
+        <v>6262</v>
+      </c>
+      <c r="D177">
+        <v>6</v>
+      </c>
+      <c r="E177" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>10</v>
+      </c>
+      <c r="B178" t="s">
+        <v>8</v>
+      </c>
+      <c r="C178">
+        <v>6262</v>
+      </c>
+      <c r="D178">
+        <v>6</v>
+      </c>
+      <c r="E178" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>11</v>
+      </c>
+      <c r="B179" t="s">
+        <v>8</v>
+      </c>
+      <c r="C179">
+        <v>6262</v>
+      </c>
+      <c r="D179">
+        <v>6</v>
+      </c>
+      <c r="E179" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>12</v>
+      </c>
+      <c r="B180" t="s">
+        <v>8</v>
+      </c>
+      <c r="C180">
+        <v>6262</v>
+      </c>
+      <c r="D180">
+        <v>6</v>
+      </c>
+      <c r="E180" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>13</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>6262</v>
+      </c>
+      <c r="D181">
+        <v>6</v>
+      </c>
+      <c r="E181" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>14</v>
+      </c>
+      <c r="B182" t="s">
+        <v>8</v>
+      </c>
+      <c r="C182">
+        <v>6262</v>
+      </c>
+      <c r="D182">
+        <v>6</v>
+      </c>
+      <c r="E182" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>15</v>
+      </c>
+      <c r="B183" t="s">
+        <v>8</v>
+      </c>
+      <c r="C183">
+        <v>6262</v>
+      </c>
+      <c r="D183">
+        <v>6</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>16</v>
+      </c>
+      <c r="B184" t="s">
+        <v>8</v>
+      </c>
+      <c r="C184">
+        <v>6262</v>
+      </c>
+      <c r="D184">
+        <v>6</v>
+      </c>
+      <c r="E184" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>8</v>
+      </c>
+      <c r="C185">
+        <v>6262</v>
+      </c>
+      <c r="D185">
+        <v>6</v>
+      </c>
+      <c r="E185" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>18</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>6262</v>
+      </c>
+      <c r="D186">
+        <v>6</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>19</v>
+      </c>
+      <c r="B187" t="s">
+        <v>8</v>
+      </c>
+      <c r="C187">
+        <v>6262</v>
+      </c>
+      <c r="D187">
+        <v>6</v>
+      </c>
+      <c r="E187" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>20</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>6262</v>
+      </c>
+      <c r="D188">
+        <v>6</v>
+      </c>
+      <c r="E188" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>21</v>
+      </c>
+      <c r="B189" t="s">
+        <v>8</v>
+      </c>
+      <c r="C189">
+        <v>6262</v>
+      </c>
+      <c r="D189">
+        <v>6</v>
+      </c>
+      <c r="E189" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>22</v>
+      </c>
+      <c r="B190" t="s">
+        <v>8</v>
+      </c>
+      <c r="C190">
+        <v>6262</v>
+      </c>
+      <c r="D190">
+        <v>6</v>
+      </c>
+      <c r="E190" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tatianagerena\Documents\GitHub\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A13D80-7795-4E3A-A78B-AC6809EC00AD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B7C9D0-4202-4ED1-8B9C-EF39B457100B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -14981,7 +14981,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" workbookViewId="0">
+    <sheetView topLeftCell="A196" workbookViewId="0">
       <selection activeCell="H212" sqref="H212"/>
     </sheetView>
   </sheetViews>
@@ -20294,10 +20294,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
-  <dimension ref="A1:G190"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="H146" sqref="H146"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="H94" sqref="H94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21265,7 +21265,7 @@
         <v>4.0629999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>7.4539999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>5.5780000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>6.0030000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>24</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>5.7549999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>7.3920000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -21415,8 +21415,14 @@
       <c r="E57" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F57">
+        <v>10.303000000000001</v>
+      </c>
+      <c r="I57" s="5">
+        <v>0.42986111111111108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -21432,8 +21438,11 @@
       <c r="E58" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F58">
+        <v>9.9120000000000008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -21449,8 +21458,11 @@
       <c r="E59" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F59">
+        <v>9.7349999999999994</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -21466,8 +21478,11 @@
       <c r="E60" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F60">
+        <v>9.1280000000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -21483,8 +21498,11 @@
       <c r="E61" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F61">
+        <v>9.6340000000000003</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -21500,8 +21518,11 @@
       <c r="E62" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F62">
+        <v>7.1920000000000002</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -21517,8 +21538,11 @@
       <c r="E63" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F63">
+        <v>7.2089999999999996</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -21534,8 +21558,11 @@
       <c r="E64" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>11.029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -21551,8 +21578,11 @@
       <c r="E65" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65">
+        <v>8.7910000000000004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
@@ -21568,8 +21598,11 @@
       <c r="E66" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66">
+        <v>8.2189999999999994</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -21585,8 +21618,11 @@
       <c r="E67" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67">
+        <v>5.7130000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -21602,8 +21638,11 @@
       <c r="E68" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68">
+        <v>7.1740000000000004</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13</v>
       </c>
@@ -21619,8 +21658,11 @@
       <c r="E69" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69">
+        <v>7.4039999999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -21636,8 +21678,11 @@
       <c r="E70" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70">
+        <v>6.8410000000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15</v>
       </c>
@@ -21653,8 +21698,11 @@
       <c r="E71" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71">
+        <v>6.13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -21670,8 +21718,11 @@
       <c r="E72" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72">
+        <v>8.1349999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>17</v>
       </c>
@@ -21687,8 +21738,11 @@
       <c r="E73" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73">
+        <v>10.69</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -21704,8 +21758,11 @@
       <c r="E74" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74">
+        <v>6.4029999999999996</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
@@ -21721,8 +21778,11 @@
       <c r="E75" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75">
+        <v>8.657</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20</v>
       </c>
@@ -21738,8 +21798,11 @@
       <c r="E76" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21</v>
       </c>
@@ -21756,7 +21819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22</v>
       </c>
@@ -21772,8 +21835,11 @@
       <c r="E78" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I78" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -21789,8 +21855,14 @@
       <c r="E79" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79">
+        <v>7.593</v>
+      </c>
+      <c r="I79" s="5">
+        <v>0.43263888888888885</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -21806,8 +21878,11 @@
       <c r="E80" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80">
+        <v>6.5720000000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>3</v>
       </c>
@@ -21823,8 +21898,11 @@
       <c r="E81" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81">
+        <v>8.2710000000000008</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -21840,8 +21918,11 @@
       <c r="E82" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82">
+        <v>8.9640000000000004</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>5</v>
       </c>
@@ -21857,8 +21938,11 @@
       <c r="E83" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83">
+        <v>7.016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>6</v>
       </c>
@@ -21874,8 +21958,11 @@
       <c r="E84" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84">
+        <v>5.2670000000000003</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>7</v>
       </c>
@@ -21891,8 +21978,11 @@
       <c r="E85" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85">
+        <v>6.6710000000000003</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>8</v>
       </c>
@@ -21908,8 +21998,11 @@
       <c r="E86" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86">
+        <v>6.3630000000000004</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>9</v>
       </c>
@@ -21925,8 +22018,11 @@
       <c r="E87" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87">
+        <v>7.1859999999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>10</v>
       </c>
@@ -21942,8 +22038,11 @@
       <c r="E88" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88">
+        <v>8.4039999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>11</v>
       </c>
@@ -21959,8 +22058,11 @@
       <c r="E89" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89">
+        <v>7.2610000000000001</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>12</v>
       </c>
@@ -21976,8 +22078,11 @@
       <c r="E90" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90">
+        <v>6.6580000000000004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>13</v>
       </c>
@@ -21993,8 +22098,11 @@
       <c r="E91" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91">
+        <v>7.3609999999999998</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>14</v>
       </c>
@@ -22010,8 +22118,11 @@
       <c r="E92" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92">
+        <v>9.8840000000000003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>15</v>
       </c>
@@ -22027,8 +22138,11 @@
       <c r="E93" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93">
+        <v>7.6539999999999999</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>16</v>
       </c>
@@ -22044,8 +22158,11 @@
       <c r="E94" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94">
+        <v>9.2690000000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>17</v>
       </c>
@@ -22061,8 +22178,11 @@
       <c r="E95" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95">
+        <v>6.3609999999999998</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>18</v>
       </c>
@@ -22078,8 +22198,11 @@
       <c r="E96" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96">
+        <v>5.3259999999999996</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -22095,8 +22218,11 @@
       <c r="E97" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97">
+        <v>4.391</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -22112,8 +22238,11 @@
       <c r="E98" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98">
+        <v>7.3869999999999996</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -22130,7 +22259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22</v>
       </c>
@@ -22146,8 +22275,11 @@
       <c r="E100" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I100" s="5">
+        <v>0.43541666666666662</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -22164,7 +22296,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -22181,7 +22313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -22198,7 +22330,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -22215,7 +22347,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -22232,7 +22364,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
@@ -22249,7 +22381,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>7</v>
       </c>
@@ -22266,7 +22398,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
@@ -22283,7 +22415,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9</v>
       </c>
@@ -22300,7 +22432,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10</v>
       </c>
@@ -22317,7 +22449,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B7C9D0-4202-4ED1-8B9C-EF39B457100B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D6200-69F5-41AD-B8A8-88834DD7C481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -20296,8 +20296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="H94" sqref="H94"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="O117" sqref="O117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22295,6 +22295,12 @@
       <c r="E102" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F102">
+        <v>7.6829999999999998</v>
+      </c>
+      <c r="I102" s="5">
+        <v>0.42291666666666666</v>
+      </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
@@ -22312,6 +22318,9 @@
       <c r="E103" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F103">
+        <v>10.117000000000001</v>
+      </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
@@ -22329,6 +22338,9 @@
       <c r="E104" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F104">
+        <v>6.8419999999999996</v>
+      </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
@@ -22346,6 +22358,9 @@
       <c r="E105" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F105">
+        <v>9.7639999999999993</v>
+      </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
@@ -22363,6 +22378,9 @@
       <c r="E106" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F106">
+        <v>9.8930000000000007</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -22380,6 +22398,9 @@
       <c r="E107" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F107">
+        <v>2.7719999999999998</v>
+      </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
@@ -22397,6 +22418,9 @@
       <c r="E108" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F108">
+        <v>5.75</v>
+      </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
@@ -22413,6 +22437,9 @@
       </c>
       <c r="E109" s="1" t="s">
         <v>27</v>
+      </c>
+      <c r="F109">
+        <v>10.68</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -22431,6 +22458,9 @@
       <c r="E110" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F110">
+        <v>7.6689999999999996</v>
+      </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
@@ -22448,6 +22478,9 @@
       <c r="E111" s="1" t="s">
         <v>27</v>
       </c>
+      <c r="F111">
+        <v>9.4480000000000004</v>
+      </c>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
@@ -22465,8 +22498,11 @@
       <c r="E112" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112">
+        <v>7.3479999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -22482,8 +22518,11 @@
       <c r="E113" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113">
+        <v>6.8760000000000003</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>13</v>
       </c>
@@ -22499,8 +22538,11 @@
       <c r="E114" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114">
+        <v>7.8739999999999997</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -22516,8 +22558,11 @@
       <c r="E115" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115">
+        <v>7.0910000000000002</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15</v>
       </c>
@@ -22533,8 +22578,11 @@
       <c r="E116" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116">
+        <v>9.032</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -22550,8 +22598,11 @@
       <c r="E117" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117">
+        <v>6.0979999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>17</v>
       </c>
@@ -22567,8 +22618,11 @@
       <c r="E118" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118">
+        <v>6.8289999999999997</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>18</v>
       </c>
@@ -22584,8 +22638,11 @@
       <c r="E119" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119">
+        <v>12.542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>19</v>
       </c>
@@ -22601,8 +22658,11 @@
       <c r="E120" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120">
+        <v>8.6159999999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20</v>
       </c>
@@ -22618,8 +22678,11 @@
       <c r="E121" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121">
+        <v>6.8620000000000001</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>21</v>
       </c>
@@ -22636,7 +22699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>22</v>
       </c>
@@ -22652,8 +22715,11 @@
       <c r="E123" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I123" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -22669,8 +22735,14 @@
       <c r="E124" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124">
+        <v>8.5280000000000005</v>
+      </c>
+      <c r="I124" s="5">
+        <v>0.42638888888888887</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -22686,8 +22758,11 @@
       <c r="E125" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125">
+        <v>9.0579999999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -22703,8 +22778,11 @@
       <c r="E126" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126">
+        <v>9.6140000000000008</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -22720,8 +22798,11 @@
       <c r="E127" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127">
+        <v>7.5620000000000003</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -22737,8 +22818,11 @@
       <c r="E128" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128">
+        <v>7.2789999999999999</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>6</v>
       </c>
@@ -22754,8 +22838,11 @@
       <c r="E129" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129">
+        <v>6.91</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>7</v>
       </c>
@@ -22771,8 +22858,11 @@
       <c r="E130" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130">
+        <v>8.2989999999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -22788,8 +22878,11 @@
       <c r="E131" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131">
+        <v>8.8719999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>9</v>
       </c>
@@ -22805,8 +22898,11 @@
       <c r="E132" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132">
+        <v>11.539</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>10</v>
       </c>
@@ -22822,8 +22918,11 @@
       <c r="E133" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133">
+        <v>6.7329999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>11</v>
       </c>
@@ -22839,8 +22938,11 @@
       <c r="E134" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134">
+        <v>9.2189999999999994</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>12</v>
       </c>
@@ -22856,8 +22958,11 @@
       <c r="E135" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135">
+        <v>6.3380000000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>13</v>
       </c>
@@ -22873,8 +22978,11 @@
       <c r="E136" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136">
+        <v>6.94</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>14</v>
       </c>
@@ -22890,8 +22998,11 @@
       <c r="E137" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137">
+        <v>10.260999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>15</v>
       </c>
@@ -22907,8 +23018,11 @@
       <c r="E138" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138">
+        <v>6.617</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>16</v>
       </c>
@@ -22924,8 +23038,11 @@
       <c r="E139" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139">
+        <v>8.1579999999999995</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>17</v>
       </c>
@@ -22941,8 +23058,11 @@
       <c r="E140" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140">
+        <v>4.95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>18</v>
       </c>
@@ -22958,8 +23078,11 @@
       <c r="E141" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141">
+        <v>6.3310000000000004</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>19</v>
       </c>
@@ -22975,8 +23098,11 @@
       <c r="E142" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142">
+        <v>5.7389999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>20</v>
       </c>
@@ -22992,8 +23118,11 @@
       <c r="E143" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143">
+        <v>7.1180000000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>21</v>
       </c>
@@ -23010,7 +23139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>22</v>
       </c>
@@ -23026,8 +23155,11 @@
       <c r="E145" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I145" s="5">
+        <v>0.42986111111111108</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -23044,7 +23176,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -23061,7 +23193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -23078,7 +23210,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -23095,7 +23227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -23112,7 +23244,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -23129,7 +23261,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -23146,7 +23278,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -23163,7 +23295,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -23180,7 +23312,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -23197,7 +23329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11</v>
       </c>
@@ -23214,7 +23346,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>12</v>
       </c>
@@ -23231,7 +23363,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>13</v>
       </c>
@@ -23248,7 +23380,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0D6200-69F5-41AD-B8A8-88834DD7C481}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8E03E-7B5E-4235-B4C4-2BCD533C3031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -20296,8 +20296,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="O117" sqref="O117"/>
+    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
+      <selection activeCell="K149" sqref="K149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23175,6 +23175,12 @@
       <c r="E147" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F147">
+        <v>5.766</v>
+      </c>
+      <c r="I147" s="5">
+        <v>0.38819444444444445</v>
+      </c>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
@@ -23192,6 +23198,9 @@
       <c r="E148" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F148">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -23209,6 +23218,9 @@
       <c r="E149" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F149">
+        <v>11.157</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -23226,6 +23238,9 @@
       <c r="E150" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F150">
+        <v>4.2110000000000003</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -23243,6 +23258,9 @@
       <c r="E151" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F151">
+        <v>7.9660000000000002</v>
+      </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
@@ -23260,6 +23278,9 @@
       <c r="E152" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F152">
+        <v>7.8620000000000001</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -23277,6 +23298,9 @@
       <c r="E153" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F153">
+        <v>6.3120000000000003</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -23293,6 +23317,9 @@
       </c>
       <c r="E154" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="F154">
+        <v>10.566000000000001</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -23311,6 +23338,9 @@
       <c r="E155" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F155">
+        <v>9.5950000000000006</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -23328,6 +23358,9 @@
       <c r="E156" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F156">
+        <v>6.7039999999999997</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -23345,6 +23378,9 @@
       <c r="E157" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F157">
+        <v>9.4410000000000007</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -23362,6 +23398,9 @@
       <c r="E158" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F158">
+        <v>6.9269999999999996</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -23379,6 +23418,9 @@
       <c r="E159" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="F159">
+        <v>5.8819999999999997</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -23396,8 +23438,11 @@
       <c r="E160" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160">
+        <v>6.5739999999999998</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15</v>
       </c>
@@ -23413,8 +23458,11 @@
       <c r="E161" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161">
+        <v>6.7869999999999999</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16</v>
       </c>
@@ -23430,8 +23478,11 @@
       <c r="E162" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162">
+        <v>9.3780000000000001</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -23447,8 +23498,11 @@
       <c r="E163" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163">
+        <v>8.5950000000000006</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18</v>
       </c>
@@ -23464,8 +23518,11 @@
       <c r="E164" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164">
+        <v>10.406000000000001</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19</v>
       </c>
@@ -23481,8 +23538,11 @@
       <c r="E165" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165">
+        <v>9.5060000000000002</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20</v>
       </c>
@@ -23498,8 +23558,11 @@
       <c r="E166" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166">
+        <v>8.5549999999999997</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21</v>
       </c>
@@ -23515,8 +23578,11 @@
       <c r="E167" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I167" s="5">
+        <v>0.39166666666666666</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>22</v>
       </c>
@@ -23532,8 +23598,11 @@
       <c r="E168" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="I168" s="5">
+        <v>0.39166666666666666</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -23549,8 +23618,11 @@
       <c r="E169" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169">
+        <v>4.3029999999999999</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -23566,8 +23638,11 @@
       <c r="E170" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170">
+        <v>6.8630000000000004</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -23583,8 +23658,11 @@
       <c r="E171" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171">
+        <v>6.3230000000000004</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -23600,8 +23678,11 @@
       <c r="E172" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172">
+        <v>4.5469999999999997</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -23617,8 +23698,11 @@
       <c r="E173" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173">
+        <v>8.1479999999999997</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6</v>
       </c>
@@ -23634,8 +23718,11 @@
       <c r="E174" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174">
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
@@ -23651,8 +23738,11 @@
       <c r="E175" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175">
+        <v>6.3090000000000002</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8</v>
       </c>
@@ -23668,8 +23758,11 @@
       <c r="E176" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176">
+        <v>5.7720000000000002</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9</v>
       </c>
@@ -23685,8 +23778,11 @@
       <c r="E177" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177">
+        <v>6.2619999999999996</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10</v>
       </c>
@@ -23702,8 +23798,11 @@
       <c r="E178" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178">
+        <v>7.6349999999999998</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11</v>
       </c>
@@ -23719,8 +23818,11 @@
       <c r="E179" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179">
+        <v>8.6310000000000002</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12</v>
       </c>
@@ -23736,8 +23838,11 @@
       <c r="E180" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180">
+        <v>4.1859999999999999</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>13</v>
       </c>
@@ -23753,8 +23858,11 @@
       <c r="E181" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181">
+        <v>5.3979999999999997</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14</v>
       </c>
@@ -23770,8 +23878,11 @@
       <c r="E182" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182">
+        <v>6.3019999999999996</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>15</v>
       </c>
@@ -23787,8 +23898,11 @@
       <c r="E183" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183">
+        <v>7.8109999999999999</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>16</v>
       </c>
@@ -23804,8 +23918,11 @@
       <c r="E184" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184">
+        <v>5.2149999999999999</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -23821,8 +23938,11 @@
       <c r="E185" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185">
+        <v>11.307</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -23838,8 +23958,11 @@
       <c r="E186" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186">
+        <v>4.8529999999999998</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>19</v>
       </c>
@@ -23855,8 +23978,11 @@
       <c r="E187" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187">
+        <v>8.6690000000000005</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20</v>
       </c>
@@ -23872,8 +23998,11 @@
       <c r="E188" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188">
+        <v>4.47</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>21</v>
       </c>
@@ -23890,7 +24019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>22</v>
       </c>
@@ -23905,6 +24034,9 @@
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="I190" s="5">
+        <v>0.39513888888888887</v>
       </c>
     </row>
   </sheetData>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anbe642/zScience/Circadian_rhythm_runs_seasonal_timing/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D8E03E-7B5E-4235-B4C4-2BCD533C3031}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{486C9BED-B196-A640-9D54-B674F527F6D9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23100" windowHeight="10755" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="1380" yWindow="460" windowWidth="41380" windowHeight="22320" activeTab="4" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
     <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="Day8 Pupae Haw" sheetId="5" r:id="rId5"/>
     <sheet name="Day20pupae Haw" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179021" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -498,15 +498,15 @@
       <selection activeCell="B37" sqref="B37:C68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -549,7 +549,7 @@
         <v>9.1170000000000009</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -569,7 +569,7 @@
         <v>5.0529999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -589,7 +589,7 @@
         <v>6.2770000000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -609,7 +609,7 @@
         <v>5.3460000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -629,7 +629,7 @@
         <v>8.4979999999999993</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -649,7 +649,7 @@
         <v>10.683999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -669,7 +669,7 @@
         <v>5.64</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -689,7 +689,7 @@
         <v>5.734</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -709,7 +709,7 @@
         <v>5.3680000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -729,7 +729,7 @@
         <v>9.6310000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -749,7 +749,7 @@
         <v>5.024</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -769,7 +769,7 @@
         <v>6.28</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -789,7 +789,7 @@
         <v>7.6769999999999996</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -809,7 +809,7 @@
         <v>6.0570000000000004</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -829,7 +829,7 @@
         <v>5.5060000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -849,7 +849,7 @@
         <v>10.314</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -869,7 +869,7 @@
         <v>8.0489999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -889,7 +889,7 @@
         <v>8.91</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -909,7 +909,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -929,7 +929,7 @@
         <v>7.6870000000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -949,7 +949,7 @@
         <v>7.6840000000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -969,7 +969,7 @@
         <v>6.79</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -989,7 +989,7 @@
         <v>2.9470000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1009,7 +1009,7 @@
         <v>8.1189999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>8.2810000000000006</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>6.6079999999999997</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>6.742</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1089,7 +1089,7 @@
         <v>10.406000000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>6.6520000000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>7.9880000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1149,7 +1149,7 @@
         <v>3.9620000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1169,7 +1169,7 @@
         <v>9.9749999999999996</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1189,7 +1189,7 @@
         <v>5.6429999999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>4.01</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1229,7 +1229,7 @@
         <v>4.1959999999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>7.3170000000000002</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1269,7 +1269,7 @@
         <v>6.7119999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>6.0949999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>8.2200000000000006</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1329,7 +1329,7 @@
         <v>4.4320000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -1349,7 +1349,7 @@
         <v>3.6720000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>6.6580000000000004</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>7.532</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>4.8479999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -1429,7 +1429,7 @@
         <v>6.6120000000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>6.98</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
@@ -1469,7 +1469,7 @@
         <v>8.8140000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>13</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>6.5289999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>14</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>6.7249999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>6.4480000000000004</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>16</v>
       </c>
@@ -1549,7 +1549,7 @@
         <v>5.6280000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>17</v>
       </c>
@@ -1569,7 +1569,7 @@
         <v>4.835</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>18</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>5.29</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>19</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>4.2450000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20</v>
       </c>
@@ -1629,7 +1629,7 @@
         <v>7.5119999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>21</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>6.4160000000000004</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>22</v>
       </c>
@@ -1669,7 +1669,7 @@
         <v>5.2530000000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>23</v>
       </c>
@@ -1689,7 +1689,7 @@
         <v>5.0659999999999998</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>24</v>
       </c>
@@ -1709,7 +1709,7 @@
         <v>5.9409999999999998</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>25</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>26</v>
       </c>
@@ -1749,7 +1749,7 @@
         <v>6.806</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>27</v>
       </c>
@@ -1769,7 +1769,7 @@
         <v>6.3159999999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>28</v>
       </c>
@@ -1789,7 +1789,7 @@
         <v>3.9620000000000002</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>29</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>5.7670000000000003</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>30</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>4.2770000000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>31</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>6.7679999999999998</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>32</v>
       </c>
@@ -1869,7 +1869,7 @@
         <v>6.4619999999999997</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>33</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>6.1760000000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>34</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>5.6289999999999996</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>35</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>4.9950000000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -1946,7 +1946,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1963,7 +1963,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1997,7 +1997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -2065,7 +2065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>11</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>12</v>
       </c>
@@ -2133,7 +2133,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>14</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>15</v>
       </c>
@@ -2184,7 +2184,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>16</v>
       </c>
@@ -2201,7 +2201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>17</v>
       </c>
@@ -2218,7 +2218,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>18</v>
       </c>
@@ -2235,7 +2235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>19</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>20</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>21</v>
       </c>
@@ -2286,7 +2286,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>22</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>23</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>24</v>
       </c>
@@ -2337,7 +2337,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>25</v>
       </c>
@@ -2354,7 +2354,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1</v>
       </c>
@@ -2371,7 +2371,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2405,7 +2405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>4</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>5</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>6</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>7</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>8</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>9</v>
       </c>
@@ -2507,7 +2507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>10</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>11</v>
       </c>
@@ -2541,7 +2541,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>12</v>
       </c>
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>13</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>14</v>
       </c>
@@ -2592,7 +2592,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>15</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>16</v>
       </c>
@@ -2626,7 +2626,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>17</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>18</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>19</v>
       </c>
@@ -2677,7 +2677,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>20</v>
       </c>
@@ -2694,7 +2694,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>21</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>22</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>23</v>
       </c>
@@ -2745,7 +2745,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>24</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>25</v>
       </c>
@@ -2789,21 +2789,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
   <dimension ref="A1:I438"/>
   <sheetViews>
-    <sheetView topLeftCell="A232" workbookViewId="0">
-      <selection activeCell="I256" sqref="I256"/>
+    <sheetView topLeftCell="A228" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2832,7 +2832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2858,7 +2858,7 @@
         <v>0.67569444444444438</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2881,7 +2881,7 @@
         <v>0.17190449999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2904,7 +2904,7 @@
         <v>0.101144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>0.2134008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2950,7 +2950,7 @@
         <v>0.1134154</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0.63720359999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2996,7 +2996,7 @@
         <v>0.22218089999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3019,7 +3019,7 @@
         <v>0.19872329999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3042,7 +3042,7 @@
         <v>0.1790503</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3065,7 +3065,7 @@
         <v>1.356455</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>0.19398000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>0.24277280000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>0.1465205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>0.11774859999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>0.17758389999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3203,7 +3203,7 @@
         <v>0.15753249999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3218,7 +3218,7 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3235,7 +3235,7 @@
         <v>0.6791666666666667</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>0.67986111111111114</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2</v>
       </c>
@@ -3284,7 +3284,7 @@
         <v>0.2120648</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>3</v>
       </c>
@@ -3307,7 +3307,7 @@
         <v>0.21396109999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>4</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>0.2271753</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>5</v>
       </c>
@@ -3353,7 +3353,7 @@
         <v>0.33984829999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>6</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>1.833941</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>7</v>
       </c>
@@ -3399,7 +3399,7 @@
         <v>0.31931110000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8</v>
       </c>
@@ -3422,7 +3422,7 @@
         <v>0.2024435</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>9</v>
       </c>
@@ -3445,7 +3445,7 @@
         <v>0.26741490000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>10</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>0.60844489999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>11</v>
       </c>
@@ -3491,7 +3491,7 @@
         <v>0.16965959999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>12</v>
       </c>
@@ -3514,7 +3514,7 @@
         <v>0.18707389999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>13</v>
       </c>
@@ -3537,7 +3537,7 @@
         <v>0.1464126</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>14</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>0.1994126</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>15</v>
       </c>
@@ -3583,7 +3583,7 @@
         <v>1.4135500000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>16</v>
       </c>
@@ -3607,7 +3607,7 @@
       </c>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>17</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>18</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>0.68333333333333324</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>0.69236111111111109</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2</v>
       </c>
@@ -3693,7 +3693,7 @@
         <v>0.15821160000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0.1536641</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>4</v>
       </c>
@@ -3739,7 +3739,7 @@
         <v>0.17679829999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>5</v>
       </c>
@@ -3762,7 +3762,7 @@
         <v>0.2053673</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>6</v>
       </c>
@@ -3785,7 +3785,7 @@
         <v>1.0174019999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>7</v>
       </c>
@@ -3808,7 +3808,7 @@
         <v>0.1044467</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>8</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>0.9198499</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>9</v>
       </c>
@@ -3854,7 +3854,7 @@
         <v>0.38161909999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>10</v>
       </c>
@@ -3877,7 +3877,7 @@
         <v>0.56212189999999995</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>11</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>0.64083190000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>12</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1.264148</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>13</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>0.11530600000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>14</v>
       </c>
@@ -3969,7 +3969,7 @@
         <v>0.13727739999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>15</v>
       </c>
@@ -3992,7 +3992,7 @@
         <v>0.15357680000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>16</v>
       </c>
@@ -4015,7 +4015,7 @@
         <v>0.17695540000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>17</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>0.21024010000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>18</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>0.14555470000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>19</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>1.5439890000000001</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>20</v>
       </c>
@@ -4107,7 +4107,7 @@
         <v>0.19205630000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>21</v>
       </c>
@@ -4127,7 +4127,7 @@
         <v>1.188377E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>22</v>
       </c>
@@ -4147,7 +4147,7 @@
         <v>0.69444444444444453</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>0.69513888888888886</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>2</v>
       </c>
@@ -4196,7 +4196,7 @@
         <v>0.11819789999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>3</v>
       </c>
@@ -4219,7 +4219,7 @@
         <v>0.21840129999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>4</v>
       </c>
@@ -4242,7 +4242,7 @@
         <v>0.23425689999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>5</v>
       </c>
@@ -4265,7 +4265,7 @@
         <v>0.7383672</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>6</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>0.26830100000000001</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>7</v>
       </c>
@@ -4311,7 +4311,7 @@
         <v>0.1995035</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>8</v>
       </c>
@@ -4334,7 +4334,7 @@
         <v>0.63095690000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>9</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>0.9564397</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>10</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>0.58071919999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>11</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>0.25762570000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>12</v>
       </c>
@@ -4426,7 +4426,7 @@
         <v>0.90190090000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>13</v>
       </c>
@@ -4449,7 +4449,7 @@
         <v>0.86759739999999996</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>14</v>
       </c>
@@ -4472,7 +4472,7 @@
         <v>0.1320472</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>15</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>1.1305559999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>16</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>0.20874290000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>17</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0.20217489999999999</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>18</v>
       </c>
@@ -4564,7 +4564,7 @@
         <v>0.89929000000000003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>19</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>1.0932999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>20</v>
       </c>
@@ -4610,7 +4610,7 @@
         <v>0.13629550000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>21</v>
       </c>
@@ -4630,7 +4630,7 @@
         <v>3.3715780000000001E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>22</v>
       </c>
@@ -4650,10 +4650,10 @@
         <v>0.70000000000000007</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>0.44097222222222227</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>2</v>
       </c>
@@ -4702,7 +4702,7 @@
         <v>0.20905670000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>3</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>0.2024793</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>4</v>
       </c>
@@ -4748,7 +4748,7 @@
         <v>0.1205624</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>5</v>
       </c>
@@ -4771,7 +4771,7 @@
         <v>1.111605</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>6</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>0.2034647</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>7</v>
       </c>
@@ -4817,7 +4817,7 @@
         <v>0.20642460000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>8</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>9.5767140000000003E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>9</v>
       </c>
@@ -4866,7 +4866,7 @@
         <v>0.16960610000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>10</v>
       </c>
@@ -4889,7 +4889,7 @@
         <v>0.21105109999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>11</v>
       </c>
@@ -4912,7 +4912,7 @@
         <v>1.058271</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>12</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>0.19246640000000001</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>13</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>0.22300320000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>14</v>
       </c>
@@ -4981,7 +4981,7 @@
         <v>0.79417789999999999</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>15</v>
       </c>
@@ -5004,7 +5004,7 @@
         <v>0.2311898</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>16</v>
       </c>
@@ -5027,7 +5027,7 @@
         <v>0.18613950000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>17</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>2.2298930000000002E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>18</v>
       </c>
@@ -5067,7 +5067,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -5093,7 +5093,7 @@
         <v>0.44444444444444442</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>0.22928129999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -5139,7 +5139,7 @@
         <v>0.96681899999999998</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>1.1995400000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -5185,7 +5185,7 @@
         <v>0.38511960000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6</v>
       </c>
@@ -5208,7 +5208,7 @@
         <v>0.19059409999999999</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>7</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>-2.6287069999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -5257,7 +5257,7 @@
         <v>0.21420939999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>0.23242090000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>0.2921318</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>0.29859560000000002</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>1.635443</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13</v>
       </c>
@@ -5372,7 +5372,7 @@
         <v>1.161144</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14</v>
       </c>
@@ -5395,7 +5395,7 @@
         <v>2.0432239999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>15</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0.26693139999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>16</v>
       </c>
@@ -5441,7 +5441,7 @@
         <v>0.27909010000000001</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>17</v>
       </c>
@@ -5461,7 +5461,7 @@
         <v>1.4219209999999999E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>18</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>0.44722222222222219</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>1</v>
       </c>
@@ -5507,7 +5507,7 @@
         <v>0.46249999999999997</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2</v>
       </c>
@@ -5530,7 +5530,7 @@
         <v>0.667327</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>3</v>
       </c>
@@ -5553,7 +5553,7 @@
         <v>0.15877769999999999</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>4</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>0.17922289999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>5</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>0.20274700000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>6</v>
       </c>
@@ -5622,7 +5622,7 @@
         <v>0.28520489999999998</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>7</v>
       </c>
@@ -5645,7 +5645,7 @@
         <v>0.881135</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>8</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>0.183862</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>9</v>
       </c>
@@ -5691,7 +5691,7 @@
         <v>0.22682640000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>10</v>
       </c>
@@ -5714,7 +5714,7 @@
         <v>0.14562</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>11</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>12</v>
       </c>
@@ -5763,7 +5763,7 @@
         <v>0.60048619999999997</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>13</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>1.0629299999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>14</v>
       </c>
@@ -5809,7 +5809,7 @@
         <v>0.21698500000000001</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>15</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>0.73353679999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>16</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>0.14943819999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>17</v>
       </c>
@@ -5878,7 +5878,7 @@
         <v>0.242761</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>18</v>
       </c>
@@ -5901,7 +5901,7 @@
         <v>0.1421586</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>19</v>
       </c>
@@ -5924,7 +5924,7 @@
         <v>0.16333629999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>20</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>0.15993099999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>21</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>9.0395089999999994E-3</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>22</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>0.46736111111111112</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>1</v>
       </c>
@@ -6013,7 +6013,7 @@
         <v>0.46736111111111112</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0.34832839999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>3</v>
       </c>
@@ -6059,7 +6059,7 @@
         <v>0.34399220000000003</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>4</v>
       </c>
@@ -6082,7 +6082,7 @@
         <v>1.1524479999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>5</v>
       </c>
@@ -6105,7 +6105,7 @@
         <v>0.3211812</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>6</v>
       </c>
@@ -6128,7 +6128,7 @@
         <v>0.2279011</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>7</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>0.2073864</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>8</v>
       </c>
@@ -6174,7 +6174,7 @@
         <v>0.54043189999999997</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>9</v>
       </c>
@@ -6197,7 +6197,7 @@
         <v>0.21327950000000001</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>10</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>0.2297526</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>11</v>
       </c>
@@ -6243,7 +6243,7 @@
         <v>0.28525640000000002</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>12</v>
       </c>
@@ -6266,7 +6266,7 @@
         <v>0.1956107</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>13</v>
       </c>
@@ -6289,7 +6289,7 @@
         <v>1.2769140000000001</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>14</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>0.41075489999999998</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>15</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>0.47033940000000002</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>16</v>
       </c>
@@ -6358,7 +6358,7 @@
         <v>0.30630819999999997</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>17</v>
       </c>
@@ -6381,7 +6381,7 @@
         <v>0.61462220000000001</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>18</v>
       </c>
@@ -6404,7 +6404,7 @@
         <v>0.26901229999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>19</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>0.28358919999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>20</v>
       </c>
@@ -6450,7 +6450,7 @@
         <v>0.38269589999999998</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>21</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>1.146221E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>22</v>
       </c>
@@ -6490,7 +6490,7 @@
         <v>0.47222222222222227</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>1</v>
       </c>
@@ -6516,7 +6516,7 @@
         <v>0.46249999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>2</v>
       </c>
@@ -6539,7 +6539,7 @@
         <v>0.51720109999999997</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>3</v>
       </c>
@@ -6562,7 +6562,7 @@
         <v>0.6084716</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>4</v>
       </c>
@@ -6585,7 +6585,7 @@
         <v>8.0785399999999993E-2</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>5</v>
       </c>
@@ -6611,7 +6611,7 @@
         <v>1.42E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>6</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>0.20011860000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>7</v>
       </c>
@@ -6657,7 +6657,7 @@
         <v>0.1509016</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>8</v>
       </c>
@@ -6683,7 +6683,7 @@
         <v>4.9700000000000005E-4</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>9</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>0.2372909</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>10</v>
       </c>
@@ -6729,7 +6729,7 @@
         <v>0.86936270000000004</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>11</v>
       </c>
@@ -6752,7 +6752,7 @@
         <v>0.25653969999999998</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>12</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>0.24831110000000001</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>13</v>
       </c>
@@ -6798,7 +6798,7 @@
         <v>0.92852429999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>14</v>
       </c>
@@ -6821,7 +6821,7 @@
         <v>0.185974</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>15</v>
       </c>
@@ -6844,7 +6844,7 @@
         <v>0.14155490000000001</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>16</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>17</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>7.9100000000000004E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>18</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>0.46597222222222223</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>1</v>
       </c>
@@ -6933,7 +6933,7 @@
         <v>0.46597222222222223</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>2</v>
       </c>
@@ -6956,7 +6956,7 @@
         <v>0.32504749999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>3</v>
       </c>
@@ -6979,7 +6979,7 @@
         <v>0.29072930000000002</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>4</v>
       </c>
@@ -7005,7 +7005,7 @@
         <v>2.33E-4</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>5</v>
       </c>
@@ -7028,7 +7028,7 @@
         <v>1.6884380000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>6</v>
       </c>
@@ -7051,7 +7051,7 @@
         <v>0.19245409999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>7</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>0.26387480000000002</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>8</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>-2.2300000000000002E-3</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>9</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>0.17862149999999999</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>10</v>
       </c>
@@ -7146,7 +7146,7 @@
         <v>0.27038050000000002</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>11</v>
       </c>
@@ -7169,7 +7169,7 @@
         <v>1.2676460000000001</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>12</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>0.2200878</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>13</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>0.28338449999999998</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>14</v>
       </c>
@@ -7238,7 +7238,7 @@
         <v>0.32565460000000002</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>15</v>
       </c>
@@ -7261,7 +7261,7 @@
         <v>1.919926</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>16</v>
       </c>
@@ -7284,7 +7284,7 @@
         <v>0.34860059999999998</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>17</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>2.0878399999999998E-2</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>18</v>
       </c>
@@ -7324,7 +7324,7 @@
         <v>0.47083333333333338</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>1</v>
       </c>
@@ -7350,7 +7350,7 @@
         <v>0.55833333333333335</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>2</v>
       </c>
@@ -7373,7 +7373,7 @@
         <v>0.1749713</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>3</v>
       </c>
@@ -7396,7 +7396,7 @@
         <v>0.1247981</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>4</v>
       </c>
@@ -7419,7 +7419,7 @@
         <v>0.28805960000000003</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>5</v>
       </c>
@@ -7442,7 +7442,7 @@
         <v>1.2178119999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>6</v>
       </c>
@@ -7465,7 +7465,7 @@
         <v>0.38850410000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>7</v>
       </c>
@@ -7488,7 +7488,7 @@
         <v>0.15739900000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>8</v>
       </c>
@@ -7511,7 +7511,7 @@
         <v>0.202734</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>9</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>0.15336350000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>10</v>
       </c>
@@ -7557,7 +7557,7 @@
         <v>0.16673379999999999</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>11</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>0.84621930000000001</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>12</v>
       </c>
@@ -7603,7 +7603,7 @@
         <v>0.22101309999999999</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>13</v>
       </c>
@@ -7626,7 +7626,7 @@
         <v>0.76901629999999999</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>14</v>
       </c>
@@ -7649,7 +7649,7 @@
         <v>0.71564950000000005</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>15</v>
       </c>
@@ -7672,7 +7672,7 @@
         <v>0.73222609999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>16</v>
       </c>
@@ -7695,7 +7695,7 @@
         <v>0.16922180000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>17</v>
       </c>
@@ -7718,7 +7718,7 @@
         <v>0.24560070000000001</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>18</v>
       </c>
@@ -7741,7 +7741,7 @@
         <v>0.2499875</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>19</v>
       </c>
@@ -7764,7 +7764,7 @@
         <v>0.1655054</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>20</v>
       </c>
@@ -7787,7 +7787,7 @@
         <v>3.09E-2</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>21</v>
       </c>
@@ -7810,7 +7810,7 @@
         <v>0.16684789999999999</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>22</v>
       </c>
@@ -7833,7 +7833,7 @@
         <v>1.9893190000000001</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>23</v>
       </c>
@@ -7856,7 +7856,7 @@
         <v>0.18817929999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>24</v>
       </c>
@@ -7879,7 +7879,7 @@
         <v>0.47768159999999998</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>25</v>
       </c>
@@ -7902,7 +7902,7 @@
         <v>0.25388359999999999</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>26</v>
       </c>
@@ -7922,7 +7922,7 @@
         <v>5.1999999999999998E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>27</v>
       </c>
@@ -7945,7 +7945,7 @@
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>1</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>2</v>
       </c>
@@ -7994,7 +7994,7 @@
         <v>0.19504779999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>3</v>
       </c>
@@ -8017,7 +8017,7 @@
         <v>0.21987110000000001</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>4</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>0.2360749</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>5</v>
       </c>
@@ -8063,7 +8063,7 @@
         <v>0.18381400000000001</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>6</v>
       </c>
@@ -8086,7 +8086,7 @@
         <v>0.2583511</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A236">
         <v>7</v>
       </c>
@@ -8109,7 +8109,7 @@
         <v>0.21883839999999999</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A237">
         <v>8</v>
       </c>
@@ -8132,7 +8132,7 @@
         <v>1.399708</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A238">
         <v>9</v>
       </c>
@@ -8155,7 +8155,7 @@
         <v>0.28827799999999998</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A239">
         <v>10</v>
       </c>
@@ -8178,7 +8178,7 @@
         <v>0.48118539999999999</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A240">
         <v>11</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>0.67748189999999997</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>12</v>
       </c>
@@ -8224,7 +8224,7 @@
         <v>0.38812190000000002</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>13</v>
       </c>
@@ -8247,7 +8247,7 @@
         <v>1.632914</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>14</v>
       </c>
@@ -8270,7 +8270,7 @@
         <v>1.1092390000000001</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>15</v>
       </c>
@@ -8293,7 +8293,7 @@
         <v>0.23159730000000001</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>16</v>
       </c>
@@ -8316,7 +8316,7 @@
         <v>0.20237640000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>17</v>
       </c>
@@ -8339,7 +8339,7 @@
         <v>0.91989739999999998</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>18</v>
       </c>
@@ -8362,7 +8362,7 @@
         <v>0.27305230000000003</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>19</v>
       </c>
@@ -8385,7 +8385,7 @@
         <v>2.163821</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>20</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>0.16889380000000001</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>21</v>
       </c>
@@ -8431,7 +8431,7 @@
         <v>0.1406567</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>22</v>
       </c>
@@ -8454,7 +8454,7 @@
         <v>0.26491229999999999</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>23</v>
       </c>
@@ -8477,7 +8477,7 @@
         <v>0.28355079999999999</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>24</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>0.30215059999999999</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>25</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>1.5316270000000001</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>26</v>
       </c>
@@ -8543,7 +8543,7 @@
         <v>1.99E-3</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>27</v>
       </c>
@@ -8566,22 +8566,22 @@
         <v>0.56944444444444442</v>
       </c>
     </row>
-    <row r="393" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="393" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E393" s="1"/>
     </row>
-    <row r="434" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="434" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E434" s="1"/>
     </row>
-    <row r="435" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="435" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E435" s="1"/>
     </row>
-    <row r="436" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="436" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E436" s="1"/>
     </row>
-    <row r="437" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="437" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E437" s="1"/>
     </row>
-    <row r="438" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="438" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E438" s="1"/>
     </row>
   </sheetData>
@@ -8598,17 +8598,17 @@
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -8637,7 +8637,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>7.4407089999999995E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8683,7 +8683,7 @@
         <v>0.10665910000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8706,7 +8706,7 @@
         <v>0.18684029999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8729,7 +8729,7 @@
         <v>0.5991012</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8752,7 +8752,7 @@
         <v>3.8381140000000001E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8775,7 +8775,7 @@
         <v>5.279851E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8798,7 +8798,7 @@
         <v>2.8007669999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8821,7 +8821,7 @@
         <v>0.20164260000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>0.22522519999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8867,7 +8867,7 @@
         <v>9.1625440000000002E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8890,7 +8890,7 @@
         <v>0.63431789999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8913,7 +8913,7 @@
         <v>0.14794199999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8936,7 +8936,7 @@
         <v>0.1050379</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8959,7 +8959,7 @@
         <v>0.82744450000000003</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8982,7 +8982,7 @@
         <v>5.4879669999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9005,7 +9005,7 @@
         <v>7.9218419999999998E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9028,7 +9028,7 @@
         <v>5.6446139999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9051,7 +9051,7 @@
         <v>7.6571319999999998E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9074,7 +9074,7 @@
         <v>8.763812E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9097,7 +9097,7 @@
         <v>0.14352019999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9117,7 +9117,7 @@
         <v>7.3196250000000004E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9137,7 +9137,7 @@
         <v>3.8144339999999998E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1</v>
       </c>
@@ -9161,7 +9161,7 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2</v>
       </c>
@@ -9184,7 +9184,7 @@
         <v>0.68406370000000005</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>3</v>
       </c>
@@ -9207,7 +9207,7 @@
         <v>-5.4871629999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>4</v>
       </c>
@@ -9230,7 +9230,7 @@
         <v>3.065793E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>5</v>
       </c>
@@ -9253,7 +9253,7 @@
         <v>7.9541239999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>6</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>0.59967789999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>7</v>
       </c>
@@ -9299,7 +9299,7 @@
         <v>-2.9420230000000002E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8</v>
       </c>
@@ -9322,7 +9322,7 @@
         <v>0.12700049999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>9</v>
       </c>
@@ -9345,7 +9345,7 @@
         <v>0.39733190000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>10</v>
       </c>
@@ -9368,7 +9368,7 @@
         <v>0.17719090000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>11</v>
       </c>
@@ -9391,7 +9391,7 @@
         <v>0.96462239999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>12</v>
       </c>
@@ -9414,7 +9414,7 @@
         <v>0.1337216</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>13</v>
       </c>
@@ -9437,7 +9437,7 @@
         <v>1.1043540000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>14</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>0.16330130000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>15</v>
       </c>
@@ -9483,7 +9483,7 @@
         <v>0.191106</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>16</v>
       </c>
@@ -9506,7 +9506,7 @@
         <v>0.1070575</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>17</v>
       </c>
@@ -9529,7 +9529,7 @@
         <v>0.1964282</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>18</v>
       </c>
@@ -9552,7 +9552,7 @@
         <v>0.178149</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>19</v>
       </c>
@@ -9575,7 +9575,7 @@
         <v>0.1218732</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>20</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>6.9259109999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>21</v>
       </c>
@@ -9618,7 +9618,7 @@
         <v>0.16364890000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>22</v>
       </c>
@@ -9638,7 +9638,7 @@
         <v>-2.9832159999999999E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="H46" s="2">
         <v>1.250778E-2</v>
       </c>
@@ -9652,21 +9652,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58F61E2C-BF51-4B2E-9DAF-138724388E31}">
   <dimension ref="A1:I301"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView topLeftCell="A191" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -9695,7 +9695,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9721,7 +9721,7 @@
         <v>0.45069444444444445</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9745,7 +9745,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9768,7 +9768,7 @@
         <v>0.5638341</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>0.1211013</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>6.0454010000000002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9838,7 +9838,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9861,7 +9861,7 @@
         <v>5.8182110000000002E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9885,7 +9885,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9909,7 +9909,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9932,7 +9932,7 @@
         <v>9.4041440000000004E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9956,7 +9956,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9980,7 +9980,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10004,7 +10004,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10027,7 +10027,7 @@
         <v>6.3233230000000001E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10051,7 +10051,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10071,7 +10071,7 @@
         <v>7.3917979999999998E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10095,7 +10095,7 @@
         <v>0.45416666666666666</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1</v>
       </c>
@@ -10122,7 +10122,7 @@
         <v>0.45416666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2</v>
       </c>
@@ -10145,7 +10145,7 @@
         <v>1.253663E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>3</v>
       </c>
@@ -10169,7 +10169,7 @@
       </c>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4</v>
       </c>
@@ -10193,7 +10193,7 @@
       </c>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>5</v>
       </c>
@@ -10216,7 +10216,7 @@
         <v>5.6583080000000001E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>6</v>
       </c>
@@ -10239,7 +10239,7 @@
         <v>8.6239659999999996E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>7</v>
       </c>
@@ -10263,7 +10263,7 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8</v>
       </c>
@@ -10287,7 +10287,7 @@
       </c>
       <c r="H26" s="2"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>9</v>
       </c>
@@ -10311,7 +10311,7 @@
       </c>
       <c r="H27" s="2"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>10</v>
       </c>
@@ -10335,7 +10335,7 @@
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>11</v>
       </c>
@@ -10358,7 +10358,7 @@
         <v>0.85847589999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>12</v>
       </c>
@@ -10381,7 +10381,7 @@
         <v>4.8666029999999999E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>13</v>
       </c>
@@ -10404,7 +10404,7 @@
         <v>6.4596029999999999E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>14</v>
       </c>
@@ -10428,7 +10428,7 @@
       </c>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>15</v>
       </c>
@@ -10452,7 +10452,7 @@
       </c>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>16</v>
       </c>
@@ -10472,7 +10472,7 @@
         <v>-4.3080970000000003E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>17</v>
       </c>
@@ -10496,10 +10496,10 @@
         <v>0.45694444444444443</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>0.52013888888888882</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2</v>
       </c>
@@ -10549,7 +10549,7 @@
         <v>5.6006760000000003E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>3</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>0.31883129999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>4</v>
       </c>
@@ -10595,7 +10595,7 @@
         <v>0.86371869999999995</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>5</v>
       </c>
@@ -10618,7 +10618,7 @@
         <v>0.54437729999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>6</v>
       </c>
@@ -10641,7 +10641,7 @@
         <v>0.84603289999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>7</v>
       </c>
@@ -10664,7 +10664,7 @@
         <v>5.6414550000000001E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8</v>
       </c>
@@ -10687,7 +10687,7 @@
         <v>0.7194315</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>9</v>
       </c>
@@ -10710,7 +10710,7 @@
         <v>4.842461E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>10</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>7.1902599999999997E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>11</v>
       </c>
@@ -10756,7 +10756,7 @@
         <v>0.80332700000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>12</v>
       </c>
@@ -10779,7 +10779,7 @@
         <v>8.2793969999999995E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>13</v>
       </c>
@@ -10802,7 +10802,7 @@
         <v>0.6901214</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>14</v>
       </c>
@@ -10825,7 +10825,7 @@
         <v>8.1495990000000004E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>15</v>
       </c>
@@ -10848,7 +10848,7 @@
         <v>0.29950130000000003</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>16</v>
       </c>
@@ -10871,7 +10871,7 @@
         <v>6.3220540000000006E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>17</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>0.37286639999999999</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>18</v>
       </c>
@@ -10917,7 +10917,7 @@
         <v>6.5389390000000006E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>19</v>
       </c>
@@ -10939,11 +10939,8 @@
       <c r="G55">
         <v>0.13105230000000001</v>
       </c>
-      <c r="I55" s="5">
-        <v>0.52361111111111114</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>20</v>
       </c>
@@ -10963,7 +10960,7 @@
         <v>5.0087279999999996E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>21</v>
       </c>
@@ -10982,8 +10979,11 @@
       <c r="G57" s="2">
         <v>5.4131120000000003E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="5">
+        <v>0.52361111111111114</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1</v>
       </c>
@@ -11009,7 +11009,7 @@
         <v>0.52361111111111114</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>2</v>
       </c>
@@ -11032,7 +11032,7 @@
         <v>1.1932309999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>3</v>
       </c>
@@ -11055,7 +11055,7 @@
         <v>5.9091560000000001E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>4</v>
       </c>
@@ -11078,7 +11078,7 @@
         <v>0.9053795</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>5</v>
       </c>
@@ -11101,7 +11101,7 @@
         <v>0.15438160000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>6</v>
       </c>
@@ -11124,7 +11124,7 @@
         <v>0.91609289999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>7</v>
       </c>
@@ -11147,7 +11147,7 @@
         <v>7.7665890000000001E-2</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>8</v>
       </c>
@@ -11170,7 +11170,7 @@
         <v>6.5767010000000001E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>9</v>
       </c>
@@ -11193,7 +11193,7 @@
         <v>1.6958500000000001E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>10</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>1.0737639999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>11</v>
       </c>
@@ -11239,7 +11239,7 @@
         <v>0.90915000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>12</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>0.96459839999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>13</v>
       </c>
@@ -11285,7 +11285,7 @@
         <v>0.85136820000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>14</v>
       </c>
@@ -11308,7 +11308,7 @@
         <v>9.9732589999999996E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>15</v>
       </c>
@@ -11331,7 +11331,7 @@
         <v>0.1239735</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>16</v>
       </c>
@@ -11354,7 +11354,7 @@
         <v>0.78274980000000005</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>17</v>
       </c>
@@ -11377,7 +11377,7 @@
         <v>2.2903429999999999E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>18</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>0.81265679999999996</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>19</v>
       </c>
@@ -11423,7 +11423,7 @@
         <v>0.87939299999999998</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>20</v>
       </c>
@@ -11443,7 +11443,7 @@
         <v>3.5472809999999998E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>21</v>
       </c>
@@ -11466,10 +11466,10 @@
         <v>0.52638888888888891</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1</v>
       </c>
@@ -11495,7 +11495,7 @@
         <v>0.56527777777777777</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>2</v>
       </c>
@@ -11518,7 +11518,7 @@
         <v>6.4024559999999994E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>3</v>
       </c>
@@ -11541,7 +11541,7 @@
         <v>0.70300019999999996</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>4</v>
       </c>
@@ -11564,7 +11564,7 @@
         <v>5.3431340000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>5</v>
       </c>
@@ -11587,7 +11587,7 @@
         <v>2.4062210000000001E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>6</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>0.46669100000000002</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>7</v>
       </c>
@@ -11633,7 +11633,7 @@
         <v>7.2352100000000003E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>8</v>
       </c>
@@ -11656,7 +11656,7 @@
         <v>4.2103639999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>9</v>
       </c>
@@ -11679,7 +11679,7 @@
         <v>0.1106039</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>10</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>8.6419770000000007E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>11</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>7.0623119999999998E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>12</v>
       </c>
@@ -11748,7 +11748,7 @@
         <v>7.8585699999999994E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>13</v>
       </c>
@@ -11771,7 +11771,7 @@
         <v>8.6651069999999997E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>14</v>
       </c>
@@ -11794,7 +11794,7 @@
         <v>0.70763889999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>15</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>6.4687939999999999E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>16</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>0.4464706</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>17</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>0.49385699999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>18</v>
       </c>
@@ -11886,7 +11886,7 @@
         <v>0.36102309999999999</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>19</v>
       </c>
@@ -11909,7 +11909,7 @@
         <v>0.1151914</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>20</v>
       </c>
@@ -11932,7 +11932,7 @@
         <v>0.68350319999999998</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>21</v>
       </c>
@@ -11955,7 +11955,7 @@
         <v>0.95239879999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>22</v>
       </c>
@@ -11978,7 +11978,7 @@
         <v>6.6400509999999996E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>23</v>
       </c>
@@ -12001,7 +12001,7 @@
         <v>0.58904140000000005</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>24</v>
       </c>
@@ -12024,7 +12024,7 @@
         <v>6.1400179999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>25</v>
       </c>
@@ -12047,7 +12047,7 @@
         <v>0.83223429999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>26</v>
       </c>
@@ -12070,7 +12070,7 @@
         <v>0.50877470000000002</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>27</v>
       </c>
@@ -12093,7 +12093,7 @@
         <v>0.70229799999999998</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>28</v>
       </c>
@@ -12116,7 +12116,7 @@
         <v>7.2023840000000006E-2</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>29</v>
       </c>
@@ -12139,7 +12139,7 @@
         <v>5.345428E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>30</v>
       </c>
@@ -12162,7 +12162,7 @@
         <v>4.5953349999999997E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>31</v>
       </c>
@@ -12185,7 +12185,7 @@
         <v>0.57013888888888886</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>32</v>
       </c>
@@ -12206,7 +12206,7 @@
         <v>0.57013888888888886</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1</v>
       </c>
@@ -12229,7 +12229,7 @@
         <v>0.1014433</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2</v>
       </c>
@@ -12252,7 +12252,7 @@
         <v>6.2222529999999998E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>3</v>
       </c>
@@ -12275,7 +12275,7 @@
         <v>4.6740980000000001E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>4</v>
       </c>
@@ -12298,7 +12298,7 @@
         <v>1.042424</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>5</v>
       </c>
@@ -12321,7 +12321,7 @@
         <v>8.0901909999999994E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>6</v>
       </c>
@@ -12344,7 +12344,7 @@
         <v>9.724671E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>7</v>
       </c>
@@ -12367,7 +12367,7 @@
         <v>0.71386959999999999</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>8</v>
       </c>
@@ -12390,7 +12390,7 @@
         <v>0.13073419999999999</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>9</v>
       </c>
@@ -12413,7 +12413,7 @@
         <v>8.8433999999999999E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>10</v>
       </c>
@@ -12436,7 +12436,7 @@
         <v>0.5991746</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>11</v>
       </c>
@@ -12459,7 +12459,7 @@
         <v>1.538048E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>12</v>
       </c>
@@ -12482,7 +12482,7 @@
         <v>0.94660809999999995</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>13</v>
       </c>
@@ -12505,7 +12505,7 @@
         <v>0.13231580000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>14</v>
       </c>
@@ -12528,7 +12528,7 @@
         <v>0.30280220000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>15</v>
       </c>
@@ -12551,7 +12551,7 @@
         <v>0.1120326</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>16</v>
       </c>
@@ -12574,7 +12574,7 @@
         <v>0.99288399999999999</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>17</v>
       </c>
@@ -12597,7 +12597,7 @@
         <v>1.250842</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>18</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>7.3258509999999999E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>19</v>
       </c>
@@ -12643,7 +12643,7 @@
         <v>5.9430959999999998E-2</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>20</v>
       </c>
@@ -12666,7 +12666,7 @@
         <v>8.7482599999999994E-2</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>21</v>
       </c>
@@ -12689,7 +12689,7 @@
         <v>0.1067939</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>22</v>
       </c>
@@ -12712,7 +12712,7 @@
         <v>0.67171159999999996</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>23</v>
       </c>
@@ -12735,7 +12735,7 @@
         <v>0.110722</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>24</v>
       </c>
@@ -12758,7 +12758,7 @@
         <v>8.0412479999999995E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>25</v>
       </c>
@@ -12781,7 +12781,7 @@
         <v>0.1343956</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>26</v>
       </c>
@@ -12804,7 +12804,7 @@
         <v>9.8792359999999996E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>27</v>
       </c>
@@ -12827,7 +12827,7 @@
         <v>7.6063549999999994E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>28</v>
       </c>
@@ -12850,7 +12850,7 @@
         <v>7.2718599999999994E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>29</v>
       </c>
@@ -12873,7 +12873,7 @@
         <v>0.69921960000000005</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>30</v>
       </c>
@@ -12896,7 +12896,7 @@
         <v>0.11471430000000001</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>31</v>
       </c>
@@ -12916,7 +12916,7 @@
         <v>1.286145E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>32</v>
       </c>
@@ -12937,7 +12937,7 @@
         <v>0.57638888888888895</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>1</v>
       </c>
@@ -12963,7 +12963,7 @@
         <v>0.44097222222222227</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>2</v>
       </c>
@@ -12986,7 +12986,7 @@
         <v>6.0428839999999998E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>3</v>
       </c>
@@ -13009,7 +13009,7 @@
         <v>5.4290669999999999E-2</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>4</v>
       </c>
@@ -13032,7 +13032,7 @@
         <v>9.3927380000000005E-2</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>5</v>
       </c>
@@ -13055,7 +13055,7 @@
         <v>6.269653E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>6</v>
       </c>
@@ -13078,7 +13078,7 @@
         <v>6.6100740000000005E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>7</v>
       </c>
@@ -13101,7 +13101,7 @@
         <v>6.2530409999999995E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>8</v>
       </c>
@@ -13124,7 +13124,7 @@
         <v>4.0423199999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>9</v>
       </c>
@@ -13147,7 +13147,7 @@
         <v>0.75765420000000006</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>10</v>
       </c>
@@ -13170,7 +13170,7 @@
         <v>0.17341880000000001</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>11</v>
       </c>
@@ -13193,7 +13193,7 @@
         <v>8.5843000000000003E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>12</v>
       </c>
@@ -13216,7 +13216,7 @@
         <v>5.4478409999999998E-2</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>13</v>
       </c>
@@ -13239,7 +13239,7 @@
         <v>5.9321800000000001E-2</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>14</v>
       </c>
@@ -13262,7 +13262,7 @@
         <v>0.64826320000000004</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>15</v>
       </c>
@@ -13285,7 +13285,7 @@
         <v>8.0922289999999994E-2</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>16</v>
       </c>
@@ -13308,7 +13308,7 @@
         <v>7.5178140000000004E-2</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>17</v>
       </c>
@@ -13331,7 +13331,7 @@
         <v>8.9861839999999998E-2</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>18</v>
       </c>
@@ -13354,7 +13354,7 @@
         <v>9.8185729999999999E-2</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>19</v>
       </c>
@@ -13377,7 +13377,7 @@
         <v>7.4203290000000005E-2</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>20</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>7.7302170000000003E-2</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>21</v>
       </c>
@@ -13423,7 +13423,7 @@
         <v>0.44513888888888892</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>22</v>
       </c>
@@ -13446,7 +13446,7 @@
         <v>0.44513888888888892</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>1</v>
       </c>
@@ -13469,7 +13469,7 @@
         <v>0.10565919999999999</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>2</v>
       </c>
@@ -13492,7 +13492,7 @@
         <v>7.0173509999999995E-2</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>3</v>
       </c>
@@ -13515,7 +13515,7 @@
         <v>0.1102137</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>4</v>
       </c>
@@ -13538,7 +13538,7 @@
         <v>9.8907629999999996E-2</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>5</v>
       </c>
@@ -13561,7 +13561,7 @@
         <v>0.143848</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>6</v>
       </c>
@@ -13584,7 +13584,7 @@
         <v>0.1090238</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>7</v>
       </c>
@@ -13607,7 +13607,7 @@
         <v>1.0972930000000001</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>8</v>
       </c>
@@ -13630,7 +13630,7 @@
         <v>8.826357E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>9</v>
       </c>
@@ -13653,7 +13653,7 @@
         <v>6.1354060000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>10</v>
       </c>
@@ -13676,7 +13676,7 @@
         <v>0.12467</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>11</v>
       </c>
@@ -13699,7 +13699,7 @@
         <v>8.9146320000000001E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>12</v>
       </c>
@@ -13722,7 +13722,7 @@
         <v>0.14337610000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>13</v>
       </c>
@@ -13745,7 +13745,7 @@
         <v>9.9283969999999999E-2</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>14</v>
       </c>
@@ -13768,7 +13768,7 @@
         <v>0.16152040000000001</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>15</v>
       </c>
@@ -13791,7 +13791,7 @@
         <v>0.2134865</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>16</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>8.8367840000000003E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>17</v>
       </c>
@@ -13837,7 +13837,7 @@
         <v>0.13265389999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>18</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>1.031264</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>19</v>
       </c>
@@ -13883,7 +13883,7 @@
         <v>0.18882840000000001</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>20</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>1.0254399999999999</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>21</v>
       </c>
@@ -13926,7 +13926,7 @@
         <v>2.608118E-3</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>22</v>
       </c>
@@ -13949,7 +13949,7 @@
         <v>0.44791666666666669</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>1</v>
       </c>
@@ -13976,7 +13976,7 @@
         <v>0.44722222222222219</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>2</v>
       </c>
@@ -14000,7 +14000,7 @@
       </c>
       <c r="H194" s="2"/>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>3</v>
       </c>
@@ -14024,7 +14024,7 @@
       </c>
       <c r="H195" s="2"/>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>4</v>
       </c>
@@ -14048,7 +14048,7 @@
       </c>
       <c r="H196" s="2"/>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>5</v>
       </c>
@@ -14071,7 +14071,7 @@
         <v>3.8747160000000003E-2</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>6</v>
       </c>
@@ -14095,7 +14095,7 @@
       </c>
       <c r="H198" s="2"/>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>7</v>
       </c>
@@ -14118,7 +14118,7 @@
         <v>7.1045259999999999E-2</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>8</v>
       </c>
@@ -14142,7 +14142,7 @@
       </c>
       <c r="H200" s="2"/>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>9</v>
       </c>
@@ -14165,7 +14165,7 @@
         <v>0.40373019999999998</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>10</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>6.0479890000000001E-2</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>11</v>
       </c>
@@ -14212,7 +14212,7 @@
       </c>
       <c r="H203" s="2"/>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>12</v>
       </c>
@@ -14236,7 +14236,7 @@
       </c>
       <c r="H204" s="2"/>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>13</v>
       </c>
@@ -14259,7 +14259,7 @@
         <v>0.15613369999999999</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>14</v>
       </c>
@@ -14282,7 +14282,7 @@
         <v>0.56041359999999996</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>15</v>
       </c>
@@ -14305,7 +14305,7 @@
         <v>0.60055360000000002</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>16</v>
       </c>
@@ -14328,7 +14328,7 @@
         <v>0.82961910000000005</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>17</v>
       </c>
@@ -14351,7 +14351,7 @@
         <v>0.9001287</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>18</v>
       </c>
@@ -14374,7 +14374,7 @@
         <v>5.1093409999999999E-2</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>19</v>
       </c>
@@ -14398,7 +14398,7 @@
       </c>
       <c r="H211" s="2"/>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>20</v>
       </c>
@@ -14422,7 +14422,7 @@
       </c>
       <c r="H212" s="2"/>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>21</v>
       </c>
@@ -14446,7 +14446,7 @@
         <v>0.45069444444444445</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>22</v>
       </c>
@@ -14470,7 +14470,7 @@
         <v>0.45069444444444445</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>1</v>
       </c>
@@ -14494,7 +14494,7 @@
       </c>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>2</v>
       </c>
@@ -14518,7 +14518,7 @@
       </c>
       <c r="H216" s="7"/>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>3</v>
       </c>
@@ -14541,7 +14541,7 @@
         <v>9.9998799999999999E-2</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>4</v>
       </c>
@@ -14564,7 +14564,7 @@
         <v>1.3915850000000001</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>5</v>
       </c>
@@ -14587,7 +14587,7 @@
         <v>7.8096020000000002E-2</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>6</v>
       </c>
@@ -14610,7 +14610,7 @@
         <v>7.3995019999999995E-2</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>7</v>
       </c>
@@ -14634,7 +14634,7 @@
       </c>
       <c r="H221" s="2"/>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>8</v>
       </c>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="H222" s="2"/>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>9</v>
       </c>
@@ -14682,7 +14682,7 @@
       </c>
       <c r="H223" s="2"/>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>10</v>
       </c>
@@ -14705,7 +14705,7 @@
         <v>0.1641282</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>11</v>
       </c>
@@ -14728,7 +14728,7 @@
         <v>0.11630119999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>12</v>
       </c>
@@ -14751,7 +14751,7 @@
         <v>1.47356</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>13</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>2.265323E-2</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>14</v>
       </c>
@@ -14797,7 +14797,7 @@
         <v>0.18719050000000001</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>15</v>
       </c>
@@ -14821,7 +14821,7 @@
       </c>
       <c r="H229" s="2"/>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A230">
         <v>16</v>
       </c>
@@ -14844,7 +14844,7 @@
         <v>5.8781050000000001E-2</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A231">
         <v>17</v>
       </c>
@@ -14868,7 +14868,7 @@
       </c>
       <c r="H231" s="2"/>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A232">
         <v>18</v>
       </c>
@@ -14892,7 +14892,7 @@
       </c>
       <c r="H232" s="2"/>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A233">
         <v>19</v>
       </c>
@@ -14916,7 +14916,7 @@
       </c>
       <c r="H233" s="2"/>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A234">
         <v>20</v>
       </c>
@@ -14936,7 +14936,7 @@
         <v>1.7026010000000001E-2</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A235">
         <v>21</v>
       </c>
@@ -14959,16 +14959,16 @@
         <v>0.45555555555555555</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H236" s="2"/>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H237" s="2"/>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H238" s="3"/>
     </row>
-    <row r="301" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="301" spans="5:5" x14ac:dyDescent="0.2">
       <c r="E301" s="1"/>
     </row>
   </sheetData>
@@ -14981,21 +14981,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{621B5800-27C6-45A5-8B7F-F1D0091099A1}">
   <dimension ref="A1:L229"/>
   <sheetViews>
-    <sheetView topLeftCell="A196" workbookViewId="0">
-      <selection activeCell="H212" sqref="H212"/>
+    <sheetView tabSelected="1" topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="M203" sqref="M203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -15024,7 +15024,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -15050,7 +15050,7 @@
         <v>0.57430555555555551</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -15073,7 +15073,7 @@
         <v>0.13280919999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -15098,7 +15098,7 @@
       <c r="H4" s="2"/>
       <c r="I4" s="6"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -15122,7 +15122,7 @@
       </c>
       <c r="I5" s="6"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -15146,7 +15146,7 @@
       </c>
       <c r="I6" s="6"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -15170,7 +15170,7 @@
       </c>
       <c r="I7" s="6"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -15194,7 +15194,7 @@
       </c>
       <c r="I8" s="6"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -15218,7 +15218,7 @@
       </c>
       <c r="I9" s="6"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -15242,7 +15242,7 @@
       </c>
       <c r="I10" s="6"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -15266,7 +15266,7 @@
       </c>
       <c r="I11" s="6"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -15290,7 +15290,7 @@
       </c>
       <c r="I12" s="6"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -15314,7 +15314,7 @@
       </c>
       <c r="I13" s="6"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -15338,7 +15338,7 @@
       </c>
       <c r="I14" s="6"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -15386,7 +15386,7 @@
       </c>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -15410,7 +15410,7 @@
       </c>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -15434,7 +15434,7 @@
       </c>
       <c r="I18" s="6"/>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -15458,7 +15458,7 @@
       </c>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -15482,7 +15482,7 @@
       </c>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -15506,7 +15506,7 @@
       </c>
       <c r="I21" s="6"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -15530,7 +15530,7 @@
       </c>
       <c r="I22" s="6"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -15554,7 +15554,7 @@
       </c>
       <c r="I23" s="6"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -15575,7 +15575,7 @@
       </c>
       <c r="I24" s="6"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -15598,7 +15598,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1</v>
       </c>
@@ -15624,7 +15624,7 @@
         <v>13.52</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2</v>
       </c>
@@ -15649,7 +15649,7 @@
       <c r="H27" s="2"/>
       <c r="I27" s="6"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3</v>
       </c>
@@ -15674,7 +15674,7 @@
       <c r="H28" s="2"/>
       <c r="I28" s="6"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>4</v>
       </c>
@@ -15698,7 +15698,7 @@
       </c>
       <c r="I29" s="6"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>5</v>
       </c>
@@ -15722,7 +15722,7 @@
       </c>
       <c r="I30" s="6"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>6</v>
       </c>
@@ -15747,7 +15747,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="6"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>7</v>
       </c>
@@ -15771,7 +15771,7 @@
       </c>
       <c r="I32" s="6"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8</v>
       </c>
@@ -15795,7 +15795,7 @@
       </c>
       <c r="I33" s="6"/>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>9</v>
       </c>
@@ -15819,7 +15819,7 @@
       </c>
       <c r="I34" s="6"/>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>10</v>
       </c>
@@ -15843,7 +15843,7 @@
       </c>
       <c r="I35" s="6"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>11</v>
       </c>
@@ -15867,7 +15867,7 @@
       </c>
       <c r="I36" s="6"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>12</v>
       </c>
@@ -15891,7 +15891,7 @@
       </c>
       <c r="I37" s="6"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>13</v>
       </c>
@@ -15915,7 +15915,7 @@
       </c>
       <c r="I38" s="6"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>14</v>
       </c>
@@ -15939,7 +15939,7 @@
       </c>
       <c r="I39" s="6"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>15</v>
       </c>
@@ -15963,7 +15963,7 @@
       </c>
       <c r="I40" s="6"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>16</v>
       </c>
@@ -15987,7 +15987,7 @@
       </c>
       <c r="I41" s="6"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>17</v>
       </c>
@@ -16011,7 +16011,7 @@
       </c>
       <c r="I42" s="6"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>18</v>
       </c>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="I43" s="6"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>19</v>
       </c>
@@ -16059,7 +16059,7 @@
       </c>
       <c r="I44" s="6"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>20</v>
       </c>
@@ -16083,7 +16083,7 @@
       </c>
       <c r="I45" s="6"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>21</v>
       </c>
@@ -16107,7 +16107,7 @@
       </c>
       <c r="I46" s="6"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>22</v>
       </c>
@@ -16131,7 +16131,7 @@
       </c>
       <c r="I47" s="6"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>23</v>
       </c>
@@ -16152,7 +16152,7 @@
       </c>
       <c r="I48" s="6"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>24</v>
       </c>
@@ -16175,11 +16175,11 @@
         <v>0.58124999999999993</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="E50" s="1"/>
       <c r="I50" s="6"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1</v>
       </c>
@@ -16205,7 +16205,7 @@
         <v>0.4381944444444445</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>2</v>
       </c>
@@ -16230,7 +16230,7 @@
       <c r="H52" s="2"/>
       <c r="I52" s="6"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>3</v>
       </c>
@@ -16255,7 +16255,7 @@
       <c r="H53" s="2"/>
       <c r="I53" s="6"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>4</v>
       </c>
@@ -16278,7 +16278,7 @@
         <v>0.25244559999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>5</v>
       </c>
@@ -16301,7 +16301,7 @@
         <v>0.28593800000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>6</v>
       </c>
@@ -16324,7 +16324,7 @@
         <v>0.22163859999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>7</v>
       </c>
@@ -16347,7 +16347,7 @@
         <v>0.26097809999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>8</v>
       </c>
@@ -16370,7 +16370,7 @@
         <v>0.68704220000000005</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>9</v>
       </c>
@@ -16393,7 +16393,7 @@
         <v>0.16861000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>10</v>
       </c>
@@ -16416,7 +16416,7 @@
         <v>0.72152130000000003</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>11</v>
       </c>
@@ -16439,7 +16439,7 @@
         <v>0.17226159999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>12</v>
       </c>
@@ -16462,7 +16462,7 @@
         <v>0.2370458</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>13</v>
       </c>
@@ -16485,7 +16485,7 @@
         <v>0.7958674</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>14</v>
       </c>
@@ -16508,7 +16508,7 @@
         <v>0.32352950000000003</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>15</v>
       </c>
@@ -16531,7 +16531,7 @@
         <v>0.30870829999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>16</v>
       </c>
@@ -16554,7 +16554,7 @@
         <v>1.110511</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>17</v>
       </c>
@@ -16577,7 +16577,7 @@
         <v>0.29545260000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>18</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>0.1147828</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>19</v>
       </c>
@@ -16623,7 +16623,7 @@
         <v>0.50623240000000003</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>20</v>
       </c>
@@ -16646,7 +16646,7 @@
         <v>0.1952904</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>21</v>
       </c>
@@ -16666,7 +16666,7 @@
         <v>7.2274990000000001E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>22</v>
       </c>
@@ -16689,7 +16689,7 @@
         <v>0.44097222222222227</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1</v>
       </c>
@@ -16715,7 +16715,7 @@
         <v>0.44097222222222227</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>2</v>
       </c>
@@ -16738,7 +16738,7 @@
         <v>3.0284279999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>3</v>
       </c>
@@ -16761,7 +16761,7 @@
         <v>0.2325622</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>4</v>
       </c>
@@ -16784,7 +16784,7 @@
         <v>1.260429</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>5</v>
       </c>
@@ -16807,7 +16807,7 @@
         <v>0.9397993</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>6</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>2.0155150000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>7</v>
       </c>
@@ -16853,7 +16853,7 @@
         <v>0.4259947</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>8</v>
       </c>
@@ -16876,7 +16876,7 @@
         <v>0.28481420000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>9</v>
       </c>
@@ -16899,7 +16899,7 @@
         <v>2.3792870000000002</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>10</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>0.292022</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>11</v>
       </c>
@@ -16945,7 +16945,7 @@
         <v>0.19167120000000001</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>12</v>
       </c>
@@ -16968,7 +16968,7 @@
         <v>0.31883600000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>13</v>
       </c>
@@ -16991,7 +16991,7 @@
         <v>0.24645320000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>14</v>
       </c>
@@ -17014,7 +17014,7 @@
         <v>2.2098529999999998</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>15</v>
       </c>
@@ -17037,7 +17037,7 @@
         <v>0.1714688</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>16</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>0.18792349999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>17</v>
       </c>
@@ -17083,7 +17083,7 @@
         <v>0.29954019999999998</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>18</v>
       </c>
@@ -17106,7 +17106,7 @@
         <v>5.3076289999999998E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>19</v>
       </c>
@@ -17129,7 +17129,7 @@
         <v>1.2754129999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>20</v>
       </c>
@@ -17152,7 +17152,7 @@
         <v>0.26494499999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>21</v>
       </c>
@@ -17172,7 +17172,7 @@
         <v>1.8313380000000001E-3</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>22</v>
       </c>
@@ -17195,7 +17195,7 @@
         <v>0.44375000000000003</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1</v>
       </c>
@@ -17221,7 +17221,7 @@
         <v>0.43472222222222223</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>2</v>
       </c>
@@ -17244,7 +17244,7 @@
         <v>7.6102900000000001E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>3</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>0.17404919999999999</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>4</v>
       </c>
@@ -17290,7 +17290,7 @@
         <v>0.2348218</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>5</v>
       </c>
@@ -17313,7 +17313,7 @@
         <v>0.1621233</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>6</v>
       </c>
@@ -17336,7 +17336,7 @@
         <v>1.951673</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>7</v>
       </c>
@@ -17359,7 +17359,7 @@
         <v>0.1396802</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>8</v>
       </c>
@@ -17382,7 +17382,7 @@
         <v>0.18345819999999999</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>9</v>
       </c>
@@ -17405,7 +17405,7 @@
         <v>0.19748389999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>10</v>
       </c>
@@ -17428,7 +17428,7 @@
         <v>0.21986820000000001</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>11</v>
       </c>
@@ -17451,7 +17451,7 @@
         <v>0.88032889999999997</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>12</v>
       </c>
@@ -17474,7 +17474,7 @@
         <v>0.24762700000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>13</v>
       </c>
@@ -17498,7 +17498,7 @@
       </c>
       <c r="L108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>14</v>
       </c>
@@ -17522,7 +17522,7 @@
       </c>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>15</v>
       </c>
@@ -17545,7 +17545,7 @@
         <v>0.17433850000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>16</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>0.1020875</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>17</v>
       </c>
@@ -17591,7 +17591,7 @@
         <v>0.1513504</v>
       </c>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>18</v>
       </c>
@@ -17614,7 +17614,7 @@
         <v>0.68500669999999997</v>
       </c>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>19</v>
       </c>
@@ -17637,7 +17637,7 @@
         <v>0.23012589999999999</v>
       </c>
     </row>
-    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>20</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>0.10940999999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>21</v>
       </c>
@@ -17683,7 +17683,7 @@
         <v>0.25621430000000001</v>
       </c>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>22</v>
       </c>
@@ -17706,7 +17706,7 @@
         <v>0.14125779999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>23</v>
       </c>
@@ -17729,7 +17729,7 @@
         <v>1.161861</v>
       </c>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>24</v>
       </c>
@@ -17752,7 +17752,7 @@
         <v>0.99669560000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>25</v>
       </c>
@@ -17775,7 +17775,7 @@
         <v>0.46128360000000002</v>
       </c>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>26</v>
       </c>
@@ -17796,7 +17796,7 @@
       </c>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>27</v>
       </c>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1</v>
       </c>
@@ -17844,7 +17844,7 @@
       </c>
       <c r="L123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2</v>
       </c>
@@ -17867,7 +17867,7 @@
         <v>0.31628790000000001</v>
       </c>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>3</v>
       </c>
@@ -17891,7 +17891,7 @@
       </c>
       <c r="L125" s="2"/>
     </row>
-    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>4</v>
       </c>
@@ -17914,7 +17914,7 @@
         <v>0.3262333</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>5</v>
       </c>
@@ -17938,7 +17938,7 @@
       </c>
       <c r="L127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>6</v>
       </c>
@@ -17961,7 +17961,7 @@
         <v>0.20131689999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>7</v>
       </c>
@@ -17985,7 +17985,7 @@
       </c>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>8</v>
       </c>
@@ -18009,7 +18009,7 @@
       </c>
       <c r="L130" s="2"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>9</v>
       </c>
@@ -18032,7 +18032,7 @@
         <v>0.31909389999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>10</v>
       </c>
@@ -18055,7 +18055,7 @@
         <v>0.77735189999999998</v>
       </c>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>11</v>
       </c>
@@ -18078,7 +18078,7 @@
         <v>0.28544890000000001</v>
       </c>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>12</v>
       </c>
@@ -18101,7 +18101,7 @@
         <v>0.49923050000000002</v>
       </c>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>13</v>
       </c>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>14</v>
       </c>
@@ -18148,7 +18148,7 @@
         <v>0.21225250000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>15</v>
       </c>
@@ -18171,7 +18171,7 @@
         <v>0.43510769999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>16</v>
       </c>
@@ -18194,7 +18194,7 @@
         <v>0.3272793</v>
       </c>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>17</v>
       </c>
@@ -18218,7 +18218,7 @@
       </c>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>18</v>
       </c>
@@ -18241,7 +18241,7 @@
         <v>0.18603169999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>19</v>
       </c>
@@ -18264,7 +18264,7 @@
         <v>2.2876249999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>20</v>
       </c>
@@ -18287,7 +18287,7 @@
         <v>0.25271919999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>21</v>
       </c>
@@ -18310,7 +18310,7 @@
         <v>0.1851923</v>
       </c>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>22</v>
       </c>
@@ -18333,7 +18333,7 @@
         <v>0.37357430000000003</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>23</v>
       </c>
@@ -18356,7 +18356,7 @@
         <v>0.30079250000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>24</v>
       </c>
@@ -18379,7 +18379,7 @@
         <v>2.2706949999999999</v>
       </c>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>25</v>
       </c>
@@ -18403,7 +18403,7 @@
       </c>
       <c r="L147" s="2"/>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>26</v>
       </c>
@@ -18424,7 +18424,7 @@
       </c>
       <c r="L148" s="2"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>27</v>
       </c>
@@ -18445,11 +18445,11 @@
       </c>
       <c r="L149" s="2"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E150" s="1"/>
       <c r="L150" s="2"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1</v>
       </c>
@@ -18476,7 +18476,7 @@
       </c>
       <c r="L151" s="2"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>2</v>
       </c>
@@ -18500,7 +18500,7 @@
       </c>
       <c r="L152" s="2"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>3</v>
       </c>
@@ -18524,7 +18524,7 @@
       </c>
       <c r="L153" s="2"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>4</v>
       </c>
@@ -18548,7 +18548,7 @@
       </c>
       <c r="L154" s="2"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>5</v>
       </c>
@@ -18572,7 +18572,7 @@
       </c>
       <c r="L155" s="2"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>6</v>
       </c>
@@ -18596,7 +18596,7 @@
       </c>
       <c r="L156" s="2"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>7</v>
       </c>
@@ -18620,7 +18620,7 @@
       </c>
       <c r="L157" s="2"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>8</v>
       </c>
@@ -18644,7 +18644,7 @@
       </c>
       <c r="L158" s="2"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>9</v>
       </c>
@@ -18668,7 +18668,7 @@
       </c>
       <c r="L159" s="2"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>10</v>
       </c>
@@ -18692,7 +18692,7 @@
       </c>
       <c r="L160" s="2"/>
     </row>
-    <row r="161" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>11</v>
       </c>
@@ -18716,7 +18716,7 @@
       </c>
       <c r="L161" s="2"/>
     </row>
-    <row r="162" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>12</v>
       </c>
@@ -18740,7 +18740,7 @@
       </c>
       <c r="L162" s="2"/>
     </row>
-    <row r="163" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>13</v>
       </c>
@@ -18764,7 +18764,7 @@
       </c>
       <c r="L163" s="2"/>
     </row>
-    <row r="164" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>14</v>
       </c>
@@ -18788,7 +18788,7 @@
       </c>
       <c r="L164" s="2"/>
     </row>
-    <row r="165" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>15</v>
       </c>
@@ -18812,7 +18812,7 @@
       </c>
       <c r="L165" s="2"/>
     </row>
-    <row r="166" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>16</v>
       </c>
@@ -18836,7 +18836,7 @@
       </c>
       <c r="L166" s="2"/>
     </row>
-    <row r="167" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>17</v>
       </c>
@@ -18860,7 +18860,7 @@
       </c>
       <c r="L167" s="2"/>
     </row>
-    <row r="168" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>18</v>
       </c>
@@ -18884,7 +18884,7 @@
       </c>
       <c r="L168" s="2"/>
     </row>
-    <row r="169" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>19</v>
       </c>
@@ -18908,7 +18908,7 @@
       </c>
       <c r="L169" s="2"/>
     </row>
-    <row r="170" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>20</v>
       </c>
@@ -18932,7 +18932,7 @@
       </c>
       <c r="L170" s="2"/>
     </row>
-    <row r="171" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>21</v>
       </c>
@@ -18956,7 +18956,7 @@
       </c>
       <c r="L171" s="2"/>
     </row>
-    <row r="172" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>22</v>
       </c>
@@ -18980,7 +18980,7 @@
       </c>
       <c r="L172" s="2"/>
     </row>
-    <row r="173" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>23</v>
       </c>
@@ -19004,7 +19004,7 @@
       </c>
       <c r="L173" s="2"/>
     </row>
-    <row r="174" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>24</v>
       </c>
@@ -19028,7 +19028,7 @@
       </c>
       <c r="L174" s="2"/>
     </row>
-    <row r="175" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>25</v>
       </c>
@@ -19052,7 +19052,7 @@
       </c>
       <c r="L175" s="2"/>
     </row>
-    <row r="176" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>26</v>
       </c>
@@ -19071,9 +19071,12 @@
       <c r="G176" s="2">
         <v>1.018496E-2</v>
       </c>
+      <c r="I176" s="5">
+        <v>0.44305555555555554</v>
+      </c>
       <c r="L176" s="2"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>27</v>
       </c>
@@ -19089,12 +19092,9 @@
       <c r="E177" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I177" s="5">
-        <v>0.44305555555555554</v>
-      </c>
       <c r="L177" s="2"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>1</v>
       </c>
@@ -19121,7 +19121,7 @@
       </c>
       <c r="L178" s="2"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>2</v>
       </c>
@@ -19145,7 +19145,7 @@
       </c>
       <c r="L179" s="2"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>3</v>
       </c>
@@ -19169,7 +19169,7 @@
       </c>
       <c r="L180" s="2"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>4</v>
       </c>
@@ -19193,7 +19193,7 @@
       </c>
       <c r="L181" s="2"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>5</v>
       </c>
@@ -19217,7 +19217,7 @@
       </c>
       <c r="L182" s="2"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>6</v>
       </c>
@@ -19241,7 +19241,7 @@
       </c>
       <c r="L183" s="2"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>7</v>
       </c>
@@ -19265,7 +19265,7 @@
       </c>
       <c r="L184" s="2"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>8</v>
       </c>
@@ -19289,7 +19289,7 @@
       </c>
       <c r="L185" s="2"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>9</v>
       </c>
@@ -19313,7 +19313,7 @@
       </c>
       <c r="L186" s="2"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>10</v>
       </c>
@@ -19337,7 +19337,7 @@
       </c>
       <c r="L187" s="2"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>11</v>
       </c>
@@ -19361,7 +19361,7 @@
       </c>
       <c r="L188" s="2"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>12</v>
       </c>
@@ -19385,7 +19385,7 @@
       </c>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>13</v>
       </c>
@@ -19409,7 +19409,7 @@
       </c>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>14</v>
       </c>
@@ -19433,7 +19433,7 @@
       </c>
       <c r="L191" s="2"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>15</v>
       </c>
@@ -19457,7 +19457,7 @@
       </c>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>16</v>
       </c>
@@ -19481,7 +19481,7 @@
       </c>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>17</v>
       </c>
@@ -19505,7 +19505,7 @@
       </c>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>18</v>
       </c>
@@ -19529,7 +19529,7 @@
       </c>
       <c r="L195" s="2"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>19</v>
       </c>
@@ -19553,7 +19553,7 @@
       </c>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>20</v>
       </c>
@@ -19577,7 +19577,7 @@
       </c>
       <c r="L197" s="2"/>
     </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>21</v>
       </c>
@@ -19601,7 +19601,7 @@
       </c>
       <c r="L198" s="2"/>
     </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>22</v>
       </c>
@@ -19625,7 +19625,7 @@
       </c>
       <c r="L199" s="2"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>23</v>
       </c>
@@ -19648,7 +19648,7 @@
         <v>0.23950360000000001</v>
       </c>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>24</v>
       </c>
@@ -19671,7 +19671,7 @@
         <v>0.22392110000000001</v>
       </c>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>25</v>
       </c>
@@ -19694,7 +19694,7 @@
         <v>0.1138271</v>
       </c>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>26</v>
       </c>
@@ -19713,8 +19713,11 @@
       <c r="G203" s="2">
         <v>1.7681990000000002E-2</v>
       </c>
-    </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I203" s="5">
+        <v>0.44722222222222219</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>27</v>
       </c>
@@ -19730,11 +19733,8 @@
       <c r="E204" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I204" s="5">
-        <v>0.44722222222222219</v>
-      </c>
-    </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>1</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>0.48680555555555555</v>
       </c>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>2</v>
       </c>
@@ -19783,7 +19783,7 @@
         <v>0.16767580000000001</v>
       </c>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>3</v>
       </c>
@@ -19806,7 +19806,7 @@
         <v>0.4968552</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>4</v>
       </c>
@@ -19829,7 +19829,7 @@
         <v>0.17077990000000001</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>5</v>
       </c>
@@ -19852,7 +19852,7 @@
         <v>0.2681673</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>6</v>
       </c>
@@ -19875,7 +19875,7 @@
         <v>0.81175909999999996</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>7</v>
       </c>
@@ -19898,7 +19898,7 @@
         <v>0.1082356</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>8</v>
       </c>
@@ -19921,7 +19921,7 @@
         <v>0.22923869999999999</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>9</v>
       </c>
@@ -19944,7 +19944,7 @@
         <v>0.31816820000000001</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>10</v>
       </c>
@@ -19967,7 +19967,7 @@
         <v>0.1783515</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>11</v>
       </c>
@@ -19987,7 +19987,7 @@
         <v>7.3971389999999996E-3</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>12</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>0.48888888888888887</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>1</v>
       </c>
@@ -20036,7 +20036,7 @@
         <v>0.48888888888888887</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>2</v>
       </c>
@@ -20059,7 +20059,7 @@
         <v>0.3382793</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>3</v>
       </c>
@@ -20082,7 +20082,7 @@
         <v>0.27920159999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>4</v>
       </c>
@@ -20105,7 +20105,7 @@
         <v>1.3860980000000001</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>5</v>
       </c>
@@ -20128,7 +20128,7 @@
         <v>0.39794800000000002</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>6</v>
       </c>
@@ -20151,7 +20151,7 @@
         <v>0.3271</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>7</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>0.2409693</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>8</v>
       </c>
@@ -20197,7 +20197,7 @@
         <v>0.21346519999999999</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>9</v>
       </c>
@@ -20220,7 +20220,7 @@
         <v>0.20057249999999999</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>10</v>
       </c>
@@ -20243,7 +20243,7 @@
         <v>0.30252069999999998</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A228">
         <v>11</v>
       </c>
@@ -20263,7 +20263,7 @@
         <v>-8.0693789999999998E-3</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A229">
         <v>12</v>
       </c>
@@ -20296,19 +20296,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A137" workbookViewId="0">
-      <selection activeCell="K149" sqref="K149"/>
+    <sheetView topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="I167" sqref="I167:I190"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20331,7 +20331,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20351,7 +20351,7 @@
         <v>8.0299999999999994</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20371,7 +20371,7 @@
         <v>9.1489999999999991</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20391,7 +20391,7 @@
         <v>7.0289999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20411,7 +20411,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20431,7 +20431,7 @@
         <v>4.4379999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20451,7 +20451,7 @@
         <v>9.3079999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20471,7 +20471,7 @@
         <v>6.9340000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20491,7 +20491,7 @@
         <v>10.221</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20511,7 +20511,7 @@
         <v>5.6529999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20531,7 +20531,7 @@
         <v>4.649</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20551,7 +20551,7 @@
         <v>5.9909999999999997</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20571,7 +20571,7 @@
         <v>10.547000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20591,7 +20591,7 @@
         <v>9.0670000000000002</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20611,7 +20611,7 @@
         <v>5.593</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -20631,7 +20631,7 @@
         <v>7.0359999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -20651,7 +20651,7 @@
         <v>7.4820000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20671,7 +20671,7 @@
         <v>7.0590000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -20691,7 +20691,7 @@
         <v>6.4729999999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -20711,7 +20711,7 @@
         <v>5.04</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -20731,7 +20731,7 @@
         <v>7.4809999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -20751,7 +20751,7 @@
         <v>8.1229999999999993</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -20771,7 +20771,7 @@
         <v>7.1609999999999996</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -20791,7 +20791,7 @@
         <v>10.010999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20811,7 +20811,7 @@
         <v>4.798</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20831,7 +20831,7 @@
         <v>3.996</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -20848,7 +20848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -20865,7 +20865,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1</v>
       </c>
@@ -20885,7 +20885,7 @@
         <v>5.9420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2</v>
       </c>
@@ -20905,7 +20905,7 @@
         <v>3.302</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>3</v>
       </c>
@@ -20925,7 +20925,7 @@
         <v>9.5709999999999997</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>4</v>
       </c>
@@ -20945,7 +20945,7 @@
         <v>8.65</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>5</v>
       </c>
@@ -20965,7 +20965,7 @@
         <v>7.4630000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>6</v>
       </c>
@@ -20985,7 +20985,7 @@
         <v>5.4630000000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>7</v>
       </c>
@@ -21005,7 +21005,7 @@
         <v>7.1219999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8</v>
       </c>
@@ -21025,7 +21025,7 @@
         <v>9.4450000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21045,7 +21045,7 @@
         <v>6.8620000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>10</v>
       </c>
@@ -21065,7 +21065,7 @@
         <v>9.577</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>11</v>
       </c>
@@ -21085,7 +21085,7 @@
         <v>10.648</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>12</v>
       </c>
@@ -21105,7 +21105,7 @@
         <v>9.3780000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>13</v>
       </c>
@@ -21125,7 +21125,7 @@
         <v>6.9779999999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>14</v>
       </c>
@@ -21145,7 +21145,7 @@
         <v>7.5529999999999999</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>15</v>
       </c>
@@ -21165,7 +21165,7 @@
         <v>9.1690000000000005</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>16</v>
       </c>
@@ -21185,7 +21185,7 @@
         <v>7.5949999999999998</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>17</v>
       </c>
@@ -21205,7 +21205,7 @@
         <v>6.593</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>18</v>
       </c>
@@ -21225,7 +21225,7 @@
         <v>7.234</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>19</v>
       </c>
@@ -21245,7 +21245,7 @@
         <v>8.89</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>20</v>
       </c>
@@ -21265,7 +21265,7 @@
         <v>4.0629999999999997</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>21</v>
       </c>
@@ -21285,7 +21285,7 @@
         <v>7.4539999999999997</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>22</v>
       </c>
@@ -21305,7 +21305,7 @@
         <v>5.5780000000000003</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>23</v>
       </c>
@@ -21325,7 +21325,7 @@
         <v>6.0030000000000001</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>24</v>
       </c>
@@ -21345,7 +21345,7 @@
         <v>5.7549999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>25</v>
       </c>
@@ -21365,7 +21365,7 @@
         <v>7.3920000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>26</v>
       </c>
@@ -21382,7 +21382,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>27</v>
       </c>
@@ -21399,7 +21399,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1</v>
       </c>
@@ -21422,7 +21422,7 @@
         <v>0.42986111111111108</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>2</v>
       </c>
@@ -21442,7 +21442,7 @@
         <v>9.9120000000000008</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>3</v>
       </c>
@@ -21462,7 +21462,7 @@
         <v>9.7349999999999994</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>4</v>
       </c>
@@ -21482,7 +21482,7 @@
         <v>9.1280000000000001</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>5</v>
       </c>
@@ -21502,7 +21502,7 @@
         <v>9.6340000000000003</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>6</v>
       </c>
@@ -21522,7 +21522,7 @@
         <v>7.1920000000000002</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>7</v>
       </c>
@@ -21542,7 +21542,7 @@
         <v>7.2089999999999996</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>8</v>
       </c>
@@ -21562,7 +21562,7 @@
         <v>11.029</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>9</v>
       </c>
@@ -21582,7 +21582,7 @@
         <v>8.7910000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>10</v>
       </c>
@@ -21602,7 +21602,7 @@
         <v>8.2189999999999994</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>11</v>
       </c>
@@ -21622,7 +21622,7 @@
         <v>5.7130000000000001</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>12</v>
       </c>
@@ -21642,7 +21642,7 @@
         <v>7.1740000000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>13</v>
       </c>
@@ -21662,7 +21662,7 @@
         <v>7.4039999999999999</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>14</v>
       </c>
@@ -21682,7 +21682,7 @@
         <v>6.8410000000000002</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>15</v>
       </c>
@@ -21702,7 +21702,7 @@
         <v>6.13</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>16</v>
       </c>
@@ -21722,7 +21722,7 @@
         <v>8.1349999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>17</v>
       </c>
@@ -21742,7 +21742,7 @@
         <v>10.69</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>18</v>
       </c>
@@ -21762,7 +21762,7 @@
         <v>6.4029999999999996</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>19</v>
       </c>
@@ -21782,7 +21782,7 @@
         <v>8.657</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>20</v>
       </c>
@@ -21802,7 +21802,7 @@
         <v>11.98</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>21</v>
       </c>
@@ -21819,7 +21819,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>22</v>
       </c>
@@ -21839,7 +21839,7 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1</v>
       </c>
@@ -21862,7 +21862,7 @@
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>2</v>
       </c>
@@ -21882,7 +21882,7 @@
         <v>6.5720000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>3</v>
       </c>
@@ -21902,7 +21902,7 @@
         <v>8.2710000000000008</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>4</v>
       </c>
@@ -21922,7 +21922,7 @@
         <v>8.9640000000000004</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>5</v>
       </c>
@@ -21942,7 +21942,7 @@
         <v>7.016</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>6</v>
       </c>
@@ -21962,7 +21962,7 @@
         <v>5.2670000000000003</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>7</v>
       </c>
@@ -21982,7 +21982,7 @@
         <v>6.6710000000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>8</v>
       </c>
@@ -22002,7 +22002,7 @@
         <v>6.3630000000000004</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>9</v>
       </c>
@@ -22022,7 +22022,7 @@
         <v>7.1859999999999999</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>10</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>8.4039999999999999</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>11</v>
       </c>
@@ -22062,7 +22062,7 @@
         <v>7.2610000000000001</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>12</v>
       </c>
@@ -22082,7 +22082,7 @@
         <v>6.6580000000000004</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>13</v>
       </c>
@@ -22102,7 +22102,7 @@
         <v>7.3609999999999998</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>14</v>
       </c>
@@ -22122,7 +22122,7 @@
         <v>9.8840000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>15</v>
       </c>
@@ -22142,7 +22142,7 @@
         <v>7.6539999999999999</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>16</v>
       </c>
@@ -22162,7 +22162,7 @@
         <v>9.2690000000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>17</v>
       </c>
@@ -22182,7 +22182,7 @@
         <v>6.3609999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>18</v>
       </c>
@@ -22202,7 +22202,7 @@
         <v>5.3259999999999996</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>19</v>
       </c>
@@ -22222,7 +22222,7 @@
         <v>4.391</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>20</v>
       </c>
@@ -22242,7 +22242,7 @@
         <v>7.3869999999999996</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>21</v>
       </c>
@@ -22259,7 +22259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>22</v>
       </c>
@@ -22279,7 +22279,7 @@
         <v>0.43541666666666662</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1</v>
       </c>
@@ -22302,7 +22302,7 @@
         <v>0.42291666666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2</v>
       </c>
@@ -22322,7 +22322,7 @@
         <v>10.117000000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>3</v>
       </c>
@@ -22342,7 +22342,7 @@
         <v>6.8419999999999996</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>4</v>
       </c>
@@ -22362,7 +22362,7 @@
         <v>9.7639999999999993</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>5</v>
       </c>
@@ -22382,7 +22382,7 @@
         <v>9.8930000000000007</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>6</v>
       </c>
@@ -22402,7 +22402,7 @@
         <v>2.7719999999999998</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>7</v>
       </c>
@@ -22422,7 +22422,7 @@
         <v>5.75</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>8</v>
       </c>
@@ -22442,7 +22442,7 @@
         <v>10.68</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>9</v>
       </c>
@@ -22462,7 +22462,7 @@
         <v>7.6689999999999996</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>10</v>
       </c>
@@ -22482,7 +22482,7 @@
         <v>9.4480000000000004</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>11</v>
       </c>
@@ -22502,7 +22502,7 @@
         <v>7.3479999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>12</v>
       </c>
@@ -22522,7 +22522,7 @@
         <v>6.8760000000000003</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>13</v>
       </c>
@@ -22542,7 +22542,7 @@
         <v>7.8739999999999997</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>14</v>
       </c>
@@ -22562,7 +22562,7 @@
         <v>7.0910000000000002</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>15</v>
       </c>
@@ -22582,7 +22582,7 @@
         <v>9.032</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>16</v>
       </c>
@@ -22602,7 +22602,7 @@
         <v>6.0979999999999999</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>17</v>
       </c>
@@ -22622,7 +22622,7 @@
         <v>6.8289999999999997</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>18</v>
       </c>
@@ -22642,7 +22642,7 @@
         <v>12.542</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>19</v>
       </c>
@@ -22662,7 +22662,7 @@
         <v>8.6159999999999997</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>20</v>
       </c>
@@ -22682,7 +22682,7 @@
         <v>6.8620000000000001</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>21</v>
       </c>
@@ -22699,7 +22699,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>22</v>
       </c>
@@ -22719,7 +22719,7 @@
         <v>0.42638888888888887</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1</v>
       </c>
@@ -22742,7 +22742,7 @@
         <v>0.42638888888888887</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2</v>
       </c>
@@ -22762,7 +22762,7 @@
         <v>9.0579999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>3</v>
       </c>
@@ -22782,7 +22782,7 @@
         <v>9.6140000000000008</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>4</v>
       </c>
@@ -22802,7 +22802,7 @@
         <v>7.5620000000000003</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>5</v>
       </c>
@@ -22822,7 +22822,7 @@
         <v>7.2789999999999999</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>6</v>
       </c>
@@ -22842,7 +22842,7 @@
         <v>6.91</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>7</v>
       </c>
@@ -22862,7 +22862,7 @@
         <v>8.2989999999999995</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>8</v>
       </c>
@@ -22882,7 +22882,7 @@
         <v>8.8719999999999999</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>9</v>
       </c>
@@ -22902,7 +22902,7 @@
         <v>11.539</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>10</v>
       </c>
@@ -22922,7 +22922,7 @@
         <v>6.7329999999999997</v>
       </c>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>11</v>
       </c>
@@ -22942,7 +22942,7 @@
         <v>9.2189999999999994</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>12</v>
       </c>
@@ -22962,7 +22962,7 @@
         <v>6.3380000000000001</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>13</v>
       </c>
@@ -22982,7 +22982,7 @@
         <v>6.94</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>14</v>
       </c>
@@ -23002,7 +23002,7 @@
         <v>10.260999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>15</v>
       </c>
@@ -23022,7 +23022,7 @@
         <v>6.617</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>16</v>
       </c>
@@ -23042,7 +23042,7 @@
         <v>8.1579999999999995</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>17</v>
       </c>
@@ -23062,7 +23062,7 @@
         <v>4.95</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>18</v>
       </c>
@@ -23082,7 +23082,7 @@
         <v>6.3310000000000004</v>
       </c>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>19</v>
       </c>
@@ -23102,7 +23102,7 @@
         <v>5.7389999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>20</v>
       </c>
@@ -23122,7 +23122,7 @@
         <v>7.1180000000000003</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>21</v>
       </c>
@@ -23139,7 +23139,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>22</v>
       </c>
@@ -23159,7 +23159,7 @@
         <v>0.42986111111111108</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1</v>
       </c>
@@ -23182,7 +23182,7 @@
         <v>0.38819444444444445</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>2</v>
       </c>
@@ -23202,7 +23202,7 @@
         <v>9.02</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>3</v>
       </c>
@@ -23222,7 +23222,7 @@
         <v>11.157</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>4</v>
       </c>
@@ -23242,7 +23242,7 @@
         <v>4.2110000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>5</v>
       </c>
@@ -23262,7 +23262,7 @@
         <v>7.9660000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>6</v>
       </c>
@@ -23282,7 +23282,7 @@
         <v>7.8620000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>7</v>
       </c>
@@ -23302,7 +23302,7 @@
         <v>6.3120000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>8</v>
       </c>
@@ -23322,7 +23322,7 @@
         <v>10.566000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>9</v>
       </c>
@@ -23342,7 +23342,7 @@
         <v>9.5950000000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>10</v>
       </c>
@@ -23362,7 +23362,7 @@
         <v>6.7039999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>11</v>
       </c>
@@ -23382,7 +23382,7 @@
         <v>9.4410000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>12</v>
       </c>
@@ -23402,7 +23402,7 @@
         <v>6.9269999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>13</v>
       </c>
@@ -23422,7 +23422,7 @@
         <v>5.8819999999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>14</v>
       </c>
@@ -23442,7 +23442,7 @@
         <v>6.5739999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>15</v>
       </c>
@@ -23462,7 +23462,7 @@
         <v>6.7869999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>16</v>
       </c>
@@ -23482,7 +23482,7 @@
         <v>9.3780000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>17</v>
       </c>
@@ -23502,7 +23502,7 @@
         <v>8.5950000000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>18</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>10.406000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>19</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>9.5060000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>20</v>
       </c>
@@ -23562,7 +23562,7 @@
         <v>8.5549999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>21</v>
       </c>
@@ -23582,7 +23582,7 @@
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>22</v>
       </c>
@@ -23602,7 +23602,7 @@
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>1</v>
       </c>
@@ -23622,7 +23622,7 @@
         <v>4.3029999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>2</v>
       </c>
@@ -23642,7 +23642,7 @@
         <v>6.8630000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>3</v>
       </c>
@@ -23662,7 +23662,7 @@
         <v>6.3230000000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>4</v>
       </c>
@@ -23682,7 +23682,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>5</v>
       </c>
@@ -23702,7 +23702,7 @@
         <v>8.1479999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>6</v>
       </c>
@@ -23722,7 +23722,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>7</v>
       </c>
@@ -23742,7 +23742,7 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>8</v>
       </c>
@@ -23762,7 +23762,7 @@
         <v>5.7720000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>9</v>
       </c>
@@ -23782,7 +23782,7 @@
         <v>6.2619999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>10</v>
       </c>
@@ -23802,7 +23802,7 @@
         <v>7.6349999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>11</v>
       </c>
@@ -23822,7 +23822,7 @@
         <v>8.6310000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>12</v>
       </c>
@@ -23842,7 +23842,7 @@
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>13</v>
       </c>
@@ -23862,7 +23862,7 @@
         <v>5.3979999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>14</v>
       </c>
@@ -23882,7 +23882,7 @@
         <v>6.3019999999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>15</v>
       </c>
@@ -23902,7 +23902,7 @@
         <v>7.8109999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>16</v>
       </c>
@@ -23922,7 +23922,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>17</v>
       </c>
@@ -23942,7 +23942,7 @@
         <v>11.307</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>18</v>
       </c>
@@ -23962,7 +23962,7 @@
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>19</v>
       </c>
@@ -23982,7 +23982,7 @@
         <v>8.6690000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>20</v>
       </c>
@@ -24002,7 +24002,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>21</v>
       </c>
@@ -24019,7 +24019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>22</v>
       </c>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{832C4382-3552-4D3D-80E7-C99772F7427A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06B75B-3538-4A11-B10C-4A9A37157CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="465" windowWidth="41385" windowHeight="22320" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -20373,10 +20373,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
-  <dimension ref="A1:J190"/>
+  <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="K132" sqref="K132"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="K102" sqref="K102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20385,11 +20385,11 @@
     <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -20411,14 +20411,14 @@
       <c r="G1" t="s">
         <v>24</v>
       </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
       <c r="I1" t="s">
-        <v>30</v>
-      </c>
-      <c r="J1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -20437,13 +20437,17 @@
       <c r="F2">
         <v>8.0299999999999994</v>
       </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="5">
+      <c r="G2">
+        <v>1.2865610000000001</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0.38576388888888885</v>
+      </c>
+      <c r="I2" s="5">
         <v>0.4291666666666667</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -20462,10 +20466,14 @@
       <c r="F3">
         <v>9.1489999999999991</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G3" s="2">
+        <v>7.8030240000000001E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.3868287037037037</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -20484,10 +20492,14 @@
       <c r="F4">
         <v>7.0289999999999999</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G4" s="2">
+        <v>7.8474669999999996E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.38790509259259259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -20506,10 +20518,14 @@
       <c r="F5">
         <v>6.94</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" s="2">
+        <v>7.8229779999999999E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.38872685185185185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -20528,10 +20544,14 @@
       <c r="F6">
         <v>4.4379999999999997</v>
       </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.78655600000000003</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.38978009259259255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -20550,10 +20570,14 @@
       <c r="F7">
         <v>9.3079999999999998</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" s="2">
+        <v>6.3473550000000004E-2</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0.39061342592592596</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -20572,10 +20596,14 @@
       <c r="F8">
         <v>6.9340000000000002</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G8" s="2">
+        <v>4.9250759999999998E-2</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.39146990740740745</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -20594,10 +20622,14 @@
       <c r="F9">
         <v>10.221</v>
       </c>
-      <c r="H9" s="6"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" s="2">
+        <v>8.7716329999999995E-2</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.39252314814814815</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -20616,10 +20648,14 @@
       <c r="F10">
         <v>5.6529999999999996</v>
       </c>
-      <c r="H10" s="6"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" s="2">
+        <v>5.4321109999999999E-2</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.39343750000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -20638,10 +20674,14 @@
       <c r="F11">
         <v>4.649</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" s="2">
+        <v>6.3515450000000001E-2</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.39422453703703703</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -20660,10 +20700,14 @@
       <c r="F12">
         <v>5.9909999999999997</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" s="2">
+        <v>9.7323809999999997E-2</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -20682,10 +20726,14 @@
       <c r="F13">
         <v>10.547000000000001</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="2">
+        <v>6.6610440000000007E-2</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.39612268518518517</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -20704,10 +20752,14 @@
       <c r="F14">
         <v>9.0670000000000002</v>
       </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" s="2">
+        <v>7.0185360000000002E-2</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.39702546296296298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -20726,10 +20778,14 @@
       <c r="F15">
         <v>5.593</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" s="2">
+        <v>6.3396129999999995E-2</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.39787037037037037</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -20748,10 +20804,14 @@
       <c r="F16">
         <v>7.0359999999999996</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G16" s="2">
+        <v>3.9818539999999999E-2</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.39872685185185186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -20770,10 +20830,14 @@
       <c r="F17">
         <v>7.4820000000000002</v>
       </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.52385490000000001</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.39971064814814811</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -20792,10 +20856,14 @@
       <c r="F18">
         <v>7.0590000000000002</v>
       </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="2"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G18" s="2">
+        <v>6.0332950000000003E-2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.40053240740740742</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -20814,10 +20882,14 @@
       <c r="F19">
         <v>6.4729999999999999</v>
       </c>
-      <c r="H19" s="6"/>
-      <c r="I19" s="2"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G19" s="2">
+        <v>6.3566170000000005E-2</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.4013194444444444</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -20836,9 +20908,14 @@
       <c r="F20">
         <v>5.04</v>
       </c>
-      <c r="H20" s="6"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G20" s="2">
+        <v>6.0303280000000001E-2</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.40221064814814816</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -20857,10 +20934,14 @@
       <c r="F21">
         <v>7.4809999999999999</v>
       </c>
-      <c r="H21" s="6"/>
-      <c r="I21" s="2"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G21">
+        <v>0.79042959999999995</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.40305555555555556</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -20879,10 +20960,14 @@
       <c r="F22">
         <v>8.1229999999999993</v>
       </c>
-      <c r="H22" s="6"/>
-      <c r="I22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G22" s="2">
+        <v>8.5434049999999997E-2</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0.4039699074074074</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -20901,9 +20986,14 @@
       <c r="F23">
         <v>7.1609999999999996</v>
       </c>
-      <c r="H23" s="6"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G23" s="2">
+        <v>3.8893740000000003E-2</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.40480324074074076</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -20922,10 +21012,14 @@
       <c r="F24">
         <v>10.010999999999999</v>
       </c>
-      <c r="H24" s="6"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G24" s="2">
+        <v>8.6929980000000004E-2</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0.40568287037037037</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -20944,10 +21038,14 @@
       <c r="F25">
         <v>4.798</v>
       </c>
-      <c r="H25" s="6"/>
-      <c r="I25" s="2"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>0.14642379999999999</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0.40657407407407403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -20966,10 +21064,14 @@
       <c r="F26">
         <v>3.996</v>
       </c>
-      <c r="H26" s="6"/>
-      <c r="I26" s="2"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1.0859479999999999</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0.40756944444444443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -20985,13 +21087,17 @@
       <c r="E27" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="5">
+      <c r="G27" s="2">
+        <v>5.1327899999999999E-3</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0.40858796296296296</v>
+      </c>
+      <c r="I27" s="5">
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -21007,11 +21113,17 @@
       <c r="E28" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J28" s="5">
+      <c r="G28" s="2">
+        <v>3.965627E-2</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0.40930555555555559</v>
+      </c>
+      <c r="I28" s="5">
         <v>0.43402777777777773</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1</v>
       </c>
@@ -21030,8 +21142,14 @@
       <c r="F29">
         <v>5.9420000000000002</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>0.2110428</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0.38576388888888885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
@@ -21050,8 +21168,14 @@
       <c r="F30">
         <v>3.302</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1.936701</v>
+      </c>
+      <c r="H30" s="6">
+        <v>0.3868287037037037</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
@@ -21070,8 +21194,14 @@
       <c r="F31">
         <v>9.5709999999999997</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>0.13746810000000001</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0.38790509259259259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>4</v>
       </c>
@@ -21090,8 +21220,14 @@
       <c r="F32">
         <v>8.65</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1.3915040000000001</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0.38872685185185185</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -21110,8 +21246,14 @@
       <c r="F33">
         <v>7.4630000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>0.1000245</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0.38978009259259255</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>6</v>
       </c>
@@ -21130,8 +21272,14 @@
       <c r="F34">
         <v>5.4630000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="2">
+        <v>8.4469069999999993E-2</v>
+      </c>
+      <c r="H34" s="6">
+        <v>0.39061342592592596</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>7</v>
       </c>
@@ -21150,8 +21298,14 @@
       <c r="F35">
         <v>7.1219999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1.0491159999999999</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.39146990740740745</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>8</v>
       </c>
@@ -21170,8 +21324,14 @@
       <c r="F36">
         <v>9.4450000000000003</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>0.1451192</v>
+      </c>
+      <c r="H36" s="6">
+        <v>0.39252314814814815</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>9</v>
       </c>
@@ -21190,8 +21350,14 @@
       <c r="F37">
         <v>6.8620000000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="2">
+        <v>4.3152179999999998E-2</v>
+      </c>
+      <c r="H37" s="6">
+        <v>0.39343750000000005</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>10</v>
       </c>
@@ -21210,8 +21376,14 @@
       <c r="F38">
         <v>9.577</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>0.1559228</v>
+      </c>
+      <c r="H38" s="6">
+        <v>0.39422453703703703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>11</v>
       </c>
@@ -21230,8 +21402,14 @@
       <c r="F39">
         <v>10.648</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>0.1970055</v>
+      </c>
+      <c r="H39" s="6">
+        <v>0.39513888888888887</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>12</v>
       </c>
@@ -21250,8 +21428,14 @@
       <c r="F40">
         <v>9.3780000000000001</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="2">
+        <v>7.2179240000000006E-2</v>
+      </c>
+      <c r="H40" s="6">
+        <v>0.39612268518518517</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -21270,8 +21454,14 @@
       <c r="F41">
         <v>6.9779999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>0.1108116</v>
+      </c>
+      <c r="H41" s="6">
+        <v>0.39702546296296298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>14</v>
       </c>
@@ -21290,8 +21480,14 @@
       <c r="F42">
         <v>7.5529999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <v>0.1133015</v>
+      </c>
+      <c r="H42" s="6">
+        <v>0.39787037037037037</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
@@ -21310,8 +21506,14 @@
       <c r="F43">
         <v>9.1690000000000005</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <v>1.2899560000000001</v>
+      </c>
+      <c r="H43" s="6">
+        <v>0.39872685185185186</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>16</v>
       </c>
@@ -21330,8 +21532,14 @@
       <c r="F44">
         <v>7.5949999999999998</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="2">
+        <v>7.469924E-2</v>
+      </c>
+      <c r="H44" s="6">
+        <v>0.39971064814814811</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>17</v>
       </c>
@@ -21350,8 +21558,14 @@
       <c r="F45">
         <v>6.593</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G45" s="2">
+        <v>9.6900310000000003E-2</v>
+      </c>
+      <c r="H45" s="6">
+        <v>0.40053240740740742</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>18</v>
       </c>
@@ -21370,8 +21584,14 @@
       <c r="F46">
         <v>7.234</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <v>0.1400325</v>
+      </c>
+      <c r="H46" s="6">
+        <v>0.4013194444444444</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>19</v>
       </c>
@@ -21390,8 +21610,14 @@
       <c r="F47">
         <v>8.89</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <v>0.12499540000000001</v>
+      </c>
+      <c r="H47" s="6">
+        <v>0.40221064814814816</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>20</v>
       </c>
@@ -21410,8 +21636,14 @@
       <c r="F48">
         <v>4.0629999999999997</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G48" s="2">
+        <v>9.4389020000000004E-2</v>
+      </c>
+      <c r="H48" s="6">
+        <v>0.40305555555555556</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>21</v>
       </c>
@@ -21430,8 +21662,14 @@
       <c r="F49">
         <v>7.4539999999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G49" s="2">
+        <v>8.2006330000000002E-2</v>
+      </c>
+      <c r="H49" s="6">
+        <v>0.4039699074074074</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>22</v>
       </c>
@@ -21450,8 +21688,14 @@
       <c r="F50">
         <v>5.5780000000000003</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G50">
+        <v>0.13135189999999999</v>
+      </c>
+      <c r="H50" s="6">
+        <v>0.40480324074074076</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>23</v>
       </c>
@@ -21470,8 +21714,14 @@
       <c r="F51">
         <v>6.0030000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G51">
+        <v>0.1024249</v>
+      </c>
+      <c r="H51" s="6">
+        <v>0.40568287037037037</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>24</v>
       </c>
@@ -21490,8 +21740,14 @@
       <c r="F52">
         <v>5.7549999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <v>0.18937370000000001</v>
+      </c>
+      <c r="H52" s="6">
+        <v>0.40657407407407403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>25</v>
       </c>
@@ -21510,8 +21766,14 @@
       <c r="F53">
         <v>7.3920000000000003</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <v>0.30369600000000002</v>
+      </c>
+      <c r="H53" s="6">
+        <v>0.40756944444444443</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -21527,8 +21789,14 @@
       <c r="E54" s="1" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G54" s="2">
+        <v>1.618232E-2</v>
+      </c>
+      <c r="H54" s="6">
+        <v>0.40858796296296296</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>27</v>
       </c>
@@ -21544,11 +21812,17 @@
       <c r="E55" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="5">
+      <c r="G55" s="2">
+        <v>6.9934819999999995E-2</v>
+      </c>
+      <c r="H55" s="6">
+        <v>0.40930555555555559</v>
+      </c>
+      <c r="I55" s="5">
         <v>0.4381944444444445</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1</v>
       </c>
@@ -21573,11 +21847,11 @@
       <c r="H57" s="6">
         <v>0.38568287037037036</v>
       </c>
-      <c r="J57" s="5">
+      <c r="I57" s="5">
         <v>0.42986111111111108</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2</v>
       </c>
@@ -21603,7 +21877,7 @@
         <v>0.38658564814814816</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>3</v>
       </c>
@@ -21629,7 +21903,7 @@
         <v>0.38739583333333333</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -21655,7 +21929,7 @@
         <v>0.38824074074074072</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>5</v>
       </c>
@@ -21681,7 +21955,7 @@
         <v>0.38922453703703702</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>6</v>
       </c>
@@ -21707,7 +21981,7 @@
         <v>0.39011574074074074</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>7</v>
       </c>
@@ -21733,7 +22007,7 @@
         <v>0.39109953703703698</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>8</v>
       </c>
@@ -21759,7 +22033,7 @@
         <v>0.39196759259259256</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>9</v>
       </c>
@@ -21785,7 +22059,7 @@
         <v>0.39297453703703705</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>10</v>
       </c>
@@ -21811,7 +22085,7 @@
         <v>0.39401620370370366</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>11</v>
       </c>
@@ -21837,7 +22111,7 @@
         <v>0.39502314814814815</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>12</v>
       </c>
@@ -21863,7 +22137,7 @@
         <v>0.39591435185185181</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>13</v>
       </c>
@@ -21889,7 +22163,7 @@
         <v>0.39680555555555558</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>14</v>
       </c>
@@ -21915,7 +22189,7 @@
         <v>0.39773148148148146</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>15</v>
       </c>
@@ -21941,7 +22215,7 @@
         <v>0.3986689814814815</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -21967,7 +22241,7 @@
         <v>0.39956018518518516</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>17</v>
       </c>
@@ -21993,7 +22267,7 @@
         <v>0.40054398148148151</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>18</v>
       </c>
@@ -22019,7 +22293,7 @@
         <v>0.40148148148148149</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>19</v>
       </c>
@@ -22045,7 +22319,7 @@
         <v>0.40238425925925925</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>20</v>
       </c>
@@ -22071,7 +22345,7 @@
         <v>0.40325231481481483</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>21</v>
       </c>
@@ -22094,7 +22368,7 @@
         <v>0.40421296296296294</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>22</v>
       </c>
@@ -22116,11 +22390,11 @@
       <c r="H78" s="6">
         <v>0.40497685185185189</v>
       </c>
-      <c r="J78" s="5">
+      <c r="I78" s="5">
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -22145,11 +22419,11 @@
       <c r="H79" s="6">
         <v>0.38568287037037036</v>
       </c>
-      <c r="J79" s="5">
+      <c r="I79" s="5">
         <v>0.43263888888888885</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -22591,7 +22865,7 @@
         <v>0.40148148148148149</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>19</v>
       </c>
@@ -22617,7 +22891,7 @@
         <v>0.40238425925925925</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>20</v>
       </c>
@@ -22643,7 +22917,7 @@
         <v>0.40325231481481483</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>21</v>
       </c>
@@ -22666,7 +22940,7 @@
         <v>0.40421296296296294</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>22</v>
       </c>
@@ -22688,11 +22962,11 @@
       <c r="H100" s="6">
         <v>0.40497685185185189</v>
       </c>
-      <c r="J100" s="5">
+      <c r="I100" s="5">
         <v>0.43541666666666662</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -22717,11 +22991,11 @@
       <c r="H102" s="6">
         <v>0.3432986111111111</v>
       </c>
-      <c r="J102" s="5">
+      <c r="I102" s="5">
         <v>0.42291666666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -22747,7 +23021,7 @@
         <v>0.34423611111111113</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -22773,7 +23047,7 @@
         <v>0.34519675925925924</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>4</v>
       </c>
@@ -22799,7 +23073,7 @@
         <v>0.34626157407407404</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -22825,7 +23099,7 @@
         <v>0.3472453703703704</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>6</v>
       </c>
@@ -22851,7 +23125,7 @@
         <v>0.34815972222222219</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>7</v>
       </c>
@@ -22877,7 +23151,7 @@
         <v>0.34921296296296295</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>8</v>
       </c>
@@ -22903,7 +23177,7 @@
         <v>0.35011574074074076</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>9</v>
       </c>
@@ -22929,7 +23203,7 @@
         <v>0.35105324074074074</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>10</v>
       </c>
@@ -22955,7 +23229,7 @@
         <v>0.35196759259259264</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>11</v>
       </c>
@@ -22981,7 +23255,7 @@
         <v>0.35287037037037039</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>12</v>
       </c>
@@ -23007,7 +23281,7 @@
         <v>0.35372685185185188</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>13</v>
       </c>
@@ -23033,7 +23307,7 @@
         <v>0.35458333333333331</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>14</v>
       </c>
@@ -23059,7 +23333,7 @@
         <v>0.3555787037037037</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>15</v>
       </c>
@@ -23085,7 +23359,7 @@
         <v>0.35655092592592591</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>16</v>
       </c>
@@ -23111,7 +23385,7 @@
         <v>0.35746527777777781</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>17</v>
       </c>
@@ -23137,7 +23411,7 @@
         <v>0.3583796296296296</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>18</v>
       </c>
@@ -23163,7 +23437,7 @@
         <v>0.35921296296296296</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>19</v>
       </c>
@@ -23189,7 +23463,7 @@
         <v>0.36013888888888884</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>20</v>
       </c>
@@ -23215,7 +23489,7 @@
         <v>0.36106481481481478</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>21</v>
       </c>
@@ -23238,7 +23512,7 @@
         <v>0.36215277777777777</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>22</v>
       </c>
@@ -23260,11 +23534,11 @@
       <c r="H123" s="6">
         <v>0.36289351851851853</v>
       </c>
-      <c r="J123" s="5">
+      <c r="I123" s="5">
         <v>0.42638888888888887</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1</v>
       </c>
@@ -23289,11 +23563,11 @@
       <c r="H124" s="6">
         <v>0.3432986111111111</v>
       </c>
-      <c r="J124" s="5">
+      <c r="I124" s="5">
         <v>0.42638888888888887</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -23319,7 +23593,7 @@
         <v>0.34423611111111113</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>3</v>
       </c>
@@ -23345,7 +23619,7 @@
         <v>0.34519675925925924</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>4</v>
       </c>
@@ -23371,7 +23645,7 @@
         <v>0.34626157407407404</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>5</v>
       </c>
@@ -23810,7 +24084,7 @@
         <v>0.36215277777777777</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>22</v>
       </c>
@@ -23832,11 +24106,11 @@
       <c r="H145" s="6">
         <v>0.36289351851851853</v>
       </c>
-      <c r="J145" s="5">
+      <c r="I145" s="5">
         <v>0.42986111111111108</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>1</v>
       </c>
@@ -23855,11 +24129,11 @@
       <c r="F147">
         <v>5.766</v>
       </c>
-      <c r="J147" s="5">
+      <c r="I147" s="5">
         <v>0.38819444444444445</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -23879,7 +24153,7 @@
         <v>9.02</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>3</v>
       </c>
@@ -23899,7 +24173,7 @@
         <v>11.157</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>4</v>
       </c>
@@ -23919,7 +24193,7 @@
         <v>4.2110000000000003</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>5</v>
       </c>
@@ -23939,7 +24213,7 @@
         <v>7.9660000000000002</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>6</v>
       </c>
@@ -23959,7 +24233,7 @@
         <v>7.8620000000000001</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>7</v>
       </c>
@@ -23979,7 +24253,7 @@
         <v>6.3120000000000003</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>8</v>
       </c>
@@ -23999,7 +24273,7 @@
         <v>10.566000000000001</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>9</v>
       </c>
@@ -24019,7 +24293,7 @@
         <v>9.5950000000000006</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>10</v>
       </c>
@@ -24039,7 +24313,7 @@
         <v>6.7039999999999997</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>11</v>
       </c>
@@ -24059,7 +24333,7 @@
         <v>9.4410000000000007</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>12</v>
       </c>
@@ -24079,7 +24353,7 @@
         <v>6.9269999999999996</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>13</v>
       </c>
@@ -24099,7 +24373,7 @@
         <v>5.8819999999999997</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>14</v>
       </c>
@@ -24119,7 +24393,7 @@
         <v>6.5739999999999998</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>15</v>
       </c>
@@ -24139,7 +24413,7 @@
         <v>6.7869999999999999</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>16</v>
       </c>
@@ -24159,7 +24433,7 @@
         <v>9.3780000000000001</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>17</v>
       </c>
@@ -24179,7 +24453,7 @@
         <v>8.5950000000000006</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>18</v>
       </c>
@@ -24199,7 +24473,7 @@
         <v>10.406000000000001</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>19</v>
       </c>
@@ -24219,7 +24493,7 @@
         <v>9.5060000000000002</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>20</v>
       </c>
@@ -24239,7 +24513,7 @@
         <v>8.5549999999999997</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>21</v>
       </c>
@@ -24255,11 +24529,11 @@
       <c r="E167" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J167" s="5">
+      <c r="I167" s="5">
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>22</v>
       </c>
@@ -24275,11 +24549,11 @@
       <c r="E168" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J168" s="5">
+      <c r="I168" s="5">
         <v>0.39166666666666666</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -24299,7 +24573,7 @@
         <v>4.3029999999999999</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2</v>
       </c>
@@ -24319,7 +24593,7 @@
         <v>6.8630000000000004</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>3</v>
       </c>
@@ -24339,7 +24613,7 @@
         <v>6.3230000000000004</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>4</v>
       </c>
@@ -24359,7 +24633,7 @@
         <v>4.5469999999999997</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>5</v>
       </c>
@@ -24379,7 +24653,7 @@
         <v>8.1479999999999997</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>6</v>
       </c>
@@ -24399,7 +24673,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>7</v>
       </c>
@@ -24419,7 +24693,7 @@
         <v>6.3090000000000002</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>8</v>
       </c>
@@ -24439,7 +24713,7 @@
         <v>5.7720000000000002</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>9</v>
       </c>
@@ -24459,7 +24733,7 @@
         <v>6.2619999999999996</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>10</v>
       </c>
@@ -24479,7 +24753,7 @@
         <v>7.6349999999999998</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>11</v>
       </c>
@@ -24499,7 +24773,7 @@
         <v>8.6310000000000002</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>12</v>
       </c>
@@ -24519,7 +24793,7 @@
         <v>4.1859999999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>13</v>
       </c>
@@ -24539,7 +24813,7 @@
         <v>5.3979999999999997</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>14</v>
       </c>
@@ -24559,7 +24833,7 @@
         <v>6.3019999999999996</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>15</v>
       </c>
@@ -24579,7 +24853,7 @@
         <v>7.8109999999999999</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>16</v>
       </c>
@@ -24599,7 +24873,7 @@
         <v>5.2149999999999999</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>17</v>
       </c>
@@ -24619,7 +24893,7 @@
         <v>11.307</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>18</v>
       </c>
@@ -24639,7 +24913,7 @@
         <v>4.8529999999999998</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>19</v>
       </c>
@@ -24659,7 +24933,7 @@
         <v>8.6690000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>20</v>
       </c>
@@ -24679,7 +24953,7 @@
         <v>4.47</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>21</v>
       </c>
@@ -24696,7 +24970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>22</v>
       </c>
@@ -24712,7 +24986,7 @@
       <c r="E190" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J190" s="5">
+      <c r="I190" s="5">
         <v>0.39513888888888887</v>
       </c>
     </row>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B06B75B-3538-4A11-B10C-4A9A37157CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F1111-EA85-4279-A121-B116116E3C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="465" windowWidth="41385" windowHeight="22320" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
@@ -20375,8 +20375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="K102" sqref="K102"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="N178" sqref="N178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24129,6 +24129,12 @@
       <c r="F147">
         <v>5.766</v>
       </c>
+      <c r="G147">
+        <v>6.6539200000000007E-2</v>
+      </c>
+      <c r="H147" s="6">
+        <v>0.35305555555555551</v>
+      </c>
       <c r="I147" s="5">
         <v>0.38819444444444445</v>
       </c>
@@ -24152,6 +24158,12 @@
       <c r="F148">
         <v>9.02</v>
       </c>
+      <c r="G148" s="2">
+        <v>6.5279980000000001E-2</v>
+      </c>
+      <c r="H148" s="6">
+        <v>0.35398148148148145</v>
+      </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149">
@@ -24172,6 +24184,12 @@
       <c r="F149">
         <v>11.157</v>
       </c>
+      <c r="G149" s="2">
+        <v>5.9034429999999999E-2</v>
+      </c>
+      <c r="H149" s="6">
+        <v>0.35478009259259258</v>
+      </c>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150">
@@ -24192,6 +24210,12 @@
       <c r="F150">
         <v>4.2110000000000003</v>
       </c>
+      <c r="G150">
+        <v>0.14409040000000001</v>
+      </c>
+      <c r="H150" s="6">
+        <v>0.35592592592592592</v>
+      </c>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151">
@@ -24211,6 +24235,12 @@
       </c>
       <c r="F151">
         <v>7.9660000000000002</v>
+      </c>
+      <c r="G151" s="2">
+        <v>3.4399810000000003E-2</v>
+      </c>
+      <c r="H151" s="6">
+        <v>0.3571064814814815</v>
       </c>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
@@ -24232,6 +24262,12 @@
       <c r="F152">
         <v>7.8620000000000001</v>
       </c>
+      <c r="G152" s="2">
+        <v>5.3338610000000002E-2</v>
+      </c>
+      <c r="H152" s="6">
+        <v>0.3581597222222222</v>
+      </c>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153">
@@ -24252,6 +24288,12 @@
       <c r="F153">
         <v>6.3120000000000003</v>
       </c>
+      <c r="G153" s="2">
+        <v>5.1787970000000003E-2</v>
+      </c>
+      <c r="H153" s="6">
+        <v>0.35908564814814814</v>
+      </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154">
@@ -24271,6 +24313,12 @@
       </c>
       <c r="F154">
         <v>10.566000000000001</v>
+      </c>
+      <c r="G154" s="2">
+        <v>9.3543979999999999E-2</v>
+      </c>
+      <c r="H154" s="6">
+        <v>0.35998842592592589</v>
       </c>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
@@ -24292,6 +24340,12 @@
       <c r="F155">
         <v>9.5950000000000006</v>
       </c>
+      <c r="G155">
+        <v>0.19783120000000001</v>
+      </c>
+      <c r="H155" s="6">
+        <v>0.36090277777777779</v>
+      </c>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156">
@@ -24312,6 +24366,12 @@
       <c r="F156">
         <v>6.7039999999999997</v>
       </c>
+      <c r="G156" s="2">
+        <v>4.5117629999999999E-2</v>
+      </c>
+      <c r="H156" s="6">
+        <v>0.36190972222222223</v>
+      </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157">
@@ -24332,6 +24392,12 @@
       <c r="F157">
         <v>9.4410000000000007</v>
       </c>
+      <c r="G157" s="2">
+        <v>6.6062860000000001E-2</v>
+      </c>
+      <c r="H157" s="6">
+        <v>0.3628703703703704</v>
+      </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158">
@@ -24352,6 +24418,12 @@
       <c r="F158">
         <v>6.9269999999999996</v>
       </c>
+      <c r="G158" s="2">
+        <v>4.7628330000000003E-2</v>
+      </c>
+      <c r="H158" s="6">
+        <v>0.36379629629629634</v>
+      </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159">
@@ -24372,6 +24444,12 @@
       <c r="F159">
         <v>5.8819999999999997</v>
       </c>
+      <c r="G159">
+        <v>0.44271129999999997</v>
+      </c>
+      <c r="H159" s="6">
+        <v>0.36479166666666668</v>
+      </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160">
@@ -24392,6 +24470,12 @@
       <c r="F160">
         <v>6.5739999999999998</v>
       </c>
+      <c r="G160">
+        <v>0.61459790000000003</v>
+      </c>
+      <c r="H160" s="6">
+        <v>0.36579861111111112</v>
+      </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161">
@@ -24412,6 +24496,12 @@
       <c r="F161">
         <v>6.7869999999999999</v>
       </c>
+      <c r="G161" s="2">
+        <v>8.644934E-2</v>
+      </c>
+      <c r="H161" s="6">
+        <v>0.36686342592592597</v>
+      </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162">
@@ -24432,6 +24522,12 @@
       <c r="F162">
         <v>9.3780000000000001</v>
       </c>
+      <c r="G162" s="2">
+        <v>9.0737540000000005E-2</v>
+      </c>
+      <c r="H162" s="6">
+        <v>0.36774305555555559</v>
+      </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163">
@@ -24452,6 +24548,12 @@
       <c r="F163">
         <v>8.5950000000000006</v>
       </c>
+      <c r="G163">
+        <v>0.83420989999999995</v>
+      </c>
+      <c r="H163" s="6">
+        <v>0.36866898148148147</v>
+      </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164">
@@ -24472,6 +24574,12 @@
       <c r="F164">
         <v>10.406000000000001</v>
       </c>
+      <c r="G164" s="2">
+        <v>7.8716439999999999E-2</v>
+      </c>
+      <c r="H164" s="6">
+        <v>0.36975694444444446</v>
+      </c>
     </row>
     <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165">
@@ -24492,6 +24600,12 @@
       <c r="F165">
         <v>9.5060000000000002</v>
       </c>
+      <c r="G165">
+        <v>7.20861E-2</v>
+      </c>
+      <c r="H165" s="6">
+        <v>0.37072916666666672</v>
+      </c>
     </row>
     <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166">
@@ -24512,6 +24626,12 @@
       <c r="F166">
         <v>8.5549999999999997</v>
       </c>
+      <c r="G166" s="2">
+        <v>4.2963089999999999E-3</v>
+      </c>
+      <c r="H166" s="6">
+        <v>0.37165509259259261</v>
+      </c>
     </row>
     <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167">
@@ -24529,6 +24649,12 @@
       <c r="E167" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G167" s="2">
+        <v>5.5631550000000002E-3</v>
+      </c>
+      <c r="H167" s="6">
+        <v>0.37266203703703704</v>
+      </c>
       <c r="I167" s="5">
         <v>0.39166666666666666</v>
       </c>
@@ -24549,6 +24675,12 @@
       <c r="E168" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G168" s="2">
+        <v>7.8528939999999992E-3</v>
+      </c>
+      <c r="H168" s="6">
+        <v>0.37344907407407407</v>
+      </c>
       <c r="I168" s="5">
         <v>0.39166666666666666</v>
       </c>
@@ -24572,6 +24704,12 @@
       <c r="F169">
         <v>4.3029999999999999</v>
       </c>
+      <c r="G169">
+        <v>0.1351242</v>
+      </c>
+      <c r="H169" s="6">
+        <v>0.35305555555555551</v>
+      </c>
     </row>
     <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170">
@@ -24592,6 +24730,12 @@
       <c r="F170">
         <v>6.8630000000000004</v>
       </c>
+      <c r="G170">
+        <v>8.2746299999999995E-2</v>
+      </c>
+      <c r="H170" s="6">
+        <v>0.35398148148148145</v>
+      </c>
     </row>
     <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171">
@@ -24612,6 +24756,12 @@
       <c r="F171">
         <v>6.3230000000000004</v>
       </c>
+      <c r="G171">
+        <v>1.1377660000000001</v>
+      </c>
+      <c r="H171" s="6">
+        <v>0.35478009259259258</v>
+      </c>
     </row>
     <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172">
@@ -24632,6 +24782,12 @@
       <c r="F172">
         <v>4.5469999999999997</v>
       </c>
+      <c r="G172">
+        <v>0.88034630000000003</v>
+      </c>
+      <c r="H172" s="6">
+        <v>0.35592592592592592</v>
+      </c>
     </row>
     <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173">
@@ -24651,6 +24807,12 @@
       </c>
       <c r="F173">
         <v>8.1479999999999997</v>
+      </c>
+      <c r="G173">
+        <v>0.15524309999999999</v>
+      </c>
+      <c r="H173" s="6">
+        <v>0.3571064814814815</v>
       </c>
     </row>
     <row r="174" spans="1:9" x14ac:dyDescent="0.25">
@@ -24672,6 +24834,12 @@
       <c r="F174">
         <v>6.75</v>
       </c>
+      <c r="G174">
+        <v>0.1162251</v>
+      </c>
+      <c r="H174" s="6">
+        <v>0.3581597222222222</v>
+      </c>
     </row>
     <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175">
@@ -24692,6 +24860,12 @@
       <c r="F175">
         <v>6.3090000000000002</v>
       </c>
+      <c r="G175" s="2">
+        <v>7.8589069999999997E-2</v>
+      </c>
+      <c r="H175" s="6">
+        <v>0.35908564814814814</v>
+      </c>
     </row>
     <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176">
@@ -24711,6 +24885,12 @@
       </c>
       <c r="F176">
         <v>5.7720000000000002</v>
+      </c>
+      <c r="G176" s="2">
+        <v>9.7212309999999996E-2</v>
+      </c>
+      <c r="H176" s="6">
+        <v>0.35998842592592589</v>
       </c>
     </row>
     <row r="177" spans="1:9" x14ac:dyDescent="0.25">
@@ -24732,6 +24912,12 @@
       <c r="F177">
         <v>6.2619999999999996</v>
       </c>
+      <c r="G177">
+        <v>0.1037739</v>
+      </c>
+      <c r="H177" s="6">
+        <v>0.36090277777777779</v>
+      </c>
     </row>
     <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178">
@@ -24752,6 +24938,12 @@
       <c r="F178">
         <v>7.6349999999999998</v>
       </c>
+      <c r="G178">
+        <v>0.11723210000000001</v>
+      </c>
+      <c r="H178" s="6">
+        <v>0.36190972222222223</v>
+      </c>
     </row>
     <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179">
@@ -24772,6 +24964,12 @@
       <c r="F179">
         <v>8.6310000000000002</v>
       </c>
+      <c r="G179">
+        <v>0.13299469999999999</v>
+      </c>
+      <c r="H179" s="6">
+        <v>0.3628703703703704</v>
+      </c>
     </row>
     <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180">
@@ -24792,6 +24990,12 @@
       <c r="F180">
         <v>4.1859999999999999</v>
       </c>
+      <c r="G180">
+        <v>0.10115449999999999</v>
+      </c>
+      <c r="H180" s="6">
+        <v>0.36379629629629634</v>
+      </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181">
@@ -24812,6 +25016,12 @@
       <c r="F181">
         <v>5.3979999999999997</v>
       </c>
+      <c r="G181">
+        <v>0.1002977</v>
+      </c>
+      <c r="H181" s="6">
+        <v>0.36479166666666668</v>
+      </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182">
@@ -24832,6 +25042,12 @@
       <c r="F182">
         <v>6.3019999999999996</v>
       </c>
+      <c r="G182" s="2">
+        <v>7.2454320000000003E-2</v>
+      </c>
+      <c r="H182" s="6">
+        <v>0.36579861111111112</v>
+      </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183">
@@ -24852,6 +25068,12 @@
       <c r="F183">
         <v>7.8109999999999999</v>
       </c>
+      <c r="G183" s="2">
+        <v>8.8227719999999996E-2</v>
+      </c>
+      <c r="H183" s="6">
+        <v>0.36686342592592597</v>
+      </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184">
@@ -24872,6 +25094,12 @@
       <c r="F184">
         <v>5.2149999999999999</v>
       </c>
+      <c r="G184" s="2">
+        <v>7.3262450000000007E-2</v>
+      </c>
+      <c r="H184" s="6">
+        <v>0.36774305555555559</v>
+      </c>
     </row>
     <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185">
@@ -24892,6 +25120,12 @@
       <c r="F185">
         <v>11.307</v>
       </c>
+      <c r="G185" s="2">
+        <v>9.7357310000000002E-2</v>
+      </c>
+      <c r="H185" s="6">
+        <v>0.36866898148148147</v>
+      </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186">
@@ -24912,6 +25146,12 @@
       <c r="F186">
         <v>4.8529999999999998</v>
       </c>
+      <c r="G186" s="2">
+        <v>8.8655860000000003E-2</v>
+      </c>
+      <c r="H186" s="6">
+        <v>0.36975694444444446</v>
+      </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187">
@@ -24932,6 +25172,12 @@
       <c r="F187">
         <v>8.6690000000000005</v>
       </c>
+      <c r="G187" s="2">
+        <v>7.8692230000000002E-2</v>
+      </c>
+      <c r="H187" s="6">
+        <v>0.37072916666666672</v>
+      </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188">
@@ -24952,6 +25198,12 @@
       <c r="F188">
         <v>4.47</v>
       </c>
+      <c r="G188" s="2">
+        <v>9.4004909999999997E-2</v>
+      </c>
+      <c r="H188" s="6">
+        <v>0.37165509259259261</v>
+      </c>
     </row>
     <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189">
@@ -24969,6 +25221,12 @@
       <c r="E189" s="1" t="s">
         <v>28</v>
       </c>
+      <c r="G189" s="2">
+        <v>7.1918210000000002E-3</v>
+      </c>
+      <c r="H189" s="6">
+        <v>0.37266203703703704</v>
+      </c>
     </row>
     <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190">
@@ -24985,6 +25243,12 @@
       </c>
       <c r="E190" s="1" t="s">
         <v>28</v>
+      </c>
+      <c r="G190" s="2">
+        <v>1.9418850000000001E-2</v>
+      </c>
+      <c r="H190" s="6">
+        <v>0.37344907407407407</v>
       </c>
       <c r="I190" s="5">
         <v>0.39513888888888887</v>

--- a/Data/2018-09-07_Hinal_diapause_determination.xlsx
+++ b/Data/2018-09-07_Hinal_diapause_determination.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hinalkharva\Desktop\Circadian_rhythm_runs_seasonal_timing\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E4F1111-EA85-4279-A121-B116116E3C87}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C07C768-5ADB-4B6D-8854-C6627D037176}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="465" windowWidth="41385" windowHeight="22320" activeTab="5" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
+    <workbookView xWindow="1380" yWindow="465" windowWidth="41385" windowHeight="22320" firstSheet="1" activeTab="1" xr2:uid="{E81CC0BB-4EEA-43A5-AF83-C9549B5E8958}"/>
   </bookViews>
   <sheets>
-    <sheet name="Day-6 pupae" sheetId="1" r:id="rId1"/>
-    <sheet name="Day8 pupae" sheetId="2" r:id="rId2"/>
-    <sheet name="Day15 pupae" sheetId="3" r:id="rId3"/>
-    <sheet name="Day20pupae" sheetId="4" r:id="rId4"/>
-    <sheet name="Day8 Pupae Haw" sheetId="5" r:id="rId5"/>
-    <sheet name="Day20pupae Haw" sheetId="6" r:id="rId6"/>
+    <sheet name="Day-6 Apple_pupae" sheetId="1" r:id="rId1"/>
+    <sheet name="Day8 Apple_pupae" sheetId="2" r:id="rId2"/>
+    <sheet name="Day15 Apple_pupae" sheetId="3" r:id="rId3"/>
+    <sheet name="Day20 apple_pupae" sheetId="4" r:id="rId4"/>
+    <sheet name="Day8 Haw_Pupae Haw" sheetId="5" r:id="rId5"/>
+    <sheet name="Day20 Haw_pupae" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="179021" calcMode="manual"/>
   <extLst>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2154" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2156" uniqueCount="34">
   <si>
     <t>N</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Purge time</t>
+  </si>
+  <si>
+    <t>organism</t>
+  </si>
+  <si>
+    <t>Brainmorpho</t>
   </si>
 </sst>
 </file>
@@ -2798,10 +2804,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8224BB1-B14B-4480-819C-764B2493183F}">
-  <dimension ref="A1:I438"/>
+  <dimension ref="A1:K438"/>
   <sheetViews>
-    <sheetView topLeftCell="A228" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2812,9 +2818,11 @@
     <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2842,8 +2850,14 @@
       <c r="I1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2869,7 +2883,7 @@
         <v>0.67569444444444438</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2892,7 +2906,7 @@
         <v>0.17190449999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2915,7 +2929,7 @@
         <v>0.101144</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2938,7 +2952,7 @@
         <v>0.2134008</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2961,7 +2975,7 @@
         <v>0.1134154</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2984,7 +2998,7 @@
         <v>0.63720359999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3007,7 +3021,7 @@
         <v>0.22218089999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3030,7 +3044,7 @@
         <v>0.19872329999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3053,7 +3067,7 @@
         <v>0.1790503</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3076,7 +3090,7 @@
         <v>1.356455</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3099,7 +3113,7 @@
         <v>0.19398000000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3122,7 +3136,7 @@
         <v>0.24277280000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3145,7 +3159,7 @@
         <v>0.1465205</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3168,7 +3182,7 @@
         <v>0.11774859999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8606,7 +8620,7 @@
   <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M22" sqref="M22"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9664,7 +9678,7 @@
   <dimension ref="A1:I301"/>
   <sheetViews>
     <sheetView topLeftCell="A191" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="K222" sqref="K222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20375,8 +20389,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84549420-5184-4EEB-9316-C08475C5D69E}">
   <dimension ref="A1:I190"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
-      <selection activeCell="N178" sqref="N178"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M192" sqref="M192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
